--- a/docs/samples/DIP_Excel_Template.xlsx
+++ b/docs/samples/DIP_Excel_Template.xlsx
@@ -253,21 +253,21 @@
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <t>unique identifier:
-A unique identifier for the dataset
+A unique identifier for the dataset. String limit is 100 characters.
 &lt;dcterms:identifier&gt;</t>
       </text>
     </comment>
     <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <t>title:
-The official title for the dataset
+The official title for the dataset. String limit is 255 characters.
 &lt;dcterms:title&gt;</t>
       </text>
     </comment>
     <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <t>description:
-An account of the resource.
+An account of the resource. Text limit is 4,000 characters.
 &lt;dcterms:description&gt;</t>
       </text>
     </comment>
@@ -351,7 +351,7 @@
     <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <t>primaryITInvestmentUII:
-For linking a dataset with an IT Unique Investment Identifier (UII).
+For linking a dataset with an IT Unique Investment Identifier (UII). Can have multiple comma separated values.
 &lt;usg:primaryITInvestmentUII&gt;</t>
       </text>
     </comment>

--- a/docs/samples/DIP_Excel_Template.xlsx
+++ b/docs/samples/DIP_Excel_Template.xlsx
@@ -813,14 +813,14 @@
     <comment ref="CC1" authorId="0" shapeId="0">
       <text>
         <t>recordTransmission:
-When the metadata record was transmitted.
+When the metadata record was transmitted. Must be a date.
 &lt;dhs:recordTransmission&gt;</t>
       </text>
     </comment>
     <comment ref="CD1" authorId="0" shapeId="0">
       <text>
         <t>validityTime:
-When the metadata record is valid.
+When the metadata record is valid. Must be in the form of a xsd Duration like P1Y or P3M
 &lt;dhs:validityTime&gt;</t>
       </text>
     </comment>
@@ -9908,7 +9908,7 @@
     <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2:H100 AV2:AV100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
+    <dataValidation sqref="H2:H100 AV2:AV100 CC2:CC100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
     <dataValidation sqref="F2:F100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;public restricted&quot; " type="list">
       <formula1>"public,non-public,public restricted"</formula1>
     </dataValidation>

--- a/docs/samples/DIP_Excel_Template.xlsx
+++ b/docs/samples/DIP_Excel_Template.xlsx
@@ -9909,8 +9909,8 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation sqref="H2:H100 AV2:AV100 CC2:CC100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
-    <dataValidation sqref="F2:F100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;public restricted&quot; " type="list">
-      <formula1>"public,non-public,public restricted"</formula1>
+    <dataValidation sqref="F2:F100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;restricted public&quot; " type="list">
+      <formula1>"public,non-public,restricted public"</formula1>
     </dataValidation>
     <dataValidation sqref="AA2:AA100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
       <formula1>101</formula1>

--- a/docs/samples/DIP_Excel_Template.xlsx
+++ b/docs/samples/DIP_Excel_Template.xlsx
@@ -1128,7 +1128,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FY22 Data Inventory Collection Instrument</t>
+          <t>FY22 Data Inventory Collection Instrument - Version 1.4</t>
         </is>
       </c>
     </row>
@@ -1142,14 +1142,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>These instructions are stored in the file instructions.md.</t>
+          <t>Detailed instructions, including field definitions, can be found at: https://usdhs.github.io/dcat-tool/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>For an actual data inventory, you would use instructions that are not in this repo.</t>
+          <t>Data can be submitted via upload or API using the DHS Mobius platform.</t>
         </is>
       </c>
     </row>

--- a/docs/samples/DIP_Excel_Template.xlsx
+++ b/docs/samples/DIP_Excel_Template.xlsx
@@ -295,7 +295,7 @@
     <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <t>metadataClassification:
-The classification level of the metadata.
+The classification level of the metadata. This should be 'public' for data catalog records that are reported to data.gov, and 'non-public' for data catalog records that are not reported.
 &lt;dhs:metadataClassification&gt;</t>
       </text>
     </comment>

--- a/docs/samples/DIP_Excel_Template.xlsx
+++ b/docs/samples/DIP_Excel_Template.xlsx
@@ -167,7 +167,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -9904,13 +9904,16 @@
       <c r="CD99" s="27" t="inlineStr"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <dataValidations count="5">
+    <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BY2:BY100 BZ2:BZ100 CA2:CA100 CB2:CB100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation sqref="H2:H100 AV2:AV100 CC2:CC100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
     <dataValidation sqref="F2:F100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;restricted public&quot; " type="list">
       <formula1>"public,non-public,restricted public"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot; or &quot;non-public&quot; " type="list">
+      <formula1>"public,non-public"</formula1>
     </dataValidation>
     <dataValidation sqref="AA2:AA100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
       <formula1>101</formula1>

--- a/docs/samples/DIP_Excel_Template.xlsx
+++ b/docs/samples/DIP_Excel_Template.xlsx
@@ -105,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -166,8 +166,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -294,9 +295,9 @@
     </comment>
     <comment ref="G1" authorId="0" shapeId="0">
       <text>
-        <t>metadataClassification:
+        <t>dataCatalogRecordAccessLevel:
 The classification level of the metadata. This should be 'public' for data catalog records that are reported to data.gov, and 'non-public' for data catalog records that are not reported.
-&lt;dhs:metadataClassification&gt;</t>
+&lt;dhs:dataCatalogRecordAccessLevel&gt;</t>
       </text>
     </comment>
     <comment ref="H1" authorId="0" shapeId="0">
@@ -658,170 +659,177 @@
     </comment>
     <comment ref="BG1" authorId="0" shapeId="0">
       <text>
-        <t>characteristics:
-Specific container to hold various data characteristics.
-&lt;dhs:characteristics&gt;</t>
+        <t>hostingLocation:
+Where the data physically reside.
+&lt;dhs:hostingLocation&gt;</t>
       </text>
     </comment>
     <comment ref="BH1" authorId="0" shapeId="0">
+      <text>
+        <t>hostedInCloud:
+If the dataset's location is in the cloud.
+&lt;dhs:hostedInCloud&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BI1" authorId="0" shapeId="0">
+      <text>
+        <t>easilyAccessibleByCreatingComponent:
+The information can be easily accessed by individuals within the component that created it.
+&lt;dhs:easilyAccessibleByCreatingComponent&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BJ1" authorId="0" shapeId="0">
+      <text>
+        <t>easilyAccessibleByAllComponents:
+The information can be easily accessed by individuals within all department component.
+&lt;dhs:easilyAccessibleByAllComponents&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BK1" authorId="0" shapeId="0">
+      <text>
+        <t>easilyAccessibleByGeneralPublic:
+The information can be easily accessed by the general public.
+&lt;dhs:easilyAccessibleByGeneralPublic&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BL1" authorId="0" shapeId="0">
+      <text>
+        <t>recordTransmission:
+When the metadata record was transmitted. Must be a date.
+&lt;dhs:recordTransmission&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BM1" authorId="0" shapeId="0">
+      <text>
+        <t>validityTime:
+When the metadata record is valid. Must be in the form of a xsd Duration like P1Y or P3M
+&lt;dhs:validityTime&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BN1" authorId="0" shapeId="0">
       <text>
         <t>ch-person-level:
 The dataset contains person-level records.
 &lt;dhs:ch-person-level&gt;</t>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0">
+    <comment ref="BO1" authorId="0" shapeId="0">
       <text>
         <t>ch-financial:
 The dataset contains financial information.
 &lt;dhs:ch-financial&gt;</t>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0">
+    <comment ref="BP1" authorId="0" shapeId="0">
       <text>
         <t>ch-event-records:
 The dataset contains information about events that are tagged with a specific place and time.
 &lt;dhs:ch-event-records&gt;</t>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0">
+    <comment ref="BQ1" authorId="0" shapeId="0">
       <text>
         <t>ch-faces:
 The dataset contains human faces.
 &lt;dhs:ch-faces&gt;</t>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0">
+    <comment ref="BR1" authorId="0" shapeId="0">
       <text>
         <t>ch-fingerprints:
 The dataset contains fingerprints.
 &lt;dhs:ch-fingerprints&gt;</t>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0" shapeId="0">
       <text>
         <t>ch-cui:
 The dataset contains controlled unclassified information.
 &lt;dhs:ch-cui&gt;</t>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0" shapeId="0">
+    <comment ref="BT1" authorId="0" shapeId="0">
       <text>
         <t>ch-phi:
 The dataset contains protected health information.
 &lt;dhs:ch-phi&gt;</t>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0" shapeId="0">
+    <comment ref="BU1" authorId="0" shapeId="0">
       <text>
         <t>ch-pii:
 The dataset contains personally identifiable information under the controlling legal definition of PII.
 &lt;dhs:ch-pii&gt;</t>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0">
+    <comment ref="BV1" authorId="0" shapeId="0">
       <text>
         <t>ch-geospatial:
 The dataset contains geospatial information.
 &lt;dhs:ch-geospatial&gt;</t>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BW1" authorId="0" shapeId="0">
       <text>
         <t>ch-environmental:
 The dataset contains environmental information.
 &lt;dhs:ch-environmental&gt;</t>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
+    <comment ref="BX1" authorId="0" shapeId="0">
       <text>
         <t>ch-fisa:
 The dataset contains information pretaining to the Foreign Intelligence Surveillance Act (FISA).
 &lt;dhs:ch-fisa&gt;</t>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0">
+    <comment ref="BY1" authorId="0" shapeId="0">
       <text>
         <t>ch-8usc1367:
 The dataset contains 8 USC 1367.
 &lt;dhs:ch-8usc1367&gt;</t>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0" shapeId="0">
+    <comment ref="BZ1" authorId="0" shapeId="0">
       <text>
         <t>ch-propin:
 The dataset contains proprietary commercial information.
 &lt;dhs:ch-propin&gt;</t>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0" shapeId="0">
       <text>
         <t>ch-immigration:
 The dataset contains information pertaining to immigration.
 &lt;dhs:ch-immigration&gt;</t>
       </text>
     </comment>
-    <comment ref="BV1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0" shapeId="0">
       <text>
         <t>ch-criticalInfrastructure:
 The dataset contains critical infrastructure information.
 &lt;dhs:ch-criticalInfrastructure&gt;</t>
       </text>
     </comment>
-    <comment ref="BW1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-pcii:
+The dataset contains Protected Critical Infrastructure Information (PCII).
+&lt;dhs:ch-pcii&gt;</t>
+      </text>
+    </comment>
+    <comment ref="CD1" authorId="0" shapeId="0">
       <text>
         <t>ch-disseminationRestrictions:
 The information has dissemination restrictions.
 &lt;dhs:ch-disseminationRestrictions&gt;</t>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0">
+    <comment ref="CE1" authorId="0" shapeId="0">
       <text>
-        <t>hostingLocation:
-Where the data physically reside.
-&lt;dhs:hostingLocation&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BY1" authorId="0" shapeId="0">
-      <text>
-        <t>hostedInCloud:
-If the dataset's location is in the cloud.
-&lt;dhs:hostedInCloud&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
-      <text>
-        <t>easilyAccessibleByCreatingComponent:
-The information can be easily accessed by individuals within the component that created it.
-&lt;dhs:easilyAccessibleByCreatingComponent&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
-      <text>
-        <t>easilyAccessibleByAllComponents:
-The information can be easily accessed by individuals within all department component.
-&lt;dhs:easilyAccessibleByAllComponents&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
-      <text>
-        <t>easilyAccessibleByGeneralPublic:
-The information can be easily accessed by the general public.
-&lt;dhs:easilyAccessibleByGeneralPublic&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
-      <text>
-        <t>recordTransmission:
-When the metadata record was transmitted. Must be a date.
-&lt;dhs:recordTransmission&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CD1" authorId="0" shapeId="0">
-      <text>
-        <t>validityTime:
-When the metadata record is valid. Must be in the form of a xsd Duration like P1Y or P3M
-&lt;dhs:validityTime&gt;</t>
+        <t>ch-biometrics:
+The dataset contains biometric information.
+&lt;dhs:ch-biometrics&gt;</t>
       </text>
     </comment>
   </commentList>
@@ -1128,7 +1136,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FY22 Data Inventory Collection Instrument - Version 1.4</t>
+          <t>FY22 Data Inventory Collection Instrument - Version 1.5</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD99"/>
+  <dimension ref="A1:CE99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,6 +1265,7 @@
     <col width="15" customWidth="1" min="80" max="80"/>
     <col width="15" customWidth="1" min="81" max="81"/>
     <col width="15" customWidth="1" min="82" max="82"/>
+    <col width="15" customWidth="1" min="83" max="83"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1292,7 +1301,7 @@
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>metadataClassification</t>
+          <t>dataCatalogRecordAccessLevel</t>
         </is>
       </c>
       <c r="H1" s="3" t="inlineStr">
@@ -1550,124 +1559,129 @@
           <t>datasetClassification</t>
         </is>
       </c>
-      <c r="BG1" s="9" t="inlineStr">
+      <c r="BG1" s="10" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>hostingLocation</t>
         </is>
       </c>
-      <c r="BH1" s="9" t="inlineStr">
+      <c r="BH1" s="15" t="inlineStr">
+        <is>
+          <t>hostedInCloud</t>
+        </is>
+      </c>
+      <c r="BI1" s="15" t="inlineStr">
+        <is>
+          <t>easilyAccessibleByCreatingComponent</t>
+        </is>
+      </c>
+      <c r="BJ1" s="15" t="inlineStr">
+        <is>
+          <t>easilyAccessibleByAllComponents</t>
+        </is>
+      </c>
+      <c r="BK1" s="15" t="inlineStr">
+        <is>
+          <t>easilyAccessibleByGeneralPublic</t>
+        </is>
+      </c>
+      <c r="BL1" s="11" t="inlineStr">
+        <is>
+          <t>recordTransmission</t>
+        </is>
+      </c>
+      <c r="BM1" s="12" t="inlineStr">
+        <is>
+          <t>validityTime</t>
+        </is>
+      </c>
+      <c r="BN1" s="13" t="inlineStr">
         <is>
           <t>ch-person-level</t>
         </is>
       </c>
-      <c r="BI1" s="9" t="inlineStr">
+      <c r="BO1" s="14" t="inlineStr">
         <is>
           <t>ch-financial</t>
         </is>
       </c>
-      <c r="BJ1" s="9" t="inlineStr">
+      <c r="BP1" s="14" t="inlineStr">
         <is>
           <t>ch-event-records</t>
         </is>
       </c>
-      <c r="BK1" s="9" t="inlineStr">
+      <c r="BQ1" s="14" t="inlineStr">
         <is>
           <t>ch-faces</t>
         </is>
       </c>
-      <c r="BL1" s="9" t="inlineStr">
+      <c r="BR1" s="14" t="inlineStr">
         <is>
           <t>ch-fingerprints</t>
         </is>
       </c>
-      <c r="BM1" s="9" t="inlineStr">
+      <c r="BS1" s="14" t="inlineStr">
         <is>
           <t>ch-cui</t>
         </is>
       </c>
-      <c r="BN1" s="9" t="inlineStr">
+      <c r="BT1" s="14" t="inlineStr">
         <is>
           <t>ch-phi</t>
         </is>
       </c>
-      <c r="BO1" s="9" t="inlineStr">
+      <c r="BU1" s="14" t="inlineStr">
         <is>
           <t>ch-pii</t>
         </is>
       </c>
-      <c r="BP1" s="9" t="inlineStr">
+      <c r="BV1" s="14" t="inlineStr">
         <is>
           <t>ch-geospatial</t>
         </is>
       </c>
-      <c r="BQ1" s="9" t="inlineStr">
+      <c r="BW1" s="14" t="inlineStr">
         <is>
           <t>ch-environmental</t>
         </is>
       </c>
-      <c r="BR1" s="9" t="inlineStr">
+      <c r="BX1" s="14" t="inlineStr">
         <is>
           <t>ch-fisa</t>
         </is>
       </c>
-      <c r="BS1" s="9" t="inlineStr">
+      <c r="BY1" s="14" t="inlineStr">
         <is>
           <t>ch-8usc1367</t>
         </is>
       </c>
-      <c r="BT1" s="9" t="inlineStr">
+      <c r="BZ1" s="14" t="inlineStr">
         <is>
           <t>ch-propin</t>
         </is>
       </c>
-      <c r="BU1" s="9" t="inlineStr">
+      <c r="CA1" s="14" t="inlineStr">
         <is>
           <t>ch-immigration</t>
         </is>
       </c>
-      <c r="BV1" s="9" t="inlineStr">
+      <c r="CB1" s="14" t="inlineStr">
         <is>
           <t>ch-criticalInfrastructure</t>
         </is>
       </c>
-      <c r="BW1" s="9" t="inlineStr">
+      <c r="CC1" s="14" t="inlineStr">
+        <is>
+          <t>ch-pcii</t>
+        </is>
+      </c>
+      <c r="CD1" s="14" t="inlineStr">
         <is>
           <t>ch-disseminationRestrictions</t>
         </is>
       </c>
-      <c r="BX1" s="10" t="inlineStr">
+      <c r="CE1" s="14" t="inlineStr">
         <is>
-          <t>hostingLocation</t>
-        </is>
-      </c>
-      <c r="BY1" s="15" t="inlineStr">
-        <is>
-          <t>hostedInCloud</t>
-        </is>
-      </c>
-      <c r="BZ1" s="15" t="inlineStr">
-        <is>
-          <t>easilyAccessibleByCreatingComponent</t>
-        </is>
-      </c>
-      <c r="CA1" s="15" t="inlineStr">
-        <is>
-          <t>easilyAccessibleByAllComponents</t>
-        </is>
-      </c>
-      <c r="CB1" s="15" t="inlineStr">
-        <is>
-          <t>easilyAccessibleByGeneralPublic</t>
-        </is>
-      </c>
-      <c r="CC1" s="11" t="inlineStr">
-        <is>
-          <t>recordTransmission</t>
-        </is>
-      </c>
-      <c r="CD1" s="12" t="inlineStr">
-        <is>
-          <t>validityTime</t>
+          <t>ch-biometrics</t>
         </is>
       </c>
     </row>
@@ -1730,30 +1744,31 @@
       <c r="BD2" s="21" t="inlineStr"/>
       <c r="BE2" s="21" t="inlineStr"/>
       <c r="BF2" s="23" t="inlineStr"/>
-      <c r="BG2" s="24" t="inlineStr"/>
+      <c r="BG2" s="25" t="inlineStr"/>
       <c r="BH2" s="32" t="inlineStr"/>
       <c r="BI2" s="32" t="inlineStr"/>
       <c r="BJ2" s="32" t="inlineStr"/>
       <c r="BK2" s="32" t="inlineStr"/>
-      <c r="BL2" s="32" t="inlineStr"/>
-      <c r="BM2" s="32" t="inlineStr"/>
-      <c r="BN2" s="32" t="inlineStr"/>
-      <c r="BO2" s="32" t="inlineStr"/>
-      <c r="BP2" s="32" t="inlineStr"/>
-      <c r="BQ2" s="32" t="inlineStr"/>
-      <c r="BR2" s="32" t="inlineStr"/>
-      <c r="BS2" s="32" t="inlineStr"/>
-      <c r="BT2" s="32" t="inlineStr"/>
-      <c r="BU2" s="32" t="inlineStr"/>
-      <c r="BV2" s="32" t="inlineStr"/>
-      <c r="BW2" s="32" t="inlineStr"/>
-      <c r="BX2" s="25" t="inlineStr"/>
-      <c r="BY2" s="33" t="inlineStr"/>
-      <c r="BZ2" s="33" t="inlineStr"/>
-      <c r="CA2" s="33" t="inlineStr"/>
-      <c r="CB2" s="33" t="inlineStr"/>
-      <c r="CC2" s="26" t="inlineStr"/>
-      <c r="CD2" s="27" t="inlineStr"/>
+      <c r="BL2" s="26" t="inlineStr"/>
+      <c r="BM2" s="27" t="inlineStr"/>
+      <c r="BN2" s="33" t="inlineStr"/>
+      <c r="BO2" s="34" t="inlineStr"/>
+      <c r="BP2" s="34" t="inlineStr"/>
+      <c r="BQ2" s="34" t="inlineStr"/>
+      <c r="BR2" s="34" t="inlineStr"/>
+      <c r="BS2" s="34" t="inlineStr"/>
+      <c r="BT2" s="34" t="inlineStr"/>
+      <c r="BU2" s="34" t="inlineStr"/>
+      <c r="BV2" s="34" t="inlineStr"/>
+      <c r="BW2" s="34" t="inlineStr"/>
+      <c r="BX2" s="34" t="inlineStr"/>
+      <c r="BY2" s="34" t="inlineStr"/>
+      <c r="BZ2" s="34" t="inlineStr"/>
+      <c r="CA2" s="34" t="inlineStr"/>
+      <c r="CB2" s="34" t="inlineStr"/>
+      <c r="CC2" s="34" t="inlineStr"/>
+      <c r="CD2" s="34" t="inlineStr"/>
+      <c r="CE2" s="34" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="inlineStr"/>
@@ -1814,30 +1829,31 @@
       <c r="BD3" s="21" t="inlineStr"/>
       <c r="BE3" s="21" t="inlineStr"/>
       <c r="BF3" s="23" t="inlineStr"/>
-      <c r="BG3" s="24" t="inlineStr"/>
+      <c r="BG3" s="25" t="inlineStr"/>
       <c r="BH3" s="32" t="inlineStr"/>
       <c r="BI3" s="32" t="inlineStr"/>
       <c r="BJ3" s="32" t="inlineStr"/>
       <c r="BK3" s="32" t="inlineStr"/>
-      <c r="BL3" s="32" t="inlineStr"/>
-      <c r="BM3" s="32" t="inlineStr"/>
-      <c r="BN3" s="32" t="inlineStr"/>
-      <c r="BO3" s="32" t="inlineStr"/>
-      <c r="BP3" s="32" t="inlineStr"/>
-      <c r="BQ3" s="32" t="inlineStr"/>
-      <c r="BR3" s="32" t="inlineStr"/>
-      <c r="BS3" s="32" t="inlineStr"/>
-      <c r="BT3" s="32" t="inlineStr"/>
-      <c r="BU3" s="32" t="inlineStr"/>
-      <c r="BV3" s="32" t="inlineStr"/>
-      <c r="BW3" s="32" t="inlineStr"/>
-      <c r="BX3" s="25" t="inlineStr"/>
-      <c r="BY3" s="33" t="inlineStr"/>
-      <c r="BZ3" s="33" t="inlineStr"/>
-      <c r="CA3" s="33" t="inlineStr"/>
-      <c r="CB3" s="33" t="inlineStr"/>
-      <c r="CC3" s="26" t="inlineStr"/>
-      <c r="CD3" s="27" t="inlineStr"/>
+      <c r="BL3" s="26" t="inlineStr"/>
+      <c r="BM3" s="27" t="inlineStr"/>
+      <c r="BN3" s="33" t="inlineStr"/>
+      <c r="BO3" s="34" t="inlineStr"/>
+      <c r="BP3" s="34" t="inlineStr"/>
+      <c r="BQ3" s="34" t="inlineStr"/>
+      <c r="BR3" s="34" t="inlineStr"/>
+      <c r="BS3" s="34" t="inlineStr"/>
+      <c r="BT3" s="34" t="inlineStr"/>
+      <c r="BU3" s="34" t="inlineStr"/>
+      <c r="BV3" s="34" t="inlineStr"/>
+      <c r="BW3" s="34" t="inlineStr"/>
+      <c r="BX3" s="34" t="inlineStr"/>
+      <c r="BY3" s="34" t="inlineStr"/>
+      <c r="BZ3" s="34" t="inlineStr"/>
+      <c r="CA3" s="34" t="inlineStr"/>
+      <c r="CB3" s="34" t="inlineStr"/>
+      <c r="CC3" s="34" t="inlineStr"/>
+      <c r="CD3" s="34" t="inlineStr"/>
+      <c r="CE3" s="34" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="inlineStr"/>
@@ -1898,30 +1914,31 @@
       <c r="BD4" s="21" t="inlineStr"/>
       <c r="BE4" s="21" t="inlineStr"/>
       <c r="BF4" s="23" t="inlineStr"/>
-      <c r="BG4" s="24" t="inlineStr"/>
+      <c r="BG4" s="25" t="inlineStr"/>
       <c r="BH4" s="32" t="inlineStr"/>
       <c r="BI4" s="32" t="inlineStr"/>
       <c r="BJ4" s="32" t="inlineStr"/>
       <c r="BK4" s="32" t="inlineStr"/>
-      <c r="BL4" s="32" t="inlineStr"/>
-      <c r="BM4" s="32" t="inlineStr"/>
-      <c r="BN4" s="32" t="inlineStr"/>
-      <c r="BO4" s="32" t="inlineStr"/>
-      <c r="BP4" s="32" t="inlineStr"/>
-      <c r="BQ4" s="32" t="inlineStr"/>
-      <c r="BR4" s="32" t="inlineStr"/>
-      <c r="BS4" s="32" t="inlineStr"/>
-      <c r="BT4" s="32" t="inlineStr"/>
-      <c r="BU4" s="32" t="inlineStr"/>
-      <c r="BV4" s="32" t="inlineStr"/>
-      <c r="BW4" s="32" t="inlineStr"/>
-      <c r="BX4" s="25" t="inlineStr"/>
-      <c r="BY4" s="33" t="inlineStr"/>
-      <c r="BZ4" s="33" t="inlineStr"/>
-      <c r="CA4" s="33" t="inlineStr"/>
-      <c r="CB4" s="33" t="inlineStr"/>
-      <c r="CC4" s="26" t="inlineStr"/>
-      <c r="CD4" s="27" t="inlineStr"/>
+      <c r="BL4" s="26" t="inlineStr"/>
+      <c r="BM4" s="27" t="inlineStr"/>
+      <c r="BN4" s="33" t="inlineStr"/>
+      <c r="BO4" s="34" t="inlineStr"/>
+      <c r="BP4" s="34" t="inlineStr"/>
+      <c r="BQ4" s="34" t="inlineStr"/>
+      <c r="BR4" s="34" t="inlineStr"/>
+      <c r="BS4" s="34" t="inlineStr"/>
+      <c r="BT4" s="34" t="inlineStr"/>
+      <c r="BU4" s="34" t="inlineStr"/>
+      <c r="BV4" s="34" t="inlineStr"/>
+      <c r="BW4" s="34" t="inlineStr"/>
+      <c r="BX4" s="34" t="inlineStr"/>
+      <c r="BY4" s="34" t="inlineStr"/>
+      <c r="BZ4" s="34" t="inlineStr"/>
+      <c r="CA4" s="34" t="inlineStr"/>
+      <c r="CB4" s="34" t="inlineStr"/>
+      <c r="CC4" s="34" t="inlineStr"/>
+      <c r="CD4" s="34" t="inlineStr"/>
+      <c r="CE4" s="34" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="inlineStr"/>
@@ -1982,30 +1999,31 @@
       <c r="BD5" s="21" t="inlineStr"/>
       <c r="BE5" s="21" t="inlineStr"/>
       <c r="BF5" s="23" t="inlineStr"/>
-      <c r="BG5" s="24" t="inlineStr"/>
+      <c r="BG5" s="25" t="inlineStr"/>
       <c r="BH5" s="32" t="inlineStr"/>
       <c r="BI5" s="32" t="inlineStr"/>
       <c r="BJ5" s="32" t="inlineStr"/>
       <c r="BK5" s="32" t="inlineStr"/>
-      <c r="BL5" s="32" t="inlineStr"/>
-      <c r="BM5" s="32" t="inlineStr"/>
-      <c r="BN5" s="32" t="inlineStr"/>
-      <c r="BO5" s="32" t="inlineStr"/>
-      <c r="BP5" s="32" t="inlineStr"/>
-      <c r="BQ5" s="32" t="inlineStr"/>
-      <c r="BR5" s="32" t="inlineStr"/>
-      <c r="BS5" s="32" t="inlineStr"/>
-      <c r="BT5" s="32" t="inlineStr"/>
-      <c r="BU5" s="32" t="inlineStr"/>
-      <c r="BV5" s="32" t="inlineStr"/>
-      <c r="BW5" s="32" t="inlineStr"/>
-      <c r="BX5" s="25" t="inlineStr"/>
-      <c r="BY5" s="33" t="inlineStr"/>
-      <c r="BZ5" s="33" t="inlineStr"/>
-      <c r="CA5" s="33" t="inlineStr"/>
-      <c r="CB5" s="33" t="inlineStr"/>
-      <c r="CC5" s="26" t="inlineStr"/>
-      <c r="CD5" s="27" t="inlineStr"/>
+      <c r="BL5" s="26" t="inlineStr"/>
+      <c r="BM5" s="27" t="inlineStr"/>
+      <c r="BN5" s="33" t="inlineStr"/>
+      <c r="BO5" s="34" t="inlineStr"/>
+      <c r="BP5" s="34" t="inlineStr"/>
+      <c r="BQ5" s="34" t="inlineStr"/>
+      <c r="BR5" s="34" t="inlineStr"/>
+      <c r="BS5" s="34" t="inlineStr"/>
+      <c r="BT5" s="34" t="inlineStr"/>
+      <c r="BU5" s="34" t="inlineStr"/>
+      <c r="BV5" s="34" t="inlineStr"/>
+      <c r="BW5" s="34" t="inlineStr"/>
+      <c r="BX5" s="34" t="inlineStr"/>
+      <c r="BY5" s="34" t="inlineStr"/>
+      <c r="BZ5" s="34" t="inlineStr"/>
+      <c r="CA5" s="34" t="inlineStr"/>
+      <c r="CB5" s="34" t="inlineStr"/>
+      <c r="CC5" s="34" t="inlineStr"/>
+      <c r="CD5" s="34" t="inlineStr"/>
+      <c r="CE5" s="34" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr"/>
@@ -2066,30 +2084,31 @@
       <c r="BD6" s="21" t="inlineStr"/>
       <c r="BE6" s="21" t="inlineStr"/>
       <c r="BF6" s="23" t="inlineStr"/>
-      <c r="BG6" s="24" t="inlineStr"/>
+      <c r="BG6" s="25" t="inlineStr"/>
       <c r="BH6" s="32" t="inlineStr"/>
       <c r="BI6" s="32" t="inlineStr"/>
       <c r="BJ6" s="32" t="inlineStr"/>
       <c r="BK6" s="32" t="inlineStr"/>
-      <c r="BL6" s="32" t="inlineStr"/>
-      <c r="BM6" s="32" t="inlineStr"/>
-      <c r="BN6" s="32" t="inlineStr"/>
-      <c r="BO6" s="32" t="inlineStr"/>
-      <c r="BP6" s="32" t="inlineStr"/>
-      <c r="BQ6" s="32" t="inlineStr"/>
-      <c r="BR6" s="32" t="inlineStr"/>
-      <c r="BS6" s="32" t="inlineStr"/>
-      <c r="BT6" s="32" t="inlineStr"/>
-      <c r="BU6" s="32" t="inlineStr"/>
-      <c r="BV6" s="32" t="inlineStr"/>
-      <c r="BW6" s="32" t="inlineStr"/>
-      <c r="BX6" s="25" t="inlineStr"/>
-      <c r="BY6" s="33" t="inlineStr"/>
-      <c r="BZ6" s="33" t="inlineStr"/>
-      <c r="CA6" s="33" t="inlineStr"/>
-      <c r="CB6" s="33" t="inlineStr"/>
-      <c r="CC6" s="26" t="inlineStr"/>
-      <c r="CD6" s="27" t="inlineStr"/>
+      <c r="BL6" s="26" t="inlineStr"/>
+      <c r="BM6" s="27" t="inlineStr"/>
+      <c r="BN6" s="33" t="inlineStr"/>
+      <c r="BO6" s="34" t="inlineStr"/>
+      <c r="BP6" s="34" t="inlineStr"/>
+      <c r="BQ6" s="34" t="inlineStr"/>
+      <c r="BR6" s="34" t="inlineStr"/>
+      <c r="BS6" s="34" t="inlineStr"/>
+      <c r="BT6" s="34" t="inlineStr"/>
+      <c r="BU6" s="34" t="inlineStr"/>
+      <c r="BV6" s="34" t="inlineStr"/>
+      <c r="BW6" s="34" t="inlineStr"/>
+      <c r="BX6" s="34" t="inlineStr"/>
+      <c r="BY6" s="34" t="inlineStr"/>
+      <c r="BZ6" s="34" t="inlineStr"/>
+      <c r="CA6" s="34" t="inlineStr"/>
+      <c r="CB6" s="34" t="inlineStr"/>
+      <c r="CC6" s="34" t="inlineStr"/>
+      <c r="CD6" s="34" t="inlineStr"/>
+      <c r="CE6" s="34" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="inlineStr"/>
@@ -2150,30 +2169,31 @@
       <c r="BD7" s="21" t="inlineStr"/>
       <c r="BE7" s="21" t="inlineStr"/>
       <c r="BF7" s="23" t="inlineStr"/>
-      <c r="BG7" s="24" t="inlineStr"/>
+      <c r="BG7" s="25" t="inlineStr"/>
       <c r="BH7" s="32" t="inlineStr"/>
       <c r="BI7" s="32" t="inlineStr"/>
       <c r="BJ7" s="32" t="inlineStr"/>
       <c r="BK7" s="32" t="inlineStr"/>
-      <c r="BL7" s="32" t="inlineStr"/>
-      <c r="BM7" s="32" t="inlineStr"/>
-      <c r="BN7" s="32" t="inlineStr"/>
-      <c r="BO7" s="32" t="inlineStr"/>
-      <c r="BP7" s="32" t="inlineStr"/>
-      <c r="BQ7" s="32" t="inlineStr"/>
-      <c r="BR7" s="32" t="inlineStr"/>
-      <c r="BS7" s="32" t="inlineStr"/>
-      <c r="BT7" s="32" t="inlineStr"/>
-      <c r="BU7" s="32" t="inlineStr"/>
-      <c r="BV7" s="32" t="inlineStr"/>
-      <c r="BW7" s="32" t="inlineStr"/>
-      <c r="BX7" s="25" t="inlineStr"/>
-      <c r="BY7" s="33" t="inlineStr"/>
-      <c r="BZ7" s="33" t="inlineStr"/>
-      <c r="CA7" s="33" t="inlineStr"/>
-      <c r="CB7" s="33" t="inlineStr"/>
-      <c r="CC7" s="26" t="inlineStr"/>
-      <c r="CD7" s="27" t="inlineStr"/>
+      <c r="BL7" s="26" t="inlineStr"/>
+      <c r="BM7" s="27" t="inlineStr"/>
+      <c r="BN7" s="33" t="inlineStr"/>
+      <c r="BO7" s="34" t="inlineStr"/>
+      <c r="BP7" s="34" t="inlineStr"/>
+      <c r="BQ7" s="34" t="inlineStr"/>
+      <c r="BR7" s="34" t="inlineStr"/>
+      <c r="BS7" s="34" t="inlineStr"/>
+      <c r="BT7" s="34" t="inlineStr"/>
+      <c r="BU7" s="34" t="inlineStr"/>
+      <c r="BV7" s="34" t="inlineStr"/>
+      <c r="BW7" s="34" t="inlineStr"/>
+      <c r="BX7" s="34" t="inlineStr"/>
+      <c r="BY7" s="34" t="inlineStr"/>
+      <c r="BZ7" s="34" t="inlineStr"/>
+      <c r="CA7" s="34" t="inlineStr"/>
+      <c r="CB7" s="34" t="inlineStr"/>
+      <c r="CC7" s="34" t="inlineStr"/>
+      <c r="CD7" s="34" t="inlineStr"/>
+      <c r="CE7" s="34" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr"/>
@@ -2234,30 +2254,31 @@
       <c r="BD8" s="21" t="inlineStr"/>
       <c r="BE8" s="21" t="inlineStr"/>
       <c r="BF8" s="23" t="inlineStr"/>
-      <c r="BG8" s="24" t="inlineStr"/>
+      <c r="BG8" s="25" t="inlineStr"/>
       <c r="BH8" s="32" t="inlineStr"/>
       <c r="BI8" s="32" t="inlineStr"/>
       <c r="BJ8" s="32" t="inlineStr"/>
       <c r="BK8" s="32" t="inlineStr"/>
-      <c r="BL8" s="32" t="inlineStr"/>
-      <c r="BM8" s="32" t="inlineStr"/>
-      <c r="BN8" s="32" t="inlineStr"/>
-      <c r="BO8" s="32" t="inlineStr"/>
-      <c r="BP8" s="32" t="inlineStr"/>
-      <c r="BQ8" s="32" t="inlineStr"/>
-      <c r="BR8" s="32" t="inlineStr"/>
-      <c r="BS8" s="32" t="inlineStr"/>
-      <c r="BT8" s="32" t="inlineStr"/>
-      <c r="BU8" s="32" t="inlineStr"/>
-      <c r="BV8" s="32" t="inlineStr"/>
-      <c r="BW8" s="32" t="inlineStr"/>
-      <c r="BX8" s="25" t="inlineStr"/>
-      <c r="BY8" s="33" t="inlineStr"/>
-      <c r="BZ8" s="33" t="inlineStr"/>
-      <c r="CA8" s="33" t="inlineStr"/>
-      <c r="CB8" s="33" t="inlineStr"/>
-      <c r="CC8" s="26" t="inlineStr"/>
-      <c r="CD8" s="27" t="inlineStr"/>
+      <c r="BL8" s="26" t="inlineStr"/>
+      <c r="BM8" s="27" t="inlineStr"/>
+      <c r="BN8" s="33" t="inlineStr"/>
+      <c r="BO8" s="34" t="inlineStr"/>
+      <c r="BP8" s="34" t="inlineStr"/>
+      <c r="BQ8" s="34" t="inlineStr"/>
+      <c r="BR8" s="34" t="inlineStr"/>
+      <c r="BS8" s="34" t="inlineStr"/>
+      <c r="BT8" s="34" t="inlineStr"/>
+      <c r="BU8" s="34" t="inlineStr"/>
+      <c r="BV8" s="34" t="inlineStr"/>
+      <c r="BW8" s="34" t="inlineStr"/>
+      <c r="BX8" s="34" t="inlineStr"/>
+      <c r="BY8" s="34" t="inlineStr"/>
+      <c r="BZ8" s="34" t="inlineStr"/>
+      <c r="CA8" s="34" t="inlineStr"/>
+      <c r="CB8" s="34" t="inlineStr"/>
+      <c r="CC8" s="34" t="inlineStr"/>
+      <c r="CD8" s="34" t="inlineStr"/>
+      <c r="CE8" s="34" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="16" t="inlineStr"/>
@@ -2318,30 +2339,31 @@
       <c r="BD9" s="21" t="inlineStr"/>
       <c r="BE9" s="21" t="inlineStr"/>
       <c r="BF9" s="23" t="inlineStr"/>
-      <c r="BG9" s="24" t="inlineStr"/>
+      <c r="BG9" s="25" t="inlineStr"/>
       <c r="BH9" s="32" t="inlineStr"/>
       <c r="BI9" s="32" t="inlineStr"/>
       <c r="BJ9" s="32" t="inlineStr"/>
       <c r="BK9" s="32" t="inlineStr"/>
-      <c r="BL9" s="32" t="inlineStr"/>
-      <c r="BM9" s="32" t="inlineStr"/>
-      <c r="BN9" s="32" t="inlineStr"/>
-      <c r="BO9" s="32" t="inlineStr"/>
-      <c r="BP9" s="32" t="inlineStr"/>
-      <c r="BQ9" s="32" t="inlineStr"/>
-      <c r="BR9" s="32" t="inlineStr"/>
-      <c r="BS9" s="32" t="inlineStr"/>
-      <c r="BT9" s="32" t="inlineStr"/>
-      <c r="BU9" s="32" t="inlineStr"/>
-      <c r="BV9" s="32" t="inlineStr"/>
-      <c r="BW9" s="32" t="inlineStr"/>
-      <c r="BX9" s="25" t="inlineStr"/>
-      <c r="BY9" s="33" t="inlineStr"/>
-      <c r="BZ9" s="33" t="inlineStr"/>
-      <c r="CA9" s="33" t="inlineStr"/>
-      <c r="CB9" s="33" t="inlineStr"/>
-      <c r="CC9" s="26" t="inlineStr"/>
-      <c r="CD9" s="27" t="inlineStr"/>
+      <c r="BL9" s="26" t="inlineStr"/>
+      <c r="BM9" s="27" t="inlineStr"/>
+      <c r="BN9" s="33" t="inlineStr"/>
+      <c r="BO9" s="34" t="inlineStr"/>
+      <c r="BP9" s="34" t="inlineStr"/>
+      <c r="BQ9" s="34" t="inlineStr"/>
+      <c r="BR9" s="34" t="inlineStr"/>
+      <c r="BS9" s="34" t="inlineStr"/>
+      <c r="BT9" s="34" t="inlineStr"/>
+      <c r="BU9" s="34" t="inlineStr"/>
+      <c r="BV9" s="34" t="inlineStr"/>
+      <c r="BW9" s="34" t="inlineStr"/>
+      <c r="BX9" s="34" t="inlineStr"/>
+      <c r="BY9" s="34" t="inlineStr"/>
+      <c r="BZ9" s="34" t="inlineStr"/>
+      <c r="CA9" s="34" t="inlineStr"/>
+      <c r="CB9" s="34" t="inlineStr"/>
+      <c r="CC9" s="34" t="inlineStr"/>
+      <c r="CD9" s="34" t="inlineStr"/>
+      <c r="CE9" s="34" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr"/>
@@ -2402,30 +2424,31 @@
       <c r="BD10" s="21" t="inlineStr"/>
       <c r="BE10" s="21" t="inlineStr"/>
       <c r="BF10" s="23" t="inlineStr"/>
-      <c r="BG10" s="24" t="inlineStr"/>
+      <c r="BG10" s="25" t="inlineStr"/>
       <c r="BH10" s="32" t="inlineStr"/>
       <c r="BI10" s="32" t="inlineStr"/>
       <c r="BJ10" s="32" t="inlineStr"/>
       <c r="BK10" s="32" t="inlineStr"/>
-      <c r="BL10" s="32" t="inlineStr"/>
-      <c r="BM10" s="32" t="inlineStr"/>
-      <c r="BN10" s="32" t="inlineStr"/>
-      <c r="BO10" s="32" t="inlineStr"/>
-      <c r="BP10" s="32" t="inlineStr"/>
-      <c r="BQ10" s="32" t="inlineStr"/>
-      <c r="BR10" s="32" t="inlineStr"/>
-      <c r="BS10" s="32" t="inlineStr"/>
-      <c r="BT10" s="32" t="inlineStr"/>
-      <c r="BU10" s="32" t="inlineStr"/>
-      <c r="BV10" s="32" t="inlineStr"/>
-      <c r="BW10" s="32" t="inlineStr"/>
-      <c r="BX10" s="25" t="inlineStr"/>
-      <c r="BY10" s="33" t="inlineStr"/>
-      <c r="BZ10" s="33" t="inlineStr"/>
-      <c r="CA10" s="33" t="inlineStr"/>
-      <c r="CB10" s="33" t="inlineStr"/>
-      <c r="CC10" s="26" t="inlineStr"/>
-      <c r="CD10" s="27" t="inlineStr"/>
+      <c r="BL10" s="26" t="inlineStr"/>
+      <c r="BM10" s="27" t="inlineStr"/>
+      <c r="BN10" s="33" t="inlineStr"/>
+      <c r="BO10" s="34" t="inlineStr"/>
+      <c r="BP10" s="34" t="inlineStr"/>
+      <c r="BQ10" s="34" t="inlineStr"/>
+      <c r="BR10" s="34" t="inlineStr"/>
+      <c r="BS10" s="34" t="inlineStr"/>
+      <c r="BT10" s="34" t="inlineStr"/>
+      <c r="BU10" s="34" t="inlineStr"/>
+      <c r="BV10" s="34" t="inlineStr"/>
+      <c r="BW10" s="34" t="inlineStr"/>
+      <c r="BX10" s="34" t="inlineStr"/>
+      <c r="BY10" s="34" t="inlineStr"/>
+      <c r="BZ10" s="34" t="inlineStr"/>
+      <c r="CA10" s="34" t="inlineStr"/>
+      <c r="CB10" s="34" t="inlineStr"/>
+      <c r="CC10" s="34" t="inlineStr"/>
+      <c r="CD10" s="34" t="inlineStr"/>
+      <c r="CE10" s="34" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="inlineStr"/>
@@ -2486,30 +2509,31 @@
       <c r="BD11" s="21" t="inlineStr"/>
       <c r="BE11" s="21" t="inlineStr"/>
       <c r="BF11" s="23" t="inlineStr"/>
-      <c r="BG11" s="24" t="inlineStr"/>
+      <c r="BG11" s="25" t="inlineStr"/>
       <c r="BH11" s="32" t="inlineStr"/>
       <c r="BI11" s="32" t="inlineStr"/>
       <c r="BJ11" s="32" t="inlineStr"/>
       <c r="BK11" s="32" t="inlineStr"/>
-      <c r="BL11" s="32" t="inlineStr"/>
-      <c r="BM11" s="32" t="inlineStr"/>
-      <c r="BN11" s="32" t="inlineStr"/>
-      <c r="BO11" s="32" t="inlineStr"/>
-      <c r="BP11" s="32" t="inlineStr"/>
-      <c r="BQ11" s="32" t="inlineStr"/>
-      <c r="BR11" s="32" t="inlineStr"/>
-      <c r="BS11" s="32" t="inlineStr"/>
-      <c r="BT11" s="32" t="inlineStr"/>
-      <c r="BU11" s="32" t="inlineStr"/>
-      <c r="BV11" s="32" t="inlineStr"/>
-      <c r="BW11" s="32" t="inlineStr"/>
-      <c r="BX11" s="25" t="inlineStr"/>
-      <c r="BY11" s="33" t="inlineStr"/>
-      <c r="BZ11" s="33" t="inlineStr"/>
-      <c r="CA11" s="33" t="inlineStr"/>
-      <c r="CB11" s="33" t="inlineStr"/>
-      <c r="CC11" s="26" t="inlineStr"/>
-      <c r="CD11" s="27" t="inlineStr"/>
+      <c r="BL11" s="26" t="inlineStr"/>
+      <c r="BM11" s="27" t="inlineStr"/>
+      <c r="BN11" s="33" t="inlineStr"/>
+      <c r="BO11" s="34" t="inlineStr"/>
+      <c r="BP11" s="34" t="inlineStr"/>
+      <c r="BQ11" s="34" t="inlineStr"/>
+      <c r="BR11" s="34" t="inlineStr"/>
+      <c r="BS11" s="34" t="inlineStr"/>
+      <c r="BT11" s="34" t="inlineStr"/>
+      <c r="BU11" s="34" t="inlineStr"/>
+      <c r="BV11" s="34" t="inlineStr"/>
+      <c r="BW11" s="34" t="inlineStr"/>
+      <c r="BX11" s="34" t="inlineStr"/>
+      <c r="BY11" s="34" t="inlineStr"/>
+      <c r="BZ11" s="34" t="inlineStr"/>
+      <c r="CA11" s="34" t="inlineStr"/>
+      <c r="CB11" s="34" t="inlineStr"/>
+      <c r="CC11" s="34" t="inlineStr"/>
+      <c r="CD11" s="34" t="inlineStr"/>
+      <c r="CE11" s="34" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="inlineStr"/>
@@ -2570,30 +2594,31 @@
       <c r="BD12" s="21" t="inlineStr"/>
       <c r="BE12" s="21" t="inlineStr"/>
       <c r="BF12" s="23" t="inlineStr"/>
-      <c r="BG12" s="24" t="inlineStr"/>
+      <c r="BG12" s="25" t="inlineStr"/>
       <c r="BH12" s="32" t="inlineStr"/>
       <c r="BI12" s="32" t="inlineStr"/>
       <c r="BJ12" s="32" t="inlineStr"/>
       <c r="BK12" s="32" t="inlineStr"/>
-      <c r="BL12" s="32" t="inlineStr"/>
-      <c r="BM12" s="32" t="inlineStr"/>
-      <c r="BN12" s="32" t="inlineStr"/>
-      <c r="BO12" s="32" t="inlineStr"/>
-      <c r="BP12" s="32" t="inlineStr"/>
-      <c r="BQ12" s="32" t="inlineStr"/>
-      <c r="BR12" s="32" t="inlineStr"/>
-      <c r="BS12" s="32" t="inlineStr"/>
-      <c r="BT12" s="32" t="inlineStr"/>
-      <c r="BU12" s="32" t="inlineStr"/>
-      <c r="BV12" s="32" t="inlineStr"/>
-      <c r="BW12" s="32" t="inlineStr"/>
-      <c r="BX12" s="25" t="inlineStr"/>
-      <c r="BY12" s="33" t="inlineStr"/>
-      <c r="BZ12" s="33" t="inlineStr"/>
-      <c r="CA12" s="33" t="inlineStr"/>
-      <c r="CB12" s="33" t="inlineStr"/>
-      <c r="CC12" s="26" t="inlineStr"/>
-      <c r="CD12" s="27" t="inlineStr"/>
+      <c r="BL12" s="26" t="inlineStr"/>
+      <c r="BM12" s="27" t="inlineStr"/>
+      <c r="BN12" s="33" t="inlineStr"/>
+      <c r="BO12" s="34" t="inlineStr"/>
+      <c r="BP12" s="34" t="inlineStr"/>
+      <c r="BQ12" s="34" t="inlineStr"/>
+      <c r="BR12" s="34" t="inlineStr"/>
+      <c r="BS12" s="34" t="inlineStr"/>
+      <c r="BT12" s="34" t="inlineStr"/>
+      <c r="BU12" s="34" t="inlineStr"/>
+      <c r="BV12" s="34" t="inlineStr"/>
+      <c r="BW12" s="34" t="inlineStr"/>
+      <c r="BX12" s="34" t="inlineStr"/>
+      <c r="BY12" s="34" t="inlineStr"/>
+      <c r="BZ12" s="34" t="inlineStr"/>
+      <c r="CA12" s="34" t="inlineStr"/>
+      <c r="CB12" s="34" t="inlineStr"/>
+      <c r="CC12" s="34" t="inlineStr"/>
+      <c r="CD12" s="34" t="inlineStr"/>
+      <c r="CE12" s="34" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr"/>
@@ -2654,30 +2679,31 @@
       <c r="BD13" s="21" t="inlineStr"/>
       <c r="BE13" s="21" t="inlineStr"/>
       <c r="BF13" s="23" t="inlineStr"/>
-      <c r="BG13" s="24" t="inlineStr"/>
+      <c r="BG13" s="25" t="inlineStr"/>
       <c r="BH13" s="32" t="inlineStr"/>
       <c r="BI13" s="32" t="inlineStr"/>
       <c r="BJ13" s="32" t="inlineStr"/>
       <c r="BK13" s="32" t="inlineStr"/>
-      <c r="BL13" s="32" t="inlineStr"/>
-      <c r="BM13" s="32" t="inlineStr"/>
-      <c r="BN13" s="32" t="inlineStr"/>
-      <c r="BO13" s="32" t="inlineStr"/>
-      <c r="BP13" s="32" t="inlineStr"/>
-      <c r="BQ13" s="32" t="inlineStr"/>
-      <c r="BR13" s="32" t="inlineStr"/>
-      <c r="BS13" s="32" t="inlineStr"/>
-      <c r="BT13" s="32" t="inlineStr"/>
-      <c r="BU13" s="32" t="inlineStr"/>
-      <c r="BV13" s="32" t="inlineStr"/>
-      <c r="BW13" s="32" t="inlineStr"/>
-      <c r="BX13" s="25" t="inlineStr"/>
-      <c r="BY13" s="33" t="inlineStr"/>
-      <c r="BZ13" s="33" t="inlineStr"/>
-      <c r="CA13" s="33" t="inlineStr"/>
-      <c r="CB13" s="33" t="inlineStr"/>
-      <c r="CC13" s="26" t="inlineStr"/>
-      <c r="CD13" s="27" t="inlineStr"/>
+      <c r="BL13" s="26" t="inlineStr"/>
+      <c r="BM13" s="27" t="inlineStr"/>
+      <c r="BN13" s="33" t="inlineStr"/>
+      <c r="BO13" s="34" t="inlineStr"/>
+      <c r="BP13" s="34" t="inlineStr"/>
+      <c r="BQ13" s="34" t="inlineStr"/>
+      <c r="BR13" s="34" t="inlineStr"/>
+      <c r="BS13" s="34" t="inlineStr"/>
+      <c r="BT13" s="34" t="inlineStr"/>
+      <c r="BU13" s="34" t="inlineStr"/>
+      <c r="BV13" s="34" t="inlineStr"/>
+      <c r="BW13" s="34" t="inlineStr"/>
+      <c r="BX13" s="34" t="inlineStr"/>
+      <c r="BY13" s="34" t="inlineStr"/>
+      <c r="BZ13" s="34" t="inlineStr"/>
+      <c r="CA13" s="34" t="inlineStr"/>
+      <c r="CB13" s="34" t="inlineStr"/>
+      <c r="CC13" s="34" t="inlineStr"/>
+      <c r="CD13" s="34" t="inlineStr"/>
+      <c r="CE13" s="34" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr"/>
@@ -2738,30 +2764,31 @@
       <c r="BD14" s="21" t="inlineStr"/>
       <c r="BE14" s="21" t="inlineStr"/>
       <c r="BF14" s="23" t="inlineStr"/>
-      <c r="BG14" s="24" t="inlineStr"/>
+      <c r="BG14" s="25" t="inlineStr"/>
       <c r="BH14" s="32" t="inlineStr"/>
       <c r="BI14" s="32" t="inlineStr"/>
       <c r="BJ14" s="32" t="inlineStr"/>
       <c r="BK14" s="32" t="inlineStr"/>
-      <c r="BL14" s="32" t="inlineStr"/>
-      <c r="BM14" s="32" t="inlineStr"/>
-      <c r="BN14" s="32" t="inlineStr"/>
-      <c r="BO14" s="32" t="inlineStr"/>
-      <c r="BP14" s="32" t="inlineStr"/>
-      <c r="BQ14" s="32" t="inlineStr"/>
-      <c r="BR14" s="32" t="inlineStr"/>
-      <c r="BS14" s="32" t="inlineStr"/>
-      <c r="BT14" s="32" t="inlineStr"/>
-      <c r="BU14" s="32" t="inlineStr"/>
-      <c r="BV14" s="32" t="inlineStr"/>
-      <c r="BW14" s="32" t="inlineStr"/>
-      <c r="BX14" s="25" t="inlineStr"/>
-      <c r="BY14" s="33" t="inlineStr"/>
-      <c r="BZ14" s="33" t="inlineStr"/>
-      <c r="CA14" s="33" t="inlineStr"/>
-      <c r="CB14" s="33" t="inlineStr"/>
-      <c r="CC14" s="26" t="inlineStr"/>
-      <c r="CD14" s="27" t="inlineStr"/>
+      <c r="BL14" s="26" t="inlineStr"/>
+      <c r="BM14" s="27" t="inlineStr"/>
+      <c r="BN14" s="33" t="inlineStr"/>
+      <c r="BO14" s="34" t="inlineStr"/>
+      <c r="BP14" s="34" t="inlineStr"/>
+      <c r="BQ14" s="34" t="inlineStr"/>
+      <c r="BR14" s="34" t="inlineStr"/>
+      <c r="BS14" s="34" t="inlineStr"/>
+      <c r="BT14" s="34" t="inlineStr"/>
+      <c r="BU14" s="34" t="inlineStr"/>
+      <c r="BV14" s="34" t="inlineStr"/>
+      <c r="BW14" s="34" t="inlineStr"/>
+      <c r="BX14" s="34" t="inlineStr"/>
+      <c r="BY14" s="34" t="inlineStr"/>
+      <c r="BZ14" s="34" t="inlineStr"/>
+      <c r="CA14" s="34" t="inlineStr"/>
+      <c r="CB14" s="34" t="inlineStr"/>
+      <c r="CC14" s="34" t="inlineStr"/>
+      <c r="CD14" s="34" t="inlineStr"/>
+      <c r="CE14" s="34" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr"/>
@@ -2822,30 +2849,31 @@
       <c r="BD15" s="21" t="inlineStr"/>
       <c r="BE15" s="21" t="inlineStr"/>
       <c r="BF15" s="23" t="inlineStr"/>
-      <c r="BG15" s="24" t="inlineStr"/>
+      <c r="BG15" s="25" t="inlineStr"/>
       <c r="BH15" s="32" t="inlineStr"/>
       <c r="BI15" s="32" t="inlineStr"/>
       <c r="BJ15" s="32" t="inlineStr"/>
       <c r="BK15" s="32" t="inlineStr"/>
-      <c r="BL15" s="32" t="inlineStr"/>
-      <c r="BM15" s="32" t="inlineStr"/>
-      <c r="BN15" s="32" t="inlineStr"/>
-      <c r="BO15" s="32" t="inlineStr"/>
-      <c r="BP15" s="32" t="inlineStr"/>
-      <c r="BQ15" s="32" t="inlineStr"/>
-      <c r="BR15" s="32" t="inlineStr"/>
-      <c r="BS15" s="32" t="inlineStr"/>
-      <c r="BT15" s="32" t="inlineStr"/>
-      <c r="BU15" s="32" t="inlineStr"/>
-      <c r="BV15" s="32" t="inlineStr"/>
-      <c r="BW15" s="32" t="inlineStr"/>
-      <c r="BX15" s="25" t="inlineStr"/>
-      <c r="BY15" s="33" t="inlineStr"/>
-      <c r="BZ15" s="33" t="inlineStr"/>
-      <c r="CA15" s="33" t="inlineStr"/>
-      <c r="CB15" s="33" t="inlineStr"/>
-      <c r="CC15" s="26" t="inlineStr"/>
-      <c r="CD15" s="27" t="inlineStr"/>
+      <c r="BL15" s="26" t="inlineStr"/>
+      <c r="BM15" s="27" t="inlineStr"/>
+      <c r="BN15" s="33" t="inlineStr"/>
+      <c r="BO15" s="34" t="inlineStr"/>
+      <c r="BP15" s="34" t="inlineStr"/>
+      <c r="BQ15" s="34" t="inlineStr"/>
+      <c r="BR15" s="34" t="inlineStr"/>
+      <c r="BS15" s="34" t="inlineStr"/>
+      <c r="BT15" s="34" t="inlineStr"/>
+      <c r="BU15" s="34" t="inlineStr"/>
+      <c r="BV15" s="34" t="inlineStr"/>
+      <c r="BW15" s="34" t="inlineStr"/>
+      <c r="BX15" s="34" t="inlineStr"/>
+      <c r="BY15" s="34" t="inlineStr"/>
+      <c r="BZ15" s="34" t="inlineStr"/>
+      <c r="CA15" s="34" t="inlineStr"/>
+      <c r="CB15" s="34" t="inlineStr"/>
+      <c r="CC15" s="34" t="inlineStr"/>
+      <c r="CD15" s="34" t="inlineStr"/>
+      <c r="CE15" s="34" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="inlineStr"/>
@@ -2906,30 +2934,31 @@
       <c r="BD16" s="21" t="inlineStr"/>
       <c r="BE16" s="21" t="inlineStr"/>
       <c r="BF16" s="23" t="inlineStr"/>
-      <c r="BG16" s="24" t="inlineStr"/>
+      <c r="BG16" s="25" t="inlineStr"/>
       <c r="BH16" s="32" t="inlineStr"/>
       <c r="BI16" s="32" t="inlineStr"/>
       <c r="BJ16" s="32" t="inlineStr"/>
       <c r="BK16" s="32" t="inlineStr"/>
-      <c r="BL16" s="32" t="inlineStr"/>
-      <c r="BM16" s="32" t="inlineStr"/>
-      <c r="BN16" s="32" t="inlineStr"/>
-      <c r="BO16" s="32" t="inlineStr"/>
-      <c r="BP16" s="32" t="inlineStr"/>
-      <c r="BQ16" s="32" t="inlineStr"/>
-      <c r="BR16" s="32" t="inlineStr"/>
-      <c r="BS16" s="32" t="inlineStr"/>
-      <c r="BT16" s="32" t="inlineStr"/>
-      <c r="BU16" s="32" t="inlineStr"/>
-      <c r="BV16" s="32" t="inlineStr"/>
-      <c r="BW16" s="32" t="inlineStr"/>
-      <c r="BX16" s="25" t="inlineStr"/>
-      <c r="BY16" s="33" t="inlineStr"/>
-      <c r="BZ16" s="33" t="inlineStr"/>
-      <c r="CA16" s="33" t="inlineStr"/>
-      <c r="CB16" s="33" t="inlineStr"/>
-      <c r="CC16" s="26" t="inlineStr"/>
-      <c r="CD16" s="27" t="inlineStr"/>
+      <c r="BL16" s="26" t="inlineStr"/>
+      <c r="BM16" s="27" t="inlineStr"/>
+      <c r="BN16" s="33" t="inlineStr"/>
+      <c r="BO16" s="34" t="inlineStr"/>
+      <c r="BP16" s="34" t="inlineStr"/>
+      <c r="BQ16" s="34" t="inlineStr"/>
+      <c r="BR16" s="34" t="inlineStr"/>
+      <c r="BS16" s="34" t="inlineStr"/>
+      <c r="BT16" s="34" t="inlineStr"/>
+      <c r="BU16" s="34" t="inlineStr"/>
+      <c r="BV16" s="34" t="inlineStr"/>
+      <c r="BW16" s="34" t="inlineStr"/>
+      <c r="BX16" s="34" t="inlineStr"/>
+      <c r="BY16" s="34" t="inlineStr"/>
+      <c r="BZ16" s="34" t="inlineStr"/>
+      <c r="CA16" s="34" t="inlineStr"/>
+      <c r="CB16" s="34" t="inlineStr"/>
+      <c r="CC16" s="34" t="inlineStr"/>
+      <c r="CD16" s="34" t="inlineStr"/>
+      <c r="CE16" s="34" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="16" t="inlineStr"/>
@@ -2990,30 +3019,31 @@
       <c r="BD17" s="21" t="inlineStr"/>
       <c r="BE17" s="21" t="inlineStr"/>
       <c r="BF17" s="23" t="inlineStr"/>
-      <c r="BG17" s="24" t="inlineStr"/>
+      <c r="BG17" s="25" t="inlineStr"/>
       <c r="BH17" s="32" t="inlineStr"/>
       <c r="BI17" s="32" t="inlineStr"/>
       <c r="BJ17" s="32" t="inlineStr"/>
       <c r="BK17" s="32" t="inlineStr"/>
-      <c r="BL17" s="32" t="inlineStr"/>
-      <c r="BM17" s="32" t="inlineStr"/>
-      <c r="BN17" s="32" t="inlineStr"/>
-      <c r="BO17" s="32" t="inlineStr"/>
-      <c r="BP17" s="32" t="inlineStr"/>
-      <c r="BQ17" s="32" t="inlineStr"/>
-      <c r="BR17" s="32" t="inlineStr"/>
-      <c r="BS17" s="32" t="inlineStr"/>
-      <c r="BT17" s="32" t="inlineStr"/>
-      <c r="BU17" s="32" t="inlineStr"/>
-      <c r="BV17" s="32" t="inlineStr"/>
-      <c r="BW17" s="32" t="inlineStr"/>
-      <c r="BX17" s="25" t="inlineStr"/>
-      <c r="BY17" s="33" t="inlineStr"/>
-      <c r="BZ17" s="33" t="inlineStr"/>
-      <c r="CA17" s="33" t="inlineStr"/>
-      <c r="CB17" s="33" t="inlineStr"/>
-      <c r="CC17" s="26" t="inlineStr"/>
-      <c r="CD17" s="27" t="inlineStr"/>
+      <c r="BL17" s="26" t="inlineStr"/>
+      <c r="BM17" s="27" t="inlineStr"/>
+      <c r="BN17" s="33" t="inlineStr"/>
+      <c r="BO17" s="34" t="inlineStr"/>
+      <c r="BP17" s="34" t="inlineStr"/>
+      <c r="BQ17" s="34" t="inlineStr"/>
+      <c r="BR17" s="34" t="inlineStr"/>
+      <c r="BS17" s="34" t="inlineStr"/>
+      <c r="BT17" s="34" t="inlineStr"/>
+      <c r="BU17" s="34" t="inlineStr"/>
+      <c r="BV17" s="34" t="inlineStr"/>
+      <c r="BW17" s="34" t="inlineStr"/>
+      <c r="BX17" s="34" t="inlineStr"/>
+      <c r="BY17" s="34" t="inlineStr"/>
+      <c r="BZ17" s="34" t="inlineStr"/>
+      <c r="CA17" s="34" t="inlineStr"/>
+      <c r="CB17" s="34" t="inlineStr"/>
+      <c r="CC17" s="34" t="inlineStr"/>
+      <c r="CD17" s="34" t="inlineStr"/>
+      <c r="CE17" s="34" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="16" t="inlineStr"/>
@@ -3074,30 +3104,31 @@
       <c r="BD18" s="21" t="inlineStr"/>
       <c r="BE18" s="21" t="inlineStr"/>
       <c r="BF18" s="23" t="inlineStr"/>
-      <c r="BG18" s="24" t="inlineStr"/>
+      <c r="BG18" s="25" t="inlineStr"/>
       <c r="BH18" s="32" t="inlineStr"/>
       <c r="BI18" s="32" t="inlineStr"/>
       <c r="BJ18" s="32" t="inlineStr"/>
       <c r="BK18" s="32" t="inlineStr"/>
-      <c r="BL18" s="32" t="inlineStr"/>
-      <c r="BM18" s="32" t="inlineStr"/>
-      <c r="BN18" s="32" t="inlineStr"/>
-      <c r="BO18" s="32" t="inlineStr"/>
-      <c r="BP18" s="32" t="inlineStr"/>
-      <c r="BQ18" s="32" t="inlineStr"/>
-      <c r="BR18" s="32" t="inlineStr"/>
-      <c r="BS18" s="32" t="inlineStr"/>
-      <c r="BT18" s="32" t="inlineStr"/>
-      <c r="BU18" s="32" t="inlineStr"/>
-      <c r="BV18" s="32" t="inlineStr"/>
-      <c r="BW18" s="32" t="inlineStr"/>
-      <c r="BX18" s="25" t="inlineStr"/>
-      <c r="BY18" s="33" t="inlineStr"/>
-      <c r="BZ18" s="33" t="inlineStr"/>
-      <c r="CA18" s="33" t="inlineStr"/>
-      <c r="CB18" s="33" t="inlineStr"/>
-      <c r="CC18" s="26" t="inlineStr"/>
-      <c r="CD18" s="27" t="inlineStr"/>
+      <c r="BL18" s="26" t="inlineStr"/>
+      <c r="BM18" s="27" t="inlineStr"/>
+      <c r="BN18" s="33" t="inlineStr"/>
+      <c r="BO18" s="34" t="inlineStr"/>
+      <c r="BP18" s="34" t="inlineStr"/>
+      <c r="BQ18" s="34" t="inlineStr"/>
+      <c r="BR18" s="34" t="inlineStr"/>
+      <c r="BS18" s="34" t="inlineStr"/>
+      <c r="BT18" s="34" t="inlineStr"/>
+      <c r="BU18" s="34" t="inlineStr"/>
+      <c r="BV18" s="34" t="inlineStr"/>
+      <c r="BW18" s="34" t="inlineStr"/>
+      <c r="BX18" s="34" t="inlineStr"/>
+      <c r="BY18" s="34" t="inlineStr"/>
+      <c r="BZ18" s="34" t="inlineStr"/>
+      <c r="CA18" s="34" t="inlineStr"/>
+      <c r="CB18" s="34" t="inlineStr"/>
+      <c r="CC18" s="34" t="inlineStr"/>
+      <c r="CD18" s="34" t="inlineStr"/>
+      <c r="CE18" s="34" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr"/>
@@ -3158,30 +3189,31 @@
       <c r="BD19" s="21" t="inlineStr"/>
       <c r="BE19" s="21" t="inlineStr"/>
       <c r="BF19" s="23" t="inlineStr"/>
-      <c r="BG19" s="24" t="inlineStr"/>
+      <c r="BG19" s="25" t="inlineStr"/>
       <c r="BH19" s="32" t="inlineStr"/>
       <c r="BI19" s="32" t="inlineStr"/>
       <c r="BJ19" s="32" t="inlineStr"/>
       <c r="BK19" s="32" t="inlineStr"/>
-      <c r="BL19" s="32" t="inlineStr"/>
-      <c r="BM19" s="32" t="inlineStr"/>
-      <c r="BN19" s="32" t="inlineStr"/>
-      <c r="BO19" s="32" t="inlineStr"/>
-      <c r="BP19" s="32" t="inlineStr"/>
-      <c r="BQ19" s="32" t="inlineStr"/>
-      <c r="BR19" s="32" t="inlineStr"/>
-      <c r="BS19" s="32" t="inlineStr"/>
-      <c r="BT19" s="32" t="inlineStr"/>
-      <c r="BU19" s="32" t="inlineStr"/>
-      <c r="BV19" s="32" t="inlineStr"/>
-      <c r="BW19" s="32" t="inlineStr"/>
-      <c r="BX19" s="25" t="inlineStr"/>
-      <c r="BY19" s="33" t="inlineStr"/>
-      <c r="BZ19" s="33" t="inlineStr"/>
-      <c r="CA19" s="33" t="inlineStr"/>
-      <c r="CB19" s="33" t="inlineStr"/>
-      <c r="CC19" s="26" t="inlineStr"/>
-      <c r="CD19" s="27" t="inlineStr"/>
+      <c r="BL19" s="26" t="inlineStr"/>
+      <c r="BM19" s="27" t="inlineStr"/>
+      <c r="BN19" s="33" t="inlineStr"/>
+      <c r="BO19" s="34" t="inlineStr"/>
+      <c r="BP19" s="34" t="inlineStr"/>
+      <c r="BQ19" s="34" t="inlineStr"/>
+      <c r="BR19" s="34" t="inlineStr"/>
+      <c r="BS19" s="34" t="inlineStr"/>
+      <c r="BT19" s="34" t="inlineStr"/>
+      <c r="BU19" s="34" t="inlineStr"/>
+      <c r="BV19" s="34" t="inlineStr"/>
+      <c r="BW19" s="34" t="inlineStr"/>
+      <c r="BX19" s="34" t="inlineStr"/>
+      <c r="BY19" s="34" t="inlineStr"/>
+      <c r="BZ19" s="34" t="inlineStr"/>
+      <c r="CA19" s="34" t="inlineStr"/>
+      <c r="CB19" s="34" t="inlineStr"/>
+      <c r="CC19" s="34" t="inlineStr"/>
+      <c r="CD19" s="34" t="inlineStr"/>
+      <c r="CE19" s="34" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr"/>
@@ -3242,30 +3274,31 @@
       <c r="BD20" s="21" t="inlineStr"/>
       <c r="BE20" s="21" t="inlineStr"/>
       <c r="BF20" s="23" t="inlineStr"/>
-      <c r="BG20" s="24" t="inlineStr"/>
+      <c r="BG20" s="25" t="inlineStr"/>
       <c r="BH20" s="32" t="inlineStr"/>
       <c r="BI20" s="32" t="inlineStr"/>
       <c r="BJ20" s="32" t="inlineStr"/>
       <c r="BK20" s="32" t="inlineStr"/>
-      <c r="BL20" s="32" t="inlineStr"/>
-      <c r="BM20" s="32" t="inlineStr"/>
-      <c r="BN20" s="32" t="inlineStr"/>
-      <c r="BO20" s="32" t="inlineStr"/>
-      <c r="BP20" s="32" t="inlineStr"/>
-      <c r="BQ20" s="32" t="inlineStr"/>
-      <c r="BR20" s="32" t="inlineStr"/>
-      <c r="BS20" s="32" t="inlineStr"/>
-      <c r="BT20" s="32" t="inlineStr"/>
-      <c r="BU20" s="32" t="inlineStr"/>
-      <c r="BV20" s="32" t="inlineStr"/>
-      <c r="BW20" s="32" t="inlineStr"/>
-      <c r="BX20" s="25" t="inlineStr"/>
-      <c r="BY20" s="33" t="inlineStr"/>
-      <c r="BZ20" s="33" t="inlineStr"/>
-      <c r="CA20" s="33" t="inlineStr"/>
-      <c r="CB20" s="33" t="inlineStr"/>
-      <c r="CC20" s="26" t="inlineStr"/>
-      <c r="CD20" s="27" t="inlineStr"/>
+      <c r="BL20" s="26" t="inlineStr"/>
+      <c r="BM20" s="27" t="inlineStr"/>
+      <c r="BN20" s="33" t="inlineStr"/>
+      <c r="BO20" s="34" t="inlineStr"/>
+      <c r="BP20" s="34" t="inlineStr"/>
+      <c r="BQ20" s="34" t="inlineStr"/>
+      <c r="BR20" s="34" t="inlineStr"/>
+      <c r="BS20" s="34" t="inlineStr"/>
+      <c r="BT20" s="34" t="inlineStr"/>
+      <c r="BU20" s="34" t="inlineStr"/>
+      <c r="BV20" s="34" t="inlineStr"/>
+      <c r="BW20" s="34" t="inlineStr"/>
+      <c r="BX20" s="34" t="inlineStr"/>
+      <c r="BY20" s="34" t="inlineStr"/>
+      <c r="BZ20" s="34" t="inlineStr"/>
+      <c r="CA20" s="34" t="inlineStr"/>
+      <c r="CB20" s="34" t="inlineStr"/>
+      <c r="CC20" s="34" t="inlineStr"/>
+      <c r="CD20" s="34" t="inlineStr"/>
+      <c r="CE20" s="34" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr"/>
@@ -3326,30 +3359,31 @@
       <c r="BD21" s="21" t="inlineStr"/>
       <c r="BE21" s="21" t="inlineStr"/>
       <c r="BF21" s="23" t="inlineStr"/>
-      <c r="BG21" s="24" t="inlineStr"/>
+      <c r="BG21" s="25" t="inlineStr"/>
       <c r="BH21" s="32" t="inlineStr"/>
       <c r="BI21" s="32" t="inlineStr"/>
       <c r="BJ21" s="32" t="inlineStr"/>
       <c r="BK21" s="32" t="inlineStr"/>
-      <c r="BL21" s="32" t="inlineStr"/>
-      <c r="BM21" s="32" t="inlineStr"/>
-      <c r="BN21" s="32" t="inlineStr"/>
-      <c r="BO21" s="32" t="inlineStr"/>
-      <c r="BP21" s="32" t="inlineStr"/>
-      <c r="BQ21" s="32" t="inlineStr"/>
-      <c r="BR21" s="32" t="inlineStr"/>
-      <c r="BS21" s="32" t="inlineStr"/>
-      <c r="BT21" s="32" t="inlineStr"/>
-      <c r="BU21" s="32" t="inlineStr"/>
-      <c r="BV21" s="32" t="inlineStr"/>
-      <c r="BW21" s="32" t="inlineStr"/>
-      <c r="BX21" s="25" t="inlineStr"/>
-      <c r="BY21" s="33" t="inlineStr"/>
-      <c r="BZ21" s="33" t="inlineStr"/>
-      <c r="CA21" s="33" t="inlineStr"/>
-      <c r="CB21" s="33" t="inlineStr"/>
-      <c r="CC21" s="26" t="inlineStr"/>
-      <c r="CD21" s="27" t="inlineStr"/>
+      <c r="BL21" s="26" t="inlineStr"/>
+      <c r="BM21" s="27" t="inlineStr"/>
+      <c r="BN21" s="33" t="inlineStr"/>
+      <c r="BO21" s="34" t="inlineStr"/>
+      <c r="BP21" s="34" t="inlineStr"/>
+      <c r="BQ21" s="34" t="inlineStr"/>
+      <c r="BR21" s="34" t="inlineStr"/>
+      <c r="BS21" s="34" t="inlineStr"/>
+      <c r="BT21" s="34" t="inlineStr"/>
+      <c r="BU21" s="34" t="inlineStr"/>
+      <c r="BV21" s="34" t="inlineStr"/>
+      <c r="BW21" s="34" t="inlineStr"/>
+      <c r="BX21" s="34" t="inlineStr"/>
+      <c r="BY21" s="34" t="inlineStr"/>
+      <c r="BZ21" s="34" t="inlineStr"/>
+      <c r="CA21" s="34" t="inlineStr"/>
+      <c r="CB21" s="34" t="inlineStr"/>
+      <c r="CC21" s="34" t="inlineStr"/>
+      <c r="CD21" s="34" t="inlineStr"/>
+      <c r="CE21" s="34" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="16" t="inlineStr"/>
@@ -3410,30 +3444,31 @@
       <c r="BD22" s="21" t="inlineStr"/>
       <c r="BE22" s="21" t="inlineStr"/>
       <c r="BF22" s="23" t="inlineStr"/>
-      <c r="BG22" s="24" t="inlineStr"/>
+      <c r="BG22" s="25" t="inlineStr"/>
       <c r="BH22" s="32" t="inlineStr"/>
       <c r="BI22" s="32" t="inlineStr"/>
       <c r="BJ22" s="32" t="inlineStr"/>
       <c r="BK22" s="32" t="inlineStr"/>
-      <c r="BL22" s="32" t="inlineStr"/>
-      <c r="BM22" s="32" t="inlineStr"/>
-      <c r="BN22" s="32" t="inlineStr"/>
-      <c r="BO22" s="32" t="inlineStr"/>
-      <c r="BP22" s="32" t="inlineStr"/>
-      <c r="BQ22" s="32" t="inlineStr"/>
-      <c r="BR22" s="32" t="inlineStr"/>
-      <c r="BS22" s="32" t="inlineStr"/>
-      <c r="BT22" s="32" t="inlineStr"/>
-      <c r="BU22" s="32" t="inlineStr"/>
-      <c r="BV22" s="32" t="inlineStr"/>
-      <c r="BW22" s="32" t="inlineStr"/>
-      <c r="BX22" s="25" t="inlineStr"/>
-      <c r="BY22" s="33" t="inlineStr"/>
-      <c r="BZ22" s="33" t="inlineStr"/>
-      <c r="CA22" s="33" t="inlineStr"/>
-      <c r="CB22" s="33" t="inlineStr"/>
-      <c r="CC22" s="26" t="inlineStr"/>
-      <c r="CD22" s="27" t="inlineStr"/>
+      <c r="BL22" s="26" t="inlineStr"/>
+      <c r="BM22" s="27" t="inlineStr"/>
+      <c r="BN22" s="33" t="inlineStr"/>
+      <c r="BO22" s="34" t="inlineStr"/>
+      <c r="BP22" s="34" t="inlineStr"/>
+      <c r="BQ22" s="34" t="inlineStr"/>
+      <c r="BR22" s="34" t="inlineStr"/>
+      <c r="BS22" s="34" t="inlineStr"/>
+      <c r="BT22" s="34" t="inlineStr"/>
+      <c r="BU22" s="34" t="inlineStr"/>
+      <c r="BV22" s="34" t="inlineStr"/>
+      <c r="BW22" s="34" t="inlineStr"/>
+      <c r="BX22" s="34" t="inlineStr"/>
+      <c r="BY22" s="34" t="inlineStr"/>
+      <c r="BZ22" s="34" t="inlineStr"/>
+      <c r="CA22" s="34" t="inlineStr"/>
+      <c r="CB22" s="34" t="inlineStr"/>
+      <c r="CC22" s="34" t="inlineStr"/>
+      <c r="CD22" s="34" t="inlineStr"/>
+      <c r="CE22" s="34" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="16" t="inlineStr"/>
@@ -3494,30 +3529,31 @@
       <c r="BD23" s="21" t="inlineStr"/>
       <c r="BE23" s="21" t="inlineStr"/>
       <c r="BF23" s="23" t="inlineStr"/>
-      <c r="BG23" s="24" t="inlineStr"/>
+      <c r="BG23" s="25" t="inlineStr"/>
       <c r="BH23" s="32" t="inlineStr"/>
       <c r="BI23" s="32" t="inlineStr"/>
       <c r="BJ23" s="32" t="inlineStr"/>
       <c r="BK23" s="32" t="inlineStr"/>
-      <c r="BL23" s="32" t="inlineStr"/>
-      <c r="BM23" s="32" t="inlineStr"/>
-      <c r="BN23" s="32" t="inlineStr"/>
-      <c r="BO23" s="32" t="inlineStr"/>
-      <c r="BP23" s="32" t="inlineStr"/>
-      <c r="BQ23" s="32" t="inlineStr"/>
-      <c r="BR23" s="32" t="inlineStr"/>
-      <c r="BS23" s="32" t="inlineStr"/>
-      <c r="BT23" s="32" t="inlineStr"/>
-      <c r="BU23" s="32" t="inlineStr"/>
-      <c r="BV23" s="32" t="inlineStr"/>
-      <c r="BW23" s="32" t="inlineStr"/>
-      <c r="BX23" s="25" t="inlineStr"/>
-      <c r="BY23" s="33" t="inlineStr"/>
-      <c r="BZ23" s="33" t="inlineStr"/>
-      <c r="CA23" s="33" t="inlineStr"/>
-      <c r="CB23" s="33" t="inlineStr"/>
-      <c r="CC23" s="26" t="inlineStr"/>
-      <c r="CD23" s="27" t="inlineStr"/>
+      <c r="BL23" s="26" t="inlineStr"/>
+      <c r="BM23" s="27" t="inlineStr"/>
+      <c r="BN23" s="33" t="inlineStr"/>
+      <c r="BO23" s="34" t="inlineStr"/>
+      <c r="BP23" s="34" t="inlineStr"/>
+      <c r="BQ23" s="34" t="inlineStr"/>
+      <c r="BR23" s="34" t="inlineStr"/>
+      <c r="BS23" s="34" t="inlineStr"/>
+      <c r="BT23" s="34" t="inlineStr"/>
+      <c r="BU23" s="34" t="inlineStr"/>
+      <c r="BV23" s="34" t="inlineStr"/>
+      <c r="BW23" s="34" t="inlineStr"/>
+      <c r="BX23" s="34" t="inlineStr"/>
+      <c r="BY23" s="34" t="inlineStr"/>
+      <c r="BZ23" s="34" t="inlineStr"/>
+      <c r="CA23" s="34" t="inlineStr"/>
+      <c r="CB23" s="34" t="inlineStr"/>
+      <c r="CC23" s="34" t="inlineStr"/>
+      <c r="CD23" s="34" t="inlineStr"/>
+      <c r="CE23" s="34" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="16" t="inlineStr"/>
@@ -3578,30 +3614,31 @@
       <c r="BD24" s="21" t="inlineStr"/>
       <c r="BE24" s="21" t="inlineStr"/>
       <c r="BF24" s="23" t="inlineStr"/>
-      <c r="BG24" s="24" t="inlineStr"/>
+      <c r="BG24" s="25" t="inlineStr"/>
       <c r="BH24" s="32" t="inlineStr"/>
       <c r="BI24" s="32" t="inlineStr"/>
       <c r="BJ24" s="32" t="inlineStr"/>
       <c r="BK24" s="32" t="inlineStr"/>
-      <c r="BL24" s="32" t="inlineStr"/>
-      <c r="BM24" s="32" t="inlineStr"/>
-      <c r="BN24" s="32" t="inlineStr"/>
-      <c r="BO24" s="32" t="inlineStr"/>
-      <c r="BP24" s="32" t="inlineStr"/>
-      <c r="BQ24" s="32" t="inlineStr"/>
-      <c r="BR24" s="32" t="inlineStr"/>
-      <c r="BS24" s="32" t="inlineStr"/>
-      <c r="BT24" s="32" t="inlineStr"/>
-      <c r="BU24" s="32" t="inlineStr"/>
-      <c r="BV24" s="32" t="inlineStr"/>
-      <c r="BW24" s="32" t="inlineStr"/>
-      <c r="BX24" s="25" t="inlineStr"/>
-      <c r="BY24" s="33" t="inlineStr"/>
-      <c r="BZ24" s="33" t="inlineStr"/>
-      <c r="CA24" s="33" t="inlineStr"/>
-      <c r="CB24" s="33" t="inlineStr"/>
-      <c r="CC24" s="26" t="inlineStr"/>
-      <c r="CD24" s="27" t="inlineStr"/>
+      <c r="BL24" s="26" t="inlineStr"/>
+      <c r="BM24" s="27" t="inlineStr"/>
+      <c r="BN24" s="33" t="inlineStr"/>
+      <c r="BO24" s="34" t="inlineStr"/>
+      <c r="BP24" s="34" t="inlineStr"/>
+      <c r="BQ24" s="34" t="inlineStr"/>
+      <c r="BR24" s="34" t="inlineStr"/>
+      <c r="BS24" s="34" t="inlineStr"/>
+      <c r="BT24" s="34" t="inlineStr"/>
+      <c r="BU24" s="34" t="inlineStr"/>
+      <c r="BV24" s="34" t="inlineStr"/>
+      <c r="BW24" s="34" t="inlineStr"/>
+      <c r="BX24" s="34" t="inlineStr"/>
+      <c r="BY24" s="34" t="inlineStr"/>
+      <c r="BZ24" s="34" t="inlineStr"/>
+      <c r="CA24" s="34" t="inlineStr"/>
+      <c r="CB24" s="34" t="inlineStr"/>
+      <c r="CC24" s="34" t="inlineStr"/>
+      <c r="CD24" s="34" t="inlineStr"/>
+      <c r="CE24" s="34" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="16" t="inlineStr"/>
@@ -3662,30 +3699,31 @@
       <c r="BD25" s="21" t="inlineStr"/>
       <c r="BE25" s="21" t="inlineStr"/>
       <c r="BF25" s="23" t="inlineStr"/>
-      <c r="BG25" s="24" t="inlineStr"/>
+      <c r="BG25" s="25" t="inlineStr"/>
       <c r="BH25" s="32" t="inlineStr"/>
       <c r="BI25" s="32" t="inlineStr"/>
       <c r="BJ25" s="32" t="inlineStr"/>
       <c r="BK25" s="32" t="inlineStr"/>
-      <c r="BL25" s="32" t="inlineStr"/>
-      <c r="BM25" s="32" t="inlineStr"/>
-      <c r="BN25" s="32" t="inlineStr"/>
-      <c r="BO25" s="32" t="inlineStr"/>
-      <c r="BP25" s="32" t="inlineStr"/>
-      <c r="BQ25" s="32" t="inlineStr"/>
-      <c r="BR25" s="32" t="inlineStr"/>
-      <c r="BS25" s="32" t="inlineStr"/>
-      <c r="BT25" s="32" t="inlineStr"/>
-      <c r="BU25" s="32" t="inlineStr"/>
-      <c r="BV25" s="32" t="inlineStr"/>
-      <c r="BW25" s="32" t="inlineStr"/>
-      <c r="BX25" s="25" t="inlineStr"/>
-      <c r="BY25" s="33" t="inlineStr"/>
-      <c r="BZ25" s="33" t="inlineStr"/>
-      <c r="CA25" s="33" t="inlineStr"/>
-      <c r="CB25" s="33" t="inlineStr"/>
-      <c r="CC25" s="26" t="inlineStr"/>
-      <c r="CD25" s="27" t="inlineStr"/>
+      <c r="BL25" s="26" t="inlineStr"/>
+      <c r="BM25" s="27" t="inlineStr"/>
+      <c r="BN25" s="33" t="inlineStr"/>
+      <c r="BO25" s="34" t="inlineStr"/>
+      <c r="BP25" s="34" t="inlineStr"/>
+      <c r="BQ25" s="34" t="inlineStr"/>
+      <c r="BR25" s="34" t="inlineStr"/>
+      <c r="BS25" s="34" t="inlineStr"/>
+      <c r="BT25" s="34" t="inlineStr"/>
+      <c r="BU25" s="34" t="inlineStr"/>
+      <c r="BV25" s="34" t="inlineStr"/>
+      <c r="BW25" s="34" t="inlineStr"/>
+      <c r="BX25" s="34" t="inlineStr"/>
+      <c r="BY25" s="34" t="inlineStr"/>
+      <c r="BZ25" s="34" t="inlineStr"/>
+      <c r="CA25" s="34" t="inlineStr"/>
+      <c r="CB25" s="34" t="inlineStr"/>
+      <c r="CC25" s="34" t="inlineStr"/>
+      <c r="CD25" s="34" t="inlineStr"/>
+      <c r="CE25" s="34" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="16" t="inlineStr"/>
@@ -3746,30 +3784,31 @@
       <c r="BD26" s="21" t="inlineStr"/>
       <c r="BE26" s="21" t="inlineStr"/>
       <c r="BF26" s="23" t="inlineStr"/>
-      <c r="BG26" s="24" t="inlineStr"/>
+      <c r="BG26" s="25" t="inlineStr"/>
       <c r="BH26" s="32" t="inlineStr"/>
       <c r="BI26" s="32" t="inlineStr"/>
       <c r="BJ26" s="32" t="inlineStr"/>
       <c r="BK26" s="32" t="inlineStr"/>
-      <c r="BL26" s="32" t="inlineStr"/>
-      <c r="BM26" s="32" t="inlineStr"/>
-      <c r="BN26" s="32" t="inlineStr"/>
-      <c r="BO26" s="32" t="inlineStr"/>
-      <c r="BP26" s="32" t="inlineStr"/>
-      <c r="BQ26" s="32" t="inlineStr"/>
-      <c r="BR26" s="32" t="inlineStr"/>
-      <c r="BS26" s="32" t="inlineStr"/>
-      <c r="BT26" s="32" t="inlineStr"/>
-      <c r="BU26" s="32" t="inlineStr"/>
-      <c r="BV26" s="32" t="inlineStr"/>
-      <c r="BW26" s="32" t="inlineStr"/>
-      <c r="BX26" s="25" t="inlineStr"/>
-      <c r="BY26" s="33" t="inlineStr"/>
-      <c r="BZ26" s="33" t="inlineStr"/>
-      <c r="CA26" s="33" t="inlineStr"/>
-      <c r="CB26" s="33" t="inlineStr"/>
-      <c r="CC26" s="26" t="inlineStr"/>
-      <c r="CD26" s="27" t="inlineStr"/>
+      <c r="BL26" s="26" t="inlineStr"/>
+      <c r="BM26" s="27" t="inlineStr"/>
+      <c r="BN26" s="33" t="inlineStr"/>
+      <c r="BO26" s="34" t="inlineStr"/>
+      <c r="BP26" s="34" t="inlineStr"/>
+      <c r="BQ26" s="34" t="inlineStr"/>
+      <c r="BR26" s="34" t="inlineStr"/>
+      <c r="BS26" s="34" t="inlineStr"/>
+      <c r="BT26" s="34" t="inlineStr"/>
+      <c r="BU26" s="34" t="inlineStr"/>
+      <c r="BV26" s="34" t="inlineStr"/>
+      <c r="BW26" s="34" t="inlineStr"/>
+      <c r="BX26" s="34" t="inlineStr"/>
+      <c r="BY26" s="34" t="inlineStr"/>
+      <c r="BZ26" s="34" t="inlineStr"/>
+      <c r="CA26" s="34" t="inlineStr"/>
+      <c r="CB26" s="34" t="inlineStr"/>
+      <c r="CC26" s="34" t="inlineStr"/>
+      <c r="CD26" s="34" t="inlineStr"/>
+      <c r="CE26" s="34" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="16" t="inlineStr"/>
@@ -3830,30 +3869,31 @@
       <c r="BD27" s="21" t="inlineStr"/>
       <c r="BE27" s="21" t="inlineStr"/>
       <c r="BF27" s="23" t="inlineStr"/>
-      <c r="BG27" s="24" t="inlineStr"/>
+      <c r="BG27" s="25" t="inlineStr"/>
       <c r="BH27" s="32" t="inlineStr"/>
       <c r="BI27" s="32" t="inlineStr"/>
       <c r="BJ27" s="32" t="inlineStr"/>
       <c r="BK27" s="32" t="inlineStr"/>
-      <c r="BL27" s="32" t="inlineStr"/>
-      <c r="BM27" s="32" t="inlineStr"/>
-      <c r="BN27" s="32" t="inlineStr"/>
-      <c r="BO27" s="32" t="inlineStr"/>
-      <c r="BP27" s="32" t="inlineStr"/>
-      <c r="BQ27" s="32" t="inlineStr"/>
-      <c r="BR27" s="32" t="inlineStr"/>
-      <c r="BS27" s="32" t="inlineStr"/>
-      <c r="BT27" s="32" t="inlineStr"/>
-      <c r="BU27" s="32" t="inlineStr"/>
-      <c r="BV27" s="32" t="inlineStr"/>
-      <c r="BW27" s="32" t="inlineStr"/>
-      <c r="BX27" s="25" t="inlineStr"/>
-      <c r="BY27" s="33" t="inlineStr"/>
-      <c r="BZ27" s="33" t="inlineStr"/>
-      <c r="CA27" s="33" t="inlineStr"/>
-      <c r="CB27" s="33" t="inlineStr"/>
-      <c r="CC27" s="26" t="inlineStr"/>
-      <c r="CD27" s="27" t="inlineStr"/>
+      <c r="BL27" s="26" t="inlineStr"/>
+      <c r="BM27" s="27" t="inlineStr"/>
+      <c r="BN27" s="33" t="inlineStr"/>
+      <c r="BO27" s="34" t="inlineStr"/>
+      <c r="BP27" s="34" t="inlineStr"/>
+      <c r="BQ27" s="34" t="inlineStr"/>
+      <c r="BR27" s="34" t="inlineStr"/>
+      <c r="BS27" s="34" t="inlineStr"/>
+      <c r="BT27" s="34" t="inlineStr"/>
+      <c r="BU27" s="34" t="inlineStr"/>
+      <c r="BV27" s="34" t="inlineStr"/>
+      <c r="BW27" s="34" t="inlineStr"/>
+      <c r="BX27" s="34" t="inlineStr"/>
+      <c r="BY27" s="34" t="inlineStr"/>
+      <c r="BZ27" s="34" t="inlineStr"/>
+      <c r="CA27" s="34" t="inlineStr"/>
+      <c r="CB27" s="34" t="inlineStr"/>
+      <c r="CC27" s="34" t="inlineStr"/>
+      <c r="CD27" s="34" t="inlineStr"/>
+      <c r="CE27" s="34" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="16" t="inlineStr"/>
@@ -3914,30 +3954,31 @@
       <c r="BD28" s="21" t="inlineStr"/>
       <c r="BE28" s="21" t="inlineStr"/>
       <c r="BF28" s="23" t="inlineStr"/>
-      <c r="BG28" s="24" t="inlineStr"/>
+      <c r="BG28" s="25" t="inlineStr"/>
       <c r="BH28" s="32" t="inlineStr"/>
       <c r="BI28" s="32" t="inlineStr"/>
       <c r="BJ28" s="32" t="inlineStr"/>
       <c r="BK28" s="32" t="inlineStr"/>
-      <c r="BL28" s="32" t="inlineStr"/>
-      <c r="BM28" s="32" t="inlineStr"/>
-      <c r="BN28" s="32" t="inlineStr"/>
-      <c r="BO28" s="32" t="inlineStr"/>
-      <c r="BP28" s="32" t="inlineStr"/>
-      <c r="BQ28" s="32" t="inlineStr"/>
-      <c r="BR28" s="32" t="inlineStr"/>
-      <c r="BS28" s="32" t="inlineStr"/>
-      <c r="BT28" s="32" t="inlineStr"/>
-      <c r="BU28" s="32" t="inlineStr"/>
-      <c r="BV28" s="32" t="inlineStr"/>
-      <c r="BW28" s="32" t="inlineStr"/>
-      <c r="BX28" s="25" t="inlineStr"/>
-      <c r="BY28" s="33" t="inlineStr"/>
-      <c r="BZ28" s="33" t="inlineStr"/>
-      <c r="CA28" s="33" t="inlineStr"/>
-      <c r="CB28" s="33" t="inlineStr"/>
-      <c r="CC28" s="26" t="inlineStr"/>
-      <c r="CD28" s="27" t="inlineStr"/>
+      <c r="BL28" s="26" t="inlineStr"/>
+      <c r="BM28" s="27" t="inlineStr"/>
+      <c r="BN28" s="33" t="inlineStr"/>
+      <c r="BO28" s="34" t="inlineStr"/>
+      <c r="BP28" s="34" t="inlineStr"/>
+      <c r="BQ28" s="34" t="inlineStr"/>
+      <c r="BR28" s="34" t="inlineStr"/>
+      <c r="BS28" s="34" t="inlineStr"/>
+      <c r="BT28" s="34" t="inlineStr"/>
+      <c r="BU28" s="34" t="inlineStr"/>
+      <c r="BV28" s="34" t="inlineStr"/>
+      <c r="BW28" s="34" t="inlineStr"/>
+      <c r="BX28" s="34" t="inlineStr"/>
+      <c r="BY28" s="34" t="inlineStr"/>
+      <c r="BZ28" s="34" t="inlineStr"/>
+      <c r="CA28" s="34" t="inlineStr"/>
+      <c r="CB28" s="34" t="inlineStr"/>
+      <c r="CC28" s="34" t="inlineStr"/>
+      <c r="CD28" s="34" t="inlineStr"/>
+      <c r="CE28" s="34" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="16" t="inlineStr"/>
@@ -3998,30 +4039,31 @@
       <c r="BD29" s="21" t="inlineStr"/>
       <c r="BE29" s="21" t="inlineStr"/>
       <c r="BF29" s="23" t="inlineStr"/>
-      <c r="BG29" s="24" t="inlineStr"/>
+      <c r="BG29" s="25" t="inlineStr"/>
       <c r="BH29" s="32" t="inlineStr"/>
       <c r="BI29" s="32" t="inlineStr"/>
       <c r="BJ29" s="32" t="inlineStr"/>
       <c r="BK29" s="32" t="inlineStr"/>
-      <c r="BL29" s="32" t="inlineStr"/>
-      <c r="BM29" s="32" t="inlineStr"/>
-      <c r="BN29" s="32" t="inlineStr"/>
-      <c r="BO29" s="32" t="inlineStr"/>
-      <c r="BP29" s="32" t="inlineStr"/>
-      <c r="BQ29" s="32" t="inlineStr"/>
-      <c r="BR29" s="32" t="inlineStr"/>
-      <c r="BS29" s="32" t="inlineStr"/>
-      <c r="BT29" s="32" t="inlineStr"/>
-      <c r="BU29" s="32" t="inlineStr"/>
-      <c r="BV29" s="32" t="inlineStr"/>
-      <c r="BW29" s="32" t="inlineStr"/>
-      <c r="BX29" s="25" t="inlineStr"/>
-      <c r="BY29" s="33" t="inlineStr"/>
-      <c r="BZ29" s="33" t="inlineStr"/>
-      <c r="CA29" s="33" t="inlineStr"/>
-      <c r="CB29" s="33" t="inlineStr"/>
-      <c r="CC29" s="26" t="inlineStr"/>
-      <c r="CD29" s="27" t="inlineStr"/>
+      <c r="BL29" s="26" t="inlineStr"/>
+      <c r="BM29" s="27" t="inlineStr"/>
+      <c r="BN29" s="33" t="inlineStr"/>
+      <c r="BO29" s="34" t="inlineStr"/>
+      <c r="BP29" s="34" t="inlineStr"/>
+      <c r="BQ29" s="34" t="inlineStr"/>
+      <c r="BR29" s="34" t="inlineStr"/>
+      <c r="BS29" s="34" t="inlineStr"/>
+      <c r="BT29" s="34" t="inlineStr"/>
+      <c r="BU29" s="34" t="inlineStr"/>
+      <c r="BV29" s="34" t="inlineStr"/>
+      <c r="BW29" s="34" t="inlineStr"/>
+      <c r="BX29" s="34" t="inlineStr"/>
+      <c r="BY29" s="34" t="inlineStr"/>
+      <c r="BZ29" s="34" t="inlineStr"/>
+      <c r="CA29" s="34" t="inlineStr"/>
+      <c r="CB29" s="34" t="inlineStr"/>
+      <c r="CC29" s="34" t="inlineStr"/>
+      <c r="CD29" s="34" t="inlineStr"/>
+      <c r="CE29" s="34" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="16" t="inlineStr"/>
@@ -4082,30 +4124,31 @@
       <c r="BD30" s="21" t="inlineStr"/>
       <c r="BE30" s="21" t="inlineStr"/>
       <c r="BF30" s="23" t="inlineStr"/>
-      <c r="BG30" s="24" t="inlineStr"/>
+      <c r="BG30" s="25" t="inlineStr"/>
       <c r="BH30" s="32" t="inlineStr"/>
       <c r="BI30" s="32" t="inlineStr"/>
       <c r="BJ30" s="32" t="inlineStr"/>
       <c r="BK30" s="32" t="inlineStr"/>
-      <c r="BL30" s="32" t="inlineStr"/>
-      <c r="BM30" s="32" t="inlineStr"/>
-      <c r="BN30" s="32" t="inlineStr"/>
-      <c r="BO30" s="32" t="inlineStr"/>
-      <c r="BP30" s="32" t="inlineStr"/>
-      <c r="BQ30" s="32" t="inlineStr"/>
-      <c r="BR30" s="32" t="inlineStr"/>
-      <c r="BS30" s="32" t="inlineStr"/>
-      <c r="BT30" s="32" t="inlineStr"/>
-      <c r="BU30" s="32" t="inlineStr"/>
-      <c r="BV30" s="32" t="inlineStr"/>
-      <c r="BW30" s="32" t="inlineStr"/>
-      <c r="BX30" s="25" t="inlineStr"/>
-      <c r="BY30" s="33" t="inlineStr"/>
-      <c r="BZ30" s="33" t="inlineStr"/>
-      <c r="CA30" s="33" t="inlineStr"/>
-      <c r="CB30" s="33" t="inlineStr"/>
-      <c r="CC30" s="26" t="inlineStr"/>
-      <c r="CD30" s="27" t="inlineStr"/>
+      <c r="BL30" s="26" t="inlineStr"/>
+      <c r="BM30" s="27" t="inlineStr"/>
+      <c r="BN30" s="33" t="inlineStr"/>
+      <c r="BO30" s="34" t="inlineStr"/>
+      <c r="BP30" s="34" t="inlineStr"/>
+      <c r="BQ30" s="34" t="inlineStr"/>
+      <c r="BR30" s="34" t="inlineStr"/>
+      <c r="BS30" s="34" t="inlineStr"/>
+      <c r="BT30" s="34" t="inlineStr"/>
+      <c r="BU30" s="34" t="inlineStr"/>
+      <c r="BV30" s="34" t="inlineStr"/>
+      <c r="BW30" s="34" t="inlineStr"/>
+      <c r="BX30" s="34" t="inlineStr"/>
+      <c r="BY30" s="34" t="inlineStr"/>
+      <c r="BZ30" s="34" t="inlineStr"/>
+      <c r="CA30" s="34" t="inlineStr"/>
+      <c r="CB30" s="34" t="inlineStr"/>
+      <c r="CC30" s="34" t="inlineStr"/>
+      <c r="CD30" s="34" t="inlineStr"/>
+      <c r="CE30" s="34" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="inlineStr"/>
@@ -4166,30 +4209,31 @@
       <c r="BD31" s="21" t="inlineStr"/>
       <c r="BE31" s="21" t="inlineStr"/>
       <c r="BF31" s="23" t="inlineStr"/>
-      <c r="BG31" s="24" t="inlineStr"/>
+      <c r="BG31" s="25" t="inlineStr"/>
       <c r="BH31" s="32" t="inlineStr"/>
       <c r="BI31" s="32" t="inlineStr"/>
       <c r="BJ31" s="32" t="inlineStr"/>
       <c r="BK31" s="32" t="inlineStr"/>
-      <c r="BL31" s="32" t="inlineStr"/>
-      <c r="BM31" s="32" t="inlineStr"/>
-      <c r="BN31" s="32" t="inlineStr"/>
-      <c r="BO31" s="32" t="inlineStr"/>
-      <c r="BP31" s="32" t="inlineStr"/>
-      <c r="BQ31" s="32" t="inlineStr"/>
-      <c r="BR31" s="32" t="inlineStr"/>
-      <c r="BS31" s="32" t="inlineStr"/>
-      <c r="BT31" s="32" t="inlineStr"/>
-      <c r="BU31" s="32" t="inlineStr"/>
-      <c r="BV31" s="32" t="inlineStr"/>
-      <c r="BW31" s="32" t="inlineStr"/>
-      <c r="BX31" s="25" t="inlineStr"/>
-      <c r="BY31" s="33" t="inlineStr"/>
-      <c r="BZ31" s="33" t="inlineStr"/>
-      <c r="CA31" s="33" t="inlineStr"/>
-      <c r="CB31" s="33" t="inlineStr"/>
-      <c r="CC31" s="26" t="inlineStr"/>
-      <c r="CD31" s="27" t="inlineStr"/>
+      <c r="BL31" s="26" t="inlineStr"/>
+      <c r="BM31" s="27" t="inlineStr"/>
+      <c r="BN31" s="33" t="inlineStr"/>
+      <c r="BO31" s="34" t="inlineStr"/>
+      <c r="BP31" s="34" t="inlineStr"/>
+      <c r="BQ31" s="34" t="inlineStr"/>
+      <c r="BR31" s="34" t="inlineStr"/>
+      <c r="BS31" s="34" t="inlineStr"/>
+      <c r="BT31" s="34" t="inlineStr"/>
+      <c r="BU31" s="34" t="inlineStr"/>
+      <c r="BV31" s="34" t="inlineStr"/>
+      <c r="BW31" s="34" t="inlineStr"/>
+      <c r="BX31" s="34" t="inlineStr"/>
+      <c r="BY31" s="34" t="inlineStr"/>
+      <c r="BZ31" s="34" t="inlineStr"/>
+      <c r="CA31" s="34" t="inlineStr"/>
+      <c r="CB31" s="34" t="inlineStr"/>
+      <c r="CC31" s="34" t="inlineStr"/>
+      <c r="CD31" s="34" t="inlineStr"/>
+      <c r="CE31" s="34" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="16" t="inlineStr"/>
@@ -4250,30 +4294,31 @@
       <c r="BD32" s="21" t="inlineStr"/>
       <c r="BE32" s="21" t="inlineStr"/>
       <c r="BF32" s="23" t="inlineStr"/>
-      <c r="BG32" s="24" t="inlineStr"/>
+      <c r="BG32" s="25" t="inlineStr"/>
       <c r="BH32" s="32" t="inlineStr"/>
       <c r="BI32" s="32" t="inlineStr"/>
       <c r="BJ32" s="32" t="inlineStr"/>
       <c r="BK32" s="32" t="inlineStr"/>
-      <c r="BL32" s="32" t="inlineStr"/>
-      <c r="BM32" s="32" t="inlineStr"/>
-      <c r="BN32" s="32" t="inlineStr"/>
-      <c r="BO32" s="32" t="inlineStr"/>
-      <c r="BP32" s="32" t="inlineStr"/>
-      <c r="BQ32" s="32" t="inlineStr"/>
-      <c r="BR32" s="32" t="inlineStr"/>
-      <c r="BS32" s="32" t="inlineStr"/>
-      <c r="BT32" s="32" t="inlineStr"/>
-      <c r="BU32" s="32" t="inlineStr"/>
-      <c r="BV32" s="32" t="inlineStr"/>
-      <c r="BW32" s="32" t="inlineStr"/>
-      <c r="BX32" s="25" t="inlineStr"/>
-      <c r="BY32" s="33" t="inlineStr"/>
-      <c r="BZ32" s="33" t="inlineStr"/>
-      <c r="CA32" s="33" t="inlineStr"/>
-      <c r="CB32" s="33" t="inlineStr"/>
-      <c r="CC32" s="26" t="inlineStr"/>
-      <c r="CD32" s="27" t="inlineStr"/>
+      <c r="BL32" s="26" t="inlineStr"/>
+      <c r="BM32" s="27" t="inlineStr"/>
+      <c r="BN32" s="33" t="inlineStr"/>
+      <c r="BO32" s="34" t="inlineStr"/>
+      <c r="BP32" s="34" t="inlineStr"/>
+      <c r="BQ32" s="34" t="inlineStr"/>
+      <c r="BR32" s="34" t="inlineStr"/>
+      <c r="BS32" s="34" t="inlineStr"/>
+      <c r="BT32" s="34" t="inlineStr"/>
+      <c r="BU32" s="34" t="inlineStr"/>
+      <c r="BV32" s="34" t="inlineStr"/>
+      <c r="BW32" s="34" t="inlineStr"/>
+      <c r="BX32" s="34" t="inlineStr"/>
+      <c r="BY32" s="34" t="inlineStr"/>
+      <c r="BZ32" s="34" t="inlineStr"/>
+      <c r="CA32" s="34" t="inlineStr"/>
+      <c r="CB32" s="34" t="inlineStr"/>
+      <c r="CC32" s="34" t="inlineStr"/>
+      <c r="CD32" s="34" t="inlineStr"/>
+      <c r="CE32" s="34" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="16" t="inlineStr"/>
@@ -4334,30 +4379,31 @@
       <c r="BD33" s="21" t="inlineStr"/>
       <c r="BE33" s="21" t="inlineStr"/>
       <c r="BF33" s="23" t="inlineStr"/>
-      <c r="BG33" s="24" t="inlineStr"/>
+      <c r="BG33" s="25" t="inlineStr"/>
       <c r="BH33" s="32" t="inlineStr"/>
       <c r="BI33" s="32" t="inlineStr"/>
       <c r="BJ33" s="32" t="inlineStr"/>
       <c r="BK33" s="32" t="inlineStr"/>
-      <c r="BL33" s="32" t="inlineStr"/>
-      <c r="BM33" s="32" t="inlineStr"/>
-      <c r="BN33" s="32" t="inlineStr"/>
-      <c r="BO33" s="32" t="inlineStr"/>
-      <c r="BP33" s="32" t="inlineStr"/>
-      <c r="BQ33" s="32" t="inlineStr"/>
-      <c r="BR33" s="32" t="inlineStr"/>
-      <c r="BS33" s="32" t="inlineStr"/>
-      <c r="BT33" s="32" t="inlineStr"/>
-      <c r="BU33" s="32" t="inlineStr"/>
-      <c r="BV33" s="32" t="inlineStr"/>
-      <c r="BW33" s="32" t="inlineStr"/>
-      <c r="BX33" s="25" t="inlineStr"/>
-      <c r="BY33" s="33" t="inlineStr"/>
-      <c r="BZ33" s="33" t="inlineStr"/>
-      <c r="CA33" s="33" t="inlineStr"/>
-      <c r="CB33" s="33" t="inlineStr"/>
-      <c r="CC33" s="26" t="inlineStr"/>
-      <c r="CD33" s="27" t="inlineStr"/>
+      <c r="BL33" s="26" t="inlineStr"/>
+      <c r="BM33" s="27" t="inlineStr"/>
+      <c r="BN33" s="33" t="inlineStr"/>
+      <c r="BO33" s="34" t="inlineStr"/>
+      <c r="BP33" s="34" t="inlineStr"/>
+      <c r="BQ33" s="34" t="inlineStr"/>
+      <c r="BR33" s="34" t="inlineStr"/>
+      <c r="BS33" s="34" t="inlineStr"/>
+      <c r="BT33" s="34" t="inlineStr"/>
+      <c r="BU33" s="34" t="inlineStr"/>
+      <c r="BV33" s="34" t="inlineStr"/>
+      <c r="BW33" s="34" t="inlineStr"/>
+      <c r="BX33" s="34" t="inlineStr"/>
+      <c r="BY33" s="34" t="inlineStr"/>
+      <c r="BZ33" s="34" t="inlineStr"/>
+      <c r="CA33" s="34" t="inlineStr"/>
+      <c r="CB33" s="34" t="inlineStr"/>
+      <c r="CC33" s="34" t="inlineStr"/>
+      <c r="CD33" s="34" t="inlineStr"/>
+      <c r="CE33" s="34" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="16" t="inlineStr"/>
@@ -4418,30 +4464,31 @@
       <c r="BD34" s="21" t="inlineStr"/>
       <c r="BE34" s="21" t="inlineStr"/>
       <c r="BF34" s="23" t="inlineStr"/>
-      <c r="BG34" s="24" t="inlineStr"/>
+      <c r="BG34" s="25" t="inlineStr"/>
       <c r="BH34" s="32" t="inlineStr"/>
       <c r="BI34" s="32" t="inlineStr"/>
       <c r="BJ34" s="32" t="inlineStr"/>
       <c r="BK34" s="32" t="inlineStr"/>
-      <c r="BL34" s="32" t="inlineStr"/>
-      <c r="BM34" s="32" t="inlineStr"/>
-      <c r="BN34" s="32" t="inlineStr"/>
-      <c r="BO34" s="32" t="inlineStr"/>
-      <c r="BP34" s="32" t="inlineStr"/>
-      <c r="BQ34" s="32" t="inlineStr"/>
-      <c r="BR34" s="32" t="inlineStr"/>
-      <c r="BS34" s="32" t="inlineStr"/>
-      <c r="BT34" s="32" t="inlineStr"/>
-      <c r="BU34" s="32" t="inlineStr"/>
-      <c r="BV34" s="32" t="inlineStr"/>
-      <c r="BW34" s="32" t="inlineStr"/>
-      <c r="BX34" s="25" t="inlineStr"/>
-      <c r="BY34" s="33" t="inlineStr"/>
-      <c r="BZ34" s="33" t="inlineStr"/>
-      <c r="CA34" s="33" t="inlineStr"/>
-      <c r="CB34" s="33" t="inlineStr"/>
-      <c r="CC34" s="26" t="inlineStr"/>
-      <c r="CD34" s="27" t="inlineStr"/>
+      <c r="BL34" s="26" t="inlineStr"/>
+      <c r="BM34" s="27" t="inlineStr"/>
+      <c r="BN34" s="33" t="inlineStr"/>
+      <c r="BO34" s="34" t="inlineStr"/>
+      <c r="BP34" s="34" t="inlineStr"/>
+      <c r="BQ34" s="34" t="inlineStr"/>
+      <c r="BR34" s="34" t="inlineStr"/>
+      <c r="BS34" s="34" t="inlineStr"/>
+      <c r="BT34" s="34" t="inlineStr"/>
+      <c r="BU34" s="34" t="inlineStr"/>
+      <c r="BV34" s="34" t="inlineStr"/>
+      <c r="BW34" s="34" t="inlineStr"/>
+      <c r="BX34" s="34" t="inlineStr"/>
+      <c r="BY34" s="34" t="inlineStr"/>
+      <c r="BZ34" s="34" t="inlineStr"/>
+      <c r="CA34" s="34" t="inlineStr"/>
+      <c r="CB34" s="34" t="inlineStr"/>
+      <c r="CC34" s="34" t="inlineStr"/>
+      <c r="CD34" s="34" t="inlineStr"/>
+      <c r="CE34" s="34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="16" t="inlineStr"/>
@@ -4502,30 +4549,31 @@
       <c r="BD35" s="21" t="inlineStr"/>
       <c r="BE35" s="21" t="inlineStr"/>
       <c r="BF35" s="23" t="inlineStr"/>
-      <c r="BG35" s="24" t="inlineStr"/>
+      <c r="BG35" s="25" t="inlineStr"/>
       <c r="BH35" s="32" t="inlineStr"/>
       <c r="BI35" s="32" t="inlineStr"/>
       <c r="BJ35" s="32" t="inlineStr"/>
       <c r="BK35" s="32" t="inlineStr"/>
-      <c r="BL35" s="32" t="inlineStr"/>
-      <c r="BM35" s="32" t="inlineStr"/>
-      <c r="BN35" s="32" t="inlineStr"/>
-      <c r="BO35" s="32" t="inlineStr"/>
-      <c r="BP35" s="32" t="inlineStr"/>
-      <c r="BQ35" s="32" t="inlineStr"/>
-      <c r="BR35" s="32" t="inlineStr"/>
-      <c r="BS35" s="32" t="inlineStr"/>
-      <c r="BT35" s="32" t="inlineStr"/>
-      <c r="BU35" s="32" t="inlineStr"/>
-      <c r="BV35" s="32" t="inlineStr"/>
-      <c r="BW35" s="32" t="inlineStr"/>
-      <c r="BX35" s="25" t="inlineStr"/>
-      <c r="BY35" s="33" t="inlineStr"/>
-      <c r="BZ35" s="33" t="inlineStr"/>
-      <c r="CA35" s="33" t="inlineStr"/>
-      <c r="CB35" s="33" t="inlineStr"/>
-      <c r="CC35" s="26" t="inlineStr"/>
-      <c r="CD35" s="27" t="inlineStr"/>
+      <c r="BL35" s="26" t="inlineStr"/>
+      <c r="BM35" s="27" t="inlineStr"/>
+      <c r="BN35" s="33" t="inlineStr"/>
+      <c r="BO35" s="34" t="inlineStr"/>
+      <c r="BP35" s="34" t="inlineStr"/>
+      <c r="BQ35" s="34" t="inlineStr"/>
+      <c r="BR35" s="34" t="inlineStr"/>
+      <c r="BS35" s="34" t="inlineStr"/>
+      <c r="BT35" s="34" t="inlineStr"/>
+      <c r="BU35" s="34" t="inlineStr"/>
+      <c r="BV35" s="34" t="inlineStr"/>
+      <c r="BW35" s="34" t="inlineStr"/>
+      <c r="BX35" s="34" t="inlineStr"/>
+      <c r="BY35" s="34" t="inlineStr"/>
+      <c r="BZ35" s="34" t="inlineStr"/>
+      <c r="CA35" s="34" t="inlineStr"/>
+      <c r="CB35" s="34" t="inlineStr"/>
+      <c r="CC35" s="34" t="inlineStr"/>
+      <c r="CD35" s="34" t="inlineStr"/>
+      <c r="CE35" s="34" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="16" t="inlineStr"/>
@@ -4586,30 +4634,31 @@
       <c r="BD36" s="21" t="inlineStr"/>
       <c r="BE36" s="21" t="inlineStr"/>
       <c r="BF36" s="23" t="inlineStr"/>
-      <c r="BG36" s="24" t="inlineStr"/>
+      <c r="BG36" s="25" t="inlineStr"/>
       <c r="BH36" s="32" t="inlineStr"/>
       <c r="BI36" s="32" t="inlineStr"/>
       <c r="BJ36" s="32" t="inlineStr"/>
       <c r="BK36" s="32" t="inlineStr"/>
-      <c r="BL36" s="32" t="inlineStr"/>
-      <c r="BM36" s="32" t="inlineStr"/>
-      <c r="BN36" s="32" t="inlineStr"/>
-      <c r="BO36" s="32" t="inlineStr"/>
-      <c r="BP36" s="32" t="inlineStr"/>
-      <c r="BQ36" s="32" t="inlineStr"/>
-      <c r="BR36" s="32" t="inlineStr"/>
-      <c r="BS36" s="32" t="inlineStr"/>
-      <c r="BT36" s="32" t="inlineStr"/>
-      <c r="BU36" s="32" t="inlineStr"/>
-      <c r="BV36" s="32" t="inlineStr"/>
-      <c r="BW36" s="32" t="inlineStr"/>
-      <c r="BX36" s="25" t="inlineStr"/>
-      <c r="BY36" s="33" t="inlineStr"/>
-      <c r="BZ36" s="33" t="inlineStr"/>
-      <c r="CA36" s="33" t="inlineStr"/>
-      <c r="CB36" s="33" t="inlineStr"/>
-      <c r="CC36" s="26" t="inlineStr"/>
-      <c r="CD36" s="27" t="inlineStr"/>
+      <c r="BL36" s="26" t="inlineStr"/>
+      <c r="BM36" s="27" t="inlineStr"/>
+      <c r="BN36" s="33" t="inlineStr"/>
+      <c r="BO36" s="34" t="inlineStr"/>
+      <c r="BP36" s="34" t="inlineStr"/>
+      <c r="BQ36" s="34" t="inlineStr"/>
+      <c r="BR36" s="34" t="inlineStr"/>
+      <c r="BS36" s="34" t="inlineStr"/>
+      <c r="BT36" s="34" t="inlineStr"/>
+      <c r="BU36" s="34" t="inlineStr"/>
+      <c r="BV36" s="34" t="inlineStr"/>
+      <c r="BW36" s="34" t="inlineStr"/>
+      <c r="BX36" s="34" t="inlineStr"/>
+      <c r="BY36" s="34" t="inlineStr"/>
+      <c r="BZ36" s="34" t="inlineStr"/>
+      <c r="CA36" s="34" t="inlineStr"/>
+      <c r="CB36" s="34" t="inlineStr"/>
+      <c r="CC36" s="34" t="inlineStr"/>
+      <c r="CD36" s="34" t="inlineStr"/>
+      <c r="CE36" s="34" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="16" t="inlineStr"/>
@@ -4670,30 +4719,31 @@
       <c r="BD37" s="21" t="inlineStr"/>
       <c r="BE37" s="21" t="inlineStr"/>
       <c r="BF37" s="23" t="inlineStr"/>
-      <c r="BG37" s="24" t="inlineStr"/>
+      <c r="BG37" s="25" t="inlineStr"/>
       <c r="BH37" s="32" t="inlineStr"/>
       <c r="BI37" s="32" t="inlineStr"/>
       <c r="BJ37" s="32" t="inlineStr"/>
       <c r="BK37" s="32" t="inlineStr"/>
-      <c r="BL37" s="32" t="inlineStr"/>
-      <c r="BM37" s="32" t="inlineStr"/>
-      <c r="BN37" s="32" t="inlineStr"/>
-      <c r="BO37" s="32" t="inlineStr"/>
-      <c r="BP37" s="32" t="inlineStr"/>
-      <c r="BQ37" s="32" t="inlineStr"/>
-      <c r="BR37" s="32" t="inlineStr"/>
-      <c r="BS37" s="32" t="inlineStr"/>
-      <c r="BT37" s="32" t="inlineStr"/>
-      <c r="BU37" s="32" t="inlineStr"/>
-      <c r="BV37" s="32" t="inlineStr"/>
-      <c r="BW37" s="32" t="inlineStr"/>
-      <c r="BX37" s="25" t="inlineStr"/>
-      <c r="BY37" s="33" t="inlineStr"/>
-      <c r="BZ37" s="33" t="inlineStr"/>
-      <c r="CA37" s="33" t="inlineStr"/>
-      <c r="CB37" s="33" t="inlineStr"/>
-      <c r="CC37" s="26" t="inlineStr"/>
-      <c r="CD37" s="27" t="inlineStr"/>
+      <c r="BL37" s="26" t="inlineStr"/>
+      <c r="BM37" s="27" t="inlineStr"/>
+      <c r="BN37" s="33" t="inlineStr"/>
+      <c r="BO37" s="34" t="inlineStr"/>
+      <c r="BP37" s="34" t="inlineStr"/>
+      <c r="BQ37" s="34" t="inlineStr"/>
+      <c r="BR37" s="34" t="inlineStr"/>
+      <c r="BS37" s="34" t="inlineStr"/>
+      <c r="BT37" s="34" t="inlineStr"/>
+      <c r="BU37" s="34" t="inlineStr"/>
+      <c r="BV37" s="34" t="inlineStr"/>
+      <c r="BW37" s="34" t="inlineStr"/>
+      <c r="BX37" s="34" t="inlineStr"/>
+      <c r="BY37" s="34" t="inlineStr"/>
+      <c r="BZ37" s="34" t="inlineStr"/>
+      <c r="CA37" s="34" t="inlineStr"/>
+      <c r="CB37" s="34" t="inlineStr"/>
+      <c r="CC37" s="34" t="inlineStr"/>
+      <c r="CD37" s="34" t="inlineStr"/>
+      <c r="CE37" s="34" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="16" t="inlineStr"/>
@@ -4754,30 +4804,31 @@
       <c r="BD38" s="21" t="inlineStr"/>
       <c r="BE38" s="21" t="inlineStr"/>
       <c r="BF38" s="23" t="inlineStr"/>
-      <c r="BG38" s="24" t="inlineStr"/>
+      <c r="BG38" s="25" t="inlineStr"/>
       <c r="BH38" s="32" t="inlineStr"/>
       <c r="BI38" s="32" t="inlineStr"/>
       <c r="BJ38" s="32" t="inlineStr"/>
       <c r="BK38" s="32" t="inlineStr"/>
-      <c r="BL38" s="32" t="inlineStr"/>
-      <c r="BM38" s="32" t="inlineStr"/>
-      <c r="BN38" s="32" t="inlineStr"/>
-      <c r="BO38" s="32" t="inlineStr"/>
-      <c r="BP38" s="32" t="inlineStr"/>
-      <c r="BQ38" s="32" t="inlineStr"/>
-      <c r="BR38" s="32" t="inlineStr"/>
-      <c r="BS38" s="32" t="inlineStr"/>
-      <c r="BT38" s="32" t="inlineStr"/>
-      <c r="BU38" s="32" t="inlineStr"/>
-      <c r="BV38" s="32" t="inlineStr"/>
-      <c r="BW38" s="32" t="inlineStr"/>
-      <c r="BX38" s="25" t="inlineStr"/>
-      <c r="BY38" s="33" t="inlineStr"/>
-      <c r="BZ38" s="33" t="inlineStr"/>
-      <c r="CA38" s="33" t="inlineStr"/>
-      <c r="CB38" s="33" t="inlineStr"/>
-      <c r="CC38" s="26" t="inlineStr"/>
-      <c r="CD38" s="27" t="inlineStr"/>
+      <c r="BL38" s="26" t="inlineStr"/>
+      <c r="BM38" s="27" t="inlineStr"/>
+      <c r="BN38" s="33" t="inlineStr"/>
+      <c r="BO38" s="34" t="inlineStr"/>
+      <c r="BP38" s="34" t="inlineStr"/>
+      <c r="BQ38" s="34" t="inlineStr"/>
+      <c r="BR38" s="34" t="inlineStr"/>
+      <c r="BS38" s="34" t="inlineStr"/>
+      <c r="BT38" s="34" t="inlineStr"/>
+      <c r="BU38" s="34" t="inlineStr"/>
+      <c r="BV38" s="34" t="inlineStr"/>
+      <c r="BW38" s="34" t="inlineStr"/>
+      <c r="BX38" s="34" t="inlineStr"/>
+      <c r="BY38" s="34" t="inlineStr"/>
+      <c r="BZ38" s="34" t="inlineStr"/>
+      <c r="CA38" s="34" t="inlineStr"/>
+      <c r="CB38" s="34" t="inlineStr"/>
+      <c r="CC38" s="34" t="inlineStr"/>
+      <c r="CD38" s="34" t="inlineStr"/>
+      <c r="CE38" s="34" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="16" t="inlineStr"/>
@@ -4838,30 +4889,31 @@
       <c r="BD39" s="21" t="inlineStr"/>
       <c r="BE39" s="21" t="inlineStr"/>
       <c r="BF39" s="23" t="inlineStr"/>
-      <c r="BG39" s="24" t="inlineStr"/>
+      <c r="BG39" s="25" t="inlineStr"/>
       <c r="BH39" s="32" t="inlineStr"/>
       <c r="BI39" s="32" t="inlineStr"/>
       <c r="BJ39" s="32" t="inlineStr"/>
       <c r="BK39" s="32" t="inlineStr"/>
-      <c r="BL39" s="32" t="inlineStr"/>
-      <c r="BM39" s="32" t="inlineStr"/>
-      <c r="BN39" s="32" t="inlineStr"/>
-      <c r="BO39" s="32" t="inlineStr"/>
-      <c r="BP39" s="32" t="inlineStr"/>
-      <c r="BQ39" s="32" t="inlineStr"/>
-      <c r="BR39" s="32" t="inlineStr"/>
-      <c r="BS39" s="32" t="inlineStr"/>
-      <c r="BT39" s="32" t="inlineStr"/>
-      <c r="BU39" s="32" t="inlineStr"/>
-      <c r="BV39" s="32" t="inlineStr"/>
-      <c r="BW39" s="32" t="inlineStr"/>
-      <c r="BX39" s="25" t="inlineStr"/>
-      <c r="BY39" s="33" t="inlineStr"/>
-      <c r="BZ39" s="33" t="inlineStr"/>
-      <c r="CA39" s="33" t="inlineStr"/>
-      <c r="CB39" s="33" t="inlineStr"/>
-      <c r="CC39" s="26" t="inlineStr"/>
-      <c r="CD39" s="27" t="inlineStr"/>
+      <c r="BL39" s="26" t="inlineStr"/>
+      <c r="BM39" s="27" t="inlineStr"/>
+      <c r="BN39" s="33" t="inlineStr"/>
+      <c r="BO39" s="34" t="inlineStr"/>
+      <c r="BP39" s="34" t="inlineStr"/>
+      <c r="BQ39" s="34" t="inlineStr"/>
+      <c r="BR39" s="34" t="inlineStr"/>
+      <c r="BS39" s="34" t="inlineStr"/>
+      <c r="BT39" s="34" t="inlineStr"/>
+      <c r="BU39" s="34" t="inlineStr"/>
+      <c r="BV39" s="34" t="inlineStr"/>
+      <c r="BW39" s="34" t="inlineStr"/>
+      <c r="BX39" s="34" t="inlineStr"/>
+      <c r="BY39" s="34" t="inlineStr"/>
+      <c r="BZ39" s="34" t="inlineStr"/>
+      <c r="CA39" s="34" t="inlineStr"/>
+      <c r="CB39" s="34" t="inlineStr"/>
+      <c r="CC39" s="34" t="inlineStr"/>
+      <c r="CD39" s="34" t="inlineStr"/>
+      <c r="CE39" s="34" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="16" t="inlineStr"/>
@@ -4922,30 +4974,31 @@
       <c r="BD40" s="21" t="inlineStr"/>
       <c r="BE40" s="21" t="inlineStr"/>
       <c r="BF40" s="23" t="inlineStr"/>
-      <c r="BG40" s="24" t="inlineStr"/>
+      <c r="BG40" s="25" t="inlineStr"/>
       <c r="BH40" s="32" t="inlineStr"/>
       <c r="BI40" s="32" t="inlineStr"/>
       <c r="BJ40" s="32" t="inlineStr"/>
       <c r="BK40" s="32" t="inlineStr"/>
-      <c r="BL40" s="32" t="inlineStr"/>
-      <c r="BM40" s="32" t="inlineStr"/>
-      <c r="BN40" s="32" t="inlineStr"/>
-      <c r="BO40" s="32" t="inlineStr"/>
-      <c r="BP40" s="32" t="inlineStr"/>
-      <c r="BQ40" s="32" t="inlineStr"/>
-      <c r="BR40" s="32" t="inlineStr"/>
-      <c r="BS40" s="32" t="inlineStr"/>
-      <c r="BT40" s="32" t="inlineStr"/>
-      <c r="BU40" s="32" t="inlineStr"/>
-      <c r="BV40" s="32" t="inlineStr"/>
-      <c r="BW40" s="32" t="inlineStr"/>
-      <c r="BX40" s="25" t="inlineStr"/>
-      <c r="BY40" s="33" t="inlineStr"/>
-      <c r="BZ40" s="33" t="inlineStr"/>
-      <c r="CA40" s="33" t="inlineStr"/>
-      <c r="CB40" s="33" t="inlineStr"/>
-      <c r="CC40" s="26" t="inlineStr"/>
-      <c r="CD40" s="27" t="inlineStr"/>
+      <c r="BL40" s="26" t="inlineStr"/>
+      <c r="BM40" s="27" t="inlineStr"/>
+      <c r="BN40" s="33" t="inlineStr"/>
+      <c r="BO40" s="34" t="inlineStr"/>
+      <c r="BP40" s="34" t="inlineStr"/>
+      <c r="BQ40" s="34" t="inlineStr"/>
+      <c r="BR40" s="34" t="inlineStr"/>
+      <c r="BS40" s="34" t="inlineStr"/>
+      <c r="BT40" s="34" t="inlineStr"/>
+      <c r="BU40" s="34" t="inlineStr"/>
+      <c r="BV40" s="34" t="inlineStr"/>
+      <c r="BW40" s="34" t="inlineStr"/>
+      <c r="BX40" s="34" t="inlineStr"/>
+      <c r="BY40" s="34" t="inlineStr"/>
+      <c r="BZ40" s="34" t="inlineStr"/>
+      <c r="CA40" s="34" t="inlineStr"/>
+      <c r="CB40" s="34" t="inlineStr"/>
+      <c r="CC40" s="34" t="inlineStr"/>
+      <c r="CD40" s="34" t="inlineStr"/>
+      <c r="CE40" s="34" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="16" t="inlineStr"/>
@@ -5006,30 +5059,31 @@
       <c r="BD41" s="21" t="inlineStr"/>
       <c r="BE41" s="21" t="inlineStr"/>
       <c r="BF41" s="23" t="inlineStr"/>
-      <c r="BG41" s="24" t="inlineStr"/>
+      <c r="BG41" s="25" t="inlineStr"/>
       <c r="BH41" s="32" t="inlineStr"/>
       <c r="BI41" s="32" t="inlineStr"/>
       <c r="BJ41" s="32" t="inlineStr"/>
       <c r="BK41" s="32" t="inlineStr"/>
-      <c r="BL41" s="32" t="inlineStr"/>
-      <c r="BM41" s="32" t="inlineStr"/>
-      <c r="BN41" s="32" t="inlineStr"/>
-      <c r="BO41" s="32" t="inlineStr"/>
-      <c r="BP41" s="32" t="inlineStr"/>
-      <c r="BQ41" s="32" t="inlineStr"/>
-      <c r="BR41" s="32" t="inlineStr"/>
-      <c r="BS41" s="32" t="inlineStr"/>
-      <c r="BT41" s="32" t="inlineStr"/>
-      <c r="BU41" s="32" t="inlineStr"/>
-      <c r="BV41" s="32" t="inlineStr"/>
-      <c r="BW41" s="32" t="inlineStr"/>
-      <c r="BX41" s="25" t="inlineStr"/>
-      <c r="BY41" s="33" t="inlineStr"/>
-      <c r="BZ41" s="33" t="inlineStr"/>
-      <c r="CA41" s="33" t="inlineStr"/>
-      <c r="CB41" s="33" t="inlineStr"/>
-      <c r="CC41" s="26" t="inlineStr"/>
-      <c r="CD41" s="27" t="inlineStr"/>
+      <c r="BL41" s="26" t="inlineStr"/>
+      <c r="BM41" s="27" t="inlineStr"/>
+      <c r="BN41" s="33" t="inlineStr"/>
+      <c r="BO41" s="34" t="inlineStr"/>
+      <c r="BP41" s="34" t="inlineStr"/>
+      <c r="BQ41" s="34" t="inlineStr"/>
+      <c r="BR41" s="34" t="inlineStr"/>
+      <c r="BS41" s="34" t="inlineStr"/>
+      <c r="BT41" s="34" t="inlineStr"/>
+      <c r="BU41" s="34" t="inlineStr"/>
+      <c r="BV41" s="34" t="inlineStr"/>
+      <c r="BW41" s="34" t="inlineStr"/>
+      <c r="BX41" s="34" t="inlineStr"/>
+      <c r="BY41" s="34" t="inlineStr"/>
+      <c r="BZ41" s="34" t="inlineStr"/>
+      <c r="CA41" s="34" t="inlineStr"/>
+      <c r="CB41" s="34" t="inlineStr"/>
+      <c r="CC41" s="34" t="inlineStr"/>
+      <c r="CD41" s="34" t="inlineStr"/>
+      <c r="CE41" s="34" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="16" t="inlineStr"/>
@@ -5090,30 +5144,31 @@
       <c r="BD42" s="21" t="inlineStr"/>
       <c r="BE42" s="21" t="inlineStr"/>
       <c r="BF42" s="23" t="inlineStr"/>
-      <c r="BG42" s="24" t="inlineStr"/>
+      <c r="BG42" s="25" t="inlineStr"/>
       <c r="BH42" s="32" t="inlineStr"/>
       <c r="BI42" s="32" t="inlineStr"/>
       <c r="BJ42" s="32" t="inlineStr"/>
       <c r="BK42" s="32" t="inlineStr"/>
-      <c r="BL42" s="32" t="inlineStr"/>
-      <c r="BM42" s="32" t="inlineStr"/>
-      <c r="BN42" s="32" t="inlineStr"/>
-      <c r="BO42" s="32" t="inlineStr"/>
-      <c r="BP42" s="32" t="inlineStr"/>
-      <c r="BQ42" s="32" t="inlineStr"/>
-      <c r="BR42" s="32" t="inlineStr"/>
-      <c r="BS42" s="32" t="inlineStr"/>
-      <c r="BT42" s="32" t="inlineStr"/>
-      <c r="BU42" s="32" t="inlineStr"/>
-      <c r="BV42" s="32" t="inlineStr"/>
-      <c r="BW42" s="32" t="inlineStr"/>
-      <c r="BX42" s="25" t="inlineStr"/>
-      <c r="BY42" s="33" t="inlineStr"/>
-      <c r="BZ42" s="33" t="inlineStr"/>
-      <c r="CA42" s="33" t="inlineStr"/>
-      <c r="CB42" s="33" t="inlineStr"/>
-      <c r="CC42" s="26" t="inlineStr"/>
-      <c r="CD42" s="27" t="inlineStr"/>
+      <c r="BL42" s="26" t="inlineStr"/>
+      <c r="BM42" s="27" t="inlineStr"/>
+      <c r="BN42" s="33" t="inlineStr"/>
+      <c r="BO42" s="34" t="inlineStr"/>
+      <c r="BP42" s="34" t="inlineStr"/>
+      <c r="BQ42" s="34" t="inlineStr"/>
+      <c r="BR42" s="34" t="inlineStr"/>
+      <c r="BS42" s="34" t="inlineStr"/>
+      <c r="BT42" s="34" t="inlineStr"/>
+      <c r="BU42" s="34" t="inlineStr"/>
+      <c r="BV42" s="34" t="inlineStr"/>
+      <c r="BW42" s="34" t="inlineStr"/>
+      <c r="BX42" s="34" t="inlineStr"/>
+      <c r="BY42" s="34" t="inlineStr"/>
+      <c r="BZ42" s="34" t="inlineStr"/>
+      <c r="CA42" s="34" t="inlineStr"/>
+      <c r="CB42" s="34" t="inlineStr"/>
+      <c r="CC42" s="34" t="inlineStr"/>
+      <c r="CD42" s="34" t="inlineStr"/>
+      <c r="CE42" s="34" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="16" t="inlineStr"/>
@@ -5174,30 +5229,31 @@
       <c r="BD43" s="21" t="inlineStr"/>
       <c r="BE43" s="21" t="inlineStr"/>
       <c r="BF43" s="23" t="inlineStr"/>
-      <c r="BG43" s="24" t="inlineStr"/>
+      <c r="BG43" s="25" t="inlineStr"/>
       <c r="BH43" s="32" t="inlineStr"/>
       <c r="BI43" s="32" t="inlineStr"/>
       <c r="BJ43" s="32" t="inlineStr"/>
       <c r="BK43" s="32" t="inlineStr"/>
-      <c r="BL43" s="32" t="inlineStr"/>
-      <c r="BM43" s="32" t="inlineStr"/>
-      <c r="BN43" s="32" t="inlineStr"/>
-      <c r="BO43" s="32" t="inlineStr"/>
-      <c r="BP43" s="32" t="inlineStr"/>
-      <c r="BQ43" s="32" t="inlineStr"/>
-      <c r="BR43" s="32" t="inlineStr"/>
-      <c r="BS43" s="32" t="inlineStr"/>
-      <c r="BT43" s="32" t="inlineStr"/>
-      <c r="BU43" s="32" t="inlineStr"/>
-      <c r="BV43" s="32" t="inlineStr"/>
-      <c r="BW43" s="32" t="inlineStr"/>
-      <c r="BX43" s="25" t="inlineStr"/>
-      <c r="BY43" s="33" t="inlineStr"/>
-      <c r="BZ43" s="33" t="inlineStr"/>
-      <c r="CA43" s="33" t="inlineStr"/>
-      <c r="CB43" s="33" t="inlineStr"/>
-      <c r="CC43" s="26" t="inlineStr"/>
-      <c r="CD43" s="27" t="inlineStr"/>
+      <c r="BL43" s="26" t="inlineStr"/>
+      <c r="BM43" s="27" t="inlineStr"/>
+      <c r="BN43" s="33" t="inlineStr"/>
+      <c r="BO43" s="34" t="inlineStr"/>
+      <c r="BP43" s="34" t="inlineStr"/>
+      <c r="BQ43" s="34" t="inlineStr"/>
+      <c r="BR43" s="34" t="inlineStr"/>
+      <c r="BS43" s="34" t="inlineStr"/>
+      <c r="BT43" s="34" t="inlineStr"/>
+      <c r="BU43" s="34" t="inlineStr"/>
+      <c r="BV43" s="34" t="inlineStr"/>
+      <c r="BW43" s="34" t="inlineStr"/>
+      <c r="BX43" s="34" t="inlineStr"/>
+      <c r="BY43" s="34" t="inlineStr"/>
+      <c r="BZ43" s="34" t="inlineStr"/>
+      <c r="CA43" s="34" t="inlineStr"/>
+      <c r="CB43" s="34" t="inlineStr"/>
+      <c r="CC43" s="34" t="inlineStr"/>
+      <c r="CD43" s="34" t="inlineStr"/>
+      <c r="CE43" s="34" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="16" t="inlineStr"/>
@@ -5258,30 +5314,31 @@
       <c r="BD44" s="21" t="inlineStr"/>
       <c r="BE44" s="21" t="inlineStr"/>
       <c r="BF44" s="23" t="inlineStr"/>
-      <c r="BG44" s="24" t="inlineStr"/>
+      <c r="BG44" s="25" t="inlineStr"/>
       <c r="BH44" s="32" t="inlineStr"/>
       <c r="BI44" s="32" t="inlineStr"/>
       <c r="BJ44" s="32" t="inlineStr"/>
       <c r="BK44" s="32" t="inlineStr"/>
-      <c r="BL44" s="32" t="inlineStr"/>
-      <c r="BM44" s="32" t="inlineStr"/>
-      <c r="BN44" s="32" t="inlineStr"/>
-      <c r="BO44" s="32" t="inlineStr"/>
-      <c r="BP44" s="32" t="inlineStr"/>
-      <c r="BQ44" s="32" t="inlineStr"/>
-      <c r="BR44" s="32" t="inlineStr"/>
-      <c r="BS44" s="32" t="inlineStr"/>
-      <c r="BT44" s="32" t="inlineStr"/>
-      <c r="BU44" s="32" t="inlineStr"/>
-      <c r="BV44" s="32" t="inlineStr"/>
-      <c r="BW44" s="32" t="inlineStr"/>
-      <c r="BX44" s="25" t="inlineStr"/>
-      <c r="BY44" s="33" t="inlineStr"/>
-      <c r="BZ44" s="33" t="inlineStr"/>
-      <c r="CA44" s="33" t="inlineStr"/>
-      <c r="CB44" s="33" t="inlineStr"/>
-      <c r="CC44" s="26" t="inlineStr"/>
-      <c r="CD44" s="27" t="inlineStr"/>
+      <c r="BL44" s="26" t="inlineStr"/>
+      <c r="BM44" s="27" t="inlineStr"/>
+      <c r="BN44" s="33" t="inlineStr"/>
+      <c r="BO44" s="34" t="inlineStr"/>
+      <c r="BP44" s="34" t="inlineStr"/>
+      <c r="BQ44" s="34" t="inlineStr"/>
+      <c r="BR44" s="34" t="inlineStr"/>
+      <c r="BS44" s="34" t="inlineStr"/>
+      <c r="BT44" s="34" t="inlineStr"/>
+      <c r="BU44" s="34" t="inlineStr"/>
+      <c r="BV44" s="34" t="inlineStr"/>
+      <c r="BW44" s="34" t="inlineStr"/>
+      <c r="BX44" s="34" t="inlineStr"/>
+      <c r="BY44" s="34" t="inlineStr"/>
+      <c r="BZ44" s="34" t="inlineStr"/>
+      <c r="CA44" s="34" t="inlineStr"/>
+      <c r="CB44" s="34" t="inlineStr"/>
+      <c r="CC44" s="34" t="inlineStr"/>
+      <c r="CD44" s="34" t="inlineStr"/>
+      <c r="CE44" s="34" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="16" t="inlineStr"/>
@@ -5342,30 +5399,31 @@
       <c r="BD45" s="21" t="inlineStr"/>
       <c r="BE45" s="21" t="inlineStr"/>
       <c r="BF45" s="23" t="inlineStr"/>
-      <c r="BG45" s="24" t="inlineStr"/>
+      <c r="BG45" s="25" t="inlineStr"/>
       <c r="BH45" s="32" t="inlineStr"/>
       <c r="BI45" s="32" t="inlineStr"/>
       <c r="BJ45" s="32" t="inlineStr"/>
       <c r="BK45" s="32" t="inlineStr"/>
-      <c r="BL45" s="32" t="inlineStr"/>
-      <c r="BM45" s="32" t="inlineStr"/>
-      <c r="BN45" s="32" t="inlineStr"/>
-      <c r="BO45" s="32" t="inlineStr"/>
-      <c r="BP45" s="32" t="inlineStr"/>
-      <c r="BQ45" s="32" t="inlineStr"/>
-      <c r="BR45" s="32" t="inlineStr"/>
-      <c r="BS45" s="32" t="inlineStr"/>
-      <c r="BT45" s="32" t="inlineStr"/>
-      <c r="BU45" s="32" t="inlineStr"/>
-      <c r="BV45" s="32" t="inlineStr"/>
-      <c r="BW45" s="32" t="inlineStr"/>
-      <c r="BX45" s="25" t="inlineStr"/>
-      <c r="BY45" s="33" t="inlineStr"/>
-      <c r="BZ45" s="33" t="inlineStr"/>
-      <c r="CA45" s="33" t="inlineStr"/>
-      <c r="CB45" s="33" t="inlineStr"/>
-      <c r="CC45" s="26" t="inlineStr"/>
-      <c r="CD45" s="27" t="inlineStr"/>
+      <c r="BL45" s="26" t="inlineStr"/>
+      <c r="BM45" s="27" t="inlineStr"/>
+      <c r="BN45" s="33" t="inlineStr"/>
+      <c r="BO45" s="34" t="inlineStr"/>
+      <c r="BP45" s="34" t="inlineStr"/>
+      <c r="BQ45" s="34" t="inlineStr"/>
+      <c r="BR45" s="34" t="inlineStr"/>
+      <c r="BS45" s="34" t="inlineStr"/>
+      <c r="BT45" s="34" t="inlineStr"/>
+      <c r="BU45" s="34" t="inlineStr"/>
+      <c r="BV45" s="34" t="inlineStr"/>
+      <c r="BW45" s="34" t="inlineStr"/>
+      <c r="BX45" s="34" t="inlineStr"/>
+      <c r="BY45" s="34" t="inlineStr"/>
+      <c r="BZ45" s="34" t="inlineStr"/>
+      <c r="CA45" s="34" t="inlineStr"/>
+      <c r="CB45" s="34" t="inlineStr"/>
+      <c r="CC45" s="34" t="inlineStr"/>
+      <c r="CD45" s="34" t="inlineStr"/>
+      <c r="CE45" s="34" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="16" t="inlineStr"/>
@@ -5426,30 +5484,31 @@
       <c r="BD46" s="21" t="inlineStr"/>
       <c r="BE46" s="21" t="inlineStr"/>
       <c r="BF46" s="23" t="inlineStr"/>
-      <c r="BG46" s="24" t="inlineStr"/>
+      <c r="BG46" s="25" t="inlineStr"/>
       <c r="BH46" s="32" t="inlineStr"/>
       <c r="BI46" s="32" t="inlineStr"/>
       <c r="BJ46" s="32" t="inlineStr"/>
       <c r="BK46" s="32" t="inlineStr"/>
-      <c r="BL46" s="32" t="inlineStr"/>
-      <c r="BM46" s="32" t="inlineStr"/>
-      <c r="BN46" s="32" t="inlineStr"/>
-      <c r="BO46" s="32" t="inlineStr"/>
-      <c r="BP46" s="32" t="inlineStr"/>
-      <c r="BQ46" s="32" t="inlineStr"/>
-      <c r="BR46" s="32" t="inlineStr"/>
-      <c r="BS46" s="32" t="inlineStr"/>
-      <c r="BT46" s="32" t="inlineStr"/>
-      <c r="BU46" s="32" t="inlineStr"/>
-      <c r="BV46" s="32" t="inlineStr"/>
-      <c r="BW46" s="32" t="inlineStr"/>
-      <c r="BX46" s="25" t="inlineStr"/>
-      <c r="BY46" s="33" t="inlineStr"/>
-      <c r="BZ46" s="33" t="inlineStr"/>
-      <c r="CA46" s="33" t="inlineStr"/>
-      <c r="CB46" s="33" t="inlineStr"/>
-      <c r="CC46" s="26" t="inlineStr"/>
-      <c r="CD46" s="27" t="inlineStr"/>
+      <c r="BL46" s="26" t="inlineStr"/>
+      <c r="BM46" s="27" t="inlineStr"/>
+      <c r="BN46" s="33" t="inlineStr"/>
+      <c r="BO46" s="34" t="inlineStr"/>
+      <c r="BP46" s="34" t="inlineStr"/>
+      <c r="BQ46" s="34" t="inlineStr"/>
+      <c r="BR46" s="34" t="inlineStr"/>
+      <c r="BS46" s="34" t="inlineStr"/>
+      <c r="BT46" s="34" t="inlineStr"/>
+      <c r="BU46" s="34" t="inlineStr"/>
+      <c r="BV46" s="34" t="inlineStr"/>
+      <c r="BW46" s="34" t="inlineStr"/>
+      <c r="BX46" s="34" t="inlineStr"/>
+      <c r="BY46" s="34" t="inlineStr"/>
+      <c r="BZ46" s="34" t="inlineStr"/>
+      <c r="CA46" s="34" t="inlineStr"/>
+      <c r="CB46" s="34" t="inlineStr"/>
+      <c r="CC46" s="34" t="inlineStr"/>
+      <c r="CD46" s="34" t="inlineStr"/>
+      <c r="CE46" s="34" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="16" t="inlineStr"/>
@@ -5510,30 +5569,31 @@
       <c r="BD47" s="21" t="inlineStr"/>
       <c r="BE47" s="21" t="inlineStr"/>
       <c r="BF47" s="23" t="inlineStr"/>
-      <c r="BG47" s="24" t="inlineStr"/>
+      <c r="BG47" s="25" t="inlineStr"/>
       <c r="BH47" s="32" t="inlineStr"/>
       <c r="BI47" s="32" t="inlineStr"/>
       <c r="BJ47" s="32" t="inlineStr"/>
       <c r="BK47" s="32" t="inlineStr"/>
-      <c r="BL47" s="32" t="inlineStr"/>
-      <c r="BM47" s="32" t="inlineStr"/>
-      <c r="BN47" s="32" t="inlineStr"/>
-      <c r="BO47" s="32" t="inlineStr"/>
-      <c r="BP47" s="32" t="inlineStr"/>
-      <c r="BQ47" s="32" t="inlineStr"/>
-      <c r="BR47" s="32" t="inlineStr"/>
-      <c r="BS47" s="32" t="inlineStr"/>
-      <c r="BT47" s="32" t="inlineStr"/>
-      <c r="BU47" s="32" t="inlineStr"/>
-      <c r="BV47" s="32" t="inlineStr"/>
-      <c r="BW47" s="32" t="inlineStr"/>
-      <c r="BX47" s="25" t="inlineStr"/>
-      <c r="BY47" s="33" t="inlineStr"/>
-      <c r="BZ47" s="33" t="inlineStr"/>
-      <c r="CA47" s="33" t="inlineStr"/>
-      <c r="CB47" s="33" t="inlineStr"/>
-      <c r="CC47" s="26" t="inlineStr"/>
-      <c r="CD47" s="27" t="inlineStr"/>
+      <c r="BL47" s="26" t="inlineStr"/>
+      <c r="BM47" s="27" t="inlineStr"/>
+      <c r="BN47" s="33" t="inlineStr"/>
+      <c r="BO47" s="34" t="inlineStr"/>
+      <c r="BP47" s="34" t="inlineStr"/>
+      <c r="BQ47" s="34" t="inlineStr"/>
+      <c r="BR47" s="34" t="inlineStr"/>
+      <c r="BS47" s="34" t="inlineStr"/>
+      <c r="BT47" s="34" t="inlineStr"/>
+      <c r="BU47" s="34" t="inlineStr"/>
+      <c r="BV47" s="34" t="inlineStr"/>
+      <c r="BW47" s="34" t="inlineStr"/>
+      <c r="BX47" s="34" t="inlineStr"/>
+      <c r="BY47" s="34" t="inlineStr"/>
+      <c r="BZ47" s="34" t="inlineStr"/>
+      <c r="CA47" s="34" t="inlineStr"/>
+      <c r="CB47" s="34" t="inlineStr"/>
+      <c r="CC47" s="34" t="inlineStr"/>
+      <c r="CD47" s="34" t="inlineStr"/>
+      <c r="CE47" s="34" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="16" t="inlineStr"/>
@@ -5594,30 +5654,31 @@
       <c r="BD48" s="21" t="inlineStr"/>
       <c r="BE48" s="21" t="inlineStr"/>
       <c r="BF48" s="23" t="inlineStr"/>
-      <c r="BG48" s="24" t="inlineStr"/>
+      <c r="BG48" s="25" t="inlineStr"/>
       <c r="BH48" s="32" t="inlineStr"/>
       <c r="BI48" s="32" t="inlineStr"/>
       <c r="BJ48" s="32" t="inlineStr"/>
       <c r="BK48" s="32" t="inlineStr"/>
-      <c r="BL48" s="32" t="inlineStr"/>
-      <c r="BM48" s="32" t="inlineStr"/>
-      <c r="BN48" s="32" t="inlineStr"/>
-      <c r="BO48" s="32" t="inlineStr"/>
-      <c r="BP48" s="32" t="inlineStr"/>
-      <c r="BQ48" s="32" t="inlineStr"/>
-      <c r="BR48" s="32" t="inlineStr"/>
-      <c r="BS48" s="32" t="inlineStr"/>
-      <c r="BT48" s="32" t="inlineStr"/>
-      <c r="BU48" s="32" t="inlineStr"/>
-      <c r="BV48" s="32" t="inlineStr"/>
-      <c r="BW48" s="32" t="inlineStr"/>
-      <c r="BX48" s="25" t="inlineStr"/>
-      <c r="BY48" s="33" t="inlineStr"/>
-      <c r="BZ48" s="33" t="inlineStr"/>
-      <c r="CA48" s="33" t="inlineStr"/>
-      <c r="CB48" s="33" t="inlineStr"/>
-      <c r="CC48" s="26" t="inlineStr"/>
-      <c r="CD48" s="27" t="inlineStr"/>
+      <c r="BL48" s="26" t="inlineStr"/>
+      <c r="BM48" s="27" t="inlineStr"/>
+      <c r="BN48" s="33" t="inlineStr"/>
+      <c r="BO48" s="34" t="inlineStr"/>
+      <c r="BP48" s="34" t="inlineStr"/>
+      <c r="BQ48" s="34" t="inlineStr"/>
+      <c r="BR48" s="34" t="inlineStr"/>
+      <c r="BS48" s="34" t="inlineStr"/>
+      <c r="BT48" s="34" t="inlineStr"/>
+      <c r="BU48" s="34" t="inlineStr"/>
+      <c r="BV48" s="34" t="inlineStr"/>
+      <c r="BW48" s="34" t="inlineStr"/>
+      <c r="BX48" s="34" t="inlineStr"/>
+      <c r="BY48" s="34" t="inlineStr"/>
+      <c r="BZ48" s="34" t="inlineStr"/>
+      <c r="CA48" s="34" t="inlineStr"/>
+      <c r="CB48" s="34" t="inlineStr"/>
+      <c r="CC48" s="34" t="inlineStr"/>
+      <c r="CD48" s="34" t="inlineStr"/>
+      <c r="CE48" s="34" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="16" t="inlineStr"/>
@@ -5678,30 +5739,31 @@
       <c r="BD49" s="21" t="inlineStr"/>
       <c r="BE49" s="21" t="inlineStr"/>
       <c r="BF49" s="23" t="inlineStr"/>
-      <c r="BG49" s="24" t="inlineStr"/>
+      <c r="BG49" s="25" t="inlineStr"/>
       <c r="BH49" s="32" t="inlineStr"/>
       <c r="BI49" s="32" t="inlineStr"/>
       <c r="BJ49" s="32" t="inlineStr"/>
       <c r="BK49" s="32" t="inlineStr"/>
-      <c r="BL49" s="32" t="inlineStr"/>
-      <c r="BM49" s="32" t="inlineStr"/>
-      <c r="BN49" s="32" t="inlineStr"/>
-      <c r="BO49" s="32" t="inlineStr"/>
-      <c r="BP49" s="32" t="inlineStr"/>
-      <c r="BQ49" s="32" t="inlineStr"/>
-      <c r="BR49" s="32" t="inlineStr"/>
-      <c r="BS49" s="32" t="inlineStr"/>
-      <c r="BT49" s="32" t="inlineStr"/>
-      <c r="BU49" s="32" t="inlineStr"/>
-      <c r="BV49" s="32" t="inlineStr"/>
-      <c r="BW49" s="32" t="inlineStr"/>
-      <c r="BX49" s="25" t="inlineStr"/>
-      <c r="BY49" s="33" t="inlineStr"/>
-      <c r="BZ49" s="33" t="inlineStr"/>
-      <c r="CA49" s="33" t="inlineStr"/>
-      <c r="CB49" s="33" t="inlineStr"/>
-      <c r="CC49" s="26" t="inlineStr"/>
-      <c r="CD49" s="27" t="inlineStr"/>
+      <c r="BL49" s="26" t="inlineStr"/>
+      <c r="BM49" s="27" t="inlineStr"/>
+      <c r="BN49" s="33" t="inlineStr"/>
+      <c r="BO49" s="34" t="inlineStr"/>
+      <c r="BP49" s="34" t="inlineStr"/>
+      <c r="BQ49" s="34" t="inlineStr"/>
+      <c r="BR49" s="34" t="inlineStr"/>
+      <c r="BS49" s="34" t="inlineStr"/>
+      <c r="BT49" s="34" t="inlineStr"/>
+      <c r="BU49" s="34" t="inlineStr"/>
+      <c r="BV49" s="34" t="inlineStr"/>
+      <c r="BW49" s="34" t="inlineStr"/>
+      <c r="BX49" s="34" t="inlineStr"/>
+      <c r="BY49" s="34" t="inlineStr"/>
+      <c r="BZ49" s="34" t="inlineStr"/>
+      <c r="CA49" s="34" t="inlineStr"/>
+      <c r="CB49" s="34" t="inlineStr"/>
+      <c r="CC49" s="34" t="inlineStr"/>
+      <c r="CD49" s="34" t="inlineStr"/>
+      <c r="CE49" s="34" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="16" t="inlineStr"/>
@@ -5762,30 +5824,31 @@
       <c r="BD50" s="21" t="inlineStr"/>
       <c r="BE50" s="21" t="inlineStr"/>
       <c r="BF50" s="23" t="inlineStr"/>
-      <c r="BG50" s="24" t="inlineStr"/>
+      <c r="BG50" s="25" t="inlineStr"/>
       <c r="BH50" s="32" t="inlineStr"/>
       <c r="BI50" s="32" t="inlineStr"/>
       <c r="BJ50" s="32" t="inlineStr"/>
       <c r="BK50" s="32" t="inlineStr"/>
-      <c r="BL50" s="32" t="inlineStr"/>
-      <c r="BM50" s="32" t="inlineStr"/>
-      <c r="BN50" s="32" t="inlineStr"/>
-      <c r="BO50" s="32" t="inlineStr"/>
-      <c r="BP50" s="32" t="inlineStr"/>
-      <c r="BQ50" s="32" t="inlineStr"/>
-      <c r="BR50" s="32" t="inlineStr"/>
-      <c r="BS50" s="32" t="inlineStr"/>
-      <c r="BT50" s="32" t="inlineStr"/>
-      <c r="BU50" s="32" t="inlineStr"/>
-      <c r="BV50" s="32" t="inlineStr"/>
-      <c r="BW50" s="32" t="inlineStr"/>
-      <c r="BX50" s="25" t="inlineStr"/>
-      <c r="BY50" s="33" t="inlineStr"/>
-      <c r="BZ50" s="33" t="inlineStr"/>
-      <c r="CA50" s="33" t="inlineStr"/>
-      <c r="CB50" s="33" t="inlineStr"/>
-      <c r="CC50" s="26" t="inlineStr"/>
-      <c r="CD50" s="27" t="inlineStr"/>
+      <c r="BL50" s="26" t="inlineStr"/>
+      <c r="BM50" s="27" t="inlineStr"/>
+      <c r="BN50" s="33" t="inlineStr"/>
+      <c r="BO50" s="34" t="inlineStr"/>
+      <c r="BP50" s="34" t="inlineStr"/>
+      <c r="BQ50" s="34" t="inlineStr"/>
+      <c r="BR50" s="34" t="inlineStr"/>
+      <c r="BS50" s="34" t="inlineStr"/>
+      <c r="BT50" s="34" t="inlineStr"/>
+      <c r="BU50" s="34" t="inlineStr"/>
+      <c r="BV50" s="34" t="inlineStr"/>
+      <c r="BW50" s="34" t="inlineStr"/>
+      <c r="BX50" s="34" t="inlineStr"/>
+      <c r="BY50" s="34" t="inlineStr"/>
+      <c r="BZ50" s="34" t="inlineStr"/>
+      <c r="CA50" s="34" t="inlineStr"/>
+      <c r="CB50" s="34" t="inlineStr"/>
+      <c r="CC50" s="34" t="inlineStr"/>
+      <c r="CD50" s="34" t="inlineStr"/>
+      <c r="CE50" s="34" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="16" t="inlineStr"/>
@@ -5846,30 +5909,31 @@
       <c r="BD51" s="21" t="inlineStr"/>
       <c r="BE51" s="21" t="inlineStr"/>
       <c r="BF51" s="23" t="inlineStr"/>
-      <c r="BG51" s="24" t="inlineStr"/>
+      <c r="BG51" s="25" t="inlineStr"/>
       <c r="BH51" s="32" t="inlineStr"/>
       <c r="BI51" s="32" t="inlineStr"/>
       <c r="BJ51" s="32" t="inlineStr"/>
       <c r="BK51" s="32" t="inlineStr"/>
-      <c r="BL51" s="32" t="inlineStr"/>
-      <c r="BM51" s="32" t="inlineStr"/>
-      <c r="BN51" s="32" t="inlineStr"/>
-      <c r="BO51" s="32" t="inlineStr"/>
-      <c r="BP51" s="32" t="inlineStr"/>
-      <c r="BQ51" s="32" t="inlineStr"/>
-      <c r="BR51" s="32" t="inlineStr"/>
-      <c r="BS51" s="32" t="inlineStr"/>
-      <c r="BT51" s="32" t="inlineStr"/>
-      <c r="BU51" s="32" t="inlineStr"/>
-      <c r="BV51" s="32" t="inlineStr"/>
-      <c r="BW51" s="32" t="inlineStr"/>
-      <c r="BX51" s="25" t="inlineStr"/>
-      <c r="BY51" s="33" t="inlineStr"/>
-      <c r="BZ51" s="33" t="inlineStr"/>
-      <c r="CA51" s="33" t="inlineStr"/>
-      <c r="CB51" s="33" t="inlineStr"/>
-      <c r="CC51" s="26" t="inlineStr"/>
-      <c r="CD51" s="27" t="inlineStr"/>
+      <c r="BL51" s="26" t="inlineStr"/>
+      <c r="BM51" s="27" t="inlineStr"/>
+      <c r="BN51" s="33" t="inlineStr"/>
+      <c r="BO51" s="34" t="inlineStr"/>
+      <c r="BP51" s="34" t="inlineStr"/>
+      <c r="BQ51" s="34" t="inlineStr"/>
+      <c r="BR51" s="34" t="inlineStr"/>
+      <c r="BS51" s="34" t="inlineStr"/>
+      <c r="BT51" s="34" t="inlineStr"/>
+      <c r="BU51" s="34" t="inlineStr"/>
+      <c r="BV51" s="34" t="inlineStr"/>
+      <c r="BW51" s="34" t="inlineStr"/>
+      <c r="BX51" s="34" t="inlineStr"/>
+      <c r="BY51" s="34" t="inlineStr"/>
+      <c r="BZ51" s="34" t="inlineStr"/>
+      <c r="CA51" s="34" t="inlineStr"/>
+      <c r="CB51" s="34" t="inlineStr"/>
+      <c r="CC51" s="34" t="inlineStr"/>
+      <c r="CD51" s="34" t="inlineStr"/>
+      <c r="CE51" s="34" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="16" t="inlineStr"/>
@@ -5930,30 +5994,31 @@
       <c r="BD52" s="21" t="inlineStr"/>
       <c r="BE52" s="21" t="inlineStr"/>
       <c r="BF52" s="23" t="inlineStr"/>
-      <c r="BG52" s="24" t="inlineStr"/>
+      <c r="BG52" s="25" t="inlineStr"/>
       <c r="BH52" s="32" t="inlineStr"/>
       <c r="BI52" s="32" t="inlineStr"/>
       <c r="BJ52" s="32" t="inlineStr"/>
       <c r="BK52" s="32" t="inlineStr"/>
-      <c r="BL52" s="32" t="inlineStr"/>
-      <c r="BM52" s="32" t="inlineStr"/>
-      <c r="BN52" s="32" t="inlineStr"/>
-      <c r="BO52" s="32" t="inlineStr"/>
-      <c r="BP52" s="32" t="inlineStr"/>
-      <c r="BQ52" s="32" t="inlineStr"/>
-      <c r="BR52" s="32" t="inlineStr"/>
-      <c r="BS52" s="32" t="inlineStr"/>
-      <c r="BT52" s="32" t="inlineStr"/>
-      <c r="BU52" s="32" t="inlineStr"/>
-      <c r="BV52" s="32" t="inlineStr"/>
-      <c r="BW52" s="32" t="inlineStr"/>
-      <c r="BX52" s="25" t="inlineStr"/>
-      <c r="BY52" s="33" t="inlineStr"/>
-      <c r="BZ52" s="33" t="inlineStr"/>
-      <c r="CA52" s="33" t="inlineStr"/>
-      <c r="CB52" s="33" t="inlineStr"/>
-      <c r="CC52" s="26" t="inlineStr"/>
-      <c r="CD52" s="27" t="inlineStr"/>
+      <c r="BL52" s="26" t="inlineStr"/>
+      <c r="BM52" s="27" t="inlineStr"/>
+      <c r="BN52" s="33" t="inlineStr"/>
+      <c r="BO52" s="34" t="inlineStr"/>
+      <c r="BP52" s="34" t="inlineStr"/>
+      <c r="BQ52" s="34" t="inlineStr"/>
+      <c r="BR52" s="34" t="inlineStr"/>
+      <c r="BS52" s="34" t="inlineStr"/>
+      <c r="BT52" s="34" t="inlineStr"/>
+      <c r="BU52" s="34" t="inlineStr"/>
+      <c r="BV52" s="34" t="inlineStr"/>
+      <c r="BW52" s="34" t="inlineStr"/>
+      <c r="BX52" s="34" t="inlineStr"/>
+      <c r="BY52" s="34" t="inlineStr"/>
+      <c r="BZ52" s="34" t="inlineStr"/>
+      <c r="CA52" s="34" t="inlineStr"/>
+      <c r="CB52" s="34" t="inlineStr"/>
+      <c r="CC52" s="34" t="inlineStr"/>
+      <c r="CD52" s="34" t="inlineStr"/>
+      <c r="CE52" s="34" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="16" t="inlineStr"/>
@@ -6014,30 +6079,31 @@
       <c r="BD53" s="21" t="inlineStr"/>
       <c r="BE53" s="21" t="inlineStr"/>
       <c r="BF53" s="23" t="inlineStr"/>
-      <c r="BG53" s="24" t="inlineStr"/>
+      <c r="BG53" s="25" t="inlineStr"/>
       <c r="BH53" s="32" t="inlineStr"/>
       <c r="BI53" s="32" t="inlineStr"/>
       <c r="BJ53" s="32" t="inlineStr"/>
       <c r="BK53" s="32" t="inlineStr"/>
-      <c r="BL53" s="32" t="inlineStr"/>
-      <c r="BM53" s="32" t="inlineStr"/>
-      <c r="BN53" s="32" t="inlineStr"/>
-      <c r="BO53" s="32" t="inlineStr"/>
-      <c r="BP53" s="32" t="inlineStr"/>
-      <c r="BQ53" s="32" t="inlineStr"/>
-      <c r="BR53" s="32" t="inlineStr"/>
-      <c r="BS53" s="32" t="inlineStr"/>
-      <c r="BT53" s="32" t="inlineStr"/>
-      <c r="BU53" s="32" t="inlineStr"/>
-      <c r="BV53" s="32" t="inlineStr"/>
-      <c r="BW53" s="32" t="inlineStr"/>
-      <c r="BX53" s="25" t="inlineStr"/>
-      <c r="BY53" s="33" t="inlineStr"/>
-      <c r="BZ53" s="33" t="inlineStr"/>
-      <c r="CA53" s="33" t="inlineStr"/>
-      <c r="CB53" s="33" t="inlineStr"/>
-      <c r="CC53" s="26" t="inlineStr"/>
-      <c r="CD53" s="27" t="inlineStr"/>
+      <c r="BL53" s="26" t="inlineStr"/>
+      <c r="BM53" s="27" t="inlineStr"/>
+      <c r="BN53" s="33" t="inlineStr"/>
+      <c r="BO53" s="34" t="inlineStr"/>
+      <c r="BP53" s="34" t="inlineStr"/>
+      <c r="BQ53" s="34" t="inlineStr"/>
+      <c r="BR53" s="34" t="inlineStr"/>
+      <c r="BS53" s="34" t="inlineStr"/>
+      <c r="BT53" s="34" t="inlineStr"/>
+      <c r="BU53" s="34" t="inlineStr"/>
+      <c r="BV53" s="34" t="inlineStr"/>
+      <c r="BW53" s="34" t="inlineStr"/>
+      <c r="BX53" s="34" t="inlineStr"/>
+      <c r="BY53" s="34" t="inlineStr"/>
+      <c r="BZ53" s="34" t="inlineStr"/>
+      <c r="CA53" s="34" t="inlineStr"/>
+      <c r="CB53" s="34" t="inlineStr"/>
+      <c r="CC53" s="34" t="inlineStr"/>
+      <c r="CD53" s="34" t="inlineStr"/>
+      <c r="CE53" s="34" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="16" t="inlineStr"/>
@@ -6098,30 +6164,31 @@
       <c r="BD54" s="21" t="inlineStr"/>
       <c r="BE54" s="21" t="inlineStr"/>
       <c r="BF54" s="23" t="inlineStr"/>
-      <c r="BG54" s="24" t="inlineStr"/>
+      <c r="BG54" s="25" t="inlineStr"/>
       <c r="BH54" s="32" t="inlineStr"/>
       <c r="BI54" s="32" t="inlineStr"/>
       <c r="BJ54" s="32" t="inlineStr"/>
       <c r="BK54" s="32" t="inlineStr"/>
-      <c r="BL54" s="32" t="inlineStr"/>
-      <c r="BM54" s="32" t="inlineStr"/>
-      <c r="BN54" s="32" t="inlineStr"/>
-      <c r="BO54" s="32" t="inlineStr"/>
-      <c r="BP54" s="32" t="inlineStr"/>
-      <c r="BQ54" s="32" t="inlineStr"/>
-      <c r="BR54" s="32" t="inlineStr"/>
-      <c r="BS54" s="32" t="inlineStr"/>
-      <c r="BT54" s="32" t="inlineStr"/>
-      <c r="BU54" s="32" t="inlineStr"/>
-      <c r="BV54" s="32" t="inlineStr"/>
-      <c r="BW54" s="32" t="inlineStr"/>
-      <c r="BX54" s="25" t="inlineStr"/>
-      <c r="BY54" s="33" t="inlineStr"/>
-      <c r="BZ54" s="33" t="inlineStr"/>
-      <c r="CA54" s="33" t="inlineStr"/>
-      <c r="CB54" s="33" t="inlineStr"/>
-      <c r="CC54" s="26" t="inlineStr"/>
-      <c r="CD54" s="27" t="inlineStr"/>
+      <c r="BL54" s="26" t="inlineStr"/>
+      <c r="BM54" s="27" t="inlineStr"/>
+      <c r="BN54" s="33" t="inlineStr"/>
+      <c r="BO54" s="34" t="inlineStr"/>
+      <c r="BP54" s="34" t="inlineStr"/>
+      <c r="BQ54" s="34" t="inlineStr"/>
+      <c r="BR54" s="34" t="inlineStr"/>
+      <c r="BS54" s="34" t="inlineStr"/>
+      <c r="BT54" s="34" t="inlineStr"/>
+      <c r="BU54" s="34" t="inlineStr"/>
+      <c r="BV54" s="34" t="inlineStr"/>
+      <c r="BW54" s="34" t="inlineStr"/>
+      <c r="BX54" s="34" t="inlineStr"/>
+      <c r="BY54" s="34" t="inlineStr"/>
+      <c r="BZ54" s="34" t="inlineStr"/>
+      <c r="CA54" s="34" t="inlineStr"/>
+      <c r="CB54" s="34" t="inlineStr"/>
+      <c r="CC54" s="34" t="inlineStr"/>
+      <c r="CD54" s="34" t="inlineStr"/>
+      <c r="CE54" s="34" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="16" t="inlineStr"/>
@@ -6182,30 +6249,31 @@
       <c r="BD55" s="21" t="inlineStr"/>
       <c r="BE55" s="21" t="inlineStr"/>
       <c r="BF55" s="23" t="inlineStr"/>
-      <c r="BG55" s="24" t="inlineStr"/>
+      <c r="BG55" s="25" t="inlineStr"/>
       <c r="BH55" s="32" t="inlineStr"/>
       <c r="BI55" s="32" t="inlineStr"/>
       <c r="BJ55" s="32" t="inlineStr"/>
       <c r="BK55" s="32" t="inlineStr"/>
-      <c r="BL55" s="32" t="inlineStr"/>
-      <c r="BM55" s="32" t="inlineStr"/>
-      <c r="BN55" s="32" t="inlineStr"/>
-      <c r="BO55" s="32" t="inlineStr"/>
-      <c r="BP55" s="32" t="inlineStr"/>
-      <c r="BQ55" s="32" t="inlineStr"/>
-      <c r="BR55" s="32" t="inlineStr"/>
-      <c r="BS55" s="32" t="inlineStr"/>
-      <c r="BT55" s="32" t="inlineStr"/>
-      <c r="BU55" s="32" t="inlineStr"/>
-      <c r="BV55" s="32" t="inlineStr"/>
-      <c r="BW55" s="32" t="inlineStr"/>
-      <c r="BX55" s="25" t="inlineStr"/>
-      <c r="BY55" s="33" t="inlineStr"/>
-      <c r="BZ55" s="33" t="inlineStr"/>
-      <c r="CA55" s="33" t="inlineStr"/>
-      <c r="CB55" s="33" t="inlineStr"/>
-      <c r="CC55" s="26" t="inlineStr"/>
-      <c r="CD55" s="27" t="inlineStr"/>
+      <c r="BL55" s="26" t="inlineStr"/>
+      <c r="BM55" s="27" t="inlineStr"/>
+      <c r="BN55" s="33" t="inlineStr"/>
+      <c r="BO55" s="34" t="inlineStr"/>
+      <c r="BP55" s="34" t="inlineStr"/>
+      <c r="BQ55" s="34" t="inlineStr"/>
+      <c r="BR55" s="34" t="inlineStr"/>
+      <c r="BS55" s="34" t="inlineStr"/>
+      <c r="BT55" s="34" t="inlineStr"/>
+      <c r="BU55" s="34" t="inlineStr"/>
+      <c r="BV55" s="34" t="inlineStr"/>
+      <c r="BW55" s="34" t="inlineStr"/>
+      <c r="BX55" s="34" t="inlineStr"/>
+      <c r="BY55" s="34" t="inlineStr"/>
+      <c r="BZ55" s="34" t="inlineStr"/>
+      <c r="CA55" s="34" t="inlineStr"/>
+      <c r="CB55" s="34" t="inlineStr"/>
+      <c r="CC55" s="34" t="inlineStr"/>
+      <c r="CD55" s="34" t="inlineStr"/>
+      <c r="CE55" s="34" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="16" t="inlineStr"/>
@@ -6266,30 +6334,31 @@
       <c r="BD56" s="21" t="inlineStr"/>
       <c r="BE56" s="21" t="inlineStr"/>
       <c r="BF56" s="23" t="inlineStr"/>
-      <c r="BG56" s="24" t="inlineStr"/>
+      <c r="BG56" s="25" t="inlineStr"/>
       <c r="BH56" s="32" t="inlineStr"/>
       <c r="BI56" s="32" t="inlineStr"/>
       <c r="BJ56" s="32" t="inlineStr"/>
       <c r="BK56" s="32" t="inlineStr"/>
-      <c r="BL56" s="32" t="inlineStr"/>
-      <c r="BM56" s="32" t="inlineStr"/>
-      <c r="BN56" s="32" t="inlineStr"/>
-      <c r="BO56" s="32" t="inlineStr"/>
-      <c r="BP56" s="32" t="inlineStr"/>
-      <c r="BQ56" s="32" t="inlineStr"/>
-      <c r="BR56" s="32" t="inlineStr"/>
-      <c r="BS56" s="32" t="inlineStr"/>
-      <c r="BT56" s="32" t="inlineStr"/>
-      <c r="BU56" s="32" t="inlineStr"/>
-      <c r="BV56" s="32" t="inlineStr"/>
-      <c r="BW56" s="32" t="inlineStr"/>
-      <c r="BX56" s="25" t="inlineStr"/>
-      <c r="BY56" s="33" t="inlineStr"/>
-      <c r="BZ56" s="33" t="inlineStr"/>
-      <c r="CA56" s="33" t="inlineStr"/>
-      <c r="CB56" s="33" t="inlineStr"/>
-      <c r="CC56" s="26" t="inlineStr"/>
-      <c r="CD56" s="27" t="inlineStr"/>
+      <c r="BL56" s="26" t="inlineStr"/>
+      <c r="BM56" s="27" t="inlineStr"/>
+      <c r="BN56" s="33" t="inlineStr"/>
+      <c r="BO56" s="34" t="inlineStr"/>
+      <c r="BP56" s="34" t="inlineStr"/>
+      <c r="BQ56" s="34" t="inlineStr"/>
+      <c r="BR56" s="34" t="inlineStr"/>
+      <c r="BS56" s="34" t="inlineStr"/>
+      <c r="BT56" s="34" t="inlineStr"/>
+      <c r="BU56" s="34" t="inlineStr"/>
+      <c r="BV56" s="34" t="inlineStr"/>
+      <c r="BW56" s="34" t="inlineStr"/>
+      <c r="BX56" s="34" t="inlineStr"/>
+      <c r="BY56" s="34" t="inlineStr"/>
+      <c r="BZ56" s="34" t="inlineStr"/>
+      <c r="CA56" s="34" t="inlineStr"/>
+      <c r="CB56" s="34" t="inlineStr"/>
+      <c r="CC56" s="34" t="inlineStr"/>
+      <c r="CD56" s="34" t="inlineStr"/>
+      <c r="CE56" s="34" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="16" t="inlineStr"/>
@@ -6350,30 +6419,31 @@
       <c r="BD57" s="21" t="inlineStr"/>
       <c r="BE57" s="21" t="inlineStr"/>
       <c r="BF57" s="23" t="inlineStr"/>
-      <c r="BG57" s="24" t="inlineStr"/>
+      <c r="BG57" s="25" t="inlineStr"/>
       <c r="BH57" s="32" t="inlineStr"/>
       <c r="BI57" s="32" t="inlineStr"/>
       <c r="BJ57" s="32" t="inlineStr"/>
       <c r="BK57" s="32" t="inlineStr"/>
-      <c r="BL57" s="32" t="inlineStr"/>
-      <c r="BM57" s="32" t="inlineStr"/>
-      <c r="BN57" s="32" t="inlineStr"/>
-      <c r="BO57" s="32" t="inlineStr"/>
-      <c r="BP57" s="32" t="inlineStr"/>
-      <c r="BQ57" s="32" t="inlineStr"/>
-      <c r="BR57" s="32" t="inlineStr"/>
-      <c r="BS57" s="32" t="inlineStr"/>
-      <c r="BT57" s="32" t="inlineStr"/>
-      <c r="BU57" s="32" t="inlineStr"/>
-      <c r="BV57" s="32" t="inlineStr"/>
-      <c r="BW57" s="32" t="inlineStr"/>
-      <c r="BX57" s="25" t="inlineStr"/>
-      <c r="BY57" s="33" t="inlineStr"/>
-      <c r="BZ57" s="33" t="inlineStr"/>
-      <c r="CA57" s="33" t="inlineStr"/>
-      <c r="CB57" s="33" t="inlineStr"/>
-      <c r="CC57" s="26" t="inlineStr"/>
-      <c r="CD57" s="27" t="inlineStr"/>
+      <c r="BL57" s="26" t="inlineStr"/>
+      <c r="BM57" s="27" t="inlineStr"/>
+      <c r="BN57" s="33" t="inlineStr"/>
+      <c r="BO57" s="34" t="inlineStr"/>
+      <c r="BP57" s="34" t="inlineStr"/>
+      <c r="BQ57" s="34" t="inlineStr"/>
+      <c r="BR57" s="34" t="inlineStr"/>
+      <c r="BS57" s="34" t="inlineStr"/>
+      <c r="BT57" s="34" t="inlineStr"/>
+      <c r="BU57" s="34" t="inlineStr"/>
+      <c r="BV57" s="34" t="inlineStr"/>
+      <c r="BW57" s="34" t="inlineStr"/>
+      <c r="BX57" s="34" t="inlineStr"/>
+      <c r="BY57" s="34" t="inlineStr"/>
+      <c r="BZ57" s="34" t="inlineStr"/>
+      <c r="CA57" s="34" t="inlineStr"/>
+      <c r="CB57" s="34" t="inlineStr"/>
+      <c r="CC57" s="34" t="inlineStr"/>
+      <c r="CD57" s="34" t="inlineStr"/>
+      <c r="CE57" s="34" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="16" t="inlineStr"/>
@@ -6434,30 +6504,31 @@
       <c r="BD58" s="21" t="inlineStr"/>
       <c r="BE58" s="21" t="inlineStr"/>
       <c r="BF58" s="23" t="inlineStr"/>
-      <c r="BG58" s="24" t="inlineStr"/>
+      <c r="BG58" s="25" t="inlineStr"/>
       <c r="BH58" s="32" t="inlineStr"/>
       <c r="BI58" s="32" t="inlineStr"/>
       <c r="BJ58" s="32" t="inlineStr"/>
       <c r="BK58" s="32" t="inlineStr"/>
-      <c r="BL58" s="32" t="inlineStr"/>
-      <c r="BM58" s="32" t="inlineStr"/>
-      <c r="BN58" s="32" t="inlineStr"/>
-      <c r="BO58" s="32" t="inlineStr"/>
-      <c r="BP58" s="32" t="inlineStr"/>
-      <c r="BQ58" s="32" t="inlineStr"/>
-      <c r="BR58" s="32" t="inlineStr"/>
-      <c r="BS58" s="32" t="inlineStr"/>
-      <c r="BT58" s="32" t="inlineStr"/>
-      <c r="BU58" s="32" t="inlineStr"/>
-      <c r="BV58" s="32" t="inlineStr"/>
-      <c r="BW58" s="32" t="inlineStr"/>
-      <c r="BX58" s="25" t="inlineStr"/>
-      <c r="BY58" s="33" t="inlineStr"/>
-      <c r="BZ58" s="33" t="inlineStr"/>
-      <c r="CA58" s="33" t="inlineStr"/>
-      <c r="CB58" s="33" t="inlineStr"/>
-      <c r="CC58" s="26" t="inlineStr"/>
-      <c r="CD58" s="27" t="inlineStr"/>
+      <c r="BL58" s="26" t="inlineStr"/>
+      <c r="BM58" s="27" t="inlineStr"/>
+      <c r="BN58" s="33" t="inlineStr"/>
+      <c r="BO58" s="34" t="inlineStr"/>
+      <c r="BP58" s="34" t="inlineStr"/>
+      <c r="BQ58" s="34" t="inlineStr"/>
+      <c r="BR58" s="34" t="inlineStr"/>
+      <c r="BS58" s="34" t="inlineStr"/>
+      <c r="BT58" s="34" t="inlineStr"/>
+      <c r="BU58" s="34" t="inlineStr"/>
+      <c r="BV58" s="34" t="inlineStr"/>
+      <c r="BW58" s="34" t="inlineStr"/>
+      <c r="BX58" s="34" t="inlineStr"/>
+      <c r="BY58" s="34" t="inlineStr"/>
+      <c r="BZ58" s="34" t="inlineStr"/>
+      <c r="CA58" s="34" t="inlineStr"/>
+      <c r="CB58" s="34" t="inlineStr"/>
+      <c r="CC58" s="34" t="inlineStr"/>
+      <c r="CD58" s="34" t="inlineStr"/>
+      <c r="CE58" s="34" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="16" t="inlineStr"/>
@@ -6518,30 +6589,31 @@
       <c r="BD59" s="21" t="inlineStr"/>
       <c r="BE59" s="21" t="inlineStr"/>
       <c r="BF59" s="23" t="inlineStr"/>
-      <c r="BG59" s="24" t="inlineStr"/>
+      <c r="BG59" s="25" t="inlineStr"/>
       <c r="BH59" s="32" t="inlineStr"/>
       <c r="BI59" s="32" t="inlineStr"/>
       <c r="BJ59" s="32" t="inlineStr"/>
       <c r="BK59" s="32" t="inlineStr"/>
-      <c r="BL59" s="32" t="inlineStr"/>
-      <c r="BM59" s="32" t="inlineStr"/>
-      <c r="BN59" s="32" t="inlineStr"/>
-      <c r="BO59" s="32" t="inlineStr"/>
-      <c r="BP59" s="32" t="inlineStr"/>
-      <c r="BQ59" s="32" t="inlineStr"/>
-      <c r="BR59" s="32" t="inlineStr"/>
-      <c r="BS59" s="32" t="inlineStr"/>
-      <c r="BT59" s="32" t="inlineStr"/>
-      <c r="BU59" s="32" t="inlineStr"/>
-      <c r="BV59" s="32" t="inlineStr"/>
-      <c r="BW59" s="32" t="inlineStr"/>
-      <c r="BX59" s="25" t="inlineStr"/>
-      <c r="BY59" s="33" t="inlineStr"/>
-      <c r="BZ59" s="33" t="inlineStr"/>
-      <c r="CA59" s="33" t="inlineStr"/>
-      <c r="CB59" s="33" t="inlineStr"/>
-      <c r="CC59" s="26" t="inlineStr"/>
-      <c r="CD59" s="27" t="inlineStr"/>
+      <c r="BL59" s="26" t="inlineStr"/>
+      <c r="BM59" s="27" t="inlineStr"/>
+      <c r="BN59" s="33" t="inlineStr"/>
+      <c r="BO59" s="34" t="inlineStr"/>
+      <c r="BP59" s="34" t="inlineStr"/>
+      <c r="BQ59" s="34" t="inlineStr"/>
+      <c r="BR59" s="34" t="inlineStr"/>
+      <c r="BS59" s="34" t="inlineStr"/>
+      <c r="BT59" s="34" t="inlineStr"/>
+      <c r="BU59" s="34" t="inlineStr"/>
+      <c r="BV59" s="34" t="inlineStr"/>
+      <c r="BW59" s="34" t="inlineStr"/>
+      <c r="BX59" s="34" t="inlineStr"/>
+      <c r="BY59" s="34" t="inlineStr"/>
+      <c r="BZ59" s="34" t="inlineStr"/>
+      <c r="CA59" s="34" t="inlineStr"/>
+      <c r="CB59" s="34" t="inlineStr"/>
+      <c r="CC59" s="34" t="inlineStr"/>
+      <c r="CD59" s="34" t="inlineStr"/>
+      <c r="CE59" s="34" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="16" t="inlineStr"/>
@@ -6602,30 +6674,31 @@
       <c r="BD60" s="21" t="inlineStr"/>
       <c r="BE60" s="21" t="inlineStr"/>
       <c r="BF60" s="23" t="inlineStr"/>
-      <c r="BG60" s="24" t="inlineStr"/>
+      <c r="BG60" s="25" t="inlineStr"/>
       <c r="BH60" s="32" t="inlineStr"/>
       <c r="BI60" s="32" t="inlineStr"/>
       <c r="BJ60" s="32" t="inlineStr"/>
       <c r="BK60" s="32" t="inlineStr"/>
-      <c r="BL60" s="32" t="inlineStr"/>
-      <c r="BM60" s="32" t="inlineStr"/>
-      <c r="BN60" s="32" t="inlineStr"/>
-      <c r="BO60" s="32" t="inlineStr"/>
-      <c r="BP60" s="32" t="inlineStr"/>
-      <c r="BQ60" s="32" t="inlineStr"/>
-      <c r="BR60" s="32" t="inlineStr"/>
-      <c r="BS60" s="32" t="inlineStr"/>
-      <c r="BT60" s="32" t="inlineStr"/>
-      <c r="BU60" s="32" t="inlineStr"/>
-      <c r="BV60" s="32" t="inlineStr"/>
-      <c r="BW60" s="32" t="inlineStr"/>
-      <c r="BX60" s="25" t="inlineStr"/>
-      <c r="BY60" s="33" t="inlineStr"/>
-      <c r="BZ60" s="33" t="inlineStr"/>
-      <c r="CA60" s="33" t="inlineStr"/>
-      <c r="CB60" s="33" t="inlineStr"/>
-      <c r="CC60" s="26" t="inlineStr"/>
-      <c r="CD60" s="27" t="inlineStr"/>
+      <c r="BL60" s="26" t="inlineStr"/>
+      <c r="BM60" s="27" t="inlineStr"/>
+      <c r="BN60" s="33" t="inlineStr"/>
+      <c r="BO60" s="34" t="inlineStr"/>
+      <c r="BP60" s="34" t="inlineStr"/>
+      <c r="BQ60" s="34" t="inlineStr"/>
+      <c r="BR60" s="34" t="inlineStr"/>
+      <c r="BS60" s="34" t="inlineStr"/>
+      <c r="BT60" s="34" t="inlineStr"/>
+      <c r="BU60" s="34" t="inlineStr"/>
+      <c r="BV60" s="34" t="inlineStr"/>
+      <c r="BW60" s="34" t="inlineStr"/>
+      <c r="BX60" s="34" t="inlineStr"/>
+      <c r="BY60" s="34" t="inlineStr"/>
+      <c r="BZ60" s="34" t="inlineStr"/>
+      <c r="CA60" s="34" t="inlineStr"/>
+      <c r="CB60" s="34" t="inlineStr"/>
+      <c r="CC60" s="34" t="inlineStr"/>
+      <c r="CD60" s="34" t="inlineStr"/>
+      <c r="CE60" s="34" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="16" t="inlineStr"/>
@@ -6686,30 +6759,31 @@
       <c r="BD61" s="21" t="inlineStr"/>
       <c r="BE61" s="21" t="inlineStr"/>
       <c r="BF61" s="23" t="inlineStr"/>
-      <c r="BG61" s="24" t="inlineStr"/>
+      <c r="BG61" s="25" t="inlineStr"/>
       <c r="BH61" s="32" t="inlineStr"/>
       <c r="BI61" s="32" t="inlineStr"/>
       <c r="BJ61" s="32" t="inlineStr"/>
       <c r="BK61" s="32" t="inlineStr"/>
-      <c r="BL61" s="32" t="inlineStr"/>
-      <c r="BM61" s="32" t="inlineStr"/>
-      <c r="BN61" s="32" t="inlineStr"/>
-      <c r="BO61" s="32" t="inlineStr"/>
-      <c r="BP61" s="32" t="inlineStr"/>
-      <c r="BQ61" s="32" t="inlineStr"/>
-      <c r="BR61" s="32" t="inlineStr"/>
-      <c r="BS61" s="32" t="inlineStr"/>
-      <c r="BT61" s="32" t="inlineStr"/>
-      <c r="BU61" s="32" t="inlineStr"/>
-      <c r="BV61" s="32" t="inlineStr"/>
-      <c r="BW61" s="32" t="inlineStr"/>
-      <c r="BX61" s="25" t="inlineStr"/>
-      <c r="BY61" s="33" t="inlineStr"/>
-      <c r="BZ61" s="33" t="inlineStr"/>
-      <c r="CA61" s="33" t="inlineStr"/>
-      <c r="CB61" s="33" t="inlineStr"/>
-      <c r="CC61" s="26" t="inlineStr"/>
-      <c r="CD61" s="27" t="inlineStr"/>
+      <c r="BL61" s="26" t="inlineStr"/>
+      <c r="BM61" s="27" t="inlineStr"/>
+      <c r="BN61" s="33" t="inlineStr"/>
+      <c r="BO61" s="34" t="inlineStr"/>
+      <c r="BP61" s="34" t="inlineStr"/>
+      <c r="BQ61" s="34" t="inlineStr"/>
+      <c r="BR61" s="34" t="inlineStr"/>
+      <c r="BS61" s="34" t="inlineStr"/>
+      <c r="BT61" s="34" t="inlineStr"/>
+      <c r="BU61" s="34" t="inlineStr"/>
+      <c r="BV61" s="34" t="inlineStr"/>
+      <c r="BW61" s="34" t="inlineStr"/>
+      <c r="BX61" s="34" t="inlineStr"/>
+      <c r="BY61" s="34" t="inlineStr"/>
+      <c r="BZ61" s="34" t="inlineStr"/>
+      <c r="CA61" s="34" t="inlineStr"/>
+      <c r="CB61" s="34" t="inlineStr"/>
+      <c r="CC61" s="34" t="inlineStr"/>
+      <c r="CD61" s="34" t="inlineStr"/>
+      <c r="CE61" s="34" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="16" t="inlineStr"/>
@@ -6770,30 +6844,31 @@
       <c r="BD62" s="21" t="inlineStr"/>
       <c r="BE62" s="21" t="inlineStr"/>
       <c r="BF62" s="23" t="inlineStr"/>
-      <c r="BG62" s="24" t="inlineStr"/>
+      <c r="BG62" s="25" t="inlineStr"/>
       <c r="BH62" s="32" t="inlineStr"/>
       <c r="BI62" s="32" t="inlineStr"/>
       <c r="BJ62" s="32" t="inlineStr"/>
       <c r="BK62" s="32" t="inlineStr"/>
-      <c r="BL62" s="32" t="inlineStr"/>
-      <c r="BM62" s="32" t="inlineStr"/>
-      <c r="BN62" s="32" t="inlineStr"/>
-      <c r="BO62" s="32" t="inlineStr"/>
-      <c r="BP62" s="32" t="inlineStr"/>
-      <c r="BQ62" s="32" t="inlineStr"/>
-      <c r="BR62" s="32" t="inlineStr"/>
-      <c r="BS62" s="32" t="inlineStr"/>
-      <c r="BT62" s="32" t="inlineStr"/>
-      <c r="BU62" s="32" t="inlineStr"/>
-      <c r="BV62" s="32" t="inlineStr"/>
-      <c r="BW62" s="32" t="inlineStr"/>
-      <c r="BX62" s="25" t="inlineStr"/>
-      <c r="BY62" s="33" t="inlineStr"/>
-      <c r="BZ62" s="33" t="inlineStr"/>
-      <c r="CA62" s="33" t="inlineStr"/>
-      <c r="CB62" s="33" t="inlineStr"/>
-      <c r="CC62" s="26" t="inlineStr"/>
-      <c r="CD62" s="27" t="inlineStr"/>
+      <c r="BL62" s="26" t="inlineStr"/>
+      <c r="BM62" s="27" t="inlineStr"/>
+      <c r="BN62" s="33" t="inlineStr"/>
+      <c r="BO62" s="34" t="inlineStr"/>
+      <c r="BP62" s="34" t="inlineStr"/>
+      <c r="BQ62" s="34" t="inlineStr"/>
+      <c r="BR62" s="34" t="inlineStr"/>
+      <c r="BS62" s="34" t="inlineStr"/>
+      <c r="BT62" s="34" t="inlineStr"/>
+      <c r="BU62" s="34" t="inlineStr"/>
+      <c r="BV62" s="34" t="inlineStr"/>
+      <c r="BW62" s="34" t="inlineStr"/>
+      <c r="BX62" s="34" t="inlineStr"/>
+      <c r="BY62" s="34" t="inlineStr"/>
+      <c r="BZ62" s="34" t="inlineStr"/>
+      <c r="CA62" s="34" t="inlineStr"/>
+      <c r="CB62" s="34" t="inlineStr"/>
+      <c r="CC62" s="34" t="inlineStr"/>
+      <c r="CD62" s="34" t="inlineStr"/>
+      <c r="CE62" s="34" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="16" t="inlineStr"/>
@@ -6854,30 +6929,31 @@
       <c r="BD63" s="21" t="inlineStr"/>
       <c r="BE63" s="21" t="inlineStr"/>
       <c r="BF63" s="23" t="inlineStr"/>
-      <c r="BG63" s="24" t="inlineStr"/>
+      <c r="BG63" s="25" t="inlineStr"/>
       <c r="BH63" s="32" t="inlineStr"/>
       <c r="BI63" s="32" t="inlineStr"/>
       <c r="BJ63" s="32" t="inlineStr"/>
       <c r="BK63" s="32" t="inlineStr"/>
-      <c r="BL63" s="32" t="inlineStr"/>
-      <c r="BM63" s="32" t="inlineStr"/>
-      <c r="BN63" s="32" t="inlineStr"/>
-      <c r="BO63" s="32" t="inlineStr"/>
-      <c r="BP63" s="32" t="inlineStr"/>
-      <c r="BQ63" s="32" t="inlineStr"/>
-      <c r="BR63" s="32" t="inlineStr"/>
-      <c r="BS63" s="32" t="inlineStr"/>
-      <c r="BT63" s="32" t="inlineStr"/>
-      <c r="BU63" s="32" t="inlineStr"/>
-      <c r="BV63" s="32" t="inlineStr"/>
-      <c r="BW63" s="32" t="inlineStr"/>
-      <c r="BX63" s="25" t="inlineStr"/>
-      <c r="BY63" s="33" t="inlineStr"/>
-      <c r="BZ63" s="33" t="inlineStr"/>
-      <c r="CA63" s="33" t="inlineStr"/>
-      <c r="CB63" s="33" t="inlineStr"/>
-      <c r="CC63" s="26" t="inlineStr"/>
-      <c r="CD63" s="27" t="inlineStr"/>
+      <c r="BL63" s="26" t="inlineStr"/>
+      <c r="BM63" s="27" t="inlineStr"/>
+      <c r="BN63" s="33" t="inlineStr"/>
+      <c r="BO63" s="34" t="inlineStr"/>
+      <c r="BP63" s="34" t="inlineStr"/>
+      <c r="BQ63" s="34" t="inlineStr"/>
+      <c r="BR63" s="34" t="inlineStr"/>
+      <c r="BS63" s="34" t="inlineStr"/>
+      <c r="BT63" s="34" t="inlineStr"/>
+      <c r="BU63" s="34" t="inlineStr"/>
+      <c r="BV63" s="34" t="inlineStr"/>
+      <c r="BW63" s="34" t="inlineStr"/>
+      <c r="BX63" s="34" t="inlineStr"/>
+      <c r="BY63" s="34" t="inlineStr"/>
+      <c r="BZ63" s="34" t="inlineStr"/>
+      <c r="CA63" s="34" t="inlineStr"/>
+      <c r="CB63" s="34" t="inlineStr"/>
+      <c r="CC63" s="34" t="inlineStr"/>
+      <c r="CD63" s="34" t="inlineStr"/>
+      <c r="CE63" s="34" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="16" t="inlineStr"/>
@@ -6938,30 +7014,31 @@
       <c r="BD64" s="21" t="inlineStr"/>
       <c r="BE64" s="21" t="inlineStr"/>
       <c r="BF64" s="23" t="inlineStr"/>
-      <c r="BG64" s="24" t="inlineStr"/>
+      <c r="BG64" s="25" t="inlineStr"/>
       <c r="BH64" s="32" t="inlineStr"/>
       <c r="BI64" s="32" t="inlineStr"/>
       <c r="BJ64" s="32" t="inlineStr"/>
       <c r="BK64" s="32" t="inlineStr"/>
-      <c r="BL64" s="32" t="inlineStr"/>
-      <c r="BM64" s="32" t="inlineStr"/>
-      <c r="BN64" s="32" t="inlineStr"/>
-      <c r="BO64" s="32" t="inlineStr"/>
-      <c r="BP64" s="32" t="inlineStr"/>
-      <c r="BQ64" s="32" t="inlineStr"/>
-      <c r="BR64" s="32" t="inlineStr"/>
-      <c r="BS64" s="32" t="inlineStr"/>
-      <c r="BT64" s="32" t="inlineStr"/>
-      <c r="BU64" s="32" t="inlineStr"/>
-      <c r="BV64" s="32" t="inlineStr"/>
-      <c r="BW64" s="32" t="inlineStr"/>
-      <c r="BX64" s="25" t="inlineStr"/>
-      <c r="BY64" s="33" t="inlineStr"/>
-      <c r="BZ64" s="33" t="inlineStr"/>
-      <c r="CA64" s="33" t="inlineStr"/>
-      <c r="CB64" s="33" t="inlineStr"/>
-      <c r="CC64" s="26" t="inlineStr"/>
-      <c r="CD64" s="27" t="inlineStr"/>
+      <c r="BL64" s="26" t="inlineStr"/>
+      <c r="BM64" s="27" t="inlineStr"/>
+      <c r="BN64" s="33" t="inlineStr"/>
+      <c r="BO64" s="34" t="inlineStr"/>
+      <c r="BP64" s="34" t="inlineStr"/>
+      <c r="BQ64" s="34" t="inlineStr"/>
+      <c r="BR64" s="34" t="inlineStr"/>
+      <c r="BS64" s="34" t="inlineStr"/>
+      <c r="BT64" s="34" t="inlineStr"/>
+      <c r="BU64" s="34" t="inlineStr"/>
+      <c r="BV64" s="34" t="inlineStr"/>
+      <c r="BW64" s="34" t="inlineStr"/>
+      <c r="BX64" s="34" t="inlineStr"/>
+      <c r="BY64" s="34" t="inlineStr"/>
+      <c r="BZ64" s="34" t="inlineStr"/>
+      <c r="CA64" s="34" t="inlineStr"/>
+      <c r="CB64" s="34" t="inlineStr"/>
+      <c r="CC64" s="34" t="inlineStr"/>
+      <c r="CD64" s="34" t="inlineStr"/>
+      <c r="CE64" s="34" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="16" t="inlineStr"/>
@@ -7022,30 +7099,31 @@
       <c r="BD65" s="21" t="inlineStr"/>
       <c r="BE65" s="21" t="inlineStr"/>
       <c r="BF65" s="23" t="inlineStr"/>
-      <c r="BG65" s="24" t="inlineStr"/>
+      <c r="BG65" s="25" t="inlineStr"/>
       <c r="BH65" s="32" t="inlineStr"/>
       <c r="BI65" s="32" t="inlineStr"/>
       <c r="BJ65" s="32" t="inlineStr"/>
       <c r="BK65" s="32" t="inlineStr"/>
-      <c r="BL65" s="32" t="inlineStr"/>
-      <c r="BM65" s="32" t="inlineStr"/>
-      <c r="BN65" s="32" t="inlineStr"/>
-      <c r="BO65" s="32" t="inlineStr"/>
-      <c r="BP65" s="32" t="inlineStr"/>
-      <c r="BQ65" s="32" t="inlineStr"/>
-      <c r="BR65" s="32" t="inlineStr"/>
-      <c r="BS65" s="32" t="inlineStr"/>
-      <c r="BT65" s="32" t="inlineStr"/>
-      <c r="BU65" s="32" t="inlineStr"/>
-      <c r="BV65" s="32" t="inlineStr"/>
-      <c r="BW65" s="32" t="inlineStr"/>
-      <c r="BX65" s="25" t="inlineStr"/>
-      <c r="BY65" s="33" t="inlineStr"/>
-      <c r="BZ65" s="33" t="inlineStr"/>
-      <c r="CA65" s="33" t="inlineStr"/>
-      <c r="CB65" s="33" t="inlineStr"/>
-      <c r="CC65" s="26" t="inlineStr"/>
-      <c r="CD65" s="27" t="inlineStr"/>
+      <c r="BL65" s="26" t="inlineStr"/>
+      <c r="BM65" s="27" t="inlineStr"/>
+      <c r="BN65" s="33" t="inlineStr"/>
+      <c r="BO65" s="34" t="inlineStr"/>
+      <c r="BP65" s="34" t="inlineStr"/>
+      <c r="BQ65" s="34" t="inlineStr"/>
+      <c r="BR65" s="34" t="inlineStr"/>
+      <c r="BS65" s="34" t="inlineStr"/>
+      <c r="BT65" s="34" t="inlineStr"/>
+      <c r="BU65" s="34" t="inlineStr"/>
+      <c r="BV65" s="34" t="inlineStr"/>
+      <c r="BW65" s="34" t="inlineStr"/>
+      <c r="BX65" s="34" t="inlineStr"/>
+      <c r="BY65" s="34" t="inlineStr"/>
+      <c r="BZ65" s="34" t="inlineStr"/>
+      <c r="CA65" s="34" t="inlineStr"/>
+      <c r="CB65" s="34" t="inlineStr"/>
+      <c r="CC65" s="34" t="inlineStr"/>
+      <c r="CD65" s="34" t="inlineStr"/>
+      <c r="CE65" s="34" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="inlineStr"/>
@@ -7106,30 +7184,31 @@
       <c r="BD66" s="21" t="inlineStr"/>
       <c r="BE66" s="21" t="inlineStr"/>
       <c r="BF66" s="23" t="inlineStr"/>
-      <c r="BG66" s="24" t="inlineStr"/>
+      <c r="BG66" s="25" t="inlineStr"/>
       <c r="BH66" s="32" t="inlineStr"/>
       <c r="BI66" s="32" t="inlineStr"/>
       <c r="BJ66" s="32" t="inlineStr"/>
       <c r="BK66" s="32" t="inlineStr"/>
-      <c r="BL66" s="32" t="inlineStr"/>
-      <c r="BM66" s="32" t="inlineStr"/>
-      <c r="BN66" s="32" t="inlineStr"/>
-      <c r="BO66" s="32" t="inlineStr"/>
-      <c r="BP66" s="32" t="inlineStr"/>
-      <c r="BQ66" s="32" t="inlineStr"/>
-      <c r="BR66" s="32" t="inlineStr"/>
-      <c r="BS66" s="32" t="inlineStr"/>
-      <c r="BT66" s="32" t="inlineStr"/>
-      <c r="BU66" s="32" t="inlineStr"/>
-      <c r="BV66" s="32" t="inlineStr"/>
-      <c r="BW66" s="32" t="inlineStr"/>
-      <c r="BX66" s="25" t="inlineStr"/>
-      <c r="BY66" s="33" t="inlineStr"/>
-      <c r="BZ66" s="33" t="inlineStr"/>
-      <c r="CA66" s="33" t="inlineStr"/>
-      <c r="CB66" s="33" t="inlineStr"/>
-      <c r="CC66" s="26" t="inlineStr"/>
-      <c r="CD66" s="27" t="inlineStr"/>
+      <c r="BL66" s="26" t="inlineStr"/>
+      <c r="BM66" s="27" t="inlineStr"/>
+      <c r="BN66" s="33" t="inlineStr"/>
+      <c r="BO66" s="34" t="inlineStr"/>
+      <c r="BP66" s="34" t="inlineStr"/>
+      <c r="BQ66" s="34" t="inlineStr"/>
+      <c r="BR66" s="34" t="inlineStr"/>
+      <c r="BS66" s="34" t="inlineStr"/>
+      <c r="BT66" s="34" t="inlineStr"/>
+      <c r="BU66" s="34" t="inlineStr"/>
+      <c r="BV66" s="34" t="inlineStr"/>
+      <c r="BW66" s="34" t="inlineStr"/>
+      <c r="BX66" s="34" t="inlineStr"/>
+      <c r="BY66" s="34" t="inlineStr"/>
+      <c r="BZ66" s="34" t="inlineStr"/>
+      <c r="CA66" s="34" t="inlineStr"/>
+      <c r="CB66" s="34" t="inlineStr"/>
+      <c r="CC66" s="34" t="inlineStr"/>
+      <c r="CD66" s="34" t="inlineStr"/>
+      <c r="CE66" s="34" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="16" t="inlineStr"/>
@@ -7190,30 +7269,31 @@
       <c r="BD67" s="21" t="inlineStr"/>
       <c r="BE67" s="21" t="inlineStr"/>
       <c r="BF67" s="23" t="inlineStr"/>
-      <c r="BG67" s="24" t="inlineStr"/>
+      <c r="BG67" s="25" t="inlineStr"/>
       <c r="BH67" s="32" t="inlineStr"/>
       <c r="BI67" s="32" t="inlineStr"/>
       <c r="BJ67" s="32" t="inlineStr"/>
       <c r="BK67" s="32" t="inlineStr"/>
-      <c r="BL67" s="32" t="inlineStr"/>
-      <c r="BM67" s="32" t="inlineStr"/>
-      <c r="BN67" s="32" t="inlineStr"/>
-      <c r="BO67" s="32" t="inlineStr"/>
-      <c r="BP67" s="32" t="inlineStr"/>
-      <c r="BQ67" s="32" t="inlineStr"/>
-      <c r="BR67" s="32" t="inlineStr"/>
-      <c r="BS67" s="32" t="inlineStr"/>
-      <c r="BT67" s="32" t="inlineStr"/>
-      <c r="BU67" s="32" t="inlineStr"/>
-      <c r="BV67" s="32" t="inlineStr"/>
-      <c r="BW67" s="32" t="inlineStr"/>
-      <c r="BX67" s="25" t="inlineStr"/>
-      <c r="BY67" s="33" t="inlineStr"/>
-      <c r="BZ67" s="33" t="inlineStr"/>
-      <c r="CA67" s="33" t="inlineStr"/>
-      <c r="CB67" s="33" t="inlineStr"/>
-      <c r="CC67" s="26" t="inlineStr"/>
-      <c r="CD67" s="27" t="inlineStr"/>
+      <c r="BL67" s="26" t="inlineStr"/>
+      <c r="BM67" s="27" t="inlineStr"/>
+      <c r="BN67" s="33" t="inlineStr"/>
+      <c r="BO67" s="34" t="inlineStr"/>
+      <c r="BP67" s="34" t="inlineStr"/>
+      <c r="BQ67" s="34" t="inlineStr"/>
+      <c r="BR67" s="34" t="inlineStr"/>
+      <c r="BS67" s="34" t="inlineStr"/>
+      <c r="BT67" s="34" t="inlineStr"/>
+      <c r="BU67" s="34" t="inlineStr"/>
+      <c r="BV67" s="34" t="inlineStr"/>
+      <c r="BW67" s="34" t="inlineStr"/>
+      <c r="BX67" s="34" t="inlineStr"/>
+      <c r="BY67" s="34" t="inlineStr"/>
+      <c r="BZ67" s="34" t="inlineStr"/>
+      <c r="CA67" s="34" t="inlineStr"/>
+      <c r="CB67" s="34" t="inlineStr"/>
+      <c r="CC67" s="34" t="inlineStr"/>
+      <c r="CD67" s="34" t="inlineStr"/>
+      <c r="CE67" s="34" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="16" t="inlineStr"/>
@@ -7274,30 +7354,31 @@
       <c r="BD68" s="21" t="inlineStr"/>
       <c r="BE68" s="21" t="inlineStr"/>
       <c r="BF68" s="23" t="inlineStr"/>
-      <c r="BG68" s="24" t="inlineStr"/>
+      <c r="BG68" s="25" t="inlineStr"/>
       <c r="BH68" s="32" t="inlineStr"/>
       <c r="BI68" s="32" t="inlineStr"/>
       <c r="BJ68" s="32" t="inlineStr"/>
       <c r="BK68" s="32" t="inlineStr"/>
-      <c r="BL68" s="32" t="inlineStr"/>
-      <c r="BM68" s="32" t="inlineStr"/>
-      <c r="BN68" s="32" t="inlineStr"/>
-      <c r="BO68" s="32" t="inlineStr"/>
-      <c r="BP68" s="32" t="inlineStr"/>
-      <c r="BQ68" s="32" t="inlineStr"/>
-      <c r="BR68" s="32" t="inlineStr"/>
-      <c r="BS68" s="32" t="inlineStr"/>
-      <c r="BT68" s="32" t="inlineStr"/>
-      <c r="BU68" s="32" t="inlineStr"/>
-      <c r="BV68" s="32" t="inlineStr"/>
-      <c r="BW68" s="32" t="inlineStr"/>
-      <c r="BX68" s="25" t="inlineStr"/>
-      <c r="BY68" s="33" t="inlineStr"/>
-      <c r="BZ68" s="33" t="inlineStr"/>
-      <c r="CA68" s="33" t="inlineStr"/>
-      <c r="CB68" s="33" t="inlineStr"/>
-      <c r="CC68" s="26" t="inlineStr"/>
-      <c r="CD68" s="27" t="inlineStr"/>
+      <c r="BL68" s="26" t="inlineStr"/>
+      <c r="BM68" s="27" t="inlineStr"/>
+      <c r="BN68" s="33" t="inlineStr"/>
+      <c r="BO68" s="34" t="inlineStr"/>
+      <c r="BP68" s="34" t="inlineStr"/>
+      <c r="BQ68" s="34" t="inlineStr"/>
+      <c r="BR68" s="34" t="inlineStr"/>
+      <c r="BS68" s="34" t="inlineStr"/>
+      <c r="BT68" s="34" t="inlineStr"/>
+      <c r="BU68" s="34" t="inlineStr"/>
+      <c r="BV68" s="34" t="inlineStr"/>
+      <c r="BW68" s="34" t="inlineStr"/>
+      <c r="BX68" s="34" t="inlineStr"/>
+      <c r="BY68" s="34" t="inlineStr"/>
+      <c r="BZ68" s="34" t="inlineStr"/>
+      <c r="CA68" s="34" t="inlineStr"/>
+      <c r="CB68" s="34" t="inlineStr"/>
+      <c r="CC68" s="34" t="inlineStr"/>
+      <c r="CD68" s="34" t="inlineStr"/>
+      <c r="CE68" s="34" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="16" t="inlineStr"/>
@@ -7358,30 +7439,31 @@
       <c r="BD69" s="21" t="inlineStr"/>
       <c r="BE69" s="21" t="inlineStr"/>
       <c r="BF69" s="23" t="inlineStr"/>
-      <c r="BG69" s="24" t="inlineStr"/>
+      <c r="BG69" s="25" t="inlineStr"/>
       <c r="BH69" s="32" t="inlineStr"/>
       <c r="BI69" s="32" t="inlineStr"/>
       <c r="BJ69" s="32" t="inlineStr"/>
       <c r="BK69" s="32" t="inlineStr"/>
-      <c r="BL69" s="32" t="inlineStr"/>
-      <c r="BM69" s="32" t="inlineStr"/>
-      <c r="BN69" s="32" t="inlineStr"/>
-      <c r="BO69" s="32" t="inlineStr"/>
-      <c r="BP69" s="32" t="inlineStr"/>
-      <c r="BQ69" s="32" t="inlineStr"/>
-      <c r="BR69" s="32" t="inlineStr"/>
-      <c r="BS69" s="32" t="inlineStr"/>
-      <c r="BT69" s="32" t="inlineStr"/>
-      <c r="BU69" s="32" t="inlineStr"/>
-      <c r="BV69" s="32" t="inlineStr"/>
-      <c r="BW69" s="32" t="inlineStr"/>
-      <c r="BX69" s="25" t="inlineStr"/>
-      <c r="BY69" s="33" t="inlineStr"/>
-      <c r="BZ69" s="33" t="inlineStr"/>
-      <c r="CA69" s="33" t="inlineStr"/>
-      <c r="CB69" s="33" t="inlineStr"/>
-      <c r="CC69" s="26" t="inlineStr"/>
-      <c r="CD69" s="27" t="inlineStr"/>
+      <c r="BL69" s="26" t="inlineStr"/>
+      <c r="BM69" s="27" t="inlineStr"/>
+      <c r="BN69" s="33" t="inlineStr"/>
+      <c r="BO69" s="34" t="inlineStr"/>
+      <c r="BP69" s="34" t="inlineStr"/>
+      <c r="BQ69" s="34" t="inlineStr"/>
+      <c r="BR69" s="34" t="inlineStr"/>
+      <c r="BS69" s="34" t="inlineStr"/>
+      <c r="BT69" s="34" t="inlineStr"/>
+      <c r="BU69" s="34" t="inlineStr"/>
+      <c r="BV69" s="34" t="inlineStr"/>
+      <c r="BW69" s="34" t="inlineStr"/>
+      <c r="BX69" s="34" t="inlineStr"/>
+      <c r="BY69" s="34" t="inlineStr"/>
+      <c r="BZ69" s="34" t="inlineStr"/>
+      <c r="CA69" s="34" t="inlineStr"/>
+      <c r="CB69" s="34" t="inlineStr"/>
+      <c r="CC69" s="34" t="inlineStr"/>
+      <c r="CD69" s="34" t="inlineStr"/>
+      <c r="CE69" s="34" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="16" t="inlineStr"/>
@@ -7442,30 +7524,31 @@
       <c r="BD70" s="21" t="inlineStr"/>
       <c r="BE70" s="21" t="inlineStr"/>
       <c r="BF70" s="23" t="inlineStr"/>
-      <c r="BG70" s="24" t="inlineStr"/>
+      <c r="BG70" s="25" t="inlineStr"/>
       <c r="BH70" s="32" t="inlineStr"/>
       <c r="BI70" s="32" t="inlineStr"/>
       <c r="BJ70" s="32" t="inlineStr"/>
       <c r="BK70" s="32" t="inlineStr"/>
-      <c r="BL70" s="32" t="inlineStr"/>
-      <c r="BM70" s="32" t="inlineStr"/>
-      <c r="BN70" s="32" t="inlineStr"/>
-      <c r="BO70" s="32" t="inlineStr"/>
-      <c r="BP70" s="32" t="inlineStr"/>
-      <c r="BQ70" s="32" t="inlineStr"/>
-      <c r="BR70" s="32" t="inlineStr"/>
-      <c r="BS70" s="32" t="inlineStr"/>
-      <c r="BT70" s="32" t="inlineStr"/>
-      <c r="BU70" s="32" t="inlineStr"/>
-      <c r="BV70" s="32" t="inlineStr"/>
-      <c r="BW70" s="32" t="inlineStr"/>
-      <c r="BX70" s="25" t="inlineStr"/>
-      <c r="BY70" s="33" t="inlineStr"/>
-      <c r="BZ70" s="33" t="inlineStr"/>
-      <c r="CA70" s="33" t="inlineStr"/>
-      <c r="CB70" s="33" t="inlineStr"/>
-      <c r="CC70" s="26" t="inlineStr"/>
-      <c r="CD70" s="27" t="inlineStr"/>
+      <c r="BL70" s="26" t="inlineStr"/>
+      <c r="BM70" s="27" t="inlineStr"/>
+      <c r="BN70" s="33" t="inlineStr"/>
+      <c r="BO70" s="34" t="inlineStr"/>
+      <c r="BP70" s="34" t="inlineStr"/>
+      <c r="BQ70" s="34" t="inlineStr"/>
+      <c r="BR70" s="34" t="inlineStr"/>
+      <c r="BS70" s="34" t="inlineStr"/>
+      <c r="BT70" s="34" t="inlineStr"/>
+      <c r="BU70" s="34" t="inlineStr"/>
+      <c r="BV70" s="34" t="inlineStr"/>
+      <c r="BW70" s="34" t="inlineStr"/>
+      <c r="BX70" s="34" t="inlineStr"/>
+      <c r="BY70" s="34" t="inlineStr"/>
+      <c r="BZ70" s="34" t="inlineStr"/>
+      <c r="CA70" s="34" t="inlineStr"/>
+      <c r="CB70" s="34" t="inlineStr"/>
+      <c r="CC70" s="34" t="inlineStr"/>
+      <c r="CD70" s="34" t="inlineStr"/>
+      <c r="CE70" s="34" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="16" t="inlineStr"/>
@@ -7526,30 +7609,31 @@
       <c r="BD71" s="21" t="inlineStr"/>
       <c r="BE71" s="21" t="inlineStr"/>
       <c r="BF71" s="23" t="inlineStr"/>
-      <c r="BG71" s="24" t="inlineStr"/>
+      <c r="BG71" s="25" t="inlineStr"/>
       <c r="BH71" s="32" t="inlineStr"/>
       <c r="BI71" s="32" t="inlineStr"/>
       <c r="BJ71" s="32" t="inlineStr"/>
       <c r="BK71" s="32" t="inlineStr"/>
-      <c r="BL71" s="32" t="inlineStr"/>
-      <c r="BM71" s="32" t="inlineStr"/>
-      <c r="BN71" s="32" t="inlineStr"/>
-      <c r="BO71" s="32" t="inlineStr"/>
-      <c r="BP71" s="32" t="inlineStr"/>
-      <c r="BQ71" s="32" t="inlineStr"/>
-      <c r="BR71" s="32" t="inlineStr"/>
-      <c r="BS71" s="32" t="inlineStr"/>
-      <c r="BT71" s="32" t="inlineStr"/>
-      <c r="BU71" s="32" t="inlineStr"/>
-      <c r="BV71" s="32" t="inlineStr"/>
-      <c r="BW71" s="32" t="inlineStr"/>
-      <c r="BX71" s="25" t="inlineStr"/>
-      <c r="BY71" s="33" t="inlineStr"/>
-      <c r="BZ71" s="33" t="inlineStr"/>
-      <c r="CA71" s="33" t="inlineStr"/>
-      <c r="CB71" s="33" t="inlineStr"/>
-      <c r="CC71" s="26" t="inlineStr"/>
-      <c r="CD71" s="27" t="inlineStr"/>
+      <c r="BL71" s="26" t="inlineStr"/>
+      <c r="BM71" s="27" t="inlineStr"/>
+      <c r="BN71" s="33" t="inlineStr"/>
+      <c r="BO71" s="34" t="inlineStr"/>
+      <c r="BP71" s="34" t="inlineStr"/>
+      <c r="BQ71" s="34" t="inlineStr"/>
+      <c r="BR71" s="34" t="inlineStr"/>
+      <c r="BS71" s="34" t="inlineStr"/>
+      <c r="BT71" s="34" t="inlineStr"/>
+      <c r="BU71" s="34" t="inlineStr"/>
+      <c r="BV71" s="34" t="inlineStr"/>
+      <c r="BW71" s="34" t="inlineStr"/>
+      <c r="BX71" s="34" t="inlineStr"/>
+      <c r="BY71" s="34" t="inlineStr"/>
+      <c r="BZ71" s="34" t="inlineStr"/>
+      <c r="CA71" s="34" t="inlineStr"/>
+      <c r="CB71" s="34" t="inlineStr"/>
+      <c r="CC71" s="34" t="inlineStr"/>
+      <c r="CD71" s="34" t="inlineStr"/>
+      <c r="CE71" s="34" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="16" t="inlineStr"/>
@@ -7610,30 +7694,31 @@
       <c r="BD72" s="21" t="inlineStr"/>
       <c r="BE72" s="21" t="inlineStr"/>
       <c r="BF72" s="23" t="inlineStr"/>
-      <c r="BG72" s="24" t="inlineStr"/>
+      <c r="BG72" s="25" t="inlineStr"/>
       <c r="BH72" s="32" t="inlineStr"/>
       <c r="BI72" s="32" t="inlineStr"/>
       <c r="BJ72" s="32" t="inlineStr"/>
       <c r="BK72" s="32" t="inlineStr"/>
-      <c r="BL72" s="32" t="inlineStr"/>
-      <c r="BM72" s="32" t="inlineStr"/>
-      <c r="BN72" s="32" t="inlineStr"/>
-      <c r="BO72" s="32" t="inlineStr"/>
-      <c r="BP72" s="32" t="inlineStr"/>
-      <c r="BQ72" s="32" t="inlineStr"/>
-      <c r="BR72" s="32" t="inlineStr"/>
-      <c r="BS72" s="32" t="inlineStr"/>
-      <c r="BT72" s="32" t="inlineStr"/>
-      <c r="BU72" s="32" t="inlineStr"/>
-      <c r="BV72" s="32" t="inlineStr"/>
-      <c r="BW72" s="32" t="inlineStr"/>
-      <c r="BX72" s="25" t="inlineStr"/>
-      <c r="BY72" s="33" t="inlineStr"/>
-      <c r="BZ72" s="33" t="inlineStr"/>
-      <c r="CA72" s="33" t="inlineStr"/>
-      <c r="CB72" s="33" t="inlineStr"/>
-      <c r="CC72" s="26" t="inlineStr"/>
-      <c r="CD72" s="27" t="inlineStr"/>
+      <c r="BL72" s="26" t="inlineStr"/>
+      <c r="BM72" s="27" t="inlineStr"/>
+      <c r="BN72" s="33" t="inlineStr"/>
+      <c r="BO72" s="34" t="inlineStr"/>
+      <c r="BP72" s="34" t="inlineStr"/>
+      <c r="BQ72" s="34" t="inlineStr"/>
+      <c r="BR72" s="34" t="inlineStr"/>
+      <c r="BS72" s="34" t="inlineStr"/>
+      <c r="BT72" s="34" t="inlineStr"/>
+      <c r="BU72" s="34" t="inlineStr"/>
+      <c r="BV72" s="34" t="inlineStr"/>
+      <c r="BW72" s="34" t="inlineStr"/>
+      <c r="BX72" s="34" t="inlineStr"/>
+      <c r="BY72" s="34" t="inlineStr"/>
+      <c r="BZ72" s="34" t="inlineStr"/>
+      <c r="CA72" s="34" t="inlineStr"/>
+      <c r="CB72" s="34" t="inlineStr"/>
+      <c r="CC72" s="34" t="inlineStr"/>
+      <c r="CD72" s="34" t="inlineStr"/>
+      <c r="CE72" s="34" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="16" t="inlineStr"/>
@@ -7694,30 +7779,31 @@
       <c r="BD73" s="21" t="inlineStr"/>
       <c r="BE73" s="21" t="inlineStr"/>
       <c r="BF73" s="23" t="inlineStr"/>
-      <c r="BG73" s="24" t="inlineStr"/>
+      <c r="BG73" s="25" t="inlineStr"/>
       <c r="BH73" s="32" t="inlineStr"/>
       <c r="BI73" s="32" t="inlineStr"/>
       <c r="BJ73" s="32" t="inlineStr"/>
       <c r="BK73" s="32" t="inlineStr"/>
-      <c r="BL73" s="32" t="inlineStr"/>
-      <c r="BM73" s="32" t="inlineStr"/>
-      <c r="BN73" s="32" t="inlineStr"/>
-      <c r="BO73" s="32" t="inlineStr"/>
-      <c r="BP73" s="32" t="inlineStr"/>
-      <c r="BQ73" s="32" t="inlineStr"/>
-      <c r="BR73" s="32" t="inlineStr"/>
-      <c r="BS73" s="32" t="inlineStr"/>
-      <c r="BT73" s="32" t="inlineStr"/>
-      <c r="BU73" s="32" t="inlineStr"/>
-      <c r="BV73" s="32" t="inlineStr"/>
-      <c r="BW73" s="32" t="inlineStr"/>
-      <c r="BX73" s="25" t="inlineStr"/>
-      <c r="BY73" s="33" t="inlineStr"/>
-      <c r="BZ73" s="33" t="inlineStr"/>
-      <c r="CA73" s="33" t="inlineStr"/>
-      <c r="CB73" s="33" t="inlineStr"/>
-      <c r="CC73" s="26" t="inlineStr"/>
-      <c r="CD73" s="27" t="inlineStr"/>
+      <c r="BL73" s="26" t="inlineStr"/>
+      <c r="BM73" s="27" t="inlineStr"/>
+      <c r="BN73" s="33" t="inlineStr"/>
+      <c r="BO73" s="34" t="inlineStr"/>
+      <c r="BP73" s="34" t="inlineStr"/>
+      <c r="BQ73" s="34" t="inlineStr"/>
+      <c r="BR73" s="34" t="inlineStr"/>
+      <c r="BS73" s="34" t="inlineStr"/>
+      <c r="BT73" s="34" t="inlineStr"/>
+      <c r="BU73" s="34" t="inlineStr"/>
+      <c r="BV73" s="34" t="inlineStr"/>
+      <c r="BW73" s="34" t="inlineStr"/>
+      <c r="BX73" s="34" t="inlineStr"/>
+      <c r="BY73" s="34" t="inlineStr"/>
+      <c r="BZ73" s="34" t="inlineStr"/>
+      <c r="CA73" s="34" t="inlineStr"/>
+      <c r="CB73" s="34" t="inlineStr"/>
+      <c r="CC73" s="34" t="inlineStr"/>
+      <c r="CD73" s="34" t="inlineStr"/>
+      <c r="CE73" s="34" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="16" t="inlineStr"/>
@@ -7778,30 +7864,31 @@
       <c r="BD74" s="21" t="inlineStr"/>
       <c r="BE74" s="21" t="inlineStr"/>
       <c r="BF74" s="23" t="inlineStr"/>
-      <c r="BG74" s="24" t="inlineStr"/>
+      <c r="BG74" s="25" t="inlineStr"/>
       <c r="BH74" s="32" t="inlineStr"/>
       <c r="BI74" s="32" t="inlineStr"/>
       <c r="BJ74" s="32" t="inlineStr"/>
       <c r="BK74" s="32" t="inlineStr"/>
-      <c r="BL74" s="32" t="inlineStr"/>
-      <c r="BM74" s="32" t="inlineStr"/>
-      <c r="BN74" s="32" t="inlineStr"/>
-      <c r="BO74" s="32" t="inlineStr"/>
-      <c r="BP74" s="32" t="inlineStr"/>
-      <c r="BQ74" s="32" t="inlineStr"/>
-      <c r="BR74" s="32" t="inlineStr"/>
-      <c r="BS74" s="32" t="inlineStr"/>
-      <c r="BT74" s="32" t="inlineStr"/>
-      <c r="BU74" s="32" t="inlineStr"/>
-      <c r="BV74" s="32" t="inlineStr"/>
-      <c r="BW74" s="32" t="inlineStr"/>
-      <c r="BX74" s="25" t="inlineStr"/>
-      <c r="BY74" s="33" t="inlineStr"/>
-      <c r="BZ74" s="33" t="inlineStr"/>
-      <c r="CA74" s="33" t="inlineStr"/>
-      <c r="CB74" s="33" t="inlineStr"/>
-      <c r="CC74" s="26" t="inlineStr"/>
-      <c r="CD74" s="27" t="inlineStr"/>
+      <c r="BL74" s="26" t="inlineStr"/>
+      <c r="BM74" s="27" t="inlineStr"/>
+      <c r="BN74" s="33" t="inlineStr"/>
+      <c r="BO74" s="34" t="inlineStr"/>
+      <c r="BP74" s="34" t="inlineStr"/>
+      <c r="BQ74" s="34" t="inlineStr"/>
+      <c r="BR74" s="34" t="inlineStr"/>
+      <c r="BS74" s="34" t="inlineStr"/>
+      <c r="BT74" s="34" t="inlineStr"/>
+      <c r="BU74" s="34" t="inlineStr"/>
+      <c r="BV74" s="34" t="inlineStr"/>
+      <c r="BW74" s="34" t="inlineStr"/>
+      <c r="BX74" s="34" t="inlineStr"/>
+      <c r="BY74" s="34" t="inlineStr"/>
+      <c r="BZ74" s="34" t="inlineStr"/>
+      <c r="CA74" s="34" t="inlineStr"/>
+      <c r="CB74" s="34" t="inlineStr"/>
+      <c r="CC74" s="34" t="inlineStr"/>
+      <c r="CD74" s="34" t="inlineStr"/>
+      <c r="CE74" s="34" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="16" t="inlineStr"/>
@@ -7862,30 +7949,31 @@
       <c r="BD75" s="21" t="inlineStr"/>
       <c r="BE75" s="21" t="inlineStr"/>
       <c r="BF75" s="23" t="inlineStr"/>
-      <c r="BG75" s="24" t="inlineStr"/>
+      <c r="BG75" s="25" t="inlineStr"/>
       <c r="BH75" s="32" t="inlineStr"/>
       <c r="BI75" s="32" t="inlineStr"/>
       <c r="BJ75" s="32" t="inlineStr"/>
       <c r="BK75" s="32" t="inlineStr"/>
-      <c r="BL75" s="32" t="inlineStr"/>
-      <c r="BM75" s="32" t="inlineStr"/>
-      <c r="BN75" s="32" t="inlineStr"/>
-      <c r="BO75" s="32" t="inlineStr"/>
-      <c r="BP75" s="32" t="inlineStr"/>
-      <c r="BQ75" s="32" t="inlineStr"/>
-      <c r="BR75" s="32" t="inlineStr"/>
-      <c r="BS75" s="32" t="inlineStr"/>
-      <c r="BT75" s="32" t="inlineStr"/>
-      <c r="BU75" s="32" t="inlineStr"/>
-      <c r="BV75" s="32" t="inlineStr"/>
-      <c r="BW75" s="32" t="inlineStr"/>
-      <c r="BX75" s="25" t="inlineStr"/>
-      <c r="BY75" s="33" t="inlineStr"/>
-      <c r="BZ75" s="33" t="inlineStr"/>
-      <c r="CA75" s="33" t="inlineStr"/>
-      <c r="CB75" s="33" t="inlineStr"/>
-      <c r="CC75" s="26" t="inlineStr"/>
-      <c r="CD75" s="27" t="inlineStr"/>
+      <c r="BL75" s="26" t="inlineStr"/>
+      <c r="BM75" s="27" t="inlineStr"/>
+      <c r="BN75" s="33" t="inlineStr"/>
+      <c r="BO75" s="34" t="inlineStr"/>
+      <c r="BP75" s="34" t="inlineStr"/>
+      <c r="BQ75" s="34" t="inlineStr"/>
+      <c r="BR75" s="34" t="inlineStr"/>
+      <c r="BS75" s="34" t="inlineStr"/>
+      <c r="BT75" s="34" t="inlineStr"/>
+      <c r="BU75" s="34" t="inlineStr"/>
+      <c r="BV75" s="34" t="inlineStr"/>
+      <c r="BW75" s="34" t="inlineStr"/>
+      <c r="BX75" s="34" t="inlineStr"/>
+      <c r="BY75" s="34" t="inlineStr"/>
+      <c r="BZ75" s="34" t="inlineStr"/>
+      <c r="CA75" s="34" t="inlineStr"/>
+      <c r="CB75" s="34" t="inlineStr"/>
+      <c r="CC75" s="34" t="inlineStr"/>
+      <c r="CD75" s="34" t="inlineStr"/>
+      <c r="CE75" s="34" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="16" t="inlineStr"/>
@@ -7946,30 +8034,31 @@
       <c r="BD76" s="21" t="inlineStr"/>
       <c r="BE76" s="21" t="inlineStr"/>
       <c r="BF76" s="23" t="inlineStr"/>
-      <c r="BG76" s="24" t="inlineStr"/>
+      <c r="BG76" s="25" t="inlineStr"/>
       <c r="BH76" s="32" t="inlineStr"/>
       <c r="BI76" s="32" t="inlineStr"/>
       <c r="BJ76" s="32" t="inlineStr"/>
       <c r="BK76" s="32" t="inlineStr"/>
-      <c r="BL76" s="32" t="inlineStr"/>
-      <c r="BM76" s="32" t="inlineStr"/>
-      <c r="BN76" s="32" t="inlineStr"/>
-      <c r="BO76" s="32" t="inlineStr"/>
-      <c r="BP76" s="32" t="inlineStr"/>
-      <c r="BQ76" s="32" t="inlineStr"/>
-      <c r="BR76" s="32" t="inlineStr"/>
-      <c r="BS76" s="32" t="inlineStr"/>
-      <c r="BT76" s="32" t="inlineStr"/>
-      <c r="BU76" s="32" t="inlineStr"/>
-      <c r="BV76" s="32" t="inlineStr"/>
-      <c r="BW76" s="32" t="inlineStr"/>
-      <c r="BX76" s="25" t="inlineStr"/>
-      <c r="BY76" s="33" t="inlineStr"/>
-      <c r="BZ76" s="33" t="inlineStr"/>
-      <c r="CA76" s="33" t="inlineStr"/>
-      <c r="CB76" s="33" t="inlineStr"/>
-      <c r="CC76" s="26" t="inlineStr"/>
-      <c r="CD76" s="27" t="inlineStr"/>
+      <c r="BL76" s="26" t="inlineStr"/>
+      <c r="BM76" s="27" t="inlineStr"/>
+      <c r="BN76" s="33" t="inlineStr"/>
+      <c r="BO76" s="34" t="inlineStr"/>
+      <c r="BP76" s="34" t="inlineStr"/>
+      <c r="BQ76" s="34" t="inlineStr"/>
+      <c r="BR76" s="34" t="inlineStr"/>
+      <c r="BS76" s="34" t="inlineStr"/>
+      <c r="BT76" s="34" t="inlineStr"/>
+      <c r="BU76" s="34" t="inlineStr"/>
+      <c r="BV76" s="34" t="inlineStr"/>
+      <c r="BW76" s="34" t="inlineStr"/>
+      <c r="BX76" s="34" t="inlineStr"/>
+      <c r="BY76" s="34" t="inlineStr"/>
+      <c r="BZ76" s="34" t="inlineStr"/>
+      <c r="CA76" s="34" t="inlineStr"/>
+      <c r="CB76" s="34" t="inlineStr"/>
+      <c r="CC76" s="34" t="inlineStr"/>
+      <c r="CD76" s="34" t="inlineStr"/>
+      <c r="CE76" s="34" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="16" t="inlineStr"/>
@@ -8030,30 +8119,31 @@
       <c r="BD77" s="21" t="inlineStr"/>
       <c r="BE77" s="21" t="inlineStr"/>
       <c r="BF77" s="23" t="inlineStr"/>
-      <c r="BG77" s="24" t="inlineStr"/>
+      <c r="BG77" s="25" t="inlineStr"/>
       <c r="BH77" s="32" t="inlineStr"/>
       <c r="BI77" s="32" t="inlineStr"/>
       <c r="BJ77" s="32" t="inlineStr"/>
       <c r="BK77" s="32" t="inlineStr"/>
-      <c r="BL77" s="32" t="inlineStr"/>
-      <c r="BM77" s="32" t="inlineStr"/>
-      <c r="BN77" s="32" t="inlineStr"/>
-      <c r="BO77" s="32" t="inlineStr"/>
-      <c r="BP77" s="32" t="inlineStr"/>
-      <c r="BQ77" s="32" t="inlineStr"/>
-      <c r="BR77" s="32" t="inlineStr"/>
-      <c r="BS77" s="32" t="inlineStr"/>
-      <c r="BT77" s="32" t="inlineStr"/>
-      <c r="BU77" s="32" t="inlineStr"/>
-      <c r="BV77" s="32" t="inlineStr"/>
-      <c r="BW77" s="32" t="inlineStr"/>
-      <c r="BX77" s="25" t="inlineStr"/>
-      <c r="BY77" s="33" t="inlineStr"/>
-      <c r="BZ77" s="33" t="inlineStr"/>
-      <c r="CA77" s="33" t="inlineStr"/>
-      <c r="CB77" s="33" t="inlineStr"/>
-      <c r="CC77" s="26" t="inlineStr"/>
-      <c r="CD77" s="27" t="inlineStr"/>
+      <c r="BL77" s="26" t="inlineStr"/>
+      <c r="BM77" s="27" t="inlineStr"/>
+      <c r="BN77" s="33" t="inlineStr"/>
+      <c r="BO77" s="34" t="inlineStr"/>
+      <c r="BP77" s="34" t="inlineStr"/>
+      <c r="BQ77" s="34" t="inlineStr"/>
+      <c r="BR77" s="34" t="inlineStr"/>
+      <c r="BS77" s="34" t="inlineStr"/>
+      <c r="BT77" s="34" t="inlineStr"/>
+      <c r="BU77" s="34" t="inlineStr"/>
+      <c r="BV77" s="34" t="inlineStr"/>
+      <c r="BW77" s="34" t="inlineStr"/>
+      <c r="BX77" s="34" t="inlineStr"/>
+      <c r="BY77" s="34" t="inlineStr"/>
+      <c r="BZ77" s="34" t="inlineStr"/>
+      <c r="CA77" s="34" t="inlineStr"/>
+      <c r="CB77" s="34" t="inlineStr"/>
+      <c r="CC77" s="34" t="inlineStr"/>
+      <c r="CD77" s="34" t="inlineStr"/>
+      <c r="CE77" s="34" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="16" t="inlineStr"/>
@@ -8114,30 +8204,31 @@
       <c r="BD78" s="21" t="inlineStr"/>
       <c r="BE78" s="21" t="inlineStr"/>
       <c r="BF78" s="23" t="inlineStr"/>
-      <c r="BG78" s="24" t="inlineStr"/>
+      <c r="BG78" s="25" t="inlineStr"/>
       <c r="BH78" s="32" t="inlineStr"/>
       <c r="BI78" s="32" t="inlineStr"/>
       <c r="BJ78" s="32" t="inlineStr"/>
       <c r="BK78" s="32" t="inlineStr"/>
-      <c r="BL78" s="32" t="inlineStr"/>
-      <c r="BM78" s="32" t="inlineStr"/>
-      <c r="BN78" s="32" t="inlineStr"/>
-      <c r="BO78" s="32" t="inlineStr"/>
-      <c r="BP78" s="32" t="inlineStr"/>
-      <c r="BQ78" s="32" t="inlineStr"/>
-      <c r="BR78" s="32" t="inlineStr"/>
-      <c r="BS78" s="32" t="inlineStr"/>
-      <c r="BT78" s="32" t="inlineStr"/>
-      <c r="BU78" s="32" t="inlineStr"/>
-      <c r="BV78" s="32" t="inlineStr"/>
-      <c r="BW78" s="32" t="inlineStr"/>
-      <c r="BX78" s="25" t="inlineStr"/>
-      <c r="BY78" s="33" t="inlineStr"/>
-      <c r="BZ78" s="33" t="inlineStr"/>
-      <c r="CA78" s="33" t="inlineStr"/>
-      <c r="CB78" s="33" t="inlineStr"/>
-      <c r="CC78" s="26" t="inlineStr"/>
-      <c r="CD78" s="27" t="inlineStr"/>
+      <c r="BL78" s="26" t="inlineStr"/>
+      <c r="BM78" s="27" t="inlineStr"/>
+      <c r="BN78" s="33" t="inlineStr"/>
+      <c r="BO78" s="34" t="inlineStr"/>
+      <c r="BP78" s="34" t="inlineStr"/>
+      <c r="BQ78" s="34" t="inlineStr"/>
+      <c r="BR78" s="34" t="inlineStr"/>
+      <c r="BS78" s="34" t="inlineStr"/>
+      <c r="BT78" s="34" t="inlineStr"/>
+      <c r="BU78" s="34" t="inlineStr"/>
+      <c r="BV78" s="34" t="inlineStr"/>
+      <c r="BW78" s="34" t="inlineStr"/>
+      <c r="BX78" s="34" t="inlineStr"/>
+      <c r="BY78" s="34" t="inlineStr"/>
+      <c r="BZ78" s="34" t="inlineStr"/>
+      <c r="CA78" s="34" t="inlineStr"/>
+      <c r="CB78" s="34" t="inlineStr"/>
+      <c r="CC78" s="34" t="inlineStr"/>
+      <c r="CD78" s="34" t="inlineStr"/>
+      <c r="CE78" s="34" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="16" t="inlineStr"/>
@@ -8198,30 +8289,31 @@
       <c r="BD79" s="21" t="inlineStr"/>
       <c r="BE79" s="21" t="inlineStr"/>
       <c r="BF79" s="23" t="inlineStr"/>
-      <c r="BG79" s="24" t="inlineStr"/>
+      <c r="BG79" s="25" t="inlineStr"/>
       <c r="BH79" s="32" t="inlineStr"/>
       <c r="BI79" s="32" t="inlineStr"/>
       <c r="BJ79" s="32" t="inlineStr"/>
       <c r="BK79" s="32" t="inlineStr"/>
-      <c r="BL79" s="32" t="inlineStr"/>
-      <c r="BM79" s="32" t="inlineStr"/>
-      <c r="BN79" s="32" t="inlineStr"/>
-      <c r="BO79" s="32" t="inlineStr"/>
-      <c r="BP79" s="32" t="inlineStr"/>
-      <c r="BQ79" s="32" t="inlineStr"/>
-      <c r="BR79" s="32" t="inlineStr"/>
-      <c r="BS79" s="32" t="inlineStr"/>
-      <c r="BT79" s="32" t="inlineStr"/>
-      <c r="BU79" s="32" t="inlineStr"/>
-      <c r="BV79" s="32" t="inlineStr"/>
-      <c r="BW79" s="32" t="inlineStr"/>
-      <c r="BX79" s="25" t="inlineStr"/>
-      <c r="BY79" s="33" t="inlineStr"/>
-      <c r="BZ79" s="33" t="inlineStr"/>
-      <c r="CA79" s="33" t="inlineStr"/>
-      <c r="CB79" s="33" t="inlineStr"/>
-      <c r="CC79" s="26" t="inlineStr"/>
-      <c r="CD79" s="27" t="inlineStr"/>
+      <c r="BL79" s="26" t="inlineStr"/>
+      <c r="BM79" s="27" t="inlineStr"/>
+      <c r="BN79" s="33" t="inlineStr"/>
+      <c r="BO79" s="34" t="inlineStr"/>
+      <c r="BP79" s="34" t="inlineStr"/>
+      <c r="BQ79" s="34" t="inlineStr"/>
+      <c r="BR79" s="34" t="inlineStr"/>
+      <c r="BS79" s="34" t="inlineStr"/>
+      <c r="BT79" s="34" t="inlineStr"/>
+      <c r="BU79" s="34" t="inlineStr"/>
+      <c r="BV79" s="34" t="inlineStr"/>
+      <c r="BW79" s="34" t="inlineStr"/>
+      <c r="BX79" s="34" t="inlineStr"/>
+      <c r="BY79" s="34" t="inlineStr"/>
+      <c r="BZ79" s="34" t="inlineStr"/>
+      <c r="CA79" s="34" t="inlineStr"/>
+      <c r="CB79" s="34" t="inlineStr"/>
+      <c r="CC79" s="34" t="inlineStr"/>
+      <c r="CD79" s="34" t="inlineStr"/>
+      <c r="CE79" s="34" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="16" t="inlineStr"/>
@@ -8282,30 +8374,31 @@
       <c r="BD80" s="21" t="inlineStr"/>
       <c r="BE80" s="21" t="inlineStr"/>
       <c r="BF80" s="23" t="inlineStr"/>
-      <c r="BG80" s="24" t="inlineStr"/>
+      <c r="BG80" s="25" t="inlineStr"/>
       <c r="BH80" s="32" t="inlineStr"/>
       <c r="BI80" s="32" t="inlineStr"/>
       <c r="BJ80" s="32" t="inlineStr"/>
       <c r="BK80" s="32" t="inlineStr"/>
-      <c r="BL80" s="32" t="inlineStr"/>
-      <c r="BM80" s="32" t="inlineStr"/>
-      <c r="BN80" s="32" t="inlineStr"/>
-      <c r="BO80" s="32" t="inlineStr"/>
-      <c r="BP80" s="32" t="inlineStr"/>
-      <c r="BQ80" s="32" t="inlineStr"/>
-      <c r="BR80" s="32" t="inlineStr"/>
-      <c r="BS80" s="32" t="inlineStr"/>
-      <c r="BT80" s="32" t="inlineStr"/>
-      <c r="BU80" s="32" t="inlineStr"/>
-      <c r="BV80" s="32" t="inlineStr"/>
-      <c r="BW80" s="32" t="inlineStr"/>
-      <c r="BX80" s="25" t="inlineStr"/>
-      <c r="BY80" s="33" t="inlineStr"/>
-      <c r="BZ80" s="33" t="inlineStr"/>
-      <c r="CA80" s="33" t="inlineStr"/>
-      <c r="CB80" s="33" t="inlineStr"/>
-      <c r="CC80" s="26" t="inlineStr"/>
-      <c r="CD80" s="27" t="inlineStr"/>
+      <c r="BL80" s="26" t="inlineStr"/>
+      <c r="BM80" s="27" t="inlineStr"/>
+      <c r="BN80" s="33" t="inlineStr"/>
+      <c r="BO80" s="34" t="inlineStr"/>
+      <c r="BP80" s="34" t="inlineStr"/>
+      <c r="BQ80" s="34" t="inlineStr"/>
+      <c r="BR80" s="34" t="inlineStr"/>
+      <c r="BS80" s="34" t="inlineStr"/>
+      <c r="BT80" s="34" t="inlineStr"/>
+      <c r="BU80" s="34" t="inlineStr"/>
+      <c r="BV80" s="34" t="inlineStr"/>
+      <c r="BW80" s="34" t="inlineStr"/>
+      <c r="BX80" s="34" t="inlineStr"/>
+      <c r="BY80" s="34" t="inlineStr"/>
+      <c r="BZ80" s="34" t="inlineStr"/>
+      <c r="CA80" s="34" t="inlineStr"/>
+      <c r="CB80" s="34" t="inlineStr"/>
+      <c r="CC80" s="34" t="inlineStr"/>
+      <c r="CD80" s="34" t="inlineStr"/>
+      <c r="CE80" s="34" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="16" t="inlineStr"/>
@@ -8366,30 +8459,31 @@
       <c r="BD81" s="21" t="inlineStr"/>
       <c r="BE81" s="21" t="inlineStr"/>
       <c r="BF81" s="23" t="inlineStr"/>
-      <c r="BG81" s="24" t="inlineStr"/>
+      <c r="BG81" s="25" t="inlineStr"/>
       <c r="BH81" s="32" t="inlineStr"/>
       <c r="BI81" s="32" t="inlineStr"/>
       <c r="BJ81" s="32" t="inlineStr"/>
       <c r="BK81" s="32" t="inlineStr"/>
-      <c r="BL81" s="32" t="inlineStr"/>
-      <c r="BM81" s="32" t="inlineStr"/>
-      <c r="BN81" s="32" t="inlineStr"/>
-      <c r="BO81" s="32" t="inlineStr"/>
-      <c r="BP81" s="32" t="inlineStr"/>
-      <c r="BQ81" s="32" t="inlineStr"/>
-      <c r="BR81" s="32" t="inlineStr"/>
-      <c r="BS81" s="32" t="inlineStr"/>
-      <c r="BT81" s="32" t="inlineStr"/>
-      <c r="BU81" s="32" t="inlineStr"/>
-      <c r="BV81" s="32" t="inlineStr"/>
-      <c r="BW81" s="32" t="inlineStr"/>
-      <c r="BX81" s="25" t="inlineStr"/>
-      <c r="BY81" s="33" t="inlineStr"/>
-      <c r="BZ81" s="33" t="inlineStr"/>
-      <c r="CA81" s="33" t="inlineStr"/>
-      <c r="CB81" s="33" t="inlineStr"/>
-      <c r="CC81" s="26" t="inlineStr"/>
-      <c r="CD81" s="27" t="inlineStr"/>
+      <c r="BL81" s="26" t="inlineStr"/>
+      <c r="BM81" s="27" t="inlineStr"/>
+      <c r="BN81" s="33" t="inlineStr"/>
+      <c r="BO81" s="34" t="inlineStr"/>
+      <c r="BP81" s="34" t="inlineStr"/>
+      <c r="BQ81" s="34" t="inlineStr"/>
+      <c r="BR81" s="34" t="inlineStr"/>
+      <c r="BS81" s="34" t="inlineStr"/>
+      <c r="BT81" s="34" t="inlineStr"/>
+      <c r="BU81" s="34" t="inlineStr"/>
+      <c r="BV81" s="34" t="inlineStr"/>
+      <c r="BW81" s="34" t="inlineStr"/>
+      <c r="BX81" s="34" t="inlineStr"/>
+      <c r="BY81" s="34" t="inlineStr"/>
+      <c r="BZ81" s="34" t="inlineStr"/>
+      <c r="CA81" s="34" t="inlineStr"/>
+      <c r="CB81" s="34" t="inlineStr"/>
+      <c r="CC81" s="34" t="inlineStr"/>
+      <c r="CD81" s="34" t="inlineStr"/>
+      <c r="CE81" s="34" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="16" t="inlineStr"/>
@@ -8450,30 +8544,31 @@
       <c r="BD82" s="21" t="inlineStr"/>
       <c r="BE82" s="21" t="inlineStr"/>
       <c r="BF82" s="23" t="inlineStr"/>
-      <c r="BG82" s="24" t="inlineStr"/>
+      <c r="BG82" s="25" t="inlineStr"/>
       <c r="BH82" s="32" t="inlineStr"/>
       <c r="BI82" s="32" t="inlineStr"/>
       <c r="BJ82" s="32" t="inlineStr"/>
       <c r="BK82" s="32" t="inlineStr"/>
-      <c r="BL82" s="32" t="inlineStr"/>
-      <c r="BM82" s="32" t="inlineStr"/>
-      <c r="BN82" s="32" t="inlineStr"/>
-      <c r="BO82" s="32" t="inlineStr"/>
-      <c r="BP82" s="32" t="inlineStr"/>
-      <c r="BQ82" s="32" t="inlineStr"/>
-      <c r="BR82" s="32" t="inlineStr"/>
-      <c r="BS82" s="32" t="inlineStr"/>
-      <c r="BT82" s="32" t="inlineStr"/>
-      <c r="BU82" s="32" t="inlineStr"/>
-      <c r="BV82" s="32" t="inlineStr"/>
-      <c r="BW82" s="32" t="inlineStr"/>
-      <c r="BX82" s="25" t="inlineStr"/>
-      <c r="BY82" s="33" t="inlineStr"/>
-      <c r="BZ82" s="33" t="inlineStr"/>
-      <c r="CA82" s="33" t="inlineStr"/>
-      <c r="CB82" s="33" t="inlineStr"/>
-      <c r="CC82" s="26" t="inlineStr"/>
-      <c r="CD82" s="27" t="inlineStr"/>
+      <c r="BL82" s="26" t="inlineStr"/>
+      <c r="BM82" s="27" t="inlineStr"/>
+      <c r="BN82" s="33" t="inlineStr"/>
+      <c r="BO82" s="34" t="inlineStr"/>
+      <c r="BP82" s="34" t="inlineStr"/>
+      <c r="BQ82" s="34" t="inlineStr"/>
+      <c r="BR82" s="34" t="inlineStr"/>
+      <c r="BS82" s="34" t="inlineStr"/>
+      <c r="BT82" s="34" t="inlineStr"/>
+      <c r="BU82" s="34" t="inlineStr"/>
+      <c r="BV82" s="34" t="inlineStr"/>
+      <c r="BW82" s="34" t="inlineStr"/>
+      <c r="BX82" s="34" t="inlineStr"/>
+      <c r="BY82" s="34" t="inlineStr"/>
+      <c r="BZ82" s="34" t="inlineStr"/>
+      <c r="CA82" s="34" t="inlineStr"/>
+      <c r="CB82" s="34" t="inlineStr"/>
+      <c r="CC82" s="34" t="inlineStr"/>
+      <c r="CD82" s="34" t="inlineStr"/>
+      <c r="CE82" s="34" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="16" t="inlineStr"/>
@@ -8534,30 +8629,31 @@
       <c r="BD83" s="21" t="inlineStr"/>
       <c r="BE83" s="21" t="inlineStr"/>
       <c r="BF83" s="23" t="inlineStr"/>
-      <c r="BG83" s="24" t="inlineStr"/>
+      <c r="BG83" s="25" t="inlineStr"/>
       <c r="BH83" s="32" t="inlineStr"/>
       <c r="BI83" s="32" t="inlineStr"/>
       <c r="BJ83" s="32" t="inlineStr"/>
       <c r="BK83" s="32" t="inlineStr"/>
-      <c r="BL83" s="32" t="inlineStr"/>
-      <c r="BM83" s="32" t="inlineStr"/>
-      <c r="BN83" s="32" t="inlineStr"/>
-      <c r="BO83" s="32" t="inlineStr"/>
-      <c r="BP83" s="32" t="inlineStr"/>
-      <c r="BQ83" s="32" t="inlineStr"/>
-      <c r="BR83" s="32" t="inlineStr"/>
-      <c r="BS83" s="32" t="inlineStr"/>
-      <c r="BT83" s="32" t="inlineStr"/>
-      <c r="BU83" s="32" t="inlineStr"/>
-      <c r="BV83" s="32" t="inlineStr"/>
-      <c r="BW83" s="32" t="inlineStr"/>
-      <c r="BX83" s="25" t="inlineStr"/>
-      <c r="BY83" s="33" t="inlineStr"/>
-      <c r="BZ83" s="33" t="inlineStr"/>
-      <c r="CA83" s="33" t="inlineStr"/>
-      <c r="CB83" s="33" t="inlineStr"/>
-      <c r="CC83" s="26" t="inlineStr"/>
-      <c r="CD83" s="27" t="inlineStr"/>
+      <c r="BL83" s="26" t="inlineStr"/>
+      <c r="BM83" s="27" t="inlineStr"/>
+      <c r="BN83" s="33" t="inlineStr"/>
+      <c r="BO83" s="34" t="inlineStr"/>
+      <c r="BP83" s="34" t="inlineStr"/>
+      <c r="BQ83" s="34" t="inlineStr"/>
+      <c r="BR83" s="34" t="inlineStr"/>
+      <c r="BS83" s="34" t="inlineStr"/>
+      <c r="BT83" s="34" t="inlineStr"/>
+      <c r="BU83" s="34" t="inlineStr"/>
+      <c r="BV83" s="34" t="inlineStr"/>
+      <c r="BW83" s="34" t="inlineStr"/>
+      <c r="BX83" s="34" t="inlineStr"/>
+      <c r="BY83" s="34" t="inlineStr"/>
+      <c r="BZ83" s="34" t="inlineStr"/>
+      <c r="CA83" s="34" t="inlineStr"/>
+      <c r="CB83" s="34" t="inlineStr"/>
+      <c r="CC83" s="34" t="inlineStr"/>
+      <c r="CD83" s="34" t="inlineStr"/>
+      <c r="CE83" s="34" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="16" t="inlineStr"/>
@@ -8618,30 +8714,31 @@
       <c r="BD84" s="21" t="inlineStr"/>
       <c r="BE84" s="21" t="inlineStr"/>
       <c r="BF84" s="23" t="inlineStr"/>
-      <c r="BG84" s="24" t="inlineStr"/>
+      <c r="BG84" s="25" t="inlineStr"/>
       <c r="BH84" s="32" t="inlineStr"/>
       <c r="BI84" s="32" t="inlineStr"/>
       <c r="BJ84" s="32" t="inlineStr"/>
       <c r="BK84" s="32" t="inlineStr"/>
-      <c r="BL84" s="32" t="inlineStr"/>
-      <c r="BM84" s="32" t="inlineStr"/>
-      <c r="BN84" s="32" t="inlineStr"/>
-      <c r="BO84" s="32" t="inlineStr"/>
-      <c r="BP84" s="32" t="inlineStr"/>
-      <c r="BQ84" s="32" t="inlineStr"/>
-      <c r="BR84" s="32" t="inlineStr"/>
-      <c r="BS84" s="32" t="inlineStr"/>
-      <c r="BT84" s="32" t="inlineStr"/>
-      <c r="BU84" s="32" t="inlineStr"/>
-      <c r="BV84" s="32" t="inlineStr"/>
-      <c r="BW84" s="32" t="inlineStr"/>
-      <c r="BX84" s="25" t="inlineStr"/>
-      <c r="BY84" s="33" t="inlineStr"/>
-      <c r="BZ84" s="33" t="inlineStr"/>
-      <c r="CA84" s="33" t="inlineStr"/>
-      <c r="CB84" s="33" t="inlineStr"/>
-      <c r="CC84" s="26" t="inlineStr"/>
-      <c r="CD84" s="27" t="inlineStr"/>
+      <c r="BL84" s="26" t="inlineStr"/>
+      <c r="BM84" s="27" t="inlineStr"/>
+      <c r="BN84" s="33" t="inlineStr"/>
+      <c r="BO84" s="34" t="inlineStr"/>
+      <c r="BP84" s="34" t="inlineStr"/>
+      <c r="BQ84" s="34" t="inlineStr"/>
+      <c r="BR84" s="34" t="inlineStr"/>
+      <c r="BS84" s="34" t="inlineStr"/>
+      <c r="BT84" s="34" t="inlineStr"/>
+      <c r="BU84" s="34" t="inlineStr"/>
+      <c r="BV84" s="34" t="inlineStr"/>
+      <c r="BW84" s="34" t="inlineStr"/>
+      <c r="BX84" s="34" t="inlineStr"/>
+      <c r="BY84" s="34" t="inlineStr"/>
+      <c r="BZ84" s="34" t="inlineStr"/>
+      <c r="CA84" s="34" t="inlineStr"/>
+      <c r="CB84" s="34" t="inlineStr"/>
+      <c r="CC84" s="34" t="inlineStr"/>
+      <c r="CD84" s="34" t="inlineStr"/>
+      <c r="CE84" s="34" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="16" t="inlineStr"/>
@@ -8702,30 +8799,31 @@
       <c r="BD85" s="21" t="inlineStr"/>
       <c r="BE85" s="21" t="inlineStr"/>
       <c r="BF85" s="23" t="inlineStr"/>
-      <c r="BG85" s="24" t="inlineStr"/>
+      <c r="BG85" s="25" t="inlineStr"/>
       <c r="BH85" s="32" t="inlineStr"/>
       <c r="BI85" s="32" t="inlineStr"/>
       <c r="BJ85" s="32" t="inlineStr"/>
       <c r="BK85" s="32" t="inlineStr"/>
-      <c r="BL85" s="32" t="inlineStr"/>
-      <c r="BM85" s="32" t="inlineStr"/>
-      <c r="BN85" s="32" t="inlineStr"/>
-      <c r="BO85" s="32" t="inlineStr"/>
-      <c r="BP85" s="32" t="inlineStr"/>
-      <c r="BQ85" s="32" t="inlineStr"/>
-      <c r="BR85" s="32" t="inlineStr"/>
-      <c r="BS85" s="32" t="inlineStr"/>
-      <c r="BT85" s="32" t="inlineStr"/>
-      <c r="BU85" s="32" t="inlineStr"/>
-      <c r="BV85" s="32" t="inlineStr"/>
-      <c r="BW85" s="32" t="inlineStr"/>
-      <c r="BX85" s="25" t="inlineStr"/>
-      <c r="BY85" s="33" t="inlineStr"/>
-      <c r="BZ85" s="33" t="inlineStr"/>
-      <c r="CA85" s="33" t="inlineStr"/>
-      <c r="CB85" s="33" t="inlineStr"/>
-      <c r="CC85" s="26" t="inlineStr"/>
-      <c r="CD85" s="27" t="inlineStr"/>
+      <c r="BL85" s="26" t="inlineStr"/>
+      <c r="BM85" s="27" t="inlineStr"/>
+      <c r="BN85" s="33" t="inlineStr"/>
+      <c r="BO85" s="34" t="inlineStr"/>
+      <c r="BP85" s="34" t="inlineStr"/>
+      <c r="BQ85" s="34" t="inlineStr"/>
+      <c r="BR85" s="34" t="inlineStr"/>
+      <c r="BS85" s="34" t="inlineStr"/>
+      <c r="BT85" s="34" t="inlineStr"/>
+      <c r="BU85" s="34" t="inlineStr"/>
+      <c r="BV85" s="34" t="inlineStr"/>
+      <c r="BW85" s="34" t="inlineStr"/>
+      <c r="BX85" s="34" t="inlineStr"/>
+      <c r="BY85" s="34" t="inlineStr"/>
+      <c r="BZ85" s="34" t="inlineStr"/>
+      <c r="CA85" s="34" t="inlineStr"/>
+      <c r="CB85" s="34" t="inlineStr"/>
+      <c r="CC85" s="34" t="inlineStr"/>
+      <c r="CD85" s="34" t="inlineStr"/>
+      <c r="CE85" s="34" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="16" t="inlineStr"/>
@@ -8786,30 +8884,31 @@
       <c r="BD86" s="21" t="inlineStr"/>
       <c r="BE86" s="21" t="inlineStr"/>
       <c r="BF86" s="23" t="inlineStr"/>
-      <c r="BG86" s="24" t="inlineStr"/>
+      <c r="BG86" s="25" t="inlineStr"/>
       <c r="BH86" s="32" t="inlineStr"/>
       <c r="BI86" s="32" t="inlineStr"/>
       <c r="BJ86" s="32" t="inlineStr"/>
       <c r="BK86" s="32" t="inlineStr"/>
-      <c r="BL86" s="32" t="inlineStr"/>
-      <c r="BM86" s="32" t="inlineStr"/>
-      <c r="BN86" s="32" t="inlineStr"/>
-      <c r="BO86" s="32" t="inlineStr"/>
-      <c r="BP86" s="32" t="inlineStr"/>
-      <c r="BQ86" s="32" t="inlineStr"/>
-      <c r="BR86" s="32" t="inlineStr"/>
-      <c r="BS86" s="32" t="inlineStr"/>
-      <c r="BT86" s="32" t="inlineStr"/>
-      <c r="BU86" s="32" t="inlineStr"/>
-      <c r="BV86" s="32" t="inlineStr"/>
-      <c r="BW86" s="32" t="inlineStr"/>
-      <c r="BX86" s="25" t="inlineStr"/>
-      <c r="BY86" s="33" t="inlineStr"/>
-      <c r="BZ86" s="33" t="inlineStr"/>
-      <c r="CA86" s="33" t="inlineStr"/>
-      <c r="CB86" s="33" t="inlineStr"/>
-      <c r="CC86" s="26" t="inlineStr"/>
-      <c r="CD86" s="27" t="inlineStr"/>
+      <c r="BL86" s="26" t="inlineStr"/>
+      <c r="BM86" s="27" t="inlineStr"/>
+      <c r="BN86" s="33" t="inlineStr"/>
+      <c r="BO86" s="34" t="inlineStr"/>
+      <c r="BP86" s="34" t="inlineStr"/>
+      <c r="BQ86" s="34" t="inlineStr"/>
+      <c r="BR86" s="34" t="inlineStr"/>
+      <c r="BS86" s="34" t="inlineStr"/>
+      <c r="BT86" s="34" t="inlineStr"/>
+      <c r="BU86" s="34" t="inlineStr"/>
+      <c r="BV86" s="34" t="inlineStr"/>
+      <c r="BW86" s="34" t="inlineStr"/>
+      <c r="BX86" s="34" t="inlineStr"/>
+      <c r="BY86" s="34" t="inlineStr"/>
+      <c r="BZ86" s="34" t="inlineStr"/>
+      <c r="CA86" s="34" t="inlineStr"/>
+      <c r="CB86" s="34" t="inlineStr"/>
+      <c r="CC86" s="34" t="inlineStr"/>
+      <c r="CD86" s="34" t="inlineStr"/>
+      <c r="CE86" s="34" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="16" t="inlineStr"/>
@@ -8870,30 +8969,31 @@
       <c r="BD87" s="21" t="inlineStr"/>
       <c r="BE87" s="21" t="inlineStr"/>
       <c r="BF87" s="23" t="inlineStr"/>
-      <c r="BG87" s="24" t="inlineStr"/>
+      <c r="BG87" s="25" t="inlineStr"/>
       <c r="BH87" s="32" t="inlineStr"/>
       <c r="BI87" s="32" t="inlineStr"/>
       <c r="BJ87" s="32" t="inlineStr"/>
       <c r="BK87" s="32" t="inlineStr"/>
-      <c r="BL87" s="32" t="inlineStr"/>
-      <c r="BM87" s="32" t="inlineStr"/>
-      <c r="BN87" s="32" t="inlineStr"/>
-      <c r="BO87" s="32" t="inlineStr"/>
-      <c r="BP87" s="32" t="inlineStr"/>
-      <c r="BQ87" s="32" t="inlineStr"/>
-      <c r="BR87" s="32" t="inlineStr"/>
-      <c r="BS87" s="32" t="inlineStr"/>
-      <c r="BT87" s="32" t="inlineStr"/>
-      <c r="BU87" s="32" t="inlineStr"/>
-      <c r="BV87" s="32" t="inlineStr"/>
-      <c r="BW87" s="32" t="inlineStr"/>
-      <c r="BX87" s="25" t="inlineStr"/>
-      <c r="BY87" s="33" t="inlineStr"/>
-      <c r="BZ87" s="33" t="inlineStr"/>
-      <c r="CA87" s="33" t="inlineStr"/>
-      <c r="CB87" s="33" t="inlineStr"/>
-      <c r="CC87" s="26" t="inlineStr"/>
-      <c r="CD87" s="27" t="inlineStr"/>
+      <c r="BL87" s="26" t="inlineStr"/>
+      <c r="BM87" s="27" t="inlineStr"/>
+      <c r="BN87" s="33" t="inlineStr"/>
+      <c r="BO87" s="34" t="inlineStr"/>
+      <c r="BP87" s="34" t="inlineStr"/>
+      <c r="BQ87" s="34" t="inlineStr"/>
+      <c r="BR87" s="34" t="inlineStr"/>
+      <c r="BS87" s="34" t="inlineStr"/>
+      <c r="BT87" s="34" t="inlineStr"/>
+      <c r="BU87" s="34" t="inlineStr"/>
+      <c r="BV87" s="34" t="inlineStr"/>
+      <c r="BW87" s="34" t="inlineStr"/>
+      <c r="BX87" s="34" t="inlineStr"/>
+      <c r="BY87" s="34" t="inlineStr"/>
+      <c r="BZ87" s="34" t="inlineStr"/>
+      <c r="CA87" s="34" t="inlineStr"/>
+      <c r="CB87" s="34" t="inlineStr"/>
+      <c r="CC87" s="34" t="inlineStr"/>
+      <c r="CD87" s="34" t="inlineStr"/>
+      <c r="CE87" s="34" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="16" t="inlineStr"/>
@@ -8954,30 +9054,31 @@
       <c r="BD88" s="21" t="inlineStr"/>
       <c r="BE88" s="21" t="inlineStr"/>
       <c r="BF88" s="23" t="inlineStr"/>
-      <c r="BG88" s="24" t="inlineStr"/>
+      <c r="BG88" s="25" t="inlineStr"/>
       <c r="BH88" s="32" t="inlineStr"/>
       <c r="BI88" s="32" t="inlineStr"/>
       <c r="BJ88" s="32" t="inlineStr"/>
       <c r="BK88" s="32" t="inlineStr"/>
-      <c r="BL88" s="32" t="inlineStr"/>
-      <c r="BM88" s="32" t="inlineStr"/>
-      <c r="BN88" s="32" t="inlineStr"/>
-      <c r="BO88" s="32" t="inlineStr"/>
-      <c r="BP88" s="32" t="inlineStr"/>
-      <c r="BQ88" s="32" t="inlineStr"/>
-      <c r="BR88" s="32" t="inlineStr"/>
-      <c r="BS88" s="32" t="inlineStr"/>
-      <c r="BT88" s="32" t="inlineStr"/>
-      <c r="BU88" s="32" t="inlineStr"/>
-      <c r="BV88" s="32" t="inlineStr"/>
-      <c r="BW88" s="32" t="inlineStr"/>
-      <c r="BX88" s="25" t="inlineStr"/>
-      <c r="BY88" s="33" t="inlineStr"/>
-      <c r="BZ88" s="33" t="inlineStr"/>
-      <c r="CA88" s="33" t="inlineStr"/>
-      <c r="CB88" s="33" t="inlineStr"/>
-      <c r="CC88" s="26" t="inlineStr"/>
-      <c r="CD88" s="27" t="inlineStr"/>
+      <c r="BL88" s="26" t="inlineStr"/>
+      <c r="BM88" s="27" t="inlineStr"/>
+      <c r="BN88" s="33" t="inlineStr"/>
+      <c r="BO88" s="34" t="inlineStr"/>
+      <c r="BP88" s="34" t="inlineStr"/>
+      <c r="BQ88" s="34" t="inlineStr"/>
+      <c r="BR88" s="34" t="inlineStr"/>
+      <c r="BS88" s="34" t="inlineStr"/>
+      <c r="BT88" s="34" t="inlineStr"/>
+      <c r="BU88" s="34" t="inlineStr"/>
+      <c r="BV88" s="34" t="inlineStr"/>
+      <c r="BW88" s="34" t="inlineStr"/>
+      <c r="BX88" s="34" t="inlineStr"/>
+      <c r="BY88" s="34" t="inlineStr"/>
+      <c r="BZ88" s="34" t="inlineStr"/>
+      <c r="CA88" s="34" t="inlineStr"/>
+      <c r="CB88" s="34" t="inlineStr"/>
+      <c r="CC88" s="34" t="inlineStr"/>
+      <c r="CD88" s="34" t="inlineStr"/>
+      <c r="CE88" s="34" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="16" t="inlineStr"/>
@@ -9038,30 +9139,31 @@
       <c r="BD89" s="21" t="inlineStr"/>
       <c r="BE89" s="21" t="inlineStr"/>
       <c r="BF89" s="23" t="inlineStr"/>
-      <c r="BG89" s="24" t="inlineStr"/>
+      <c r="BG89" s="25" t="inlineStr"/>
       <c r="BH89" s="32" t="inlineStr"/>
       <c r="BI89" s="32" t="inlineStr"/>
       <c r="BJ89" s="32" t="inlineStr"/>
       <c r="BK89" s="32" t="inlineStr"/>
-      <c r="BL89" s="32" t="inlineStr"/>
-      <c r="BM89" s="32" t="inlineStr"/>
-      <c r="BN89" s="32" t="inlineStr"/>
-      <c r="BO89" s="32" t="inlineStr"/>
-      <c r="BP89" s="32" t="inlineStr"/>
-      <c r="BQ89" s="32" t="inlineStr"/>
-      <c r="BR89" s="32" t="inlineStr"/>
-      <c r="BS89" s="32" t="inlineStr"/>
-      <c r="BT89" s="32" t="inlineStr"/>
-      <c r="BU89" s="32" t="inlineStr"/>
-      <c r="BV89" s="32" t="inlineStr"/>
-      <c r="BW89" s="32" t="inlineStr"/>
-      <c r="BX89" s="25" t="inlineStr"/>
-      <c r="BY89" s="33" t="inlineStr"/>
-      <c r="BZ89" s="33" t="inlineStr"/>
-      <c r="CA89" s="33" t="inlineStr"/>
-      <c r="CB89" s="33" t="inlineStr"/>
-      <c r="CC89" s="26" t="inlineStr"/>
-      <c r="CD89" s="27" t="inlineStr"/>
+      <c r="BL89" s="26" t="inlineStr"/>
+      <c r="BM89" s="27" t="inlineStr"/>
+      <c r="BN89" s="33" t="inlineStr"/>
+      <c r="BO89" s="34" t="inlineStr"/>
+      <c r="BP89" s="34" t="inlineStr"/>
+      <c r="BQ89" s="34" t="inlineStr"/>
+      <c r="BR89" s="34" t="inlineStr"/>
+      <c r="BS89" s="34" t="inlineStr"/>
+      <c r="BT89" s="34" t="inlineStr"/>
+      <c r="BU89" s="34" t="inlineStr"/>
+      <c r="BV89" s="34" t="inlineStr"/>
+      <c r="BW89" s="34" t="inlineStr"/>
+      <c r="BX89" s="34" t="inlineStr"/>
+      <c r="BY89" s="34" t="inlineStr"/>
+      <c r="BZ89" s="34" t="inlineStr"/>
+      <c r="CA89" s="34" t="inlineStr"/>
+      <c r="CB89" s="34" t="inlineStr"/>
+      <c r="CC89" s="34" t="inlineStr"/>
+      <c r="CD89" s="34" t="inlineStr"/>
+      <c r="CE89" s="34" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="16" t="inlineStr"/>
@@ -9122,30 +9224,31 @@
       <c r="BD90" s="21" t="inlineStr"/>
       <c r="BE90" s="21" t="inlineStr"/>
       <c r="BF90" s="23" t="inlineStr"/>
-      <c r="BG90" s="24" t="inlineStr"/>
+      <c r="BG90" s="25" t="inlineStr"/>
       <c r="BH90" s="32" t="inlineStr"/>
       <c r="BI90" s="32" t="inlineStr"/>
       <c r="BJ90" s="32" t="inlineStr"/>
       <c r="BK90" s="32" t="inlineStr"/>
-      <c r="BL90" s="32" t="inlineStr"/>
-      <c r="BM90" s="32" t="inlineStr"/>
-      <c r="BN90" s="32" t="inlineStr"/>
-      <c r="BO90" s="32" t="inlineStr"/>
-      <c r="BP90" s="32" t="inlineStr"/>
-      <c r="BQ90" s="32" t="inlineStr"/>
-      <c r="BR90" s="32" t="inlineStr"/>
-      <c r="BS90" s="32" t="inlineStr"/>
-      <c r="BT90" s="32" t="inlineStr"/>
-      <c r="BU90" s="32" t="inlineStr"/>
-      <c r="BV90" s="32" t="inlineStr"/>
-      <c r="BW90" s="32" t="inlineStr"/>
-      <c r="BX90" s="25" t="inlineStr"/>
-      <c r="BY90" s="33" t="inlineStr"/>
-      <c r="BZ90" s="33" t="inlineStr"/>
-      <c r="CA90" s="33" t="inlineStr"/>
-      <c r="CB90" s="33" t="inlineStr"/>
-      <c r="CC90" s="26" t="inlineStr"/>
-      <c r="CD90" s="27" t="inlineStr"/>
+      <c r="BL90" s="26" t="inlineStr"/>
+      <c r="BM90" s="27" t="inlineStr"/>
+      <c r="BN90" s="33" t="inlineStr"/>
+      <c r="BO90" s="34" t="inlineStr"/>
+      <c r="BP90" s="34" t="inlineStr"/>
+      <c r="BQ90" s="34" t="inlineStr"/>
+      <c r="BR90" s="34" t="inlineStr"/>
+      <c r="BS90" s="34" t="inlineStr"/>
+      <c r="BT90" s="34" t="inlineStr"/>
+      <c r="BU90" s="34" t="inlineStr"/>
+      <c r="BV90" s="34" t="inlineStr"/>
+      <c r="BW90" s="34" t="inlineStr"/>
+      <c r="BX90" s="34" t="inlineStr"/>
+      <c r="BY90" s="34" t="inlineStr"/>
+      <c r="BZ90" s="34" t="inlineStr"/>
+      <c r="CA90" s="34" t="inlineStr"/>
+      <c r="CB90" s="34" t="inlineStr"/>
+      <c r="CC90" s="34" t="inlineStr"/>
+      <c r="CD90" s="34" t="inlineStr"/>
+      <c r="CE90" s="34" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="16" t="inlineStr"/>
@@ -9206,30 +9309,31 @@
       <c r="BD91" s="21" t="inlineStr"/>
       <c r="BE91" s="21" t="inlineStr"/>
       <c r="BF91" s="23" t="inlineStr"/>
-      <c r="BG91" s="24" t="inlineStr"/>
+      <c r="BG91" s="25" t="inlineStr"/>
       <c r="BH91" s="32" t="inlineStr"/>
       <c r="BI91" s="32" t="inlineStr"/>
       <c r="BJ91" s="32" t="inlineStr"/>
       <c r="BK91" s="32" t="inlineStr"/>
-      <c r="BL91" s="32" t="inlineStr"/>
-      <c r="BM91" s="32" t="inlineStr"/>
-      <c r="BN91" s="32" t="inlineStr"/>
-      <c r="BO91" s="32" t="inlineStr"/>
-      <c r="BP91" s="32" t="inlineStr"/>
-      <c r="BQ91" s="32" t="inlineStr"/>
-      <c r="BR91" s="32" t="inlineStr"/>
-      <c r="BS91" s="32" t="inlineStr"/>
-      <c r="BT91" s="32" t="inlineStr"/>
-      <c r="BU91" s="32" t="inlineStr"/>
-      <c r="BV91" s="32" t="inlineStr"/>
-      <c r="BW91" s="32" t="inlineStr"/>
-      <c r="BX91" s="25" t="inlineStr"/>
-      <c r="BY91" s="33" t="inlineStr"/>
-      <c r="BZ91" s="33" t="inlineStr"/>
-      <c r="CA91" s="33" t="inlineStr"/>
-      <c r="CB91" s="33" t="inlineStr"/>
-      <c r="CC91" s="26" t="inlineStr"/>
-      <c r="CD91" s="27" t="inlineStr"/>
+      <c r="BL91" s="26" t="inlineStr"/>
+      <c r="BM91" s="27" t="inlineStr"/>
+      <c r="BN91" s="33" t="inlineStr"/>
+      <c r="BO91" s="34" t="inlineStr"/>
+      <c r="BP91" s="34" t="inlineStr"/>
+      <c r="BQ91" s="34" t="inlineStr"/>
+      <c r="BR91" s="34" t="inlineStr"/>
+      <c r="BS91" s="34" t="inlineStr"/>
+      <c r="BT91" s="34" t="inlineStr"/>
+      <c r="BU91" s="34" t="inlineStr"/>
+      <c r="BV91" s="34" t="inlineStr"/>
+      <c r="BW91" s="34" t="inlineStr"/>
+      <c r="BX91" s="34" t="inlineStr"/>
+      <c r="BY91" s="34" t="inlineStr"/>
+      <c r="BZ91" s="34" t="inlineStr"/>
+      <c r="CA91" s="34" t="inlineStr"/>
+      <c r="CB91" s="34" t="inlineStr"/>
+      <c r="CC91" s="34" t="inlineStr"/>
+      <c r="CD91" s="34" t="inlineStr"/>
+      <c r="CE91" s="34" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="16" t="inlineStr"/>
@@ -9290,30 +9394,31 @@
       <c r="BD92" s="21" t="inlineStr"/>
       <c r="BE92" s="21" t="inlineStr"/>
       <c r="BF92" s="23" t="inlineStr"/>
-      <c r="BG92" s="24" t="inlineStr"/>
+      <c r="BG92" s="25" t="inlineStr"/>
       <c r="BH92" s="32" t="inlineStr"/>
       <c r="BI92" s="32" t="inlineStr"/>
       <c r="BJ92" s="32" t="inlineStr"/>
       <c r="BK92" s="32" t="inlineStr"/>
-      <c r="BL92" s="32" t="inlineStr"/>
-      <c r="BM92" s="32" t="inlineStr"/>
-      <c r="BN92" s="32" t="inlineStr"/>
-      <c r="BO92" s="32" t="inlineStr"/>
-      <c r="BP92" s="32" t="inlineStr"/>
-      <c r="BQ92" s="32" t="inlineStr"/>
-      <c r="BR92" s="32" t="inlineStr"/>
-      <c r="BS92" s="32" t="inlineStr"/>
-      <c r="BT92" s="32" t="inlineStr"/>
-      <c r="BU92" s="32" t="inlineStr"/>
-      <c r="BV92" s="32" t="inlineStr"/>
-      <c r="BW92" s="32" t="inlineStr"/>
-      <c r="BX92" s="25" t="inlineStr"/>
-      <c r="BY92" s="33" t="inlineStr"/>
-      <c r="BZ92" s="33" t="inlineStr"/>
-      <c r="CA92" s="33" t="inlineStr"/>
-      <c r="CB92" s="33" t="inlineStr"/>
-      <c r="CC92" s="26" t="inlineStr"/>
-      <c r="CD92" s="27" t="inlineStr"/>
+      <c r="BL92" s="26" t="inlineStr"/>
+      <c r="BM92" s="27" t="inlineStr"/>
+      <c r="BN92" s="33" t="inlineStr"/>
+      <c r="BO92" s="34" t="inlineStr"/>
+      <c r="BP92" s="34" t="inlineStr"/>
+      <c r="BQ92" s="34" t="inlineStr"/>
+      <c r="BR92" s="34" t="inlineStr"/>
+      <c r="BS92" s="34" t="inlineStr"/>
+      <c r="BT92" s="34" t="inlineStr"/>
+      <c r="BU92" s="34" t="inlineStr"/>
+      <c r="BV92" s="34" t="inlineStr"/>
+      <c r="BW92" s="34" t="inlineStr"/>
+      <c r="BX92" s="34" t="inlineStr"/>
+      <c r="BY92" s="34" t="inlineStr"/>
+      <c r="BZ92" s="34" t="inlineStr"/>
+      <c r="CA92" s="34" t="inlineStr"/>
+      <c r="CB92" s="34" t="inlineStr"/>
+      <c r="CC92" s="34" t="inlineStr"/>
+      <c r="CD92" s="34" t="inlineStr"/>
+      <c r="CE92" s="34" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="16" t="inlineStr"/>
@@ -9374,30 +9479,31 @@
       <c r="BD93" s="21" t="inlineStr"/>
       <c r="BE93" s="21" t="inlineStr"/>
       <c r="BF93" s="23" t="inlineStr"/>
-      <c r="BG93" s="24" t="inlineStr"/>
+      <c r="BG93" s="25" t="inlineStr"/>
       <c r="BH93" s="32" t="inlineStr"/>
       <c r="BI93" s="32" t="inlineStr"/>
       <c r="BJ93" s="32" t="inlineStr"/>
       <c r="BK93" s="32" t="inlineStr"/>
-      <c r="BL93" s="32" t="inlineStr"/>
-      <c r="BM93" s="32" t="inlineStr"/>
-      <c r="BN93" s="32" t="inlineStr"/>
-      <c r="BO93" s="32" t="inlineStr"/>
-      <c r="BP93" s="32" t="inlineStr"/>
-      <c r="BQ93" s="32" t="inlineStr"/>
-      <c r="BR93" s="32" t="inlineStr"/>
-      <c r="BS93" s="32" t="inlineStr"/>
-      <c r="BT93" s="32" t="inlineStr"/>
-      <c r="BU93" s="32" t="inlineStr"/>
-      <c r="BV93" s="32" t="inlineStr"/>
-      <c r="BW93" s="32" t="inlineStr"/>
-      <c r="BX93" s="25" t="inlineStr"/>
-      <c r="BY93" s="33" t="inlineStr"/>
-      <c r="BZ93" s="33" t="inlineStr"/>
-      <c r="CA93" s="33" t="inlineStr"/>
-      <c r="CB93" s="33" t="inlineStr"/>
-      <c r="CC93" s="26" t="inlineStr"/>
-      <c r="CD93" s="27" t="inlineStr"/>
+      <c r="BL93" s="26" t="inlineStr"/>
+      <c r="BM93" s="27" t="inlineStr"/>
+      <c r="BN93" s="33" t="inlineStr"/>
+      <c r="BO93" s="34" t="inlineStr"/>
+      <c r="BP93" s="34" t="inlineStr"/>
+      <c r="BQ93" s="34" t="inlineStr"/>
+      <c r="BR93" s="34" t="inlineStr"/>
+      <c r="BS93" s="34" t="inlineStr"/>
+      <c r="BT93" s="34" t="inlineStr"/>
+      <c r="BU93" s="34" t="inlineStr"/>
+      <c r="BV93" s="34" t="inlineStr"/>
+      <c r="BW93" s="34" t="inlineStr"/>
+      <c r="BX93" s="34" t="inlineStr"/>
+      <c r="BY93" s="34" t="inlineStr"/>
+      <c r="BZ93" s="34" t="inlineStr"/>
+      <c r="CA93" s="34" t="inlineStr"/>
+      <c r="CB93" s="34" t="inlineStr"/>
+      <c r="CC93" s="34" t="inlineStr"/>
+      <c r="CD93" s="34" t="inlineStr"/>
+      <c r="CE93" s="34" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="16" t="inlineStr"/>
@@ -9458,30 +9564,31 @@
       <c r="BD94" s="21" t="inlineStr"/>
       <c r="BE94" s="21" t="inlineStr"/>
       <c r="BF94" s="23" t="inlineStr"/>
-      <c r="BG94" s="24" t="inlineStr"/>
+      <c r="BG94" s="25" t="inlineStr"/>
       <c r="BH94" s="32" t="inlineStr"/>
       <c r="BI94" s="32" t="inlineStr"/>
       <c r="BJ94" s="32" t="inlineStr"/>
       <c r="BK94" s="32" t="inlineStr"/>
-      <c r="BL94" s="32" t="inlineStr"/>
-      <c r="BM94" s="32" t="inlineStr"/>
-      <c r="BN94" s="32" t="inlineStr"/>
-      <c r="BO94" s="32" t="inlineStr"/>
-      <c r="BP94" s="32" t="inlineStr"/>
-      <c r="BQ94" s="32" t="inlineStr"/>
-      <c r="BR94" s="32" t="inlineStr"/>
-      <c r="BS94" s="32" t="inlineStr"/>
-      <c r="BT94" s="32" t="inlineStr"/>
-      <c r="BU94" s="32" t="inlineStr"/>
-      <c r="BV94" s="32" t="inlineStr"/>
-      <c r="BW94" s="32" t="inlineStr"/>
-      <c r="BX94" s="25" t="inlineStr"/>
-      <c r="BY94" s="33" t="inlineStr"/>
-      <c r="BZ94" s="33" t="inlineStr"/>
-      <c r="CA94" s="33" t="inlineStr"/>
-      <c r="CB94" s="33" t="inlineStr"/>
-      <c r="CC94" s="26" t="inlineStr"/>
-      <c r="CD94" s="27" t="inlineStr"/>
+      <c r="BL94" s="26" t="inlineStr"/>
+      <c r="BM94" s="27" t="inlineStr"/>
+      <c r="BN94" s="33" t="inlineStr"/>
+      <c r="BO94" s="34" t="inlineStr"/>
+      <c r="BP94" s="34" t="inlineStr"/>
+      <c r="BQ94" s="34" t="inlineStr"/>
+      <c r="BR94" s="34" t="inlineStr"/>
+      <c r="BS94" s="34" t="inlineStr"/>
+      <c r="BT94" s="34" t="inlineStr"/>
+      <c r="BU94" s="34" t="inlineStr"/>
+      <c r="BV94" s="34" t="inlineStr"/>
+      <c r="BW94" s="34" t="inlineStr"/>
+      <c r="BX94" s="34" t="inlineStr"/>
+      <c r="BY94" s="34" t="inlineStr"/>
+      <c r="BZ94" s="34" t="inlineStr"/>
+      <c r="CA94" s="34" t="inlineStr"/>
+      <c r="CB94" s="34" t="inlineStr"/>
+      <c r="CC94" s="34" t="inlineStr"/>
+      <c r="CD94" s="34" t="inlineStr"/>
+      <c r="CE94" s="34" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="16" t="inlineStr"/>
@@ -9542,30 +9649,31 @@
       <c r="BD95" s="21" t="inlineStr"/>
       <c r="BE95" s="21" t="inlineStr"/>
       <c r="BF95" s="23" t="inlineStr"/>
-      <c r="BG95" s="24" t="inlineStr"/>
+      <c r="BG95" s="25" t="inlineStr"/>
       <c r="BH95" s="32" t="inlineStr"/>
       <c r="BI95" s="32" t="inlineStr"/>
       <c r="BJ95" s="32" t="inlineStr"/>
       <c r="BK95" s="32" t="inlineStr"/>
-      <c r="BL95" s="32" t="inlineStr"/>
-      <c r="BM95" s="32" t="inlineStr"/>
-      <c r="BN95" s="32" t="inlineStr"/>
-      <c r="BO95" s="32" t="inlineStr"/>
-      <c r="BP95" s="32" t="inlineStr"/>
-      <c r="BQ95" s="32" t="inlineStr"/>
-      <c r="BR95" s="32" t="inlineStr"/>
-      <c r="BS95" s="32" t="inlineStr"/>
-      <c r="BT95" s="32" t="inlineStr"/>
-      <c r="BU95" s="32" t="inlineStr"/>
-      <c r="BV95" s="32" t="inlineStr"/>
-      <c r="BW95" s="32" t="inlineStr"/>
-      <c r="BX95" s="25" t="inlineStr"/>
-      <c r="BY95" s="33" t="inlineStr"/>
-      <c r="BZ95" s="33" t="inlineStr"/>
-      <c r="CA95" s="33" t="inlineStr"/>
-      <c r="CB95" s="33" t="inlineStr"/>
-      <c r="CC95" s="26" t="inlineStr"/>
-      <c r="CD95" s="27" t="inlineStr"/>
+      <c r="BL95" s="26" t="inlineStr"/>
+      <c r="BM95" s="27" t="inlineStr"/>
+      <c r="BN95" s="33" t="inlineStr"/>
+      <c r="BO95" s="34" t="inlineStr"/>
+      <c r="BP95" s="34" t="inlineStr"/>
+      <c r="BQ95" s="34" t="inlineStr"/>
+      <c r="BR95" s="34" t="inlineStr"/>
+      <c r="BS95" s="34" t="inlineStr"/>
+      <c r="BT95" s="34" t="inlineStr"/>
+      <c r="BU95" s="34" t="inlineStr"/>
+      <c r="BV95" s="34" t="inlineStr"/>
+      <c r="BW95" s="34" t="inlineStr"/>
+      <c r="BX95" s="34" t="inlineStr"/>
+      <c r="BY95" s="34" t="inlineStr"/>
+      <c r="BZ95" s="34" t="inlineStr"/>
+      <c r="CA95" s="34" t="inlineStr"/>
+      <c r="CB95" s="34" t="inlineStr"/>
+      <c r="CC95" s="34" t="inlineStr"/>
+      <c r="CD95" s="34" t="inlineStr"/>
+      <c r="CE95" s="34" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="16" t="inlineStr"/>
@@ -9626,30 +9734,31 @@
       <c r="BD96" s="21" t="inlineStr"/>
       <c r="BE96" s="21" t="inlineStr"/>
       <c r="BF96" s="23" t="inlineStr"/>
-      <c r="BG96" s="24" t="inlineStr"/>
+      <c r="BG96" s="25" t="inlineStr"/>
       <c r="BH96" s="32" t="inlineStr"/>
       <c r="BI96" s="32" t="inlineStr"/>
       <c r="BJ96" s="32" t="inlineStr"/>
       <c r="BK96" s="32" t="inlineStr"/>
-      <c r="BL96" s="32" t="inlineStr"/>
-      <c r="BM96" s="32" t="inlineStr"/>
-      <c r="BN96" s="32" t="inlineStr"/>
-      <c r="BO96" s="32" t="inlineStr"/>
-      <c r="BP96" s="32" t="inlineStr"/>
-      <c r="BQ96" s="32" t="inlineStr"/>
-      <c r="BR96" s="32" t="inlineStr"/>
-      <c r="BS96" s="32" t="inlineStr"/>
-      <c r="BT96" s="32" t="inlineStr"/>
-      <c r="BU96" s="32" t="inlineStr"/>
-      <c r="BV96" s="32" t="inlineStr"/>
-      <c r="BW96" s="32" t="inlineStr"/>
-      <c r="BX96" s="25" t="inlineStr"/>
-      <c r="BY96" s="33" t="inlineStr"/>
-      <c r="BZ96" s="33" t="inlineStr"/>
-      <c r="CA96" s="33" t="inlineStr"/>
-      <c r="CB96" s="33" t="inlineStr"/>
-      <c r="CC96" s="26" t="inlineStr"/>
-      <c r="CD96" s="27" t="inlineStr"/>
+      <c r="BL96" s="26" t="inlineStr"/>
+      <c r="BM96" s="27" t="inlineStr"/>
+      <c r="BN96" s="33" t="inlineStr"/>
+      <c r="BO96" s="34" t="inlineStr"/>
+      <c r="BP96" s="34" t="inlineStr"/>
+      <c r="BQ96" s="34" t="inlineStr"/>
+      <c r="BR96" s="34" t="inlineStr"/>
+      <c r="BS96" s="34" t="inlineStr"/>
+      <c r="BT96" s="34" t="inlineStr"/>
+      <c r="BU96" s="34" t="inlineStr"/>
+      <c r="BV96" s="34" t="inlineStr"/>
+      <c r="BW96" s="34" t="inlineStr"/>
+      <c r="BX96" s="34" t="inlineStr"/>
+      <c r="BY96" s="34" t="inlineStr"/>
+      <c r="BZ96" s="34" t="inlineStr"/>
+      <c r="CA96" s="34" t="inlineStr"/>
+      <c r="CB96" s="34" t="inlineStr"/>
+      <c r="CC96" s="34" t="inlineStr"/>
+      <c r="CD96" s="34" t="inlineStr"/>
+      <c r="CE96" s="34" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="16" t="inlineStr"/>
@@ -9710,30 +9819,31 @@
       <c r="BD97" s="21" t="inlineStr"/>
       <c r="BE97" s="21" t="inlineStr"/>
       <c r="BF97" s="23" t="inlineStr"/>
-      <c r="BG97" s="24" t="inlineStr"/>
+      <c r="BG97" s="25" t="inlineStr"/>
       <c r="BH97" s="32" t="inlineStr"/>
       <c r="BI97" s="32" t="inlineStr"/>
       <c r="BJ97" s="32" t="inlineStr"/>
       <c r="BK97" s="32" t="inlineStr"/>
-      <c r="BL97" s="32" t="inlineStr"/>
-      <c r="BM97" s="32" t="inlineStr"/>
-      <c r="BN97" s="32" t="inlineStr"/>
-      <c r="BO97" s="32" t="inlineStr"/>
-      <c r="BP97" s="32" t="inlineStr"/>
-      <c r="BQ97" s="32" t="inlineStr"/>
-      <c r="BR97" s="32" t="inlineStr"/>
-      <c r="BS97" s="32" t="inlineStr"/>
-      <c r="BT97" s="32" t="inlineStr"/>
-      <c r="BU97" s="32" t="inlineStr"/>
-      <c r="BV97" s="32" t="inlineStr"/>
-      <c r="BW97" s="32" t="inlineStr"/>
-      <c r="BX97" s="25" t="inlineStr"/>
-      <c r="BY97" s="33" t="inlineStr"/>
-      <c r="BZ97" s="33" t="inlineStr"/>
-      <c r="CA97" s="33" t="inlineStr"/>
-      <c r="CB97" s="33" t="inlineStr"/>
-      <c r="CC97" s="26" t="inlineStr"/>
-      <c r="CD97" s="27" t="inlineStr"/>
+      <c r="BL97" s="26" t="inlineStr"/>
+      <c r="BM97" s="27" t="inlineStr"/>
+      <c r="BN97" s="33" t="inlineStr"/>
+      <c r="BO97" s="34" t="inlineStr"/>
+      <c r="BP97" s="34" t="inlineStr"/>
+      <c r="BQ97" s="34" t="inlineStr"/>
+      <c r="BR97" s="34" t="inlineStr"/>
+      <c r="BS97" s="34" t="inlineStr"/>
+      <c r="BT97" s="34" t="inlineStr"/>
+      <c r="BU97" s="34" t="inlineStr"/>
+      <c r="BV97" s="34" t="inlineStr"/>
+      <c r="BW97" s="34" t="inlineStr"/>
+      <c r="BX97" s="34" t="inlineStr"/>
+      <c r="BY97" s="34" t="inlineStr"/>
+      <c r="BZ97" s="34" t="inlineStr"/>
+      <c r="CA97" s="34" t="inlineStr"/>
+      <c r="CB97" s="34" t="inlineStr"/>
+      <c r="CC97" s="34" t="inlineStr"/>
+      <c r="CD97" s="34" t="inlineStr"/>
+      <c r="CE97" s="34" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="16" t="inlineStr"/>
@@ -9794,30 +9904,31 @@
       <c r="BD98" s="21" t="inlineStr"/>
       <c r="BE98" s="21" t="inlineStr"/>
       <c r="BF98" s="23" t="inlineStr"/>
-      <c r="BG98" s="24" t="inlineStr"/>
+      <c r="BG98" s="25" t="inlineStr"/>
       <c r="BH98" s="32" t="inlineStr"/>
       <c r="BI98" s="32" t="inlineStr"/>
       <c r="BJ98" s="32" t="inlineStr"/>
       <c r="BK98" s="32" t="inlineStr"/>
-      <c r="BL98" s="32" t="inlineStr"/>
-      <c r="BM98" s="32" t="inlineStr"/>
-      <c r="BN98" s="32" t="inlineStr"/>
-      <c r="BO98" s="32" t="inlineStr"/>
-      <c r="BP98" s="32" t="inlineStr"/>
-      <c r="BQ98" s="32" t="inlineStr"/>
-      <c r="BR98" s="32" t="inlineStr"/>
-      <c r="BS98" s="32" t="inlineStr"/>
-      <c r="BT98" s="32" t="inlineStr"/>
-      <c r="BU98" s="32" t="inlineStr"/>
-      <c r="BV98" s="32" t="inlineStr"/>
-      <c r="BW98" s="32" t="inlineStr"/>
-      <c r="BX98" s="25" t="inlineStr"/>
-      <c r="BY98" s="33" t="inlineStr"/>
-      <c r="BZ98" s="33" t="inlineStr"/>
-      <c r="CA98" s="33" t="inlineStr"/>
-      <c r="CB98" s="33" t="inlineStr"/>
-      <c r="CC98" s="26" t="inlineStr"/>
-      <c r="CD98" s="27" t="inlineStr"/>
+      <c r="BL98" s="26" t="inlineStr"/>
+      <c r="BM98" s="27" t="inlineStr"/>
+      <c r="BN98" s="33" t="inlineStr"/>
+      <c r="BO98" s="34" t="inlineStr"/>
+      <c r="BP98" s="34" t="inlineStr"/>
+      <c r="BQ98" s="34" t="inlineStr"/>
+      <c r="BR98" s="34" t="inlineStr"/>
+      <c r="BS98" s="34" t="inlineStr"/>
+      <c r="BT98" s="34" t="inlineStr"/>
+      <c r="BU98" s="34" t="inlineStr"/>
+      <c r="BV98" s="34" t="inlineStr"/>
+      <c r="BW98" s="34" t="inlineStr"/>
+      <c r="BX98" s="34" t="inlineStr"/>
+      <c r="BY98" s="34" t="inlineStr"/>
+      <c r="BZ98" s="34" t="inlineStr"/>
+      <c r="CA98" s="34" t="inlineStr"/>
+      <c r="CB98" s="34" t="inlineStr"/>
+      <c r="CC98" s="34" t="inlineStr"/>
+      <c r="CD98" s="34" t="inlineStr"/>
+      <c r="CE98" s="34" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="16" t="inlineStr"/>
@@ -9878,42 +9989,40 @@
       <c r="BD99" s="21" t="inlineStr"/>
       <c r="BE99" s="21" t="inlineStr"/>
       <c r="BF99" s="23" t="inlineStr"/>
-      <c r="BG99" s="24" t="inlineStr"/>
+      <c r="BG99" s="25" t="inlineStr"/>
       <c r="BH99" s="32" t="inlineStr"/>
       <c r="BI99" s="32" t="inlineStr"/>
       <c r="BJ99" s="32" t="inlineStr"/>
       <c r="BK99" s="32" t="inlineStr"/>
-      <c r="BL99" s="32" t="inlineStr"/>
-      <c r="BM99" s="32" t="inlineStr"/>
-      <c r="BN99" s="32" t="inlineStr"/>
-      <c r="BO99" s="32" t="inlineStr"/>
-      <c r="BP99" s="32" t="inlineStr"/>
-      <c r="BQ99" s="32" t="inlineStr"/>
-      <c r="BR99" s="32" t="inlineStr"/>
-      <c r="BS99" s="32" t="inlineStr"/>
-      <c r="BT99" s="32" t="inlineStr"/>
-      <c r="BU99" s="32" t="inlineStr"/>
-      <c r="BV99" s="32" t="inlineStr"/>
-      <c r="BW99" s="32" t="inlineStr"/>
-      <c r="BX99" s="25" t="inlineStr"/>
-      <c r="BY99" s="33" t="inlineStr"/>
-      <c r="BZ99" s="33" t="inlineStr"/>
-      <c r="CA99" s="33" t="inlineStr"/>
-      <c r="CB99" s="33" t="inlineStr"/>
-      <c r="CC99" s="26" t="inlineStr"/>
-      <c r="CD99" s="27" t="inlineStr"/>
+      <c r="BL99" s="26" t="inlineStr"/>
+      <c r="BM99" s="27" t="inlineStr"/>
+      <c r="BN99" s="33" t="inlineStr"/>
+      <c r="BO99" s="34" t="inlineStr"/>
+      <c r="BP99" s="34" t="inlineStr"/>
+      <c r="BQ99" s="34" t="inlineStr"/>
+      <c r="BR99" s="34" t="inlineStr"/>
+      <c r="BS99" s="34" t="inlineStr"/>
+      <c r="BT99" s="34" t="inlineStr"/>
+      <c r="BU99" s="34" t="inlineStr"/>
+      <c r="BV99" s="34" t="inlineStr"/>
+      <c r="BW99" s="34" t="inlineStr"/>
+      <c r="BX99" s="34" t="inlineStr"/>
+      <c r="BY99" s="34" t="inlineStr"/>
+      <c r="BZ99" s="34" t="inlineStr"/>
+      <c r="CA99" s="34" t="inlineStr"/>
+      <c r="CB99" s="34" t="inlineStr"/>
+      <c r="CC99" s="34" t="inlineStr"/>
+      <c r="CD99" s="34" t="inlineStr"/>
+      <c r="CE99" s="34" t="inlineStr"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BY2:BY100 BZ2:BZ100 CA2:CA100 CB2:CB100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <dataValidations count="4">
+    <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BX2:BX100 BY2:BY100 BZ2:BZ100 CA2:CA100 CB2:CB100 CC2:CC100 CD2:CD100 CE2:CE100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2:H100 AV2:AV100 CC2:CC100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
+    <dataValidation sqref="H2:H100 AV2:AV100 BL2:BL100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
     <dataValidation sqref="F2:F100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;restricted public&quot; " type="list">
       <formula1>"public,non-public,restricted public"</formula1>
-    </dataValidation>
-    <dataValidation sqref="G2:G100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot; or &quot;non-public&quot; " type="list">
-      <formula1>"public,non-public"</formula1>
     </dataValidation>
     <dataValidation sqref="AA2:AA100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
       <formula1>101</formula1>

--- a/docs/samples/DIP_Excel_Template.xlsx
+++ b/docs/samples/DIP_Excel_Template.xlsx
@@ -105,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -166,9 +166,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -659,177 +658,177 @@
     </comment>
     <comment ref="BG1" authorId="0" shapeId="0">
       <text>
+        <t>ch-person-level:
+The dataset contains person-level records.
+&lt;dhs:ch-person-level&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BH1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-financial:
+The dataset contains financial information.
+&lt;dhs:ch-financial&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BI1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-event-records:
+The dataset contains information about events that are tagged with a specific place and time.
+&lt;dhs:ch-event-records&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BJ1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-faces:
+The dataset contains human faces.
+&lt;dhs:ch-faces&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BK1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-fingerprints:
+The dataset contains fingerprints.
+&lt;dhs:ch-fingerprints&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BL1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-cui:
+The dataset contains controlled unclassified information.
+&lt;dhs:ch-cui&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BM1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-phi:
+The dataset contains protected health information.
+&lt;dhs:ch-phi&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BN1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-pii:
+The dataset contains personally identifiable information under the controlling legal definition of PII.
+&lt;dhs:ch-pii&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BO1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-geospatial:
+The dataset contains geospatial information.
+&lt;dhs:ch-geospatial&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BP1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-environmental:
+The dataset contains environmental information.
+&lt;dhs:ch-environmental&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BQ1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-fisa:
+The dataset contains information pretaining to the Foreign Intelligence Surveillance Act (FISA).
+&lt;dhs:ch-fisa&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BR1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-8usc1367:
+The dataset contains 8 USC 1367.
+&lt;dhs:ch-8usc1367&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BS1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-propin:
+The dataset contains proprietary commercial information.
+&lt;dhs:ch-propin&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BT1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-immigration:
+The dataset contains information pertaining to immigration.
+&lt;dhs:ch-immigration&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BU1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-criticalInfrastructure:
+The dataset contains critical infrastructure information.
+&lt;dhs:ch-criticalInfrastructure&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BV1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-pcii:
+The dataset contains Protected Critical Infrastructure Information (PCII).
+&lt;dhs:ch-pcii&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BW1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-biometrics:
+The dataset contains biometric information.
+&lt;dhs:ch-biometrics&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BX1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-disseminationRestrictions:
+The information has dissemination restrictions.
+&lt;dhs:ch-disseminationRestrictions&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BY1" authorId="0" shapeId="0">
+      <text>
         <t>hostingLocation:
 Where the data physically reside.
 &lt;dhs:hostingLocation&gt;</t>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0">
+    <comment ref="BZ1" authorId="0" shapeId="0">
       <text>
         <t>hostedInCloud:
 If the dataset's location is in the cloud.
 &lt;dhs:hostedInCloud&gt;</t>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByCreatingComponent:
 The information can be easily accessed by individuals within the component that created it.
 &lt;dhs:easilyAccessibleByCreatingComponent&gt;</t>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByAllComponents:
 The information can be easily accessed by individuals within all department component.
 &lt;dhs:easilyAccessibleByAllComponents&gt;</t>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByGeneralPublic:
 The information can be easily accessed by the general public.
 &lt;dhs:easilyAccessibleByGeneralPublic&gt;</t>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0">
+    <comment ref="CD1" authorId="0" shapeId="0">
       <text>
         <t>recordTransmission:
 When the metadata record was transmitted. Must be a date.
 &lt;dhs:recordTransmission&gt;</t>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0">
+    <comment ref="CE1" authorId="0" shapeId="0">
       <text>
         <t>validityTime:
 When the metadata record is valid. Must be in the form of a xsd Duration like P1Y or P3M
 &lt;dhs:validityTime&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BN1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-person-level:
-The dataset contains person-level records.
-&lt;dhs:ch-person-level&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BO1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-financial:
-The dataset contains financial information.
-&lt;dhs:ch-financial&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BP1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-event-records:
-The dataset contains information about events that are tagged with a specific place and time.
-&lt;dhs:ch-event-records&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-faces:
-The dataset contains human faces.
-&lt;dhs:ch-faces&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-fingerprints:
-The dataset contains fingerprints.
-&lt;dhs:ch-fingerprints&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BS1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-cui:
-The dataset contains controlled unclassified information.
-&lt;dhs:ch-cui&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BT1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-phi:
-The dataset contains protected health information.
-&lt;dhs:ch-phi&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BU1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-pii:
-The dataset contains personally identifiable information under the controlling legal definition of PII.
-&lt;dhs:ch-pii&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BV1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-geospatial:
-The dataset contains geospatial information.
-&lt;dhs:ch-geospatial&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BW1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-environmental:
-The dataset contains environmental information.
-&lt;dhs:ch-environmental&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BX1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-fisa:
-The dataset contains information pretaining to the Foreign Intelligence Surveillance Act (FISA).
-&lt;dhs:ch-fisa&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BY1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-8usc1367:
-The dataset contains 8 USC 1367.
-&lt;dhs:ch-8usc1367&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-propin:
-The dataset contains proprietary commercial information.
-&lt;dhs:ch-propin&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-immigration:
-The dataset contains information pertaining to immigration.
-&lt;dhs:ch-immigration&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-criticalInfrastructure:
-The dataset contains critical infrastructure information.
-&lt;dhs:ch-criticalInfrastructure&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-pcii:
-The dataset contains Protected Critical Infrastructure Information (PCII).
-&lt;dhs:ch-pcii&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CD1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-disseminationRestrictions:
-The information has dissemination restrictions.
-&lt;dhs:ch-disseminationRestrictions&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CE1" authorId="0" shapeId="0">
-      <text>
-        <t>ch-biometrics:
-The dataset contains biometric information.
-&lt;dhs:ch-biometrics&gt;</t>
       </text>
     </comment>
   </commentList>
@@ -1559,129 +1558,129 @@
           <t>datasetClassification</t>
         </is>
       </c>
-      <c r="BG1" s="10" t="inlineStr">
+      <c r="BG1" s="9" t="inlineStr">
+        <is>
+          <t>ch-person-level</t>
+        </is>
+      </c>
+      <c r="BH1" s="9" t="inlineStr">
+        <is>
+          <t>ch-financial</t>
+        </is>
+      </c>
+      <c r="BI1" s="9" t="inlineStr">
+        <is>
+          <t>ch-event-records</t>
+        </is>
+      </c>
+      <c r="BJ1" s="9" t="inlineStr">
+        <is>
+          <t>ch-faces</t>
+        </is>
+      </c>
+      <c r="BK1" s="9" t="inlineStr">
+        <is>
+          <t>ch-fingerprints</t>
+        </is>
+      </c>
+      <c r="BL1" s="9" t="inlineStr">
+        <is>
+          <t>ch-cui</t>
+        </is>
+      </c>
+      <c r="BM1" s="9" t="inlineStr">
+        <is>
+          <t>ch-phi</t>
+        </is>
+      </c>
+      <c r="BN1" s="9" t="inlineStr">
+        <is>
+          <t>ch-pii</t>
+        </is>
+      </c>
+      <c r="BO1" s="9" t="inlineStr">
+        <is>
+          <t>ch-geospatial</t>
+        </is>
+      </c>
+      <c r="BP1" s="9" t="inlineStr">
+        <is>
+          <t>ch-environmental</t>
+        </is>
+      </c>
+      <c r="BQ1" s="9" t="inlineStr">
+        <is>
+          <t>ch-fisa</t>
+        </is>
+      </c>
+      <c r="BR1" s="9" t="inlineStr">
+        <is>
+          <t>ch-8usc1367</t>
+        </is>
+      </c>
+      <c r="BS1" s="9" t="inlineStr">
+        <is>
+          <t>ch-propin</t>
+        </is>
+      </c>
+      <c r="BT1" s="9" t="inlineStr">
+        <is>
+          <t>ch-immigration</t>
+        </is>
+      </c>
+      <c r="BU1" s="9" t="inlineStr">
+        <is>
+          <t>ch-criticalInfrastructure</t>
+        </is>
+      </c>
+      <c r="BV1" s="9" t="inlineStr">
+        <is>
+          <t>ch-pcii</t>
+        </is>
+      </c>
+      <c r="BW1" s="9" t="inlineStr">
+        <is>
+          <t>ch-biometrics</t>
+        </is>
+      </c>
+      <c r="BX1" s="9" t="inlineStr">
+        <is>
+          <t>ch-disseminationRestrictions</t>
+        </is>
+      </c>
+      <c r="BY1" s="10" t="inlineStr">
         <is>
           <t>hostingLocation</t>
         </is>
       </c>
-      <c r="BH1" s="15" t="inlineStr">
+      <c r="BZ1" s="15" t="inlineStr">
         <is>
           <t>hostedInCloud</t>
         </is>
       </c>
-      <c r="BI1" s="15" t="inlineStr">
+      <c r="CA1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByCreatingComponent</t>
         </is>
       </c>
-      <c r="BJ1" s="15" t="inlineStr">
+      <c r="CB1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByAllComponents</t>
         </is>
       </c>
-      <c r="BK1" s="15" t="inlineStr">
+      <c r="CC1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByGeneralPublic</t>
         </is>
       </c>
-      <c r="BL1" s="11" t="inlineStr">
+      <c r="CD1" s="11" t="inlineStr">
         <is>
           <t>recordTransmission</t>
         </is>
       </c>
-      <c r="BM1" s="12" t="inlineStr">
+      <c r="CE1" s="12" t="inlineStr">
         <is>
           <t>validityTime</t>
-        </is>
-      </c>
-      <c r="BN1" s="13" t="inlineStr">
-        <is>
-          <t>ch-person-level</t>
-        </is>
-      </c>
-      <c r="BO1" s="14" t="inlineStr">
-        <is>
-          <t>ch-financial</t>
-        </is>
-      </c>
-      <c r="BP1" s="14" t="inlineStr">
-        <is>
-          <t>ch-event-records</t>
-        </is>
-      </c>
-      <c r="BQ1" s="14" t="inlineStr">
-        <is>
-          <t>ch-faces</t>
-        </is>
-      </c>
-      <c r="BR1" s="14" t="inlineStr">
-        <is>
-          <t>ch-fingerprints</t>
-        </is>
-      </c>
-      <c r="BS1" s="14" t="inlineStr">
-        <is>
-          <t>ch-cui</t>
-        </is>
-      </c>
-      <c r="BT1" s="14" t="inlineStr">
-        <is>
-          <t>ch-phi</t>
-        </is>
-      </c>
-      <c r="BU1" s="14" t="inlineStr">
-        <is>
-          <t>ch-pii</t>
-        </is>
-      </c>
-      <c r="BV1" s="14" t="inlineStr">
-        <is>
-          <t>ch-geospatial</t>
-        </is>
-      </c>
-      <c r="BW1" s="14" t="inlineStr">
-        <is>
-          <t>ch-environmental</t>
-        </is>
-      </c>
-      <c r="BX1" s="14" t="inlineStr">
-        <is>
-          <t>ch-fisa</t>
-        </is>
-      </c>
-      <c r="BY1" s="14" t="inlineStr">
-        <is>
-          <t>ch-8usc1367</t>
-        </is>
-      </c>
-      <c r="BZ1" s="14" t="inlineStr">
-        <is>
-          <t>ch-propin</t>
-        </is>
-      </c>
-      <c r="CA1" s="14" t="inlineStr">
-        <is>
-          <t>ch-immigration</t>
-        </is>
-      </c>
-      <c r="CB1" s="14" t="inlineStr">
-        <is>
-          <t>ch-criticalInfrastructure</t>
-        </is>
-      </c>
-      <c r="CC1" s="14" t="inlineStr">
-        <is>
-          <t>ch-pcii</t>
-        </is>
-      </c>
-      <c r="CD1" s="14" t="inlineStr">
-        <is>
-          <t>ch-disseminationRestrictions</t>
-        </is>
-      </c>
-      <c r="CE1" s="14" t="inlineStr">
-        <is>
-          <t>ch-biometrics</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1743,31 @@
       <c r="BD2" s="21" t="inlineStr"/>
       <c r="BE2" s="21" t="inlineStr"/>
       <c r="BF2" s="23" t="inlineStr"/>
-      <c r="BG2" s="25" t="inlineStr"/>
+      <c r="BG2" s="32" t="inlineStr"/>
       <c r="BH2" s="32" t="inlineStr"/>
       <c r="BI2" s="32" t="inlineStr"/>
       <c r="BJ2" s="32" t="inlineStr"/>
       <c r="BK2" s="32" t="inlineStr"/>
-      <c r="BL2" s="26" t="inlineStr"/>
-      <c r="BM2" s="27" t="inlineStr"/>
-      <c r="BN2" s="33" t="inlineStr"/>
-      <c r="BO2" s="34" t="inlineStr"/>
-      <c r="BP2" s="34" t="inlineStr"/>
-      <c r="BQ2" s="34" t="inlineStr"/>
-      <c r="BR2" s="34" t="inlineStr"/>
-      <c r="BS2" s="34" t="inlineStr"/>
-      <c r="BT2" s="34" t="inlineStr"/>
-      <c r="BU2" s="34" t="inlineStr"/>
-      <c r="BV2" s="34" t="inlineStr"/>
-      <c r="BW2" s="34" t="inlineStr"/>
-      <c r="BX2" s="34" t="inlineStr"/>
-      <c r="BY2" s="34" t="inlineStr"/>
-      <c r="BZ2" s="34" t="inlineStr"/>
-      <c r="CA2" s="34" t="inlineStr"/>
-      <c r="CB2" s="34" t="inlineStr"/>
-      <c r="CC2" s="34" t="inlineStr"/>
-      <c r="CD2" s="34" t="inlineStr"/>
-      <c r="CE2" s="34" t="inlineStr"/>
+      <c r="BL2" s="32" t="inlineStr"/>
+      <c r="BM2" s="32" t="inlineStr"/>
+      <c r="BN2" s="32" t="inlineStr"/>
+      <c r="BO2" s="32" t="inlineStr"/>
+      <c r="BP2" s="32" t="inlineStr"/>
+      <c r="BQ2" s="32" t="inlineStr"/>
+      <c r="BR2" s="32" t="inlineStr"/>
+      <c r="BS2" s="32" t="inlineStr"/>
+      <c r="BT2" s="32" t="inlineStr"/>
+      <c r="BU2" s="32" t="inlineStr"/>
+      <c r="BV2" s="32" t="inlineStr"/>
+      <c r="BW2" s="32" t="inlineStr"/>
+      <c r="BX2" s="32" t="inlineStr"/>
+      <c r="BY2" s="25" t="inlineStr"/>
+      <c r="BZ2" s="33" t="inlineStr"/>
+      <c r="CA2" s="33" t="inlineStr"/>
+      <c r="CB2" s="33" t="inlineStr"/>
+      <c r="CC2" s="33" t="inlineStr"/>
+      <c r="CD2" s="26" t="inlineStr"/>
+      <c r="CE2" s="27" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="inlineStr"/>
@@ -1829,31 +1828,31 @@
       <c r="BD3" s="21" t="inlineStr"/>
       <c r="BE3" s="21" t="inlineStr"/>
       <c r="BF3" s="23" t="inlineStr"/>
-      <c r="BG3" s="25" t="inlineStr"/>
+      <c r="BG3" s="32" t="inlineStr"/>
       <c r="BH3" s="32" t="inlineStr"/>
       <c r="BI3" s="32" t="inlineStr"/>
       <c r="BJ3" s="32" t="inlineStr"/>
       <c r="BK3" s="32" t="inlineStr"/>
-      <c r="BL3" s="26" t="inlineStr"/>
-      <c r="BM3" s="27" t="inlineStr"/>
-      <c r="BN3" s="33" t="inlineStr"/>
-      <c r="BO3" s="34" t="inlineStr"/>
-      <c r="BP3" s="34" t="inlineStr"/>
-      <c r="BQ3" s="34" t="inlineStr"/>
-      <c r="BR3" s="34" t="inlineStr"/>
-      <c r="BS3" s="34" t="inlineStr"/>
-      <c r="BT3" s="34" t="inlineStr"/>
-      <c r="BU3" s="34" t="inlineStr"/>
-      <c r="BV3" s="34" t="inlineStr"/>
-      <c r="BW3" s="34" t="inlineStr"/>
-      <c r="BX3" s="34" t="inlineStr"/>
-      <c r="BY3" s="34" t="inlineStr"/>
-      <c r="BZ3" s="34" t="inlineStr"/>
-      <c r="CA3" s="34" t="inlineStr"/>
-      <c r="CB3" s="34" t="inlineStr"/>
-      <c r="CC3" s="34" t="inlineStr"/>
-      <c r="CD3" s="34" t="inlineStr"/>
-      <c r="CE3" s="34" t="inlineStr"/>
+      <c r="BL3" s="32" t="inlineStr"/>
+      <c r="BM3" s="32" t="inlineStr"/>
+      <c r="BN3" s="32" t="inlineStr"/>
+      <c r="BO3" s="32" t="inlineStr"/>
+      <c r="BP3" s="32" t="inlineStr"/>
+      <c r="BQ3" s="32" t="inlineStr"/>
+      <c r="BR3" s="32" t="inlineStr"/>
+      <c r="BS3" s="32" t="inlineStr"/>
+      <c r="BT3" s="32" t="inlineStr"/>
+      <c r="BU3" s="32" t="inlineStr"/>
+      <c r="BV3" s="32" t="inlineStr"/>
+      <c r="BW3" s="32" t="inlineStr"/>
+      <c r="BX3" s="32" t="inlineStr"/>
+      <c r="BY3" s="25" t="inlineStr"/>
+      <c r="BZ3" s="33" t="inlineStr"/>
+      <c r="CA3" s="33" t="inlineStr"/>
+      <c r="CB3" s="33" t="inlineStr"/>
+      <c r="CC3" s="33" t="inlineStr"/>
+      <c r="CD3" s="26" t="inlineStr"/>
+      <c r="CE3" s="27" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="inlineStr"/>
@@ -1914,31 +1913,31 @@
       <c r="BD4" s="21" t="inlineStr"/>
       <c r="BE4" s="21" t="inlineStr"/>
       <c r="BF4" s="23" t="inlineStr"/>
-      <c r="BG4" s="25" t="inlineStr"/>
+      <c r="BG4" s="32" t="inlineStr"/>
       <c r="BH4" s="32" t="inlineStr"/>
       <c r="BI4" s="32" t="inlineStr"/>
       <c r="BJ4" s="32" t="inlineStr"/>
       <c r="BK4" s="32" t="inlineStr"/>
-      <c r="BL4" s="26" t="inlineStr"/>
-      <c r="BM4" s="27" t="inlineStr"/>
-      <c r="BN4" s="33" t="inlineStr"/>
-      <c r="BO4" s="34" t="inlineStr"/>
-      <c r="BP4" s="34" t="inlineStr"/>
-      <c r="BQ4" s="34" t="inlineStr"/>
-      <c r="BR4" s="34" t="inlineStr"/>
-      <c r="BS4" s="34" t="inlineStr"/>
-      <c r="BT4" s="34" t="inlineStr"/>
-      <c r="BU4" s="34" t="inlineStr"/>
-      <c r="BV4" s="34" t="inlineStr"/>
-      <c r="BW4" s="34" t="inlineStr"/>
-      <c r="BX4" s="34" t="inlineStr"/>
-      <c r="BY4" s="34" t="inlineStr"/>
-      <c r="BZ4" s="34" t="inlineStr"/>
-      <c r="CA4" s="34" t="inlineStr"/>
-      <c r="CB4" s="34" t="inlineStr"/>
-      <c r="CC4" s="34" t="inlineStr"/>
-      <c r="CD4" s="34" t="inlineStr"/>
-      <c r="CE4" s="34" t="inlineStr"/>
+      <c r="BL4" s="32" t="inlineStr"/>
+      <c r="BM4" s="32" t="inlineStr"/>
+      <c r="BN4" s="32" t="inlineStr"/>
+      <c r="BO4" s="32" t="inlineStr"/>
+      <c r="BP4" s="32" t="inlineStr"/>
+      <c r="BQ4" s="32" t="inlineStr"/>
+      <c r="BR4" s="32" t="inlineStr"/>
+      <c r="BS4" s="32" t="inlineStr"/>
+      <c r="BT4" s="32" t="inlineStr"/>
+      <c r="BU4" s="32" t="inlineStr"/>
+      <c r="BV4" s="32" t="inlineStr"/>
+      <c r="BW4" s="32" t="inlineStr"/>
+      <c r="BX4" s="32" t="inlineStr"/>
+      <c r="BY4" s="25" t="inlineStr"/>
+      <c r="BZ4" s="33" t="inlineStr"/>
+      <c r="CA4" s="33" t="inlineStr"/>
+      <c r="CB4" s="33" t="inlineStr"/>
+      <c r="CC4" s="33" t="inlineStr"/>
+      <c r="CD4" s="26" t="inlineStr"/>
+      <c r="CE4" s="27" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="inlineStr"/>
@@ -1999,31 +1998,31 @@
       <c r="BD5" s="21" t="inlineStr"/>
       <c r="BE5" s="21" t="inlineStr"/>
       <c r="BF5" s="23" t="inlineStr"/>
-      <c r="BG5" s="25" t="inlineStr"/>
+      <c r="BG5" s="32" t="inlineStr"/>
       <c r="BH5" s="32" t="inlineStr"/>
       <c r="BI5" s="32" t="inlineStr"/>
       <c r="BJ5" s="32" t="inlineStr"/>
       <c r="BK5" s="32" t="inlineStr"/>
-      <c r="BL5" s="26" t="inlineStr"/>
-      <c r="BM5" s="27" t="inlineStr"/>
-      <c r="BN5" s="33" t="inlineStr"/>
-      <c r="BO5" s="34" t="inlineStr"/>
-      <c r="BP5" s="34" t="inlineStr"/>
-      <c r="BQ5" s="34" t="inlineStr"/>
-      <c r="BR5" s="34" t="inlineStr"/>
-      <c r="BS5" s="34" t="inlineStr"/>
-      <c r="BT5" s="34" t="inlineStr"/>
-      <c r="BU5" s="34" t="inlineStr"/>
-      <c r="BV5" s="34" t="inlineStr"/>
-      <c r="BW5" s="34" t="inlineStr"/>
-      <c r="BX5" s="34" t="inlineStr"/>
-      <c r="BY5" s="34" t="inlineStr"/>
-      <c r="BZ5" s="34" t="inlineStr"/>
-      <c r="CA5" s="34" t="inlineStr"/>
-      <c r="CB5" s="34" t="inlineStr"/>
-      <c r="CC5" s="34" t="inlineStr"/>
-      <c r="CD5" s="34" t="inlineStr"/>
-      <c r="CE5" s="34" t="inlineStr"/>
+      <c r="BL5" s="32" t="inlineStr"/>
+      <c r="BM5" s="32" t="inlineStr"/>
+      <c r="BN5" s="32" t="inlineStr"/>
+      <c r="BO5" s="32" t="inlineStr"/>
+      <c r="BP5" s="32" t="inlineStr"/>
+      <c r="BQ5" s="32" t="inlineStr"/>
+      <c r="BR5" s="32" t="inlineStr"/>
+      <c r="BS5" s="32" t="inlineStr"/>
+      <c r="BT5" s="32" t="inlineStr"/>
+      <c r="BU5" s="32" t="inlineStr"/>
+      <c r="BV5" s="32" t="inlineStr"/>
+      <c r="BW5" s="32" t="inlineStr"/>
+      <c r="BX5" s="32" t="inlineStr"/>
+      <c r="BY5" s="25" t="inlineStr"/>
+      <c r="BZ5" s="33" t="inlineStr"/>
+      <c r="CA5" s="33" t="inlineStr"/>
+      <c r="CB5" s="33" t="inlineStr"/>
+      <c r="CC5" s="33" t="inlineStr"/>
+      <c r="CD5" s="26" t="inlineStr"/>
+      <c r="CE5" s="27" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr"/>
@@ -2084,31 +2083,31 @@
       <c r="BD6" s="21" t="inlineStr"/>
       <c r="BE6" s="21" t="inlineStr"/>
       <c r="BF6" s="23" t="inlineStr"/>
-      <c r="BG6" s="25" t="inlineStr"/>
+      <c r="BG6" s="32" t="inlineStr"/>
       <c r="BH6" s="32" t="inlineStr"/>
       <c r="BI6" s="32" t="inlineStr"/>
       <c r="BJ6" s="32" t="inlineStr"/>
       <c r="BK6" s="32" t="inlineStr"/>
-      <c r="BL6" s="26" t="inlineStr"/>
-      <c r="BM6" s="27" t="inlineStr"/>
-      <c r="BN6" s="33" t="inlineStr"/>
-      <c r="BO6" s="34" t="inlineStr"/>
-      <c r="BP6" s="34" t="inlineStr"/>
-      <c r="BQ6" s="34" t="inlineStr"/>
-      <c r="BR6" s="34" t="inlineStr"/>
-      <c r="BS6" s="34" t="inlineStr"/>
-      <c r="BT6" s="34" t="inlineStr"/>
-      <c r="BU6" s="34" t="inlineStr"/>
-      <c r="BV6" s="34" t="inlineStr"/>
-      <c r="BW6" s="34" t="inlineStr"/>
-      <c r="BX6" s="34" t="inlineStr"/>
-      <c r="BY6" s="34" t="inlineStr"/>
-      <c r="BZ6" s="34" t="inlineStr"/>
-      <c r="CA6" s="34" t="inlineStr"/>
-      <c r="CB6" s="34" t="inlineStr"/>
-      <c r="CC6" s="34" t="inlineStr"/>
-      <c r="CD6" s="34" t="inlineStr"/>
-      <c r="CE6" s="34" t="inlineStr"/>
+      <c r="BL6" s="32" t="inlineStr"/>
+      <c r="BM6" s="32" t="inlineStr"/>
+      <c r="BN6" s="32" t="inlineStr"/>
+      <c r="BO6" s="32" t="inlineStr"/>
+      <c r="BP6" s="32" t="inlineStr"/>
+      <c r="BQ6" s="32" t="inlineStr"/>
+      <c r="BR6" s="32" t="inlineStr"/>
+      <c r="BS6" s="32" t="inlineStr"/>
+      <c r="BT6" s="32" t="inlineStr"/>
+      <c r="BU6" s="32" t="inlineStr"/>
+      <c r="BV6" s="32" t="inlineStr"/>
+      <c r="BW6" s="32" t="inlineStr"/>
+      <c r="BX6" s="32" t="inlineStr"/>
+      <c r="BY6" s="25" t="inlineStr"/>
+      <c r="BZ6" s="33" t="inlineStr"/>
+      <c r="CA6" s="33" t="inlineStr"/>
+      <c r="CB6" s="33" t="inlineStr"/>
+      <c r="CC6" s="33" t="inlineStr"/>
+      <c r="CD6" s="26" t="inlineStr"/>
+      <c r="CE6" s="27" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="inlineStr"/>
@@ -2169,31 +2168,31 @@
       <c r="BD7" s="21" t="inlineStr"/>
       <c r="BE7" s="21" t="inlineStr"/>
       <c r="BF7" s="23" t="inlineStr"/>
-      <c r="BG7" s="25" t="inlineStr"/>
+      <c r="BG7" s="32" t="inlineStr"/>
       <c r="BH7" s="32" t="inlineStr"/>
       <c r="BI7" s="32" t="inlineStr"/>
       <c r="BJ7" s="32" t="inlineStr"/>
       <c r="BK7" s="32" t="inlineStr"/>
-      <c r="BL7" s="26" t="inlineStr"/>
-      <c r="BM7" s="27" t="inlineStr"/>
-      <c r="BN7" s="33" t="inlineStr"/>
-      <c r="BO7" s="34" t="inlineStr"/>
-      <c r="BP7" s="34" t="inlineStr"/>
-      <c r="BQ7" s="34" t="inlineStr"/>
-      <c r="BR7" s="34" t="inlineStr"/>
-      <c r="BS7" s="34" t="inlineStr"/>
-      <c r="BT7" s="34" t="inlineStr"/>
-      <c r="BU7" s="34" t="inlineStr"/>
-      <c r="BV7" s="34" t="inlineStr"/>
-      <c r="BW7" s="34" t="inlineStr"/>
-      <c r="BX7" s="34" t="inlineStr"/>
-      <c r="BY7" s="34" t="inlineStr"/>
-      <c r="BZ7" s="34" t="inlineStr"/>
-      <c r="CA7" s="34" t="inlineStr"/>
-      <c r="CB7" s="34" t="inlineStr"/>
-      <c r="CC7" s="34" t="inlineStr"/>
-      <c r="CD7" s="34" t="inlineStr"/>
-      <c r="CE7" s="34" t="inlineStr"/>
+      <c r="BL7" s="32" t="inlineStr"/>
+      <c r="BM7" s="32" t="inlineStr"/>
+      <c r="BN7" s="32" t="inlineStr"/>
+      <c r="BO7" s="32" t="inlineStr"/>
+      <c r="BP7" s="32" t="inlineStr"/>
+      <c r="BQ7" s="32" t="inlineStr"/>
+      <c r="BR7" s="32" t="inlineStr"/>
+      <c r="BS7" s="32" t="inlineStr"/>
+      <c r="BT7" s="32" t="inlineStr"/>
+      <c r="BU7" s="32" t="inlineStr"/>
+      <c r="BV7" s="32" t="inlineStr"/>
+      <c r="BW7" s="32" t="inlineStr"/>
+      <c r="BX7" s="32" t="inlineStr"/>
+      <c r="BY7" s="25" t="inlineStr"/>
+      <c r="BZ7" s="33" t="inlineStr"/>
+      <c r="CA7" s="33" t="inlineStr"/>
+      <c r="CB7" s="33" t="inlineStr"/>
+      <c r="CC7" s="33" t="inlineStr"/>
+      <c r="CD7" s="26" t="inlineStr"/>
+      <c r="CE7" s="27" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr"/>
@@ -2254,31 +2253,31 @@
       <c r="BD8" s="21" t="inlineStr"/>
       <c r="BE8" s="21" t="inlineStr"/>
       <c r="BF8" s="23" t="inlineStr"/>
-      <c r="BG8" s="25" t="inlineStr"/>
+      <c r="BG8" s="32" t="inlineStr"/>
       <c r="BH8" s="32" t="inlineStr"/>
       <c r="BI8" s="32" t="inlineStr"/>
       <c r="BJ8" s="32" t="inlineStr"/>
       <c r="BK8" s="32" t="inlineStr"/>
-      <c r="BL8" s="26" t="inlineStr"/>
-      <c r="BM8" s="27" t="inlineStr"/>
-      <c r="BN8" s="33" t="inlineStr"/>
-      <c r="BO8" s="34" t="inlineStr"/>
-      <c r="BP8" s="34" t="inlineStr"/>
-      <c r="BQ8" s="34" t="inlineStr"/>
-      <c r="BR8" s="34" t="inlineStr"/>
-      <c r="BS8" s="34" t="inlineStr"/>
-      <c r="BT8" s="34" t="inlineStr"/>
-      <c r="BU8" s="34" t="inlineStr"/>
-      <c r="BV8" s="34" t="inlineStr"/>
-      <c r="BW8" s="34" t="inlineStr"/>
-      <c r="BX8" s="34" t="inlineStr"/>
-      <c r="BY8" s="34" t="inlineStr"/>
-      <c r="BZ8" s="34" t="inlineStr"/>
-      <c r="CA8" s="34" t="inlineStr"/>
-      <c r="CB8" s="34" t="inlineStr"/>
-      <c r="CC8" s="34" t="inlineStr"/>
-      <c r="CD8" s="34" t="inlineStr"/>
-      <c r="CE8" s="34" t="inlineStr"/>
+      <c r="BL8" s="32" t="inlineStr"/>
+      <c r="BM8" s="32" t="inlineStr"/>
+      <c r="BN8" s="32" t="inlineStr"/>
+      <c r="BO8" s="32" t="inlineStr"/>
+      <c r="BP8" s="32" t="inlineStr"/>
+      <c r="BQ8" s="32" t="inlineStr"/>
+      <c r="BR8" s="32" t="inlineStr"/>
+      <c r="BS8" s="32" t="inlineStr"/>
+      <c r="BT8" s="32" t="inlineStr"/>
+      <c r="BU8" s="32" t="inlineStr"/>
+      <c r="BV8" s="32" t="inlineStr"/>
+      <c r="BW8" s="32" t="inlineStr"/>
+      <c r="BX8" s="32" t="inlineStr"/>
+      <c r="BY8" s="25" t="inlineStr"/>
+      <c r="BZ8" s="33" t="inlineStr"/>
+      <c r="CA8" s="33" t="inlineStr"/>
+      <c r="CB8" s="33" t="inlineStr"/>
+      <c r="CC8" s="33" t="inlineStr"/>
+      <c r="CD8" s="26" t="inlineStr"/>
+      <c r="CE8" s="27" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="16" t="inlineStr"/>
@@ -2339,31 +2338,31 @@
       <c r="BD9" s="21" t="inlineStr"/>
       <c r="BE9" s="21" t="inlineStr"/>
       <c r="BF9" s="23" t="inlineStr"/>
-      <c r="BG9" s="25" t="inlineStr"/>
+      <c r="BG9" s="32" t="inlineStr"/>
       <c r="BH9" s="32" t="inlineStr"/>
       <c r="BI9" s="32" t="inlineStr"/>
       <c r="BJ9" s="32" t="inlineStr"/>
       <c r="BK9" s="32" t="inlineStr"/>
-      <c r="BL9" s="26" t="inlineStr"/>
-      <c r="BM9" s="27" t="inlineStr"/>
-      <c r="BN9" s="33" t="inlineStr"/>
-      <c r="BO9" s="34" t="inlineStr"/>
-      <c r="BP9" s="34" t="inlineStr"/>
-      <c r="BQ9" s="34" t="inlineStr"/>
-      <c r="BR9" s="34" t="inlineStr"/>
-      <c r="BS9" s="34" t="inlineStr"/>
-      <c r="BT9" s="34" t="inlineStr"/>
-      <c r="BU9" s="34" t="inlineStr"/>
-      <c r="BV9" s="34" t="inlineStr"/>
-      <c r="BW9" s="34" t="inlineStr"/>
-      <c r="BX9" s="34" t="inlineStr"/>
-      <c r="BY9" s="34" t="inlineStr"/>
-      <c r="BZ9" s="34" t="inlineStr"/>
-      <c r="CA9" s="34" t="inlineStr"/>
-      <c r="CB9" s="34" t="inlineStr"/>
-      <c r="CC9" s="34" t="inlineStr"/>
-      <c r="CD9" s="34" t="inlineStr"/>
-      <c r="CE9" s="34" t="inlineStr"/>
+      <c r="BL9" s="32" t="inlineStr"/>
+      <c r="BM9" s="32" t="inlineStr"/>
+      <c r="BN9" s="32" t="inlineStr"/>
+      <c r="BO9" s="32" t="inlineStr"/>
+      <c r="BP9" s="32" t="inlineStr"/>
+      <c r="BQ9" s="32" t="inlineStr"/>
+      <c r="BR9" s="32" t="inlineStr"/>
+      <c r="BS9" s="32" t="inlineStr"/>
+      <c r="BT9" s="32" t="inlineStr"/>
+      <c r="BU9" s="32" t="inlineStr"/>
+      <c r="BV9" s="32" t="inlineStr"/>
+      <c r="BW9" s="32" t="inlineStr"/>
+      <c r="BX9" s="32" t="inlineStr"/>
+      <c r="BY9" s="25" t="inlineStr"/>
+      <c r="BZ9" s="33" t="inlineStr"/>
+      <c r="CA9" s="33" t="inlineStr"/>
+      <c r="CB9" s="33" t="inlineStr"/>
+      <c r="CC9" s="33" t="inlineStr"/>
+      <c r="CD9" s="26" t="inlineStr"/>
+      <c r="CE9" s="27" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr"/>
@@ -2424,31 +2423,31 @@
       <c r="BD10" s="21" t="inlineStr"/>
       <c r="BE10" s="21" t="inlineStr"/>
       <c r="BF10" s="23" t="inlineStr"/>
-      <c r="BG10" s="25" t="inlineStr"/>
+      <c r="BG10" s="32" t="inlineStr"/>
       <c r="BH10" s="32" t="inlineStr"/>
       <c r="BI10" s="32" t="inlineStr"/>
       <c r="BJ10" s="32" t="inlineStr"/>
       <c r="BK10" s="32" t="inlineStr"/>
-      <c r="BL10" s="26" t="inlineStr"/>
-      <c r="BM10" s="27" t="inlineStr"/>
-      <c r="BN10" s="33" t="inlineStr"/>
-      <c r="BO10" s="34" t="inlineStr"/>
-      <c r="BP10" s="34" t="inlineStr"/>
-      <c r="BQ10" s="34" t="inlineStr"/>
-      <c r="BR10" s="34" t="inlineStr"/>
-      <c r="BS10" s="34" t="inlineStr"/>
-      <c r="BT10" s="34" t="inlineStr"/>
-      <c r="BU10" s="34" t="inlineStr"/>
-      <c r="BV10" s="34" t="inlineStr"/>
-      <c r="BW10" s="34" t="inlineStr"/>
-      <c r="BX10" s="34" t="inlineStr"/>
-      <c r="BY10" s="34" t="inlineStr"/>
-      <c r="BZ10" s="34" t="inlineStr"/>
-      <c r="CA10" s="34" t="inlineStr"/>
-      <c r="CB10" s="34" t="inlineStr"/>
-      <c r="CC10" s="34" t="inlineStr"/>
-      <c r="CD10" s="34" t="inlineStr"/>
-      <c r="CE10" s="34" t="inlineStr"/>
+      <c r="BL10" s="32" t="inlineStr"/>
+      <c r="BM10" s="32" t="inlineStr"/>
+      <c r="BN10" s="32" t="inlineStr"/>
+      <c r="BO10" s="32" t="inlineStr"/>
+      <c r="BP10" s="32" t="inlineStr"/>
+      <c r="BQ10" s="32" t="inlineStr"/>
+      <c r="BR10" s="32" t="inlineStr"/>
+      <c r="BS10" s="32" t="inlineStr"/>
+      <c r="BT10" s="32" t="inlineStr"/>
+      <c r="BU10" s="32" t="inlineStr"/>
+      <c r="BV10" s="32" t="inlineStr"/>
+      <c r="BW10" s="32" t="inlineStr"/>
+      <c r="BX10" s="32" t="inlineStr"/>
+      <c r="BY10" s="25" t="inlineStr"/>
+      <c r="BZ10" s="33" t="inlineStr"/>
+      <c r="CA10" s="33" t="inlineStr"/>
+      <c r="CB10" s="33" t="inlineStr"/>
+      <c r="CC10" s="33" t="inlineStr"/>
+      <c r="CD10" s="26" t="inlineStr"/>
+      <c r="CE10" s="27" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="inlineStr"/>
@@ -2509,31 +2508,31 @@
       <c r="BD11" s="21" t="inlineStr"/>
       <c r="BE11" s="21" t="inlineStr"/>
       <c r="BF11" s="23" t="inlineStr"/>
-      <c r="BG11" s="25" t="inlineStr"/>
+      <c r="BG11" s="32" t="inlineStr"/>
       <c r="BH11" s="32" t="inlineStr"/>
       <c r="BI11" s="32" t="inlineStr"/>
       <c r="BJ11" s="32" t="inlineStr"/>
       <c r="BK11" s="32" t="inlineStr"/>
-      <c r="BL11" s="26" t="inlineStr"/>
-      <c r="BM11" s="27" t="inlineStr"/>
-      <c r="BN11" s="33" t="inlineStr"/>
-      <c r="BO11" s="34" t="inlineStr"/>
-      <c r="BP11" s="34" t="inlineStr"/>
-      <c r="BQ11" s="34" t="inlineStr"/>
-      <c r="BR11" s="34" t="inlineStr"/>
-      <c r="BS11" s="34" t="inlineStr"/>
-      <c r="BT11" s="34" t="inlineStr"/>
-      <c r="BU11" s="34" t="inlineStr"/>
-      <c r="BV11" s="34" t="inlineStr"/>
-      <c r="BW11" s="34" t="inlineStr"/>
-      <c r="BX11" s="34" t="inlineStr"/>
-      <c r="BY11" s="34" t="inlineStr"/>
-      <c r="BZ11" s="34" t="inlineStr"/>
-      <c r="CA11" s="34" t="inlineStr"/>
-      <c r="CB11" s="34" t="inlineStr"/>
-      <c r="CC11" s="34" t="inlineStr"/>
-      <c r="CD11" s="34" t="inlineStr"/>
-      <c r="CE11" s="34" t="inlineStr"/>
+      <c r="BL11" s="32" t="inlineStr"/>
+      <c r="BM11" s="32" t="inlineStr"/>
+      <c r="BN11" s="32" t="inlineStr"/>
+      <c r="BO11" s="32" t="inlineStr"/>
+      <c r="BP11" s="32" t="inlineStr"/>
+      <c r="BQ11" s="32" t="inlineStr"/>
+      <c r="BR11" s="32" t="inlineStr"/>
+      <c r="BS11" s="32" t="inlineStr"/>
+      <c r="BT11" s="32" t="inlineStr"/>
+      <c r="BU11" s="32" t="inlineStr"/>
+      <c r="BV11" s="32" t="inlineStr"/>
+      <c r="BW11" s="32" t="inlineStr"/>
+      <c r="BX11" s="32" t="inlineStr"/>
+      <c r="BY11" s="25" t="inlineStr"/>
+      <c r="BZ11" s="33" t="inlineStr"/>
+      <c r="CA11" s="33" t="inlineStr"/>
+      <c r="CB11" s="33" t="inlineStr"/>
+      <c r="CC11" s="33" t="inlineStr"/>
+      <c r="CD11" s="26" t="inlineStr"/>
+      <c r="CE11" s="27" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="inlineStr"/>
@@ -2594,31 +2593,31 @@
       <c r="BD12" s="21" t="inlineStr"/>
       <c r="BE12" s="21" t="inlineStr"/>
       <c r="BF12" s="23" t="inlineStr"/>
-      <c r="BG12" s="25" t="inlineStr"/>
+      <c r="BG12" s="32" t="inlineStr"/>
       <c r="BH12" s="32" t="inlineStr"/>
       <c r="BI12" s="32" t="inlineStr"/>
       <c r="BJ12" s="32" t="inlineStr"/>
       <c r="BK12" s="32" t="inlineStr"/>
-      <c r="BL12" s="26" t="inlineStr"/>
-      <c r="BM12" s="27" t="inlineStr"/>
-      <c r="BN12" s="33" t="inlineStr"/>
-      <c r="BO12" s="34" t="inlineStr"/>
-      <c r="BP12" s="34" t="inlineStr"/>
-      <c r="BQ12" s="34" t="inlineStr"/>
-      <c r="BR12" s="34" t="inlineStr"/>
-      <c r="BS12" s="34" t="inlineStr"/>
-      <c r="BT12" s="34" t="inlineStr"/>
-      <c r="BU12" s="34" t="inlineStr"/>
-      <c r="BV12" s="34" t="inlineStr"/>
-      <c r="BW12" s="34" t="inlineStr"/>
-      <c r="BX12" s="34" t="inlineStr"/>
-      <c r="BY12" s="34" t="inlineStr"/>
-      <c r="BZ12" s="34" t="inlineStr"/>
-      <c r="CA12" s="34" t="inlineStr"/>
-      <c r="CB12" s="34" t="inlineStr"/>
-      <c r="CC12" s="34" t="inlineStr"/>
-      <c r="CD12" s="34" t="inlineStr"/>
-      <c r="CE12" s="34" t="inlineStr"/>
+      <c r="BL12" s="32" t="inlineStr"/>
+      <c r="BM12" s="32" t="inlineStr"/>
+      <c r="BN12" s="32" t="inlineStr"/>
+      <c r="BO12" s="32" t="inlineStr"/>
+      <c r="BP12" s="32" t="inlineStr"/>
+      <c r="BQ12" s="32" t="inlineStr"/>
+      <c r="BR12" s="32" t="inlineStr"/>
+      <c r="BS12" s="32" t="inlineStr"/>
+      <c r="BT12" s="32" t="inlineStr"/>
+      <c r="BU12" s="32" t="inlineStr"/>
+      <c r="BV12" s="32" t="inlineStr"/>
+      <c r="BW12" s="32" t="inlineStr"/>
+      <c r="BX12" s="32" t="inlineStr"/>
+      <c r="BY12" s="25" t="inlineStr"/>
+      <c r="BZ12" s="33" t="inlineStr"/>
+      <c r="CA12" s="33" t="inlineStr"/>
+      <c r="CB12" s="33" t="inlineStr"/>
+      <c r="CC12" s="33" t="inlineStr"/>
+      <c r="CD12" s="26" t="inlineStr"/>
+      <c r="CE12" s="27" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr"/>
@@ -2679,31 +2678,31 @@
       <c r="BD13" s="21" t="inlineStr"/>
       <c r="BE13" s="21" t="inlineStr"/>
       <c r="BF13" s="23" t="inlineStr"/>
-      <c r="BG13" s="25" t="inlineStr"/>
+      <c r="BG13" s="32" t="inlineStr"/>
       <c r="BH13" s="32" t="inlineStr"/>
       <c r="BI13" s="32" t="inlineStr"/>
       <c r="BJ13" s="32" t="inlineStr"/>
       <c r="BK13" s="32" t="inlineStr"/>
-      <c r="BL13" s="26" t="inlineStr"/>
-      <c r="BM13" s="27" t="inlineStr"/>
-      <c r="BN13" s="33" t="inlineStr"/>
-      <c r="BO13" s="34" t="inlineStr"/>
-      <c r="BP13" s="34" t="inlineStr"/>
-      <c r="BQ13" s="34" t="inlineStr"/>
-      <c r="BR13" s="34" t="inlineStr"/>
-      <c r="BS13" s="34" t="inlineStr"/>
-      <c r="BT13" s="34" t="inlineStr"/>
-      <c r="BU13" s="34" t="inlineStr"/>
-      <c r="BV13" s="34" t="inlineStr"/>
-      <c r="BW13" s="34" t="inlineStr"/>
-      <c r="BX13" s="34" t="inlineStr"/>
-      <c r="BY13" s="34" t="inlineStr"/>
-      <c r="BZ13" s="34" t="inlineStr"/>
-      <c r="CA13" s="34" t="inlineStr"/>
-      <c r="CB13" s="34" t="inlineStr"/>
-      <c r="CC13" s="34" t="inlineStr"/>
-      <c r="CD13" s="34" t="inlineStr"/>
-      <c r="CE13" s="34" t="inlineStr"/>
+      <c r="BL13" s="32" t="inlineStr"/>
+      <c r="BM13" s="32" t="inlineStr"/>
+      <c r="BN13" s="32" t="inlineStr"/>
+      <c r="BO13" s="32" t="inlineStr"/>
+      <c r="BP13" s="32" t="inlineStr"/>
+      <c r="BQ13" s="32" t="inlineStr"/>
+      <c r="BR13" s="32" t="inlineStr"/>
+      <c r="BS13" s="32" t="inlineStr"/>
+      <c r="BT13" s="32" t="inlineStr"/>
+      <c r="BU13" s="32" t="inlineStr"/>
+      <c r="BV13" s="32" t="inlineStr"/>
+      <c r="BW13" s="32" t="inlineStr"/>
+      <c r="BX13" s="32" t="inlineStr"/>
+      <c r="BY13" s="25" t="inlineStr"/>
+      <c r="BZ13" s="33" t="inlineStr"/>
+      <c r="CA13" s="33" t="inlineStr"/>
+      <c r="CB13" s="33" t="inlineStr"/>
+      <c r="CC13" s="33" t="inlineStr"/>
+      <c r="CD13" s="26" t="inlineStr"/>
+      <c r="CE13" s="27" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr"/>
@@ -2764,31 +2763,31 @@
       <c r="BD14" s="21" t="inlineStr"/>
       <c r="BE14" s="21" t="inlineStr"/>
       <c r="BF14" s="23" t="inlineStr"/>
-      <c r="BG14" s="25" t="inlineStr"/>
+      <c r="BG14" s="32" t="inlineStr"/>
       <c r="BH14" s="32" t="inlineStr"/>
       <c r="BI14" s="32" t="inlineStr"/>
       <c r="BJ14" s="32" t="inlineStr"/>
       <c r="BK14" s="32" t="inlineStr"/>
-      <c r="BL14" s="26" t="inlineStr"/>
-      <c r="BM14" s="27" t="inlineStr"/>
-      <c r="BN14" s="33" t="inlineStr"/>
-      <c r="BO14" s="34" t="inlineStr"/>
-      <c r="BP14" s="34" t="inlineStr"/>
-      <c r="BQ14" s="34" t="inlineStr"/>
-      <c r="BR14" s="34" t="inlineStr"/>
-      <c r="BS14" s="34" t="inlineStr"/>
-      <c r="BT14" s="34" t="inlineStr"/>
-      <c r="BU14" s="34" t="inlineStr"/>
-      <c r="BV14" s="34" t="inlineStr"/>
-      <c r="BW14" s="34" t="inlineStr"/>
-      <c r="BX14" s="34" t="inlineStr"/>
-      <c r="BY14" s="34" t="inlineStr"/>
-      <c r="BZ14" s="34" t="inlineStr"/>
-      <c r="CA14" s="34" t="inlineStr"/>
-      <c r="CB14" s="34" t="inlineStr"/>
-      <c r="CC14" s="34" t="inlineStr"/>
-      <c r="CD14" s="34" t="inlineStr"/>
-      <c r="CE14" s="34" t="inlineStr"/>
+      <c r="BL14" s="32" t="inlineStr"/>
+      <c r="BM14" s="32" t="inlineStr"/>
+      <c r="BN14" s="32" t="inlineStr"/>
+      <c r="BO14" s="32" t="inlineStr"/>
+      <c r="BP14" s="32" t="inlineStr"/>
+      <c r="BQ14" s="32" t="inlineStr"/>
+      <c r="BR14" s="32" t="inlineStr"/>
+      <c r="BS14" s="32" t="inlineStr"/>
+      <c r="BT14" s="32" t="inlineStr"/>
+      <c r="BU14" s="32" t="inlineStr"/>
+      <c r="BV14" s="32" t="inlineStr"/>
+      <c r="BW14" s="32" t="inlineStr"/>
+      <c r="BX14" s="32" t="inlineStr"/>
+      <c r="BY14" s="25" t="inlineStr"/>
+      <c r="BZ14" s="33" t="inlineStr"/>
+      <c r="CA14" s="33" t="inlineStr"/>
+      <c r="CB14" s="33" t="inlineStr"/>
+      <c r="CC14" s="33" t="inlineStr"/>
+      <c r="CD14" s="26" t="inlineStr"/>
+      <c r="CE14" s="27" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr"/>
@@ -2849,31 +2848,31 @@
       <c r="BD15" s="21" t="inlineStr"/>
       <c r="BE15" s="21" t="inlineStr"/>
       <c r="BF15" s="23" t="inlineStr"/>
-      <c r="BG15" s="25" t="inlineStr"/>
+      <c r="BG15" s="32" t="inlineStr"/>
       <c r="BH15" s="32" t="inlineStr"/>
       <c r="BI15" s="32" t="inlineStr"/>
       <c r="BJ15" s="32" t="inlineStr"/>
       <c r="BK15" s="32" t="inlineStr"/>
-      <c r="BL15" s="26" t="inlineStr"/>
-      <c r="BM15" s="27" t="inlineStr"/>
-      <c r="BN15" s="33" t="inlineStr"/>
-      <c r="BO15" s="34" t="inlineStr"/>
-      <c r="BP15" s="34" t="inlineStr"/>
-      <c r="BQ15" s="34" t="inlineStr"/>
-      <c r="BR15" s="34" t="inlineStr"/>
-      <c r="BS15" s="34" t="inlineStr"/>
-      <c r="BT15" s="34" t="inlineStr"/>
-      <c r="BU15" s="34" t="inlineStr"/>
-      <c r="BV15" s="34" t="inlineStr"/>
-      <c r="BW15" s="34" t="inlineStr"/>
-      <c r="BX15" s="34" t="inlineStr"/>
-      <c r="BY15" s="34" t="inlineStr"/>
-      <c r="BZ15" s="34" t="inlineStr"/>
-      <c r="CA15" s="34" t="inlineStr"/>
-      <c r="CB15" s="34" t="inlineStr"/>
-      <c r="CC15" s="34" t="inlineStr"/>
-      <c r="CD15" s="34" t="inlineStr"/>
-      <c r="CE15" s="34" t="inlineStr"/>
+      <c r="BL15" s="32" t="inlineStr"/>
+      <c r="BM15" s="32" t="inlineStr"/>
+      <c r="BN15" s="32" t="inlineStr"/>
+      <c r="BO15" s="32" t="inlineStr"/>
+      <c r="BP15" s="32" t="inlineStr"/>
+      <c r="BQ15" s="32" t="inlineStr"/>
+      <c r="BR15" s="32" t="inlineStr"/>
+      <c r="BS15" s="32" t="inlineStr"/>
+      <c r="BT15" s="32" t="inlineStr"/>
+      <c r="BU15" s="32" t="inlineStr"/>
+      <c r="BV15" s="32" t="inlineStr"/>
+      <c r="BW15" s="32" t="inlineStr"/>
+      <c r="BX15" s="32" t="inlineStr"/>
+      <c r="BY15" s="25" t="inlineStr"/>
+      <c r="BZ15" s="33" t="inlineStr"/>
+      <c r="CA15" s="33" t="inlineStr"/>
+      <c r="CB15" s="33" t="inlineStr"/>
+      <c r="CC15" s="33" t="inlineStr"/>
+      <c r="CD15" s="26" t="inlineStr"/>
+      <c r="CE15" s="27" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="inlineStr"/>
@@ -2934,31 +2933,31 @@
       <c r="BD16" s="21" t="inlineStr"/>
       <c r="BE16" s="21" t="inlineStr"/>
       <c r="BF16" s="23" t="inlineStr"/>
-      <c r="BG16" s="25" t="inlineStr"/>
+      <c r="BG16" s="32" t="inlineStr"/>
       <c r="BH16" s="32" t="inlineStr"/>
       <c r="BI16" s="32" t="inlineStr"/>
       <c r="BJ16" s="32" t="inlineStr"/>
       <c r="BK16" s="32" t="inlineStr"/>
-      <c r="BL16" s="26" t="inlineStr"/>
-      <c r="BM16" s="27" t="inlineStr"/>
-      <c r="BN16" s="33" t="inlineStr"/>
-      <c r="BO16" s="34" t="inlineStr"/>
-      <c r="BP16" s="34" t="inlineStr"/>
-      <c r="BQ16" s="34" t="inlineStr"/>
-      <c r="BR16" s="34" t="inlineStr"/>
-      <c r="BS16" s="34" t="inlineStr"/>
-      <c r="BT16" s="34" t="inlineStr"/>
-      <c r="BU16" s="34" t="inlineStr"/>
-      <c r="BV16" s="34" t="inlineStr"/>
-      <c r="BW16" s="34" t="inlineStr"/>
-      <c r="BX16" s="34" t="inlineStr"/>
-      <c r="BY16" s="34" t="inlineStr"/>
-      <c r="BZ16" s="34" t="inlineStr"/>
-      <c r="CA16" s="34" t="inlineStr"/>
-      <c r="CB16" s="34" t="inlineStr"/>
-      <c r="CC16" s="34" t="inlineStr"/>
-      <c r="CD16" s="34" t="inlineStr"/>
-      <c r="CE16" s="34" t="inlineStr"/>
+      <c r="BL16" s="32" t="inlineStr"/>
+      <c r="BM16" s="32" t="inlineStr"/>
+      <c r="BN16" s="32" t="inlineStr"/>
+      <c r="BO16" s="32" t="inlineStr"/>
+      <c r="BP16" s="32" t="inlineStr"/>
+      <c r="BQ16" s="32" t="inlineStr"/>
+      <c r="BR16" s="32" t="inlineStr"/>
+      <c r="BS16" s="32" t="inlineStr"/>
+      <c r="BT16" s="32" t="inlineStr"/>
+      <c r="BU16" s="32" t="inlineStr"/>
+      <c r="BV16" s="32" t="inlineStr"/>
+      <c r="BW16" s="32" t="inlineStr"/>
+      <c r="BX16" s="32" t="inlineStr"/>
+      <c r="BY16" s="25" t="inlineStr"/>
+      <c r="BZ16" s="33" t="inlineStr"/>
+      <c r="CA16" s="33" t="inlineStr"/>
+      <c r="CB16" s="33" t="inlineStr"/>
+      <c r="CC16" s="33" t="inlineStr"/>
+      <c r="CD16" s="26" t="inlineStr"/>
+      <c r="CE16" s="27" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="16" t="inlineStr"/>
@@ -3019,31 +3018,31 @@
       <c r="BD17" s="21" t="inlineStr"/>
       <c r="BE17" s="21" t="inlineStr"/>
       <c r="BF17" s="23" t="inlineStr"/>
-      <c r="BG17" s="25" t="inlineStr"/>
+      <c r="BG17" s="32" t="inlineStr"/>
       <c r="BH17" s="32" t="inlineStr"/>
       <c r="BI17" s="32" t="inlineStr"/>
       <c r="BJ17" s="32" t="inlineStr"/>
       <c r="BK17" s="32" t="inlineStr"/>
-      <c r="BL17" s="26" t="inlineStr"/>
-      <c r="BM17" s="27" t="inlineStr"/>
-      <c r="BN17" s="33" t="inlineStr"/>
-      <c r="BO17" s="34" t="inlineStr"/>
-      <c r="BP17" s="34" t="inlineStr"/>
-      <c r="BQ17" s="34" t="inlineStr"/>
-      <c r="BR17" s="34" t="inlineStr"/>
-      <c r="BS17" s="34" t="inlineStr"/>
-      <c r="BT17" s="34" t="inlineStr"/>
-      <c r="BU17" s="34" t="inlineStr"/>
-      <c r="BV17" s="34" t="inlineStr"/>
-      <c r="BW17" s="34" t="inlineStr"/>
-      <c r="BX17" s="34" t="inlineStr"/>
-      <c r="BY17" s="34" t="inlineStr"/>
-      <c r="BZ17" s="34" t="inlineStr"/>
-      <c r="CA17" s="34" t="inlineStr"/>
-      <c r="CB17" s="34" t="inlineStr"/>
-      <c r="CC17" s="34" t="inlineStr"/>
-      <c r="CD17" s="34" t="inlineStr"/>
-      <c r="CE17" s="34" t="inlineStr"/>
+      <c r="BL17" s="32" t="inlineStr"/>
+      <c r="BM17" s="32" t="inlineStr"/>
+      <c r="BN17" s="32" t="inlineStr"/>
+      <c r="BO17" s="32" t="inlineStr"/>
+      <c r="BP17" s="32" t="inlineStr"/>
+      <c r="BQ17" s="32" t="inlineStr"/>
+      <c r="BR17" s="32" t="inlineStr"/>
+      <c r="BS17" s="32" t="inlineStr"/>
+      <c r="BT17" s="32" t="inlineStr"/>
+      <c r="BU17" s="32" t="inlineStr"/>
+      <c r="BV17" s="32" t="inlineStr"/>
+      <c r="BW17" s="32" t="inlineStr"/>
+      <c r="BX17" s="32" t="inlineStr"/>
+      <c r="BY17" s="25" t="inlineStr"/>
+      <c r="BZ17" s="33" t="inlineStr"/>
+      <c r="CA17" s="33" t="inlineStr"/>
+      <c r="CB17" s="33" t="inlineStr"/>
+      <c r="CC17" s="33" t="inlineStr"/>
+      <c r="CD17" s="26" t="inlineStr"/>
+      <c r="CE17" s="27" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="16" t="inlineStr"/>
@@ -3104,31 +3103,31 @@
       <c r="BD18" s="21" t="inlineStr"/>
       <c r="BE18" s="21" t="inlineStr"/>
       <c r="BF18" s="23" t="inlineStr"/>
-      <c r="BG18" s="25" t="inlineStr"/>
+      <c r="BG18" s="32" t="inlineStr"/>
       <c r="BH18" s="32" t="inlineStr"/>
       <c r="BI18" s="32" t="inlineStr"/>
       <c r="BJ18" s="32" t="inlineStr"/>
       <c r="BK18" s="32" t="inlineStr"/>
-      <c r="BL18" s="26" t="inlineStr"/>
-      <c r="BM18" s="27" t="inlineStr"/>
-      <c r="BN18" s="33" t="inlineStr"/>
-      <c r="BO18" s="34" t="inlineStr"/>
-      <c r="BP18" s="34" t="inlineStr"/>
-      <c r="BQ18" s="34" t="inlineStr"/>
-      <c r="BR18" s="34" t="inlineStr"/>
-      <c r="BS18" s="34" t="inlineStr"/>
-      <c r="BT18" s="34" t="inlineStr"/>
-      <c r="BU18" s="34" t="inlineStr"/>
-      <c r="BV18" s="34" t="inlineStr"/>
-      <c r="BW18" s="34" t="inlineStr"/>
-      <c r="BX18" s="34" t="inlineStr"/>
-      <c r="BY18" s="34" t="inlineStr"/>
-      <c r="BZ18" s="34" t="inlineStr"/>
-      <c r="CA18" s="34" t="inlineStr"/>
-      <c r="CB18" s="34" t="inlineStr"/>
-      <c r="CC18" s="34" t="inlineStr"/>
-      <c r="CD18" s="34" t="inlineStr"/>
-      <c r="CE18" s="34" t="inlineStr"/>
+      <c r="BL18" s="32" t="inlineStr"/>
+      <c r="BM18" s="32" t="inlineStr"/>
+      <c r="BN18" s="32" t="inlineStr"/>
+      <c r="BO18" s="32" t="inlineStr"/>
+      <c r="BP18" s="32" t="inlineStr"/>
+      <c r="BQ18" s="32" t="inlineStr"/>
+      <c r="BR18" s="32" t="inlineStr"/>
+      <c r="BS18" s="32" t="inlineStr"/>
+      <c r="BT18" s="32" t="inlineStr"/>
+      <c r="BU18" s="32" t="inlineStr"/>
+      <c r="BV18" s="32" t="inlineStr"/>
+      <c r="BW18" s="32" t="inlineStr"/>
+      <c r="BX18" s="32" t="inlineStr"/>
+      <c r="BY18" s="25" t="inlineStr"/>
+      <c r="BZ18" s="33" t="inlineStr"/>
+      <c r="CA18" s="33" t="inlineStr"/>
+      <c r="CB18" s="33" t="inlineStr"/>
+      <c r="CC18" s="33" t="inlineStr"/>
+      <c r="CD18" s="26" t="inlineStr"/>
+      <c r="CE18" s="27" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr"/>
@@ -3189,31 +3188,31 @@
       <c r="BD19" s="21" t="inlineStr"/>
       <c r="BE19" s="21" t="inlineStr"/>
       <c r="BF19" s="23" t="inlineStr"/>
-      <c r="BG19" s="25" t="inlineStr"/>
+      <c r="BG19" s="32" t="inlineStr"/>
       <c r="BH19" s="32" t="inlineStr"/>
       <c r="BI19" s="32" t="inlineStr"/>
       <c r="BJ19" s="32" t="inlineStr"/>
       <c r="BK19" s="32" t="inlineStr"/>
-      <c r="BL19" s="26" t="inlineStr"/>
-      <c r="BM19" s="27" t="inlineStr"/>
-      <c r="BN19" s="33" t="inlineStr"/>
-      <c r="BO19" s="34" t="inlineStr"/>
-      <c r="BP19" s="34" t="inlineStr"/>
-      <c r="BQ19" s="34" t="inlineStr"/>
-      <c r="BR19" s="34" t="inlineStr"/>
-      <c r="BS19" s="34" t="inlineStr"/>
-      <c r="BT19" s="34" t="inlineStr"/>
-      <c r="BU19" s="34" t="inlineStr"/>
-      <c r="BV19" s="34" t="inlineStr"/>
-      <c r="BW19" s="34" t="inlineStr"/>
-      <c r="BX19" s="34" t="inlineStr"/>
-      <c r="BY19" s="34" t="inlineStr"/>
-      <c r="BZ19" s="34" t="inlineStr"/>
-      <c r="CA19" s="34" t="inlineStr"/>
-      <c r="CB19" s="34" t="inlineStr"/>
-      <c r="CC19" s="34" t="inlineStr"/>
-      <c r="CD19" s="34" t="inlineStr"/>
-      <c r="CE19" s="34" t="inlineStr"/>
+      <c r="BL19" s="32" t="inlineStr"/>
+      <c r="BM19" s="32" t="inlineStr"/>
+      <c r="BN19" s="32" t="inlineStr"/>
+      <c r="BO19" s="32" t="inlineStr"/>
+      <c r="BP19" s="32" t="inlineStr"/>
+      <c r="BQ19" s="32" t="inlineStr"/>
+      <c r="BR19" s="32" t="inlineStr"/>
+      <c r="BS19" s="32" t="inlineStr"/>
+      <c r="BT19" s="32" t="inlineStr"/>
+      <c r="BU19" s="32" t="inlineStr"/>
+      <c r="BV19" s="32" t="inlineStr"/>
+      <c r="BW19" s="32" t="inlineStr"/>
+      <c r="BX19" s="32" t="inlineStr"/>
+      <c r="BY19" s="25" t="inlineStr"/>
+      <c r="BZ19" s="33" t="inlineStr"/>
+      <c r="CA19" s="33" t="inlineStr"/>
+      <c r="CB19" s="33" t="inlineStr"/>
+      <c r="CC19" s="33" t="inlineStr"/>
+      <c r="CD19" s="26" t="inlineStr"/>
+      <c r="CE19" s="27" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr"/>
@@ -3274,31 +3273,31 @@
       <c r="BD20" s="21" t="inlineStr"/>
       <c r="BE20" s="21" t="inlineStr"/>
       <c r="BF20" s="23" t="inlineStr"/>
-      <c r="BG20" s="25" t="inlineStr"/>
+      <c r="BG20" s="32" t="inlineStr"/>
       <c r="BH20" s="32" t="inlineStr"/>
       <c r="BI20" s="32" t="inlineStr"/>
       <c r="BJ20" s="32" t="inlineStr"/>
       <c r="BK20" s="32" t="inlineStr"/>
-      <c r="BL20" s="26" t="inlineStr"/>
-      <c r="BM20" s="27" t="inlineStr"/>
-      <c r="BN20" s="33" t="inlineStr"/>
-      <c r="BO20" s="34" t="inlineStr"/>
-      <c r="BP20" s="34" t="inlineStr"/>
-      <c r="BQ20" s="34" t="inlineStr"/>
-      <c r="BR20" s="34" t="inlineStr"/>
-      <c r="BS20" s="34" t="inlineStr"/>
-      <c r="BT20" s="34" t="inlineStr"/>
-      <c r="BU20" s="34" t="inlineStr"/>
-      <c r="BV20" s="34" t="inlineStr"/>
-      <c r="BW20" s="34" t="inlineStr"/>
-      <c r="BX20" s="34" t="inlineStr"/>
-      <c r="BY20" s="34" t="inlineStr"/>
-      <c r="BZ20" s="34" t="inlineStr"/>
-      <c r="CA20" s="34" t="inlineStr"/>
-      <c r="CB20" s="34" t="inlineStr"/>
-      <c r="CC20" s="34" t="inlineStr"/>
-      <c r="CD20" s="34" t="inlineStr"/>
-      <c r="CE20" s="34" t="inlineStr"/>
+      <c r="BL20" s="32" t="inlineStr"/>
+      <c r="BM20" s="32" t="inlineStr"/>
+      <c r="BN20" s="32" t="inlineStr"/>
+      <c r="BO20" s="32" t="inlineStr"/>
+      <c r="BP20" s="32" t="inlineStr"/>
+      <c r="BQ20" s="32" t="inlineStr"/>
+      <c r="BR20" s="32" t="inlineStr"/>
+      <c r="BS20" s="32" t="inlineStr"/>
+      <c r="BT20" s="32" t="inlineStr"/>
+      <c r="BU20" s="32" t="inlineStr"/>
+      <c r="BV20" s="32" t="inlineStr"/>
+      <c r="BW20" s="32" t="inlineStr"/>
+      <c r="BX20" s="32" t="inlineStr"/>
+      <c r="BY20" s="25" t="inlineStr"/>
+      <c r="BZ20" s="33" t="inlineStr"/>
+      <c r="CA20" s="33" t="inlineStr"/>
+      <c r="CB20" s="33" t="inlineStr"/>
+      <c r="CC20" s="33" t="inlineStr"/>
+      <c r="CD20" s="26" t="inlineStr"/>
+      <c r="CE20" s="27" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr"/>
@@ -3359,31 +3358,31 @@
       <c r="BD21" s="21" t="inlineStr"/>
       <c r="BE21" s="21" t="inlineStr"/>
       <c r="BF21" s="23" t="inlineStr"/>
-      <c r="BG21" s="25" t="inlineStr"/>
+      <c r="BG21" s="32" t="inlineStr"/>
       <c r="BH21" s="32" t="inlineStr"/>
       <c r="BI21" s="32" t="inlineStr"/>
       <c r="BJ21" s="32" t="inlineStr"/>
       <c r="BK21" s="32" t="inlineStr"/>
-      <c r="BL21" s="26" t="inlineStr"/>
-      <c r="BM21" s="27" t="inlineStr"/>
-      <c r="BN21" s="33" t="inlineStr"/>
-      <c r="BO21" s="34" t="inlineStr"/>
-      <c r="BP21" s="34" t="inlineStr"/>
-      <c r="BQ21" s="34" t="inlineStr"/>
-      <c r="BR21" s="34" t="inlineStr"/>
-      <c r="BS21" s="34" t="inlineStr"/>
-      <c r="BT21" s="34" t="inlineStr"/>
-      <c r="BU21" s="34" t="inlineStr"/>
-      <c r="BV21" s="34" t="inlineStr"/>
-      <c r="BW21" s="34" t="inlineStr"/>
-      <c r="BX21" s="34" t="inlineStr"/>
-      <c r="BY21" s="34" t="inlineStr"/>
-      <c r="BZ21" s="34" t="inlineStr"/>
-      <c r="CA21" s="34" t="inlineStr"/>
-      <c r="CB21" s="34" t="inlineStr"/>
-      <c r="CC21" s="34" t="inlineStr"/>
-      <c r="CD21" s="34" t="inlineStr"/>
-      <c r="CE21" s="34" t="inlineStr"/>
+      <c r="BL21" s="32" t="inlineStr"/>
+      <c r="BM21" s="32" t="inlineStr"/>
+      <c r="BN21" s="32" t="inlineStr"/>
+      <c r="BO21" s="32" t="inlineStr"/>
+      <c r="BP21" s="32" t="inlineStr"/>
+      <c r="BQ21" s="32" t="inlineStr"/>
+      <c r="BR21" s="32" t="inlineStr"/>
+      <c r="BS21" s="32" t="inlineStr"/>
+      <c r="BT21" s="32" t="inlineStr"/>
+      <c r="BU21" s="32" t="inlineStr"/>
+      <c r="BV21" s="32" t="inlineStr"/>
+      <c r="BW21" s="32" t="inlineStr"/>
+      <c r="BX21" s="32" t="inlineStr"/>
+      <c r="BY21" s="25" t="inlineStr"/>
+      <c r="BZ21" s="33" t="inlineStr"/>
+      <c r="CA21" s="33" t="inlineStr"/>
+      <c r="CB21" s="33" t="inlineStr"/>
+      <c r="CC21" s="33" t="inlineStr"/>
+      <c r="CD21" s="26" t="inlineStr"/>
+      <c r="CE21" s="27" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="16" t="inlineStr"/>
@@ -3444,31 +3443,31 @@
       <c r="BD22" s="21" t="inlineStr"/>
       <c r="BE22" s="21" t="inlineStr"/>
       <c r="BF22" s="23" t="inlineStr"/>
-      <c r="BG22" s="25" t="inlineStr"/>
+      <c r="BG22" s="32" t="inlineStr"/>
       <c r="BH22" s="32" t="inlineStr"/>
       <c r="BI22" s="32" t="inlineStr"/>
       <c r="BJ22" s="32" t="inlineStr"/>
       <c r="BK22" s="32" t="inlineStr"/>
-      <c r="BL22" s="26" t="inlineStr"/>
-      <c r="BM22" s="27" t="inlineStr"/>
-      <c r="BN22" s="33" t="inlineStr"/>
-      <c r="BO22" s="34" t="inlineStr"/>
-      <c r="BP22" s="34" t="inlineStr"/>
-      <c r="BQ22" s="34" t="inlineStr"/>
-      <c r="BR22" s="34" t="inlineStr"/>
-      <c r="BS22" s="34" t="inlineStr"/>
-      <c r="BT22" s="34" t="inlineStr"/>
-      <c r="BU22" s="34" t="inlineStr"/>
-      <c r="BV22" s="34" t="inlineStr"/>
-      <c r="BW22" s="34" t="inlineStr"/>
-      <c r="BX22" s="34" t="inlineStr"/>
-      <c r="BY22" s="34" t="inlineStr"/>
-      <c r="BZ22" s="34" t="inlineStr"/>
-      <c r="CA22" s="34" t="inlineStr"/>
-      <c r="CB22" s="34" t="inlineStr"/>
-      <c r="CC22" s="34" t="inlineStr"/>
-      <c r="CD22" s="34" t="inlineStr"/>
-      <c r="CE22" s="34" t="inlineStr"/>
+      <c r="BL22" s="32" t="inlineStr"/>
+      <c r="BM22" s="32" t="inlineStr"/>
+      <c r="BN22" s="32" t="inlineStr"/>
+      <c r="BO22" s="32" t="inlineStr"/>
+      <c r="BP22" s="32" t="inlineStr"/>
+      <c r="BQ22" s="32" t="inlineStr"/>
+      <c r="BR22" s="32" t="inlineStr"/>
+      <c r="BS22" s="32" t="inlineStr"/>
+      <c r="BT22" s="32" t="inlineStr"/>
+      <c r="BU22" s="32" t="inlineStr"/>
+      <c r="BV22" s="32" t="inlineStr"/>
+      <c r="BW22" s="32" t="inlineStr"/>
+      <c r="BX22" s="32" t="inlineStr"/>
+      <c r="BY22" s="25" t="inlineStr"/>
+      <c r="BZ22" s="33" t="inlineStr"/>
+      <c r="CA22" s="33" t="inlineStr"/>
+      <c r="CB22" s="33" t="inlineStr"/>
+      <c r="CC22" s="33" t="inlineStr"/>
+      <c r="CD22" s="26" t="inlineStr"/>
+      <c r="CE22" s="27" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="16" t="inlineStr"/>
@@ -3529,31 +3528,31 @@
       <c r="BD23" s="21" t="inlineStr"/>
       <c r="BE23" s="21" t="inlineStr"/>
       <c r="BF23" s="23" t="inlineStr"/>
-      <c r="BG23" s="25" t="inlineStr"/>
+      <c r="BG23" s="32" t="inlineStr"/>
       <c r="BH23" s="32" t="inlineStr"/>
       <c r="BI23" s="32" t="inlineStr"/>
       <c r="BJ23" s="32" t="inlineStr"/>
       <c r="BK23" s="32" t="inlineStr"/>
-      <c r="BL23" s="26" t="inlineStr"/>
-      <c r="BM23" s="27" t="inlineStr"/>
-      <c r="BN23" s="33" t="inlineStr"/>
-      <c r="BO23" s="34" t="inlineStr"/>
-      <c r="BP23" s="34" t="inlineStr"/>
-      <c r="BQ23" s="34" t="inlineStr"/>
-      <c r="BR23" s="34" t="inlineStr"/>
-      <c r="BS23" s="34" t="inlineStr"/>
-      <c r="BT23" s="34" t="inlineStr"/>
-      <c r="BU23" s="34" t="inlineStr"/>
-      <c r="BV23" s="34" t="inlineStr"/>
-      <c r="BW23" s="34" t="inlineStr"/>
-      <c r="BX23" s="34" t="inlineStr"/>
-      <c r="BY23" s="34" t="inlineStr"/>
-      <c r="BZ23" s="34" t="inlineStr"/>
-      <c r="CA23" s="34" t="inlineStr"/>
-      <c r="CB23" s="34" t="inlineStr"/>
-      <c r="CC23" s="34" t="inlineStr"/>
-      <c r="CD23" s="34" t="inlineStr"/>
-      <c r="CE23" s="34" t="inlineStr"/>
+      <c r="BL23" s="32" t="inlineStr"/>
+      <c r="BM23" s="32" t="inlineStr"/>
+      <c r="BN23" s="32" t="inlineStr"/>
+      <c r="BO23" s="32" t="inlineStr"/>
+      <c r="BP23" s="32" t="inlineStr"/>
+      <c r="BQ23" s="32" t="inlineStr"/>
+      <c r="BR23" s="32" t="inlineStr"/>
+      <c r="BS23" s="32" t="inlineStr"/>
+      <c r="BT23" s="32" t="inlineStr"/>
+      <c r="BU23" s="32" t="inlineStr"/>
+      <c r="BV23" s="32" t="inlineStr"/>
+      <c r="BW23" s="32" t="inlineStr"/>
+      <c r="BX23" s="32" t="inlineStr"/>
+      <c r="BY23" s="25" t="inlineStr"/>
+      <c r="BZ23" s="33" t="inlineStr"/>
+      <c r="CA23" s="33" t="inlineStr"/>
+      <c r="CB23" s="33" t="inlineStr"/>
+      <c r="CC23" s="33" t="inlineStr"/>
+      <c r="CD23" s="26" t="inlineStr"/>
+      <c r="CE23" s="27" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="16" t="inlineStr"/>
@@ -3614,31 +3613,31 @@
       <c r="BD24" s="21" t="inlineStr"/>
       <c r="BE24" s="21" t="inlineStr"/>
       <c r="BF24" s="23" t="inlineStr"/>
-      <c r="BG24" s="25" t="inlineStr"/>
+      <c r="BG24" s="32" t="inlineStr"/>
       <c r="BH24" s="32" t="inlineStr"/>
       <c r="BI24" s="32" t="inlineStr"/>
       <c r="BJ24" s="32" t="inlineStr"/>
       <c r="BK24" s="32" t="inlineStr"/>
-      <c r="BL24" s="26" t="inlineStr"/>
-      <c r="BM24" s="27" t="inlineStr"/>
-      <c r="BN24" s="33" t="inlineStr"/>
-      <c r="BO24" s="34" t="inlineStr"/>
-      <c r="BP24" s="34" t="inlineStr"/>
-      <c r="BQ24" s="34" t="inlineStr"/>
-      <c r="BR24" s="34" t="inlineStr"/>
-      <c r="BS24" s="34" t="inlineStr"/>
-      <c r="BT24" s="34" t="inlineStr"/>
-      <c r="BU24" s="34" t="inlineStr"/>
-      <c r="BV24" s="34" t="inlineStr"/>
-      <c r="BW24" s="34" t="inlineStr"/>
-      <c r="BX24" s="34" t="inlineStr"/>
-      <c r="BY24" s="34" t="inlineStr"/>
-      <c r="BZ24" s="34" t="inlineStr"/>
-      <c r="CA24" s="34" t="inlineStr"/>
-      <c r="CB24" s="34" t="inlineStr"/>
-      <c r="CC24" s="34" t="inlineStr"/>
-      <c r="CD24" s="34" t="inlineStr"/>
-      <c r="CE24" s="34" t="inlineStr"/>
+      <c r="BL24" s="32" t="inlineStr"/>
+      <c r="BM24" s="32" t="inlineStr"/>
+      <c r="BN24" s="32" t="inlineStr"/>
+      <c r="BO24" s="32" t="inlineStr"/>
+      <c r="BP24" s="32" t="inlineStr"/>
+      <c r="BQ24" s="32" t="inlineStr"/>
+      <c r="BR24" s="32" t="inlineStr"/>
+      <c r="BS24" s="32" t="inlineStr"/>
+      <c r="BT24" s="32" t="inlineStr"/>
+      <c r="BU24" s="32" t="inlineStr"/>
+      <c r="BV24" s="32" t="inlineStr"/>
+      <c r="BW24" s="32" t="inlineStr"/>
+      <c r="BX24" s="32" t="inlineStr"/>
+      <c r="BY24" s="25" t="inlineStr"/>
+      <c r="BZ24" s="33" t="inlineStr"/>
+      <c r="CA24" s="33" t="inlineStr"/>
+      <c r="CB24" s="33" t="inlineStr"/>
+      <c r="CC24" s="33" t="inlineStr"/>
+      <c r="CD24" s="26" t="inlineStr"/>
+      <c r="CE24" s="27" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="16" t="inlineStr"/>
@@ -3699,31 +3698,31 @@
       <c r="BD25" s="21" t="inlineStr"/>
       <c r="BE25" s="21" t="inlineStr"/>
       <c r="BF25" s="23" t="inlineStr"/>
-      <c r="BG25" s="25" t="inlineStr"/>
+      <c r="BG25" s="32" t="inlineStr"/>
       <c r="BH25" s="32" t="inlineStr"/>
       <c r="BI25" s="32" t="inlineStr"/>
       <c r="BJ25" s="32" t="inlineStr"/>
       <c r="BK25" s="32" t="inlineStr"/>
-      <c r="BL25" s="26" t="inlineStr"/>
-      <c r="BM25" s="27" t="inlineStr"/>
-      <c r="BN25" s="33" t="inlineStr"/>
-      <c r="BO25" s="34" t="inlineStr"/>
-      <c r="BP25" s="34" t="inlineStr"/>
-      <c r="BQ25" s="34" t="inlineStr"/>
-      <c r="BR25" s="34" t="inlineStr"/>
-      <c r="BS25" s="34" t="inlineStr"/>
-      <c r="BT25" s="34" t="inlineStr"/>
-      <c r="BU25" s="34" t="inlineStr"/>
-      <c r="BV25" s="34" t="inlineStr"/>
-      <c r="BW25" s="34" t="inlineStr"/>
-      <c r="BX25" s="34" t="inlineStr"/>
-      <c r="BY25" s="34" t="inlineStr"/>
-      <c r="BZ25" s="34" t="inlineStr"/>
-      <c r="CA25" s="34" t="inlineStr"/>
-      <c r="CB25" s="34" t="inlineStr"/>
-      <c r="CC25" s="34" t="inlineStr"/>
-      <c r="CD25" s="34" t="inlineStr"/>
-      <c r="CE25" s="34" t="inlineStr"/>
+      <c r="BL25" s="32" t="inlineStr"/>
+      <c r="BM25" s="32" t="inlineStr"/>
+      <c r="BN25" s="32" t="inlineStr"/>
+      <c r="BO25" s="32" t="inlineStr"/>
+      <c r="BP25" s="32" t="inlineStr"/>
+      <c r="BQ25" s="32" t="inlineStr"/>
+      <c r="BR25" s="32" t="inlineStr"/>
+      <c r="BS25" s="32" t="inlineStr"/>
+      <c r="BT25" s="32" t="inlineStr"/>
+      <c r="BU25" s="32" t="inlineStr"/>
+      <c r="BV25" s="32" t="inlineStr"/>
+      <c r="BW25" s="32" t="inlineStr"/>
+      <c r="BX25" s="32" t="inlineStr"/>
+      <c r="BY25" s="25" t="inlineStr"/>
+      <c r="BZ25" s="33" t="inlineStr"/>
+      <c r="CA25" s="33" t="inlineStr"/>
+      <c r="CB25" s="33" t="inlineStr"/>
+      <c r="CC25" s="33" t="inlineStr"/>
+      <c r="CD25" s="26" t="inlineStr"/>
+      <c r="CE25" s="27" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="16" t="inlineStr"/>
@@ -3784,31 +3783,31 @@
       <c r="BD26" s="21" t="inlineStr"/>
       <c r="BE26" s="21" t="inlineStr"/>
       <c r="BF26" s="23" t="inlineStr"/>
-      <c r="BG26" s="25" t="inlineStr"/>
+      <c r="BG26" s="32" t="inlineStr"/>
       <c r="BH26" s="32" t="inlineStr"/>
       <c r="BI26" s="32" t="inlineStr"/>
       <c r="BJ26" s="32" t="inlineStr"/>
       <c r="BK26" s="32" t="inlineStr"/>
-      <c r="BL26" s="26" t="inlineStr"/>
-      <c r="BM26" s="27" t="inlineStr"/>
-      <c r="BN26" s="33" t="inlineStr"/>
-      <c r="BO26" s="34" t="inlineStr"/>
-      <c r="BP26" s="34" t="inlineStr"/>
-      <c r="BQ26" s="34" t="inlineStr"/>
-      <c r="BR26" s="34" t="inlineStr"/>
-      <c r="BS26" s="34" t="inlineStr"/>
-      <c r="BT26" s="34" t="inlineStr"/>
-      <c r="BU26" s="34" t="inlineStr"/>
-      <c r="BV26" s="34" t="inlineStr"/>
-      <c r="BW26" s="34" t="inlineStr"/>
-      <c r="BX26" s="34" t="inlineStr"/>
-      <c r="BY26" s="34" t="inlineStr"/>
-      <c r="BZ26" s="34" t="inlineStr"/>
-      <c r="CA26" s="34" t="inlineStr"/>
-      <c r="CB26" s="34" t="inlineStr"/>
-      <c r="CC26" s="34" t="inlineStr"/>
-      <c r="CD26" s="34" t="inlineStr"/>
-      <c r="CE26" s="34" t="inlineStr"/>
+      <c r="BL26" s="32" t="inlineStr"/>
+      <c r="BM26" s="32" t="inlineStr"/>
+      <c r="BN26" s="32" t="inlineStr"/>
+      <c r="BO26" s="32" t="inlineStr"/>
+      <c r="BP26" s="32" t="inlineStr"/>
+      <c r="BQ26" s="32" t="inlineStr"/>
+      <c r="BR26" s="32" t="inlineStr"/>
+      <c r="BS26" s="32" t="inlineStr"/>
+      <c r="BT26" s="32" t="inlineStr"/>
+      <c r="BU26" s="32" t="inlineStr"/>
+      <c r="BV26" s="32" t="inlineStr"/>
+      <c r="BW26" s="32" t="inlineStr"/>
+      <c r="BX26" s="32" t="inlineStr"/>
+      <c r="BY26" s="25" t="inlineStr"/>
+      <c r="BZ26" s="33" t="inlineStr"/>
+      <c r="CA26" s="33" t="inlineStr"/>
+      <c r="CB26" s="33" t="inlineStr"/>
+      <c r="CC26" s="33" t="inlineStr"/>
+      <c r="CD26" s="26" t="inlineStr"/>
+      <c r="CE26" s="27" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="16" t="inlineStr"/>
@@ -3869,31 +3868,31 @@
       <c r="BD27" s="21" t="inlineStr"/>
       <c r="BE27" s="21" t="inlineStr"/>
       <c r="BF27" s="23" t="inlineStr"/>
-      <c r="BG27" s="25" t="inlineStr"/>
+      <c r="BG27" s="32" t="inlineStr"/>
       <c r="BH27" s="32" t="inlineStr"/>
       <c r="BI27" s="32" t="inlineStr"/>
       <c r="BJ27" s="32" t="inlineStr"/>
       <c r="BK27" s="32" t="inlineStr"/>
-      <c r="BL27" s="26" t="inlineStr"/>
-      <c r="BM27" s="27" t="inlineStr"/>
-      <c r="BN27" s="33" t="inlineStr"/>
-      <c r="BO27" s="34" t="inlineStr"/>
-      <c r="BP27" s="34" t="inlineStr"/>
-      <c r="BQ27" s="34" t="inlineStr"/>
-      <c r="BR27" s="34" t="inlineStr"/>
-      <c r="BS27" s="34" t="inlineStr"/>
-      <c r="BT27" s="34" t="inlineStr"/>
-      <c r="BU27" s="34" t="inlineStr"/>
-      <c r="BV27" s="34" t="inlineStr"/>
-      <c r="BW27" s="34" t="inlineStr"/>
-      <c r="BX27" s="34" t="inlineStr"/>
-      <c r="BY27" s="34" t="inlineStr"/>
-      <c r="BZ27" s="34" t="inlineStr"/>
-      <c r="CA27" s="34" t="inlineStr"/>
-      <c r="CB27" s="34" t="inlineStr"/>
-      <c r="CC27" s="34" t="inlineStr"/>
-      <c r="CD27" s="34" t="inlineStr"/>
-      <c r="CE27" s="34" t="inlineStr"/>
+      <c r="BL27" s="32" t="inlineStr"/>
+      <c r="BM27" s="32" t="inlineStr"/>
+      <c r="BN27" s="32" t="inlineStr"/>
+      <c r="BO27" s="32" t="inlineStr"/>
+      <c r="BP27" s="32" t="inlineStr"/>
+      <c r="BQ27" s="32" t="inlineStr"/>
+      <c r="BR27" s="32" t="inlineStr"/>
+      <c r="BS27" s="32" t="inlineStr"/>
+      <c r="BT27" s="32" t="inlineStr"/>
+      <c r="BU27" s="32" t="inlineStr"/>
+      <c r="BV27" s="32" t="inlineStr"/>
+      <c r="BW27" s="32" t="inlineStr"/>
+      <c r="BX27" s="32" t="inlineStr"/>
+      <c r="BY27" s="25" t="inlineStr"/>
+      <c r="BZ27" s="33" t="inlineStr"/>
+      <c r="CA27" s="33" t="inlineStr"/>
+      <c r="CB27" s="33" t="inlineStr"/>
+      <c r="CC27" s="33" t="inlineStr"/>
+      <c r="CD27" s="26" t="inlineStr"/>
+      <c r="CE27" s="27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="16" t="inlineStr"/>
@@ -3954,31 +3953,31 @@
       <c r="BD28" s="21" t="inlineStr"/>
       <c r="BE28" s="21" t="inlineStr"/>
       <c r="BF28" s="23" t="inlineStr"/>
-      <c r="BG28" s="25" t="inlineStr"/>
+      <c r="BG28" s="32" t="inlineStr"/>
       <c r="BH28" s="32" t="inlineStr"/>
       <c r="BI28" s="32" t="inlineStr"/>
       <c r="BJ28" s="32" t="inlineStr"/>
       <c r="BK28" s="32" t="inlineStr"/>
-      <c r="BL28" s="26" t="inlineStr"/>
-      <c r="BM28" s="27" t="inlineStr"/>
-      <c r="BN28" s="33" t="inlineStr"/>
-      <c r="BO28" s="34" t="inlineStr"/>
-      <c r="BP28" s="34" t="inlineStr"/>
-      <c r="BQ28" s="34" t="inlineStr"/>
-      <c r="BR28" s="34" t="inlineStr"/>
-      <c r="BS28" s="34" t="inlineStr"/>
-      <c r="BT28" s="34" t="inlineStr"/>
-      <c r="BU28" s="34" t="inlineStr"/>
-      <c r="BV28" s="34" t="inlineStr"/>
-      <c r="BW28" s="34" t="inlineStr"/>
-      <c r="BX28" s="34" t="inlineStr"/>
-      <c r="BY28" s="34" t="inlineStr"/>
-      <c r="BZ28" s="34" t="inlineStr"/>
-      <c r="CA28" s="34" t="inlineStr"/>
-      <c r="CB28" s="34" t="inlineStr"/>
-      <c r="CC28" s="34" t="inlineStr"/>
-      <c r="CD28" s="34" t="inlineStr"/>
-      <c r="CE28" s="34" t="inlineStr"/>
+      <c r="BL28" s="32" t="inlineStr"/>
+      <c r="BM28" s="32" t="inlineStr"/>
+      <c r="BN28" s="32" t="inlineStr"/>
+      <c r="BO28" s="32" t="inlineStr"/>
+      <c r="BP28" s="32" t="inlineStr"/>
+      <c r="BQ28" s="32" t="inlineStr"/>
+      <c r="BR28" s="32" t="inlineStr"/>
+      <c r="BS28" s="32" t="inlineStr"/>
+      <c r="BT28" s="32" t="inlineStr"/>
+      <c r="BU28" s="32" t="inlineStr"/>
+      <c r="BV28" s="32" t="inlineStr"/>
+      <c r="BW28" s="32" t="inlineStr"/>
+      <c r="BX28" s="32" t="inlineStr"/>
+      <c r="BY28" s="25" t="inlineStr"/>
+      <c r="BZ28" s="33" t="inlineStr"/>
+      <c r="CA28" s="33" t="inlineStr"/>
+      <c r="CB28" s="33" t="inlineStr"/>
+      <c r="CC28" s="33" t="inlineStr"/>
+      <c r="CD28" s="26" t="inlineStr"/>
+      <c r="CE28" s="27" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="16" t="inlineStr"/>
@@ -4039,31 +4038,31 @@
       <c r="BD29" s="21" t="inlineStr"/>
       <c r="BE29" s="21" t="inlineStr"/>
       <c r="BF29" s="23" t="inlineStr"/>
-      <c r="BG29" s="25" t="inlineStr"/>
+      <c r="BG29" s="32" t="inlineStr"/>
       <c r="BH29" s="32" t="inlineStr"/>
       <c r="BI29" s="32" t="inlineStr"/>
       <c r="BJ29" s="32" t="inlineStr"/>
       <c r="BK29" s="32" t="inlineStr"/>
-      <c r="BL29" s="26" t="inlineStr"/>
-      <c r="BM29" s="27" t="inlineStr"/>
-      <c r="BN29" s="33" t="inlineStr"/>
-      <c r="BO29" s="34" t="inlineStr"/>
-      <c r="BP29" s="34" t="inlineStr"/>
-      <c r="BQ29" s="34" t="inlineStr"/>
-      <c r="BR29" s="34" t="inlineStr"/>
-      <c r="BS29" s="34" t="inlineStr"/>
-      <c r="BT29" s="34" t="inlineStr"/>
-      <c r="BU29" s="34" t="inlineStr"/>
-      <c r="BV29" s="34" t="inlineStr"/>
-      <c r="BW29" s="34" t="inlineStr"/>
-      <c r="BX29" s="34" t="inlineStr"/>
-      <c r="BY29" s="34" t="inlineStr"/>
-      <c r="BZ29" s="34" t="inlineStr"/>
-      <c r="CA29" s="34" t="inlineStr"/>
-      <c r="CB29" s="34" t="inlineStr"/>
-      <c r="CC29" s="34" t="inlineStr"/>
-      <c r="CD29" s="34" t="inlineStr"/>
-      <c r="CE29" s="34" t="inlineStr"/>
+      <c r="BL29" s="32" t="inlineStr"/>
+      <c r="BM29" s="32" t="inlineStr"/>
+      <c r="BN29" s="32" t="inlineStr"/>
+      <c r="BO29" s="32" t="inlineStr"/>
+      <c r="BP29" s="32" t="inlineStr"/>
+      <c r="BQ29" s="32" t="inlineStr"/>
+      <c r="BR29" s="32" t="inlineStr"/>
+      <c r="BS29" s="32" t="inlineStr"/>
+      <c r="BT29" s="32" t="inlineStr"/>
+      <c r="BU29" s="32" t="inlineStr"/>
+      <c r="BV29" s="32" t="inlineStr"/>
+      <c r="BW29" s="32" t="inlineStr"/>
+      <c r="BX29" s="32" t="inlineStr"/>
+      <c r="BY29" s="25" t="inlineStr"/>
+      <c r="BZ29" s="33" t="inlineStr"/>
+      <c r="CA29" s="33" t="inlineStr"/>
+      <c r="CB29" s="33" t="inlineStr"/>
+      <c r="CC29" s="33" t="inlineStr"/>
+      <c r="CD29" s="26" t="inlineStr"/>
+      <c r="CE29" s="27" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="16" t="inlineStr"/>
@@ -4124,31 +4123,31 @@
       <c r="BD30" s="21" t="inlineStr"/>
       <c r="BE30" s="21" t="inlineStr"/>
       <c r="BF30" s="23" t="inlineStr"/>
-      <c r="BG30" s="25" t="inlineStr"/>
+      <c r="BG30" s="32" t="inlineStr"/>
       <c r="BH30" s="32" t="inlineStr"/>
       <c r="BI30" s="32" t="inlineStr"/>
       <c r="BJ30" s="32" t="inlineStr"/>
       <c r="BK30" s="32" t="inlineStr"/>
-      <c r="BL30" s="26" t="inlineStr"/>
-      <c r="BM30" s="27" t="inlineStr"/>
-      <c r="BN30" s="33" t="inlineStr"/>
-      <c r="BO30" s="34" t="inlineStr"/>
-      <c r="BP30" s="34" t="inlineStr"/>
-      <c r="BQ30" s="34" t="inlineStr"/>
-      <c r="BR30" s="34" t="inlineStr"/>
-      <c r="BS30" s="34" t="inlineStr"/>
-      <c r="BT30" s="34" t="inlineStr"/>
-      <c r="BU30" s="34" t="inlineStr"/>
-      <c r="BV30" s="34" t="inlineStr"/>
-      <c r="BW30" s="34" t="inlineStr"/>
-      <c r="BX30" s="34" t="inlineStr"/>
-      <c r="BY30" s="34" t="inlineStr"/>
-      <c r="BZ30" s="34" t="inlineStr"/>
-      <c r="CA30" s="34" t="inlineStr"/>
-      <c r="CB30" s="34" t="inlineStr"/>
-      <c r="CC30" s="34" t="inlineStr"/>
-      <c r="CD30" s="34" t="inlineStr"/>
-      <c r="CE30" s="34" t="inlineStr"/>
+      <c r="BL30" s="32" t="inlineStr"/>
+      <c r="BM30" s="32" t="inlineStr"/>
+      <c r="BN30" s="32" t="inlineStr"/>
+      <c r="BO30" s="32" t="inlineStr"/>
+      <c r="BP30" s="32" t="inlineStr"/>
+      <c r="BQ30" s="32" t="inlineStr"/>
+      <c r="BR30" s="32" t="inlineStr"/>
+      <c r="BS30" s="32" t="inlineStr"/>
+      <c r="BT30" s="32" t="inlineStr"/>
+      <c r="BU30" s="32" t="inlineStr"/>
+      <c r="BV30" s="32" t="inlineStr"/>
+      <c r="BW30" s="32" t="inlineStr"/>
+      <c r="BX30" s="32" t="inlineStr"/>
+      <c r="BY30" s="25" t="inlineStr"/>
+      <c r="BZ30" s="33" t="inlineStr"/>
+      <c r="CA30" s="33" t="inlineStr"/>
+      <c r="CB30" s="33" t="inlineStr"/>
+      <c r="CC30" s="33" t="inlineStr"/>
+      <c r="CD30" s="26" t="inlineStr"/>
+      <c r="CE30" s="27" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="inlineStr"/>
@@ -4209,31 +4208,31 @@
       <c r="BD31" s="21" t="inlineStr"/>
       <c r="BE31" s="21" t="inlineStr"/>
       <c r="BF31" s="23" t="inlineStr"/>
-      <c r="BG31" s="25" t="inlineStr"/>
+      <c r="BG31" s="32" t="inlineStr"/>
       <c r="BH31" s="32" t="inlineStr"/>
       <c r="BI31" s="32" t="inlineStr"/>
       <c r="BJ31" s="32" t="inlineStr"/>
       <c r="BK31" s="32" t="inlineStr"/>
-      <c r="BL31" s="26" t="inlineStr"/>
-      <c r="BM31" s="27" t="inlineStr"/>
-      <c r="BN31" s="33" t="inlineStr"/>
-      <c r="BO31" s="34" t="inlineStr"/>
-      <c r="BP31" s="34" t="inlineStr"/>
-      <c r="BQ31" s="34" t="inlineStr"/>
-      <c r="BR31" s="34" t="inlineStr"/>
-      <c r="BS31" s="34" t="inlineStr"/>
-      <c r="BT31" s="34" t="inlineStr"/>
-      <c r="BU31" s="34" t="inlineStr"/>
-      <c r="BV31" s="34" t="inlineStr"/>
-      <c r="BW31" s="34" t="inlineStr"/>
-      <c r="BX31" s="34" t="inlineStr"/>
-      <c r="BY31" s="34" t="inlineStr"/>
-      <c r="BZ31" s="34" t="inlineStr"/>
-      <c r="CA31" s="34" t="inlineStr"/>
-      <c r="CB31" s="34" t="inlineStr"/>
-      <c r="CC31" s="34" t="inlineStr"/>
-      <c r="CD31" s="34" t="inlineStr"/>
-      <c r="CE31" s="34" t="inlineStr"/>
+      <c r="BL31" s="32" t="inlineStr"/>
+      <c r="BM31" s="32" t="inlineStr"/>
+      <c r="BN31" s="32" t="inlineStr"/>
+      <c r="BO31" s="32" t="inlineStr"/>
+      <c r="BP31" s="32" t="inlineStr"/>
+      <c r="BQ31" s="32" t="inlineStr"/>
+      <c r="BR31" s="32" t="inlineStr"/>
+      <c r="BS31" s="32" t="inlineStr"/>
+      <c r="BT31" s="32" t="inlineStr"/>
+      <c r="BU31" s="32" t="inlineStr"/>
+      <c r="BV31" s="32" t="inlineStr"/>
+      <c r="BW31" s="32" t="inlineStr"/>
+      <c r="BX31" s="32" t="inlineStr"/>
+      <c r="BY31" s="25" t="inlineStr"/>
+      <c r="BZ31" s="33" t="inlineStr"/>
+      <c r="CA31" s="33" t="inlineStr"/>
+      <c r="CB31" s="33" t="inlineStr"/>
+      <c r="CC31" s="33" t="inlineStr"/>
+      <c r="CD31" s="26" t="inlineStr"/>
+      <c r="CE31" s="27" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="16" t="inlineStr"/>
@@ -4294,31 +4293,31 @@
       <c r="BD32" s="21" t="inlineStr"/>
       <c r="BE32" s="21" t="inlineStr"/>
       <c r="BF32" s="23" t="inlineStr"/>
-      <c r="BG32" s="25" t="inlineStr"/>
+      <c r="BG32" s="32" t="inlineStr"/>
       <c r="BH32" s="32" t="inlineStr"/>
       <c r="BI32" s="32" t="inlineStr"/>
       <c r="BJ32" s="32" t="inlineStr"/>
       <c r="BK32" s="32" t="inlineStr"/>
-      <c r="BL32" s="26" t="inlineStr"/>
-      <c r="BM32" s="27" t="inlineStr"/>
-      <c r="BN32" s="33" t="inlineStr"/>
-      <c r="BO32" s="34" t="inlineStr"/>
-      <c r="BP32" s="34" t="inlineStr"/>
-      <c r="BQ32" s="34" t="inlineStr"/>
-      <c r="BR32" s="34" t="inlineStr"/>
-      <c r="BS32" s="34" t="inlineStr"/>
-      <c r="BT32" s="34" t="inlineStr"/>
-      <c r="BU32" s="34" t="inlineStr"/>
-      <c r="BV32" s="34" t="inlineStr"/>
-      <c r="BW32" s="34" t="inlineStr"/>
-      <c r="BX32" s="34" t="inlineStr"/>
-      <c r="BY32" s="34" t="inlineStr"/>
-      <c r="BZ32" s="34" t="inlineStr"/>
-      <c r="CA32" s="34" t="inlineStr"/>
-      <c r="CB32" s="34" t="inlineStr"/>
-      <c r="CC32" s="34" t="inlineStr"/>
-      <c r="CD32" s="34" t="inlineStr"/>
-      <c r="CE32" s="34" t="inlineStr"/>
+      <c r="BL32" s="32" t="inlineStr"/>
+      <c r="BM32" s="32" t="inlineStr"/>
+      <c r="BN32" s="32" t="inlineStr"/>
+      <c r="BO32" s="32" t="inlineStr"/>
+      <c r="BP32" s="32" t="inlineStr"/>
+      <c r="BQ32" s="32" t="inlineStr"/>
+      <c r="BR32" s="32" t="inlineStr"/>
+      <c r="BS32" s="32" t="inlineStr"/>
+      <c r="BT32" s="32" t="inlineStr"/>
+      <c r="BU32" s="32" t="inlineStr"/>
+      <c r="BV32" s="32" t="inlineStr"/>
+      <c r="BW32" s="32" t="inlineStr"/>
+      <c r="BX32" s="32" t="inlineStr"/>
+      <c r="BY32" s="25" t="inlineStr"/>
+      <c r="BZ32" s="33" t="inlineStr"/>
+      <c r="CA32" s="33" t="inlineStr"/>
+      <c r="CB32" s="33" t="inlineStr"/>
+      <c r="CC32" s="33" t="inlineStr"/>
+      <c r="CD32" s="26" t="inlineStr"/>
+      <c r="CE32" s="27" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="16" t="inlineStr"/>
@@ -4379,31 +4378,31 @@
       <c r="BD33" s="21" t="inlineStr"/>
       <c r="BE33" s="21" t="inlineStr"/>
       <c r="BF33" s="23" t="inlineStr"/>
-      <c r="BG33" s="25" t="inlineStr"/>
+      <c r="BG33" s="32" t="inlineStr"/>
       <c r="BH33" s="32" t="inlineStr"/>
       <c r="BI33" s="32" t="inlineStr"/>
       <c r="BJ33" s="32" t="inlineStr"/>
       <c r="BK33" s="32" t="inlineStr"/>
-      <c r="BL33" s="26" t="inlineStr"/>
-      <c r="BM33" s="27" t="inlineStr"/>
-      <c r="BN33" s="33" t="inlineStr"/>
-      <c r="BO33" s="34" t="inlineStr"/>
-      <c r="BP33" s="34" t="inlineStr"/>
-      <c r="BQ33" s="34" t="inlineStr"/>
-      <c r="BR33" s="34" t="inlineStr"/>
-      <c r="BS33" s="34" t="inlineStr"/>
-      <c r="BT33" s="34" t="inlineStr"/>
-      <c r="BU33" s="34" t="inlineStr"/>
-      <c r="BV33" s="34" t="inlineStr"/>
-      <c r="BW33" s="34" t="inlineStr"/>
-      <c r="BX33" s="34" t="inlineStr"/>
-      <c r="BY33" s="34" t="inlineStr"/>
-      <c r="BZ33" s="34" t="inlineStr"/>
-      <c r="CA33" s="34" t="inlineStr"/>
-      <c r="CB33" s="34" t="inlineStr"/>
-      <c r="CC33" s="34" t="inlineStr"/>
-      <c r="CD33" s="34" t="inlineStr"/>
-      <c r="CE33" s="34" t="inlineStr"/>
+      <c r="BL33" s="32" t="inlineStr"/>
+      <c r="BM33" s="32" t="inlineStr"/>
+      <c r="BN33" s="32" t="inlineStr"/>
+      <c r="BO33" s="32" t="inlineStr"/>
+      <c r="BP33" s="32" t="inlineStr"/>
+      <c r="BQ33" s="32" t="inlineStr"/>
+      <c r="BR33" s="32" t="inlineStr"/>
+      <c r="BS33" s="32" t="inlineStr"/>
+      <c r="BT33" s="32" t="inlineStr"/>
+      <c r="BU33" s="32" t="inlineStr"/>
+      <c r="BV33" s="32" t="inlineStr"/>
+      <c r="BW33" s="32" t="inlineStr"/>
+      <c r="BX33" s="32" t="inlineStr"/>
+      <c r="BY33" s="25" t="inlineStr"/>
+      <c r="BZ33" s="33" t="inlineStr"/>
+      <c r="CA33" s="33" t="inlineStr"/>
+      <c r="CB33" s="33" t="inlineStr"/>
+      <c r="CC33" s="33" t="inlineStr"/>
+      <c r="CD33" s="26" t="inlineStr"/>
+      <c r="CE33" s="27" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="16" t="inlineStr"/>
@@ -4464,31 +4463,31 @@
       <c r="BD34" s="21" t="inlineStr"/>
       <c r="BE34" s="21" t="inlineStr"/>
       <c r="BF34" s="23" t="inlineStr"/>
-      <c r="BG34" s="25" t="inlineStr"/>
+      <c r="BG34" s="32" t="inlineStr"/>
       <c r="BH34" s="32" t="inlineStr"/>
       <c r="BI34" s="32" t="inlineStr"/>
       <c r="BJ34" s="32" t="inlineStr"/>
       <c r="BK34" s="32" t="inlineStr"/>
-      <c r="BL34" s="26" t="inlineStr"/>
-      <c r="BM34" s="27" t="inlineStr"/>
-      <c r="BN34" s="33" t="inlineStr"/>
-      <c r="BO34" s="34" t="inlineStr"/>
-      <c r="BP34" s="34" t="inlineStr"/>
-      <c r="BQ34" s="34" t="inlineStr"/>
-      <c r="BR34" s="34" t="inlineStr"/>
-      <c r="BS34" s="34" t="inlineStr"/>
-      <c r="BT34" s="34" t="inlineStr"/>
-      <c r="BU34" s="34" t="inlineStr"/>
-      <c r="BV34" s="34" t="inlineStr"/>
-      <c r="BW34" s="34" t="inlineStr"/>
-      <c r="BX34" s="34" t="inlineStr"/>
-      <c r="BY34" s="34" t="inlineStr"/>
-      <c r="BZ34" s="34" t="inlineStr"/>
-      <c r="CA34" s="34" t="inlineStr"/>
-      <c r="CB34" s="34" t="inlineStr"/>
-      <c r="CC34" s="34" t="inlineStr"/>
-      <c r="CD34" s="34" t="inlineStr"/>
-      <c r="CE34" s="34" t="inlineStr"/>
+      <c r="BL34" s="32" t="inlineStr"/>
+      <c r="BM34" s="32" t="inlineStr"/>
+      <c r="BN34" s="32" t="inlineStr"/>
+      <c r="BO34" s="32" t="inlineStr"/>
+      <c r="BP34" s="32" t="inlineStr"/>
+      <c r="BQ34" s="32" t="inlineStr"/>
+      <c r="BR34" s="32" t="inlineStr"/>
+      <c r="BS34" s="32" t="inlineStr"/>
+      <c r="BT34" s="32" t="inlineStr"/>
+      <c r="BU34" s="32" t="inlineStr"/>
+      <c r="BV34" s="32" t="inlineStr"/>
+      <c r="BW34" s="32" t="inlineStr"/>
+      <c r="BX34" s="32" t="inlineStr"/>
+      <c r="BY34" s="25" t="inlineStr"/>
+      <c r="BZ34" s="33" t="inlineStr"/>
+      <c r="CA34" s="33" t="inlineStr"/>
+      <c r="CB34" s="33" t="inlineStr"/>
+      <c r="CC34" s="33" t="inlineStr"/>
+      <c r="CD34" s="26" t="inlineStr"/>
+      <c r="CE34" s="27" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="16" t="inlineStr"/>
@@ -4549,31 +4548,31 @@
       <c r="BD35" s="21" t="inlineStr"/>
       <c r="BE35" s="21" t="inlineStr"/>
       <c r="BF35" s="23" t="inlineStr"/>
-      <c r="BG35" s="25" t="inlineStr"/>
+      <c r="BG35" s="32" t="inlineStr"/>
       <c r="BH35" s="32" t="inlineStr"/>
       <c r="BI35" s="32" t="inlineStr"/>
       <c r="BJ35" s="32" t="inlineStr"/>
       <c r="BK35" s="32" t="inlineStr"/>
-      <c r="BL35" s="26" t="inlineStr"/>
-      <c r="BM35" s="27" t="inlineStr"/>
-      <c r="BN35" s="33" t="inlineStr"/>
-      <c r="BO35" s="34" t="inlineStr"/>
-      <c r="BP35" s="34" t="inlineStr"/>
-      <c r="BQ35" s="34" t="inlineStr"/>
-      <c r="BR35" s="34" t="inlineStr"/>
-      <c r="BS35" s="34" t="inlineStr"/>
-      <c r="BT35" s="34" t="inlineStr"/>
-      <c r="BU35" s="34" t="inlineStr"/>
-      <c r="BV35" s="34" t="inlineStr"/>
-      <c r="BW35" s="34" t="inlineStr"/>
-      <c r="BX35" s="34" t="inlineStr"/>
-      <c r="BY35" s="34" t="inlineStr"/>
-      <c r="BZ35" s="34" t="inlineStr"/>
-      <c r="CA35" s="34" t="inlineStr"/>
-      <c r="CB35" s="34" t="inlineStr"/>
-      <c r="CC35" s="34" t="inlineStr"/>
-      <c r="CD35" s="34" t="inlineStr"/>
-      <c r="CE35" s="34" t="inlineStr"/>
+      <c r="BL35" s="32" t="inlineStr"/>
+      <c r="BM35" s="32" t="inlineStr"/>
+      <c r="BN35" s="32" t="inlineStr"/>
+      <c r="BO35" s="32" t="inlineStr"/>
+      <c r="BP35" s="32" t="inlineStr"/>
+      <c r="BQ35" s="32" t="inlineStr"/>
+      <c r="BR35" s="32" t="inlineStr"/>
+      <c r="BS35" s="32" t="inlineStr"/>
+      <c r="BT35" s="32" t="inlineStr"/>
+      <c r="BU35" s="32" t="inlineStr"/>
+      <c r="BV35" s="32" t="inlineStr"/>
+      <c r="BW35" s="32" t="inlineStr"/>
+      <c r="BX35" s="32" t="inlineStr"/>
+      <c r="BY35" s="25" t="inlineStr"/>
+      <c r="BZ35" s="33" t="inlineStr"/>
+      <c r="CA35" s="33" t="inlineStr"/>
+      <c r="CB35" s="33" t="inlineStr"/>
+      <c r="CC35" s="33" t="inlineStr"/>
+      <c r="CD35" s="26" t="inlineStr"/>
+      <c r="CE35" s="27" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="16" t="inlineStr"/>
@@ -4634,31 +4633,31 @@
       <c r="BD36" s="21" t="inlineStr"/>
       <c r="BE36" s="21" t="inlineStr"/>
       <c r="BF36" s="23" t="inlineStr"/>
-      <c r="BG36" s="25" t="inlineStr"/>
+      <c r="BG36" s="32" t="inlineStr"/>
       <c r="BH36" s="32" t="inlineStr"/>
       <c r="BI36" s="32" t="inlineStr"/>
       <c r="BJ36" s="32" t="inlineStr"/>
       <c r="BK36" s="32" t="inlineStr"/>
-      <c r="BL36" s="26" t="inlineStr"/>
-      <c r="BM36" s="27" t="inlineStr"/>
-      <c r="BN36" s="33" t="inlineStr"/>
-      <c r="BO36" s="34" t="inlineStr"/>
-      <c r="BP36" s="34" t="inlineStr"/>
-      <c r="BQ36" s="34" t="inlineStr"/>
-      <c r="BR36" s="34" t="inlineStr"/>
-      <c r="BS36" s="34" t="inlineStr"/>
-      <c r="BT36" s="34" t="inlineStr"/>
-      <c r="BU36" s="34" t="inlineStr"/>
-      <c r="BV36" s="34" t="inlineStr"/>
-      <c r="BW36" s="34" t="inlineStr"/>
-      <c r="BX36" s="34" t="inlineStr"/>
-      <c r="BY36" s="34" t="inlineStr"/>
-      <c r="BZ36" s="34" t="inlineStr"/>
-      <c r="CA36" s="34" t="inlineStr"/>
-      <c r="CB36" s="34" t="inlineStr"/>
-      <c r="CC36" s="34" t="inlineStr"/>
-      <c r="CD36" s="34" t="inlineStr"/>
-      <c r="CE36" s="34" t="inlineStr"/>
+      <c r="BL36" s="32" t="inlineStr"/>
+      <c r="BM36" s="32" t="inlineStr"/>
+      <c r="BN36" s="32" t="inlineStr"/>
+      <c r="BO36" s="32" t="inlineStr"/>
+      <c r="BP36" s="32" t="inlineStr"/>
+      <c r="BQ36" s="32" t="inlineStr"/>
+      <c r="BR36" s="32" t="inlineStr"/>
+      <c r="BS36" s="32" t="inlineStr"/>
+      <c r="BT36" s="32" t="inlineStr"/>
+      <c r="BU36" s="32" t="inlineStr"/>
+      <c r="BV36" s="32" t="inlineStr"/>
+      <c r="BW36" s="32" t="inlineStr"/>
+      <c r="BX36" s="32" t="inlineStr"/>
+      <c r="BY36" s="25" t="inlineStr"/>
+      <c r="BZ36" s="33" t="inlineStr"/>
+      <c r="CA36" s="33" t="inlineStr"/>
+      <c r="CB36" s="33" t="inlineStr"/>
+      <c r="CC36" s="33" t="inlineStr"/>
+      <c r="CD36" s="26" t="inlineStr"/>
+      <c r="CE36" s="27" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="16" t="inlineStr"/>
@@ -4719,31 +4718,31 @@
       <c r="BD37" s="21" t="inlineStr"/>
       <c r="BE37" s="21" t="inlineStr"/>
       <c r="BF37" s="23" t="inlineStr"/>
-      <c r="BG37" s="25" t="inlineStr"/>
+      <c r="BG37" s="32" t="inlineStr"/>
       <c r="BH37" s="32" t="inlineStr"/>
       <c r="BI37" s="32" t="inlineStr"/>
       <c r="BJ37" s="32" t="inlineStr"/>
       <c r="BK37" s="32" t="inlineStr"/>
-      <c r="BL37" s="26" t="inlineStr"/>
-      <c r="BM37" s="27" t="inlineStr"/>
-      <c r="BN37" s="33" t="inlineStr"/>
-      <c r="BO37" s="34" t="inlineStr"/>
-      <c r="BP37" s="34" t="inlineStr"/>
-      <c r="BQ37" s="34" t="inlineStr"/>
-      <c r="BR37" s="34" t="inlineStr"/>
-      <c r="BS37" s="34" t="inlineStr"/>
-      <c r="BT37" s="34" t="inlineStr"/>
-      <c r="BU37" s="34" t="inlineStr"/>
-      <c r="BV37" s="34" t="inlineStr"/>
-      <c r="BW37" s="34" t="inlineStr"/>
-      <c r="BX37" s="34" t="inlineStr"/>
-      <c r="BY37" s="34" t="inlineStr"/>
-      <c r="BZ37" s="34" t="inlineStr"/>
-      <c r="CA37" s="34" t="inlineStr"/>
-      <c r="CB37" s="34" t="inlineStr"/>
-      <c r="CC37" s="34" t="inlineStr"/>
-      <c r="CD37" s="34" t="inlineStr"/>
-      <c r="CE37" s="34" t="inlineStr"/>
+      <c r="BL37" s="32" t="inlineStr"/>
+      <c r="BM37" s="32" t="inlineStr"/>
+      <c r="BN37" s="32" t="inlineStr"/>
+      <c r="BO37" s="32" t="inlineStr"/>
+      <c r="BP37" s="32" t="inlineStr"/>
+      <c r="BQ37" s="32" t="inlineStr"/>
+      <c r="BR37" s="32" t="inlineStr"/>
+      <c r="BS37" s="32" t="inlineStr"/>
+      <c r="BT37" s="32" t="inlineStr"/>
+      <c r="BU37" s="32" t="inlineStr"/>
+      <c r="BV37" s="32" t="inlineStr"/>
+      <c r="BW37" s="32" t="inlineStr"/>
+      <c r="BX37" s="32" t="inlineStr"/>
+      <c r="BY37" s="25" t="inlineStr"/>
+      <c r="BZ37" s="33" t="inlineStr"/>
+      <c r="CA37" s="33" t="inlineStr"/>
+      <c r="CB37" s="33" t="inlineStr"/>
+      <c r="CC37" s="33" t="inlineStr"/>
+      <c r="CD37" s="26" t="inlineStr"/>
+      <c r="CE37" s="27" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="16" t="inlineStr"/>
@@ -4804,31 +4803,31 @@
       <c r="BD38" s="21" t="inlineStr"/>
       <c r="BE38" s="21" t="inlineStr"/>
       <c r="BF38" s="23" t="inlineStr"/>
-      <c r="BG38" s="25" t="inlineStr"/>
+      <c r="BG38" s="32" t="inlineStr"/>
       <c r="BH38" s="32" t="inlineStr"/>
       <c r="BI38" s="32" t="inlineStr"/>
       <c r="BJ38" s="32" t="inlineStr"/>
       <c r="BK38" s="32" t="inlineStr"/>
-      <c r="BL38" s="26" t="inlineStr"/>
-      <c r="BM38" s="27" t="inlineStr"/>
-      <c r="BN38" s="33" t="inlineStr"/>
-      <c r="BO38" s="34" t="inlineStr"/>
-      <c r="BP38" s="34" t="inlineStr"/>
-      <c r="BQ38" s="34" t="inlineStr"/>
-      <c r="BR38" s="34" t="inlineStr"/>
-      <c r="BS38" s="34" t="inlineStr"/>
-      <c r="BT38" s="34" t="inlineStr"/>
-      <c r="BU38" s="34" t="inlineStr"/>
-      <c r="BV38" s="34" t="inlineStr"/>
-      <c r="BW38" s="34" t="inlineStr"/>
-      <c r="BX38" s="34" t="inlineStr"/>
-      <c r="BY38" s="34" t="inlineStr"/>
-      <c r="BZ38" s="34" t="inlineStr"/>
-      <c r="CA38" s="34" t="inlineStr"/>
-      <c r="CB38" s="34" t="inlineStr"/>
-      <c r="CC38" s="34" t="inlineStr"/>
-      <c r="CD38" s="34" t="inlineStr"/>
-      <c r="CE38" s="34" t="inlineStr"/>
+      <c r="BL38" s="32" t="inlineStr"/>
+      <c r="BM38" s="32" t="inlineStr"/>
+      <c r="BN38" s="32" t="inlineStr"/>
+      <c r="BO38" s="32" t="inlineStr"/>
+      <c r="BP38" s="32" t="inlineStr"/>
+      <c r="BQ38" s="32" t="inlineStr"/>
+      <c r="BR38" s="32" t="inlineStr"/>
+      <c r="BS38" s="32" t="inlineStr"/>
+      <c r="BT38" s="32" t="inlineStr"/>
+      <c r="BU38" s="32" t="inlineStr"/>
+      <c r="BV38" s="32" t="inlineStr"/>
+      <c r="BW38" s="32" t="inlineStr"/>
+      <c r="BX38" s="32" t="inlineStr"/>
+      <c r="BY38" s="25" t="inlineStr"/>
+      <c r="BZ38" s="33" t="inlineStr"/>
+      <c r="CA38" s="33" t="inlineStr"/>
+      <c r="CB38" s="33" t="inlineStr"/>
+      <c r="CC38" s="33" t="inlineStr"/>
+      <c r="CD38" s="26" t="inlineStr"/>
+      <c r="CE38" s="27" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="16" t="inlineStr"/>
@@ -4889,31 +4888,31 @@
       <c r="BD39" s="21" t="inlineStr"/>
       <c r="BE39" s="21" t="inlineStr"/>
       <c r="BF39" s="23" t="inlineStr"/>
-      <c r="BG39" s="25" t="inlineStr"/>
+      <c r="BG39" s="32" t="inlineStr"/>
       <c r="BH39" s="32" t="inlineStr"/>
       <c r="BI39" s="32" t="inlineStr"/>
       <c r="BJ39" s="32" t="inlineStr"/>
       <c r="BK39" s="32" t="inlineStr"/>
-      <c r="BL39" s="26" t="inlineStr"/>
-      <c r="BM39" s="27" t="inlineStr"/>
-      <c r="BN39" s="33" t="inlineStr"/>
-      <c r="BO39" s="34" t="inlineStr"/>
-      <c r="BP39" s="34" t="inlineStr"/>
-      <c r="BQ39" s="34" t="inlineStr"/>
-      <c r="BR39" s="34" t="inlineStr"/>
-      <c r="BS39" s="34" t="inlineStr"/>
-      <c r="BT39" s="34" t="inlineStr"/>
-      <c r="BU39" s="34" t="inlineStr"/>
-      <c r="BV39" s="34" t="inlineStr"/>
-      <c r="BW39" s="34" t="inlineStr"/>
-      <c r="BX39" s="34" t="inlineStr"/>
-      <c r="BY39" s="34" t="inlineStr"/>
-      <c r="BZ39" s="34" t="inlineStr"/>
-      <c r="CA39" s="34" t="inlineStr"/>
-      <c r="CB39" s="34" t="inlineStr"/>
-      <c r="CC39" s="34" t="inlineStr"/>
-      <c r="CD39" s="34" t="inlineStr"/>
-      <c r="CE39" s="34" t="inlineStr"/>
+      <c r="BL39" s="32" t="inlineStr"/>
+      <c r="BM39" s="32" t="inlineStr"/>
+      <c r="BN39" s="32" t="inlineStr"/>
+      <c r="BO39" s="32" t="inlineStr"/>
+      <c r="BP39" s="32" t="inlineStr"/>
+      <c r="BQ39" s="32" t="inlineStr"/>
+      <c r="BR39" s="32" t="inlineStr"/>
+      <c r="BS39" s="32" t="inlineStr"/>
+      <c r="BT39" s="32" t="inlineStr"/>
+      <c r="BU39" s="32" t="inlineStr"/>
+      <c r="BV39" s="32" t="inlineStr"/>
+      <c r="BW39" s="32" t="inlineStr"/>
+      <c r="BX39" s="32" t="inlineStr"/>
+      <c r="BY39" s="25" t="inlineStr"/>
+      <c r="BZ39" s="33" t="inlineStr"/>
+      <c r="CA39" s="33" t="inlineStr"/>
+      <c r="CB39" s="33" t="inlineStr"/>
+      <c r="CC39" s="33" t="inlineStr"/>
+      <c r="CD39" s="26" t="inlineStr"/>
+      <c r="CE39" s="27" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="16" t="inlineStr"/>
@@ -4974,31 +4973,31 @@
       <c r="BD40" s="21" t="inlineStr"/>
       <c r="BE40" s="21" t="inlineStr"/>
       <c r="BF40" s="23" t="inlineStr"/>
-      <c r="BG40" s="25" t="inlineStr"/>
+      <c r="BG40" s="32" t="inlineStr"/>
       <c r="BH40" s="32" t="inlineStr"/>
       <c r="BI40" s="32" t="inlineStr"/>
       <c r="BJ40" s="32" t="inlineStr"/>
       <c r="BK40" s="32" t="inlineStr"/>
-      <c r="BL40" s="26" t="inlineStr"/>
-      <c r="BM40" s="27" t="inlineStr"/>
-      <c r="BN40" s="33" t="inlineStr"/>
-      <c r="BO40" s="34" t="inlineStr"/>
-      <c r="BP40" s="34" t="inlineStr"/>
-      <c r="BQ40" s="34" t="inlineStr"/>
-      <c r="BR40" s="34" t="inlineStr"/>
-      <c r="BS40" s="34" t="inlineStr"/>
-      <c r="BT40" s="34" t="inlineStr"/>
-      <c r="BU40" s="34" t="inlineStr"/>
-      <c r="BV40" s="34" t="inlineStr"/>
-      <c r="BW40" s="34" t="inlineStr"/>
-      <c r="BX40" s="34" t="inlineStr"/>
-      <c r="BY40" s="34" t="inlineStr"/>
-      <c r="BZ40" s="34" t="inlineStr"/>
-      <c r="CA40" s="34" t="inlineStr"/>
-      <c r="CB40" s="34" t="inlineStr"/>
-      <c r="CC40" s="34" t="inlineStr"/>
-      <c r="CD40" s="34" t="inlineStr"/>
-      <c r="CE40" s="34" t="inlineStr"/>
+      <c r="BL40" s="32" t="inlineStr"/>
+      <c r="BM40" s="32" t="inlineStr"/>
+      <c r="BN40" s="32" t="inlineStr"/>
+      <c r="BO40" s="32" t="inlineStr"/>
+      <c r="BP40" s="32" t="inlineStr"/>
+      <c r="BQ40" s="32" t="inlineStr"/>
+      <c r="BR40" s="32" t="inlineStr"/>
+      <c r="BS40" s="32" t="inlineStr"/>
+      <c r="BT40" s="32" t="inlineStr"/>
+      <c r="BU40" s="32" t="inlineStr"/>
+      <c r="BV40" s="32" t="inlineStr"/>
+      <c r="BW40" s="32" t="inlineStr"/>
+      <c r="BX40" s="32" t="inlineStr"/>
+      <c r="BY40" s="25" t="inlineStr"/>
+      <c r="BZ40" s="33" t="inlineStr"/>
+      <c r="CA40" s="33" t="inlineStr"/>
+      <c r="CB40" s="33" t="inlineStr"/>
+      <c r="CC40" s="33" t="inlineStr"/>
+      <c r="CD40" s="26" t="inlineStr"/>
+      <c r="CE40" s="27" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="16" t="inlineStr"/>
@@ -5059,31 +5058,31 @@
       <c r="BD41" s="21" t="inlineStr"/>
       <c r="BE41" s="21" t="inlineStr"/>
       <c r="BF41" s="23" t="inlineStr"/>
-      <c r="BG41" s="25" t="inlineStr"/>
+      <c r="BG41" s="32" t="inlineStr"/>
       <c r="BH41" s="32" t="inlineStr"/>
       <c r="BI41" s="32" t="inlineStr"/>
       <c r="BJ41" s="32" t="inlineStr"/>
       <c r="BK41" s="32" t="inlineStr"/>
-      <c r="BL41" s="26" t="inlineStr"/>
-      <c r="BM41" s="27" t="inlineStr"/>
-      <c r="BN41" s="33" t="inlineStr"/>
-      <c r="BO41" s="34" t="inlineStr"/>
-      <c r="BP41" s="34" t="inlineStr"/>
-      <c r="BQ41" s="34" t="inlineStr"/>
-      <c r="BR41" s="34" t="inlineStr"/>
-      <c r="BS41" s="34" t="inlineStr"/>
-      <c r="BT41" s="34" t="inlineStr"/>
-      <c r="BU41" s="34" t="inlineStr"/>
-      <c r="BV41" s="34" t="inlineStr"/>
-      <c r="BW41" s="34" t="inlineStr"/>
-      <c r="BX41" s="34" t="inlineStr"/>
-      <c r="BY41" s="34" t="inlineStr"/>
-      <c r="BZ41" s="34" t="inlineStr"/>
-      <c r="CA41" s="34" t="inlineStr"/>
-      <c r="CB41" s="34" t="inlineStr"/>
-      <c r="CC41" s="34" t="inlineStr"/>
-      <c r="CD41" s="34" t="inlineStr"/>
-      <c r="CE41" s="34" t="inlineStr"/>
+      <c r="BL41" s="32" t="inlineStr"/>
+      <c r="BM41" s="32" t="inlineStr"/>
+      <c r="BN41" s="32" t="inlineStr"/>
+      <c r="BO41" s="32" t="inlineStr"/>
+      <c r="BP41" s="32" t="inlineStr"/>
+      <c r="BQ41" s="32" t="inlineStr"/>
+      <c r="BR41" s="32" t="inlineStr"/>
+      <c r="BS41" s="32" t="inlineStr"/>
+      <c r="BT41" s="32" t="inlineStr"/>
+      <c r="BU41" s="32" t="inlineStr"/>
+      <c r="BV41" s="32" t="inlineStr"/>
+      <c r="BW41" s="32" t="inlineStr"/>
+      <c r="BX41" s="32" t="inlineStr"/>
+      <c r="BY41" s="25" t="inlineStr"/>
+      <c r="BZ41" s="33" t="inlineStr"/>
+      <c r="CA41" s="33" t="inlineStr"/>
+      <c r="CB41" s="33" t="inlineStr"/>
+      <c r="CC41" s="33" t="inlineStr"/>
+      <c r="CD41" s="26" t="inlineStr"/>
+      <c r="CE41" s="27" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="16" t="inlineStr"/>
@@ -5144,31 +5143,31 @@
       <c r="BD42" s="21" t="inlineStr"/>
       <c r="BE42" s="21" t="inlineStr"/>
       <c r="BF42" s="23" t="inlineStr"/>
-      <c r="BG42" s="25" t="inlineStr"/>
+      <c r="BG42" s="32" t="inlineStr"/>
       <c r="BH42" s="32" t="inlineStr"/>
       <c r="BI42" s="32" t="inlineStr"/>
       <c r="BJ42" s="32" t="inlineStr"/>
       <c r="BK42" s="32" t="inlineStr"/>
-      <c r="BL42" s="26" t="inlineStr"/>
-      <c r="BM42" s="27" t="inlineStr"/>
-      <c r="BN42" s="33" t="inlineStr"/>
-      <c r="BO42" s="34" t="inlineStr"/>
-      <c r="BP42" s="34" t="inlineStr"/>
-      <c r="BQ42" s="34" t="inlineStr"/>
-      <c r="BR42" s="34" t="inlineStr"/>
-      <c r="BS42" s="34" t="inlineStr"/>
-      <c r="BT42" s="34" t="inlineStr"/>
-      <c r="BU42" s="34" t="inlineStr"/>
-      <c r="BV42" s="34" t="inlineStr"/>
-      <c r="BW42" s="34" t="inlineStr"/>
-      <c r="BX42" s="34" t="inlineStr"/>
-      <c r="BY42" s="34" t="inlineStr"/>
-      <c r="BZ42" s="34" t="inlineStr"/>
-      <c r="CA42" s="34" t="inlineStr"/>
-      <c r="CB42" s="34" t="inlineStr"/>
-      <c r="CC42" s="34" t="inlineStr"/>
-      <c r="CD42" s="34" t="inlineStr"/>
-      <c r="CE42" s="34" t="inlineStr"/>
+      <c r="BL42" s="32" t="inlineStr"/>
+      <c r="BM42" s="32" t="inlineStr"/>
+      <c r="BN42" s="32" t="inlineStr"/>
+      <c r="BO42" s="32" t="inlineStr"/>
+      <c r="BP42" s="32" t="inlineStr"/>
+      <c r="BQ42" s="32" t="inlineStr"/>
+      <c r="BR42" s="32" t="inlineStr"/>
+      <c r="BS42" s="32" t="inlineStr"/>
+      <c r="BT42" s="32" t="inlineStr"/>
+      <c r="BU42" s="32" t="inlineStr"/>
+      <c r="BV42" s="32" t="inlineStr"/>
+      <c r="BW42" s="32" t="inlineStr"/>
+      <c r="BX42" s="32" t="inlineStr"/>
+      <c r="BY42" s="25" t="inlineStr"/>
+      <c r="BZ42" s="33" t="inlineStr"/>
+      <c r="CA42" s="33" t="inlineStr"/>
+      <c r="CB42" s="33" t="inlineStr"/>
+      <c r="CC42" s="33" t="inlineStr"/>
+      <c r="CD42" s="26" t="inlineStr"/>
+      <c r="CE42" s="27" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="16" t="inlineStr"/>
@@ -5229,31 +5228,31 @@
       <c r="BD43" s="21" t="inlineStr"/>
       <c r="BE43" s="21" t="inlineStr"/>
       <c r="BF43" s="23" t="inlineStr"/>
-      <c r="BG43" s="25" t="inlineStr"/>
+      <c r="BG43" s="32" t="inlineStr"/>
       <c r="BH43" s="32" t="inlineStr"/>
       <c r="BI43" s="32" t="inlineStr"/>
       <c r="BJ43" s="32" t="inlineStr"/>
       <c r="BK43" s="32" t="inlineStr"/>
-      <c r="BL43" s="26" t="inlineStr"/>
-      <c r="BM43" s="27" t="inlineStr"/>
-      <c r="BN43" s="33" t="inlineStr"/>
-      <c r="BO43" s="34" t="inlineStr"/>
-      <c r="BP43" s="34" t="inlineStr"/>
-      <c r="BQ43" s="34" t="inlineStr"/>
-      <c r="BR43" s="34" t="inlineStr"/>
-      <c r="BS43" s="34" t="inlineStr"/>
-      <c r="BT43" s="34" t="inlineStr"/>
-      <c r="BU43" s="34" t="inlineStr"/>
-      <c r="BV43" s="34" t="inlineStr"/>
-      <c r="BW43" s="34" t="inlineStr"/>
-      <c r="BX43" s="34" t="inlineStr"/>
-      <c r="BY43" s="34" t="inlineStr"/>
-      <c r="BZ43" s="34" t="inlineStr"/>
-      <c r="CA43" s="34" t="inlineStr"/>
-      <c r="CB43" s="34" t="inlineStr"/>
-      <c r="CC43" s="34" t="inlineStr"/>
-      <c r="CD43" s="34" t="inlineStr"/>
-      <c r="CE43" s="34" t="inlineStr"/>
+      <c r="BL43" s="32" t="inlineStr"/>
+      <c r="BM43" s="32" t="inlineStr"/>
+      <c r="BN43" s="32" t="inlineStr"/>
+      <c r="BO43" s="32" t="inlineStr"/>
+      <c r="BP43" s="32" t="inlineStr"/>
+      <c r="BQ43" s="32" t="inlineStr"/>
+      <c r="BR43" s="32" t="inlineStr"/>
+      <c r="BS43" s="32" t="inlineStr"/>
+      <c r="BT43" s="32" t="inlineStr"/>
+      <c r="BU43" s="32" t="inlineStr"/>
+      <c r="BV43" s="32" t="inlineStr"/>
+      <c r="BW43" s="32" t="inlineStr"/>
+      <c r="BX43" s="32" t="inlineStr"/>
+      <c r="BY43" s="25" t="inlineStr"/>
+      <c r="BZ43" s="33" t="inlineStr"/>
+      <c r="CA43" s="33" t="inlineStr"/>
+      <c r="CB43" s="33" t="inlineStr"/>
+      <c r="CC43" s="33" t="inlineStr"/>
+      <c r="CD43" s="26" t="inlineStr"/>
+      <c r="CE43" s="27" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="16" t="inlineStr"/>
@@ -5314,31 +5313,31 @@
       <c r="BD44" s="21" t="inlineStr"/>
       <c r="BE44" s="21" t="inlineStr"/>
       <c r="BF44" s="23" t="inlineStr"/>
-      <c r="BG44" s="25" t="inlineStr"/>
+      <c r="BG44" s="32" t="inlineStr"/>
       <c r="BH44" s="32" t="inlineStr"/>
       <c r="BI44" s="32" t="inlineStr"/>
       <c r="BJ44" s="32" t="inlineStr"/>
       <c r="BK44" s="32" t="inlineStr"/>
-      <c r="BL44" s="26" t="inlineStr"/>
-      <c r="BM44" s="27" t="inlineStr"/>
-      <c r="BN44" s="33" t="inlineStr"/>
-      <c r="BO44" s="34" t="inlineStr"/>
-      <c r="BP44" s="34" t="inlineStr"/>
-      <c r="BQ44" s="34" t="inlineStr"/>
-      <c r="BR44" s="34" t="inlineStr"/>
-      <c r="BS44" s="34" t="inlineStr"/>
-      <c r="BT44" s="34" t="inlineStr"/>
-      <c r="BU44" s="34" t="inlineStr"/>
-      <c r="BV44" s="34" t="inlineStr"/>
-      <c r="BW44" s="34" t="inlineStr"/>
-      <c r="BX44" s="34" t="inlineStr"/>
-      <c r="BY44" s="34" t="inlineStr"/>
-      <c r="BZ44" s="34" t="inlineStr"/>
-      <c r="CA44" s="34" t="inlineStr"/>
-      <c r="CB44" s="34" t="inlineStr"/>
-      <c r="CC44" s="34" t="inlineStr"/>
-      <c r="CD44" s="34" t="inlineStr"/>
-      <c r="CE44" s="34" t="inlineStr"/>
+      <c r="BL44" s="32" t="inlineStr"/>
+      <c r="BM44" s="32" t="inlineStr"/>
+      <c r="BN44" s="32" t="inlineStr"/>
+      <c r="BO44" s="32" t="inlineStr"/>
+      <c r="BP44" s="32" t="inlineStr"/>
+      <c r="BQ44" s="32" t="inlineStr"/>
+      <c r="BR44" s="32" t="inlineStr"/>
+      <c r="BS44" s="32" t="inlineStr"/>
+      <c r="BT44" s="32" t="inlineStr"/>
+      <c r="BU44" s="32" t="inlineStr"/>
+      <c r="BV44" s="32" t="inlineStr"/>
+      <c r="BW44" s="32" t="inlineStr"/>
+      <c r="BX44" s="32" t="inlineStr"/>
+      <c r="BY44" s="25" t="inlineStr"/>
+      <c r="BZ44" s="33" t="inlineStr"/>
+      <c r="CA44" s="33" t="inlineStr"/>
+      <c r="CB44" s="33" t="inlineStr"/>
+      <c r="CC44" s="33" t="inlineStr"/>
+      <c r="CD44" s="26" t="inlineStr"/>
+      <c r="CE44" s="27" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="16" t="inlineStr"/>
@@ -5399,31 +5398,31 @@
       <c r="BD45" s="21" t="inlineStr"/>
       <c r="BE45" s="21" t="inlineStr"/>
       <c r="BF45" s="23" t="inlineStr"/>
-      <c r="BG45" s="25" t="inlineStr"/>
+      <c r="BG45" s="32" t="inlineStr"/>
       <c r="BH45" s="32" t="inlineStr"/>
       <c r="BI45" s="32" t="inlineStr"/>
       <c r="BJ45" s="32" t="inlineStr"/>
       <c r="BK45" s="32" t="inlineStr"/>
-      <c r="BL45" s="26" t="inlineStr"/>
-      <c r="BM45" s="27" t="inlineStr"/>
-      <c r="BN45" s="33" t="inlineStr"/>
-      <c r="BO45" s="34" t="inlineStr"/>
-      <c r="BP45" s="34" t="inlineStr"/>
-      <c r="BQ45" s="34" t="inlineStr"/>
-      <c r="BR45" s="34" t="inlineStr"/>
-      <c r="BS45" s="34" t="inlineStr"/>
-      <c r="BT45" s="34" t="inlineStr"/>
-      <c r="BU45" s="34" t="inlineStr"/>
-      <c r="BV45" s="34" t="inlineStr"/>
-      <c r="BW45" s="34" t="inlineStr"/>
-      <c r="BX45" s="34" t="inlineStr"/>
-      <c r="BY45" s="34" t="inlineStr"/>
-      <c r="BZ45" s="34" t="inlineStr"/>
-      <c r="CA45" s="34" t="inlineStr"/>
-      <c r="CB45" s="34" t="inlineStr"/>
-      <c r="CC45" s="34" t="inlineStr"/>
-      <c r="CD45" s="34" t="inlineStr"/>
-      <c r="CE45" s="34" t="inlineStr"/>
+      <c r="BL45" s="32" t="inlineStr"/>
+      <c r="BM45" s="32" t="inlineStr"/>
+      <c r="BN45" s="32" t="inlineStr"/>
+      <c r="BO45" s="32" t="inlineStr"/>
+      <c r="BP45" s="32" t="inlineStr"/>
+      <c r="BQ45" s="32" t="inlineStr"/>
+      <c r="BR45" s="32" t="inlineStr"/>
+      <c r="BS45" s="32" t="inlineStr"/>
+      <c r="BT45" s="32" t="inlineStr"/>
+      <c r="BU45" s="32" t="inlineStr"/>
+      <c r="BV45" s="32" t="inlineStr"/>
+      <c r="BW45" s="32" t="inlineStr"/>
+      <c r="BX45" s="32" t="inlineStr"/>
+      <c r="BY45" s="25" t="inlineStr"/>
+      <c r="BZ45" s="33" t="inlineStr"/>
+      <c r="CA45" s="33" t="inlineStr"/>
+      <c r="CB45" s="33" t="inlineStr"/>
+      <c r="CC45" s="33" t="inlineStr"/>
+      <c r="CD45" s="26" t="inlineStr"/>
+      <c r="CE45" s="27" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="16" t="inlineStr"/>
@@ -5484,31 +5483,31 @@
       <c r="BD46" s="21" t="inlineStr"/>
       <c r="BE46" s="21" t="inlineStr"/>
       <c r="BF46" s="23" t="inlineStr"/>
-      <c r="BG46" s="25" t="inlineStr"/>
+      <c r="BG46" s="32" t="inlineStr"/>
       <c r="BH46" s="32" t="inlineStr"/>
       <c r="BI46" s="32" t="inlineStr"/>
       <c r="BJ46" s="32" t="inlineStr"/>
       <c r="BK46" s="32" t="inlineStr"/>
-      <c r="BL46" s="26" t="inlineStr"/>
-      <c r="BM46" s="27" t="inlineStr"/>
-      <c r="BN46" s="33" t="inlineStr"/>
-      <c r="BO46" s="34" t="inlineStr"/>
-      <c r="BP46" s="34" t="inlineStr"/>
-      <c r="BQ46" s="34" t="inlineStr"/>
-      <c r="BR46" s="34" t="inlineStr"/>
-      <c r="BS46" s="34" t="inlineStr"/>
-      <c r="BT46" s="34" t="inlineStr"/>
-      <c r="BU46" s="34" t="inlineStr"/>
-      <c r="BV46" s="34" t="inlineStr"/>
-      <c r="BW46" s="34" t="inlineStr"/>
-      <c r="BX46" s="34" t="inlineStr"/>
-      <c r="BY46" s="34" t="inlineStr"/>
-      <c r="BZ46" s="34" t="inlineStr"/>
-      <c r="CA46" s="34" t="inlineStr"/>
-      <c r="CB46" s="34" t="inlineStr"/>
-      <c r="CC46" s="34" t="inlineStr"/>
-      <c r="CD46" s="34" t="inlineStr"/>
-      <c r="CE46" s="34" t="inlineStr"/>
+      <c r="BL46" s="32" t="inlineStr"/>
+      <c r="BM46" s="32" t="inlineStr"/>
+      <c r="BN46" s="32" t="inlineStr"/>
+      <c r="BO46" s="32" t="inlineStr"/>
+      <c r="BP46" s="32" t="inlineStr"/>
+      <c r="BQ46" s="32" t="inlineStr"/>
+      <c r="BR46" s="32" t="inlineStr"/>
+      <c r="BS46" s="32" t="inlineStr"/>
+      <c r="BT46" s="32" t="inlineStr"/>
+      <c r="BU46" s="32" t="inlineStr"/>
+      <c r="BV46" s="32" t="inlineStr"/>
+      <c r="BW46" s="32" t="inlineStr"/>
+      <c r="BX46" s="32" t="inlineStr"/>
+      <c r="BY46" s="25" t="inlineStr"/>
+      <c r="BZ46" s="33" t="inlineStr"/>
+      <c r="CA46" s="33" t="inlineStr"/>
+      <c r="CB46" s="33" t="inlineStr"/>
+      <c r="CC46" s="33" t="inlineStr"/>
+      <c r="CD46" s="26" t="inlineStr"/>
+      <c r="CE46" s="27" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="16" t="inlineStr"/>
@@ -5569,31 +5568,31 @@
       <c r="BD47" s="21" t="inlineStr"/>
       <c r="BE47" s="21" t="inlineStr"/>
       <c r="BF47" s="23" t="inlineStr"/>
-      <c r="BG47" s="25" t="inlineStr"/>
+      <c r="BG47" s="32" t="inlineStr"/>
       <c r="BH47" s="32" t="inlineStr"/>
       <c r="BI47" s="32" t="inlineStr"/>
       <c r="BJ47" s="32" t="inlineStr"/>
       <c r="BK47" s="32" t="inlineStr"/>
-      <c r="BL47" s="26" t="inlineStr"/>
-      <c r="BM47" s="27" t="inlineStr"/>
-      <c r="BN47" s="33" t="inlineStr"/>
-      <c r="BO47" s="34" t="inlineStr"/>
-      <c r="BP47" s="34" t="inlineStr"/>
-      <c r="BQ47" s="34" t="inlineStr"/>
-      <c r="BR47" s="34" t="inlineStr"/>
-      <c r="BS47" s="34" t="inlineStr"/>
-      <c r="BT47" s="34" t="inlineStr"/>
-      <c r="BU47" s="34" t="inlineStr"/>
-      <c r="BV47" s="34" t="inlineStr"/>
-      <c r="BW47" s="34" t="inlineStr"/>
-      <c r="BX47" s="34" t="inlineStr"/>
-      <c r="BY47" s="34" t="inlineStr"/>
-      <c r="BZ47" s="34" t="inlineStr"/>
-      <c r="CA47" s="34" t="inlineStr"/>
-      <c r="CB47" s="34" t="inlineStr"/>
-      <c r="CC47" s="34" t="inlineStr"/>
-      <c r="CD47" s="34" t="inlineStr"/>
-      <c r="CE47" s="34" t="inlineStr"/>
+      <c r="BL47" s="32" t="inlineStr"/>
+      <c r="BM47" s="32" t="inlineStr"/>
+      <c r="BN47" s="32" t="inlineStr"/>
+      <c r="BO47" s="32" t="inlineStr"/>
+      <c r="BP47" s="32" t="inlineStr"/>
+      <c r="BQ47" s="32" t="inlineStr"/>
+      <c r="BR47" s="32" t="inlineStr"/>
+      <c r="BS47" s="32" t="inlineStr"/>
+      <c r="BT47" s="32" t="inlineStr"/>
+      <c r="BU47" s="32" t="inlineStr"/>
+      <c r="BV47" s="32" t="inlineStr"/>
+      <c r="BW47" s="32" t="inlineStr"/>
+      <c r="BX47" s="32" t="inlineStr"/>
+      <c r="BY47" s="25" t="inlineStr"/>
+      <c r="BZ47" s="33" t="inlineStr"/>
+      <c r="CA47" s="33" t="inlineStr"/>
+      <c r="CB47" s="33" t="inlineStr"/>
+      <c r="CC47" s="33" t="inlineStr"/>
+      <c r="CD47" s="26" t="inlineStr"/>
+      <c r="CE47" s="27" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="16" t="inlineStr"/>
@@ -5654,31 +5653,31 @@
       <c r="BD48" s="21" t="inlineStr"/>
       <c r="BE48" s="21" t="inlineStr"/>
       <c r="BF48" s="23" t="inlineStr"/>
-      <c r="BG48" s="25" t="inlineStr"/>
+      <c r="BG48" s="32" t="inlineStr"/>
       <c r="BH48" s="32" t="inlineStr"/>
       <c r="BI48" s="32" t="inlineStr"/>
       <c r="BJ48" s="32" t="inlineStr"/>
       <c r="BK48" s="32" t="inlineStr"/>
-      <c r="BL48" s="26" t="inlineStr"/>
-      <c r="BM48" s="27" t="inlineStr"/>
-      <c r="BN48" s="33" t="inlineStr"/>
-      <c r="BO48" s="34" t="inlineStr"/>
-      <c r="BP48" s="34" t="inlineStr"/>
-      <c r="BQ48" s="34" t="inlineStr"/>
-      <c r="BR48" s="34" t="inlineStr"/>
-      <c r="BS48" s="34" t="inlineStr"/>
-      <c r="BT48" s="34" t="inlineStr"/>
-      <c r="BU48" s="34" t="inlineStr"/>
-      <c r="BV48" s="34" t="inlineStr"/>
-      <c r="BW48" s="34" t="inlineStr"/>
-      <c r="BX48" s="34" t="inlineStr"/>
-      <c r="BY48" s="34" t="inlineStr"/>
-      <c r="BZ48" s="34" t="inlineStr"/>
-      <c r="CA48" s="34" t="inlineStr"/>
-      <c r="CB48" s="34" t="inlineStr"/>
-      <c r="CC48" s="34" t="inlineStr"/>
-      <c r="CD48" s="34" t="inlineStr"/>
-      <c r="CE48" s="34" t="inlineStr"/>
+      <c r="BL48" s="32" t="inlineStr"/>
+      <c r="BM48" s="32" t="inlineStr"/>
+      <c r="BN48" s="32" t="inlineStr"/>
+      <c r="BO48" s="32" t="inlineStr"/>
+      <c r="BP48" s="32" t="inlineStr"/>
+      <c r="BQ48" s="32" t="inlineStr"/>
+      <c r="BR48" s="32" t="inlineStr"/>
+      <c r="BS48" s="32" t="inlineStr"/>
+      <c r="BT48" s="32" t="inlineStr"/>
+      <c r="BU48" s="32" t="inlineStr"/>
+      <c r="BV48" s="32" t="inlineStr"/>
+      <c r="BW48" s="32" t="inlineStr"/>
+      <c r="BX48" s="32" t="inlineStr"/>
+      <c r="BY48" s="25" t="inlineStr"/>
+      <c r="BZ48" s="33" t="inlineStr"/>
+      <c r="CA48" s="33" t="inlineStr"/>
+      <c r="CB48" s="33" t="inlineStr"/>
+      <c r="CC48" s="33" t="inlineStr"/>
+      <c r="CD48" s="26" t="inlineStr"/>
+      <c r="CE48" s="27" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="16" t="inlineStr"/>
@@ -5739,31 +5738,31 @@
       <c r="BD49" s="21" t="inlineStr"/>
       <c r="BE49" s="21" t="inlineStr"/>
       <c r="BF49" s="23" t="inlineStr"/>
-      <c r="BG49" s="25" t="inlineStr"/>
+      <c r="BG49" s="32" t="inlineStr"/>
       <c r="BH49" s="32" t="inlineStr"/>
       <c r="BI49" s="32" t="inlineStr"/>
       <c r="BJ49" s="32" t="inlineStr"/>
       <c r="BK49" s="32" t="inlineStr"/>
-      <c r="BL49" s="26" t="inlineStr"/>
-      <c r="BM49" s="27" t="inlineStr"/>
-      <c r="BN49" s="33" t="inlineStr"/>
-      <c r="BO49" s="34" t="inlineStr"/>
-      <c r="BP49" s="34" t="inlineStr"/>
-      <c r="BQ49" s="34" t="inlineStr"/>
-      <c r="BR49" s="34" t="inlineStr"/>
-      <c r="BS49" s="34" t="inlineStr"/>
-      <c r="BT49" s="34" t="inlineStr"/>
-      <c r="BU49" s="34" t="inlineStr"/>
-      <c r="BV49" s="34" t="inlineStr"/>
-      <c r="BW49" s="34" t="inlineStr"/>
-      <c r="BX49" s="34" t="inlineStr"/>
-      <c r="BY49" s="34" t="inlineStr"/>
-      <c r="BZ49" s="34" t="inlineStr"/>
-      <c r="CA49" s="34" t="inlineStr"/>
-      <c r="CB49" s="34" t="inlineStr"/>
-      <c r="CC49" s="34" t="inlineStr"/>
-      <c r="CD49" s="34" t="inlineStr"/>
-      <c r="CE49" s="34" t="inlineStr"/>
+      <c r="BL49" s="32" t="inlineStr"/>
+      <c r="BM49" s="32" t="inlineStr"/>
+      <c r="BN49" s="32" t="inlineStr"/>
+      <c r="BO49" s="32" t="inlineStr"/>
+      <c r="BP49" s="32" t="inlineStr"/>
+      <c r="BQ49" s="32" t="inlineStr"/>
+      <c r="BR49" s="32" t="inlineStr"/>
+      <c r="BS49" s="32" t="inlineStr"/>
+      <c r="BT49" s="32" t="inlineStr"/>
+      <c r="BU49" s="32" t="inlineStr"/>
+      <c r="BV49" s="32" t="inlineStr"/>
+      <c r="BW49" s="32" t="inlineStr"/>
+      <c r="BX49" s="32" t="inlineStr"/>
+      <c r="BY49" s="25" t="inlineStr"/>
+      <c r="BZ49" s="33" t="inlineStr"/>
+      <c r="CA49" s="33" t="inlineStr"/>
+      <c r="CB49" s="33" t="inlineStr"/>
+      <c r="CC49" s="33" t="inlineStr"/>
+      <c r="CD49" s="26" t="inlineStr"/>
+      <c r="CE49" s="27" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="16" t="inlineStr"/>
@@ -5824,31 +5823,31 @@
       <c r="BD50" s="21" t="inlineStr"/>
       <c r="BE50" s="21" t="inlineStr"/>
       <c r="BF50" s="23" t="inlineStr"/>
-      <c r="BG50" s="25" t="inlineStr"/>
+      <c r="BG50" s="32" t="inlineStr"/>
       <c r="BH50" s="32" t="inlineStr"/>
       <c r="BI50" s="32" t="inlineStr"/>
       <c r="BJ50" s="32" t="inlineStr"/>
       <c r="BK50" s="32" t="inlineStr"/>
-      <c r="BL50" s="26" t="inlineStr"/>
-      <c r="BM50" s="27" t="inlineStr"/>
-      <c r="BN50" s="33" t="inlineStr"/>
-      <c r="BO50" s="34" t="inlineStr"/>
-      <c r="BP50" s="34" t="inlineStr"/>
-      <c r="BQ50" s="34" t="inlineStr"/>
-      <c r="BR50" s="34" t="inlineStr"/>
-      <c r="BS50" s="34" t="inlineStr"/>
-      <c r="BT50" s="34" t="inlineStr"/>
-      <c r="BU50" s="34" t="inlineStr"/>
-      <c r="BV50" s="34" t="inlineStr"/>
-      <c r="BW50" s="34" t="inlineStr"/>
-      <c r="BX50" s="34" t="inlineStr"/>
-      <c r="BY50" s="34" t="inlineStr"/>
-      <c r="BZ50" s="34" t="inlineStr"/>
-      <c r="CA50" s="34" t="inlineStr"/>
-      <c r="CB50" s="34" t="inlineStr"/>
-      <c r="CC50" s="34" t="inlineStr"/>
-      <c r="CD50" s="34" t="inlineStr"/>
-      <c r="CE50" s="34" t="inlineStr"/>
+      <c r="BL50" s="32" t="inlineStr"/>
+      <c r="BM50" s="32" t="inlineStr"/>
+      <c r="BN50" s="32" t="inlineStr"/>
+      <c r="BO50" s="32" t="inlineStr"/>
+      <c r="BP50" s="32" t="inlineStr"/>
+      <c r="BQ50" s="32" t="inlineStr"/>
+      <c r="BR50" s="32" t="inlineStr"/>
+      <c r="BS50" s="32" t="inlineStr"/>
+      <c r="BT50" s="32" t="inlineStr"/>
+      <c r="BU50" s="32" t="inlineStr"/>
+      <c r="BV50" s="32" t="inlineStr"/>
+      <c r="BW50" s="32" t="inlineStr"/>
+      <c r="BX50" s="32" t="inlineStr"/>
+      <c r="BY50" s="25" t="inlineStr"/>
+      <c r="BZ50" s="33" t="inlineStr"/>
+      <c r="CA50" s="33" t="inlineStr"/>
+      <c r="CB50" s="33" t="inlineStr"/>
+      <c r="CC50" s="33" t="inlineStr"/>
+      <c r="CD50" s="26" t="inlineStr"/>
+      <c r="CE50" s="27" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="16" t="inlineStr"/>
@@ -5909,31 +5908,31 @@
       <c r="BD51" s="21" t="inlineStr"/>
       <c r="BE51" s="21" t="inlineStr"/>
       <c r="BF51" s="23" t="inlineStr"/>
-      <c r="BG51" s="25" t="inlineStr"/>
+      <c r="BG51" s="32" t="inlineStr"/>
       <c r="BH51" s="32" t="inlineStr"/>
       <c r="BI51" s="32" t="inlineStr"/>
       <c r="BJ51" s="32" t="inlineStr"/>
       <c r="BK51" s="32" t="inlineStr"/>
-      <c r="BL51" s="26" t="inlineStr"/>
-      <c r="BM51" s="27" t="inlineStr"/>
-      <c r="BN51" s="33" t="inlineStr"/>
-      <c r="BO51" s="34" t="inlineStr"/>
-      <c r="BP51" s="34" t="inlineStr"/>
-      <c r="BQ51" s="34" t="inlineStr"/>
-      <c r="BR51" s="34" t="inlineStr"/>
-      <c r="BS51" s="34" t="inlineStr"/>
-      <c r="BT51" s="34" t="inlineStr"/>
-      <c r="BU51" s="34" t="inlineStr"/>
-      <c r="BV51" s="34" t="inlineStr"/>
-      <c r="BW51" s="34" t="inlineStr"/>
-      <c r="BX51" s="34" t="inlineStr"/>
-      <c r="BY51" s="34" t="inlineStr"/>
-      <c r="BZ51" s="34" t="inlineStr"/>
-      <c r="CA51" s="34" t="inlineStr"/>
-      <c r="CB51" s="34" t="inlineStr"/>
-      <c r="CC51" s="34" t="inlineStr"/>
-      <c r="CD51" s="34" t="inlineStr"/>
-      <c r="CE51" s="34" t="inlineStr"/>
+      <c r="BL51" s="32" t="inlineStr"/>
+      <c r="BM51" s="32" t="inlineStr"/>
+      <c r="BN51" s="32" t="inlineStr"/>
+      <c r="BO51" s="32" t="inlineStr"/>
+      <c r="BP51" s="32" t="inlineStr"/>
+      <c r="BQ51" s="32" t="inlineStr"/>
+      <c r="BR51" s="32" t="inlineStr"/>
+      <c r="BS51" s="32" t="inlineStr"/>
+      <c r="BT51" s="32" t="inlineStr"/>
+      <c r="BU51" s="32" t="inlineStr"/>
+      <c r="BV51" s="32" t="inlineStr"/>
+      <c r="BW51" s="32" t="inlineStr"/>
+      <c r="BX51" s="32" t="inlineStr"/>
+      <c r="BY51" s="25" t="inlineStr"/>
+      <c r="BZ51" s="33" t="inlineStr"/>
+      <c r="CA51" s="33" t="inlineStr"/>
+      <c r="CB51" s="33" t="inlineStr"/>
+      <c r="CC51" s="33" t="inlineStr"/>
+      <c r="CD51" s="26" t="inlineStr"/>
+      <c r="CE51" s="27" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="16" t="inlineStr"/>
@@ -5994,31 +5993,31 @@
       <c r="BD52" s="21" t="inlineStr"/>
       <c r="BE52" s="21" t="inlineStr"/>
       <c r="BF52" s="23" t="inlineStr"/>
-      <c r="BG52" s="25" t="inlineStr"/>
+      <c r="BG52" s="32" t="inlineStr"/>
       <c r="BH52" s="32" t="inlineStr"/>
       <c r="BI52" s="32" t="inlineStr"/>
       <c r="BJ52" s="32" t="inlineStr"/>
       <c r="BK52" s="32" t="inlineStr"/>
-      <c r="BL52" s="26" t="inlineStr"/>
-      <c r="BM52" s="27" t="inlineStr"/>
-      <c r="BN52" s="33" t="inlineStr"/>
-      <c r="BO52" s="34" t="inlineStr"/>
-      <c r="BP52" s="34" t="inlineStr"/>
-      <c r="BQ52" s="34" t="inlineStr"/>
-      <c r="BR52" s="34" t="inlineStr"/>
-      <c r="BS52" s="34" t="inlineStr"/>
-      <c r="BT52" s="34" t="inlineStr"/>
-      <c r="BU52" s="34" t="inlineStr"/>
-      <c r="BV52" s="34" t="inlineStr"/>
-      <c r="BW52" s="34" t="inlineStr"/>
-      <c r="BX52" s="34" t="inlineStr"/>
-      <c r="BY52" s="34" t="inlineStr"/>
-      <c r="BZ52" s="34" t="inlineStr"/>
-      <c r="CA52" s="34" t="inlineStr"/>
-      <c r="CB52" s="34" t="inlineStr"/>
-      <c r="CC52" s="34" t="inlineStr"/>
-      <c r="CD52" s="34" t="inlineStr"/>
-      <c r="CE52" s="34" t="inlineStr"/>
+      <c r="BL52" s="32" t="inlineStr"/>
+      <c r="BM52" s="32" t="inlineStr"/>
+      <c r="BN52" s="32" t="inlineStr"/>
+      <c r="BO52" s="32" t="inlineStr"/>
+      <c r="BP52" s="32" t="inlineStr"/>
+      <c r="BQ52" s="32" t="inlineStr"/>
+      <c r="BR52" s="32" t="inlineStr"/>
+      <c r="BS52" s="32" t="inlineStr"/>
+      <c r="BT52" s="32" t="inlineStr"/>
+      <c r="BU52" s="32" t="inlineStr"/>
+      <c r="BV52" s="32" t="inlineStr"/>
+      <c r="BW52" s="32" t="inlineStr"/>
+      <c r="BX52" s="32" t="inlineStr"/>
+      <c r="BY52" s="25" t="inlineStr"/>
+      <c r="BZ52" s="33" t="inlineStr"/>
+      <c r="CA52" s="33" t="inlineStr"/>
+      <c r="CB52" s="33" t="inlineStr"/>
+      <c r="CC52" s="33" t="inlineStr"/>
+      <c r="CD52" s="26" t="inlineStr"/>
+      <c r="CE52" s="27" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="16" t="inlineStr"/>
@@ -6079,31 +6078,31 @@
       <c r="BD53" s="21" t="inlineStr"/>
       <c r="BE53" s="21" t="inlineStr"/>
       <c r="BF53" s="23" t="inlineStr"/>
-      <c r="BG53" s="25" t="inlineStr"/>
+      <c r="BG53" s="32" t="inlineStr"/>
       <c r="BH53" s="32" t="inlineStr"/>
       <c r="BI53" s="32" t="inlineStr"/>
       <c r="BJ53" s="32" t="inlineStr"/>
       <c r="BK53" s="32" t="inlineStr"/>
-      <c r="BL53" s="26" t="inlineStr"/>
-      <c r="BM53" s="27" t="inlineStr"/>
-      <c r="BN53" s="33" t="inlineStr"/>
-      <c r="BO53" s="34" t="inlineStr"/>
-      <c r="BP53" s="34" t="inlineStr"/>
-      <c r="BQ53" s="34" t="inlineStr"/>
-      <c r="BR53" s="34" t="inlineStr"/>
-      <c r="BS53" s="34" t="inlineStr"/>
-      <c r="BT53" s="34" t="inlineStr"/>
-      <c r="BU53" s="34" t="inlineStr"/>
-      <c r="BV53" s="34" t="inlineStr"/>
-      <c r="BW53" s="34" t="inlineStr"/>
-      <c r="BX53" s="34" t="inlineStr"/>
-      <c r="BY53" s="34" t="inlineStr"/>
-      <c r="BZ53" s="34" t="inlineStr"/>
-      <c r="CA53" s="34" t="inlineStr"/>
-      <c r="CB53" s="34" t="inlineStr"/>
-      <c r="CC53" s="34" t="inlineStr"/>
-      <c r="CD53" s="34" t="inlineStr"/>
-      <c r="CE53" s="34" t="inlineStr"/>
+      <c r="BL53" s="32" t="inlineStr"/>
+      <c r="BM53" s="32" t="inlineStr"/>
+      <c r="BN53" s="32" t="inlineStr"/>
+      <c r="BO53" s="32" t="inlineStr"/>
+      <c r="BP53" s="32" t="inlineStr"/>
+      <c r="BQ53" s="32" t="inlineStr"/>
+      <c r="BR53" s="32" t="inlineStr"/>
+      <c r="BS53" s="32" t="inlineStr"/>
+      <c r="BT53" s="32" t="inlineStr"/>
+      <c r="BU53" s="32" t="inlineStr"/>
+      <c r="BV53" s="32" t="inlineStr"/>
+      <c r="BW53" s="32" t="inlineStr"/>
+      <c r="BX53" s="32" t="inlineStr"/>
+      <c r="BY53" s="25" t="inlineStr"/>
+      <c r="BZ53" s="33" t="inlineStr"/>
+      <c r="CA53" s="33" t="inlineStr"/>
+      <c r="CB53" s="33" t="inlineStr"/>
+      <c r="CC53" s="33" t="inlineStr"/>
+      <c r="CD53" s="26" t="inlineStr"/>
+      <c r="CE53" s="27" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="16" t="inlineStr"/>
@@ -6164,31 +6163,31 @@
       <c r="BD54" s="21" t="inlineStr"/>
       <c r="BE54" s="21" t="inlineStr"/>
       <c r="BF54" s="23" t="inlineStr"/>
-      <c r="BG54" s="25" t="inlineStr"/>
+      <c r="BG54" s="32" t="inlineStr"/>
       <c r="BH54" s="32" t="inlineStr"/>
       <c r="BI54" s="32" t="inlineStr"/>
       <c r="BJ54" s="32" t="inlineStr"/>
       <c r="BK54" s="32" t="inlineStr"/>
-      <c r="BL54" s="26" t="inlineStr"/>
-      <c r="BM54" s="27" t="inlineStr"/>
-      <c r="BN54" s="33" t="inlineStr"/>
-      <c r="BO54" s="34" t="inlineStr"/>
-      <c r="BP54" s="34" t="inlineStr"/>
-      <c r="BQ54" s="34" t="inlineStr"/>
-      <c r="BR54" s="34" t="inlineStr"/>
-      <c r="BS54" s="34" t="inlineStr"/>
-      <c r="BT54" s="34" t="inlineStr"/>
-      <c r="BU54" s="34" t="inlineStr"/>
-      <c r="BV54" s="34" t="inlineStr"/>
-      <c r="BW54" s="34" t="inlineStr"/>
-      <c r="BX54" s="34" t="inlineStr"/>
-      <c r="BY54" s="34" t="inlineStr"/>
-      <c r="BZ54" s="34" t="inlineStr"/>
-      <c r="CA54" s="34" t="inlineStr"/>
-      <c r="CB54" s="34" t="inlineStr"/>
-      <c r="CC54" s="34" t="inlineStr"/>
-      <c r="CD54" s="34" t="inlineStr"/>
-      <c r="CE54" s="34" t="inlineStr"/>
+      <c r="BL54" s="32" t="inlineStr"/>
+      <c r="BM54" s="32" t="inlineStr"/>
+      <c r="BN54" s="32" t="inlineStr"/>
+      <c r="BO54" s="32" t="inlineStr"/>
+      <c r="BP54" s="32" t="inlineStr"/>
+      <c r="BQ54" s="32" t="inlineStr"/>
+      <c r="BR54" s="32" t="inlineStr"/>
+      <c r="BS54" s="32" t="inlineStr"/>
+      <c r="BT54" s="32" t="inlineStr"/>
+      <c r="BU54" s="32" t="inlineStr"/>
+      <c r="BV54" s="32" t="inlineStr"/>
+      <c r="BW54" s="32" t="inlineStr"/>
+      <c r="BX54" s="32" t="inlineStr"/>
+      <c r="BY54" s="25" t="inlineStr"/>
+      <c r="BZ54" s="33" t="inlineStr"/>
+      <c r="CA54" s="33" t="inlineStr"/>
+      <c r="CB54" s="33" t="inlineStr"/>
+      <c r="CC54" s="33" t="inlineStr"/>
+      <c r="CD54" s="26" t="inlineStr"/>
+      <c r="CE54" s="27" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="16" t="inlineStr"/>
@@ -6249,31 +6248,31 @@
       <c r="BD55" s="21" t="inlineStr"/>
       <c r="BE55" s="21" t="inlineStr"/>
       <c r="BF55" s="23" t="inlineStr"/>
-      <c r="BG55" s="25" t="inlineStr"/>
+      <c r="BG55" s="32" t="inlineStr"/>
       <c r="BH55" s="32" t="inlineStr"/>
       <c r="BI55" s="32" t="inlineStr"/>
       <c r="BJ55" s="32" t="inlineStr"/>
       <c r="BK55" s="32" t="inlineStr"/>
-      <c r="BL55" s="26" t="inlineStr"/>
-      <c r="BM55" s="27" t="inlineStr"/>
-      <c r="BN55" s="33" t="inlineStr"/>
-      <c r="BO55" s="34" t="inlineStr"/>
-      <c r="BP55" s="34" t="inlineStr"/>
-      <c r="BQ55" s="34" t="inlineStr"/>
-      <c r="BR55" s="34" t="inlineStr"/>
-      <c r="BS55" s="34" t="inlineStr"/>
-      <c r="BT55" s="34" t="inlineStr"/>
-      <c r="BU55" s="34" t="inlineStr"/>
-      <c r="BV55" s="34" t="inlineStr"/>
-      <c r="BW55" s="34" t="inlineStr"/>
-      <c r="BX55" s="34" t="inlineStr"/>
-      <c r="BY55" s="34" t="inlineStr"/>
-      <c r="BZ55" s="34" t="inlineStr"/>
-      <c r="CA55" s="34" t="inlineStr"/>
-      <c r="CB55" s="34" t="inlineStr"/>
-      <c r="CC55" s="34" t="inlineStr"/>
-      <c r="CD55" s="34" t="inlineStr"/>
-      <c r="CE55" s="34" t="inlineStr"/>
+      <c r="BL55" s="32" t="inlineStr"/>
+      <c r="BM55" s="32" t="inlineStr"/>
+      <c r="BN55" s="32" t="inlineStr"/>
+      <c r="BO55" s="32" t="inlineStr"/>
+      <c r="BP55" s="32" t="inlineStr"/>
+      <c r="BQ55" s="32" t="inlineStr"/>
+      <c r="BR55" s="32" t="inlineStr"/>
+      <c r="BS55" s="32" t="inlineStr"/>
+      <c r="BT55" s="32" t="inlineStr"/>
+      <c r="BU55" s="32" t="inlineStr"/>
+      <c r="BV55" s="32" t="inlineStr"/>
+      <c r="BW55" s="32" t="inlineStr"/>
+      <c r="BX55" s="32" t="inlineStr"/>
+      <c r="BY55" s="25" t="inlineStr"/>
+      <c r="BZ55" s="33" t="inlineStr"/>
+      <c r="CA55" s="33" t="inlineStr"/>
+      <c r="CB55" s="33" t="inlineStr"/>
+      <c r="CC55" s="33" t="inlineStr"/>
+      <c r="CD55" s="26" t="inlineStr"/>
+      <c r="CE55" s="27" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="16" t="inlineStr"/>
@@ -6334,31 +6333,31 @@
       <c r="BD56" s="21" t="inlineStr"/>
       <c r="BE56" s="21" t="inlineStr"/>
       <c r="BF56" s="23" t="inlineStr"/>
-      <c r="BG56" s="25" t="inlineStr"/>
+      <c r="BG56" s="32" t="inlineStr"/>
       <c r="BH56" s="32" t="inlineStr"/>
       <c r="BI56" s="32" t="inlineStr"/>
       <c r="BJ56" s="32" t="inlineStr"/>
       <c r="BK56" s="32" t="inlineStr"/>
-      <c r="BL56" s="26" t="inlineStr"/>
-      <c r="BM56" s="27" t="inlineStr"/>
-      <c r="BN56" s="33" t="inlineStr"/>
-      <c r="BO56" s="34" t="inlineStr"/>
-      <c r="BP56" s="34" t="inlineStr"/>
-      <c r="BQ56" s="34" t="inlineStr"/>
-      <c r="BR56" s="34" t="inlineStr"/>
-      <c r="BS56" s="34" t="inlineStr"/>
-      <c r="BT56" s="34" t="inlineStr"/>
-      <c r="BU56" s="34" t="inlineStr"/>
-      <c r="BV56" s="34" t="inlineStr"/>
-      <c r="BW56" s="34" t="inlineStr"/>
-      <c r="BX56" s="34" t="inlineStr"/>
-      <c r="BY56" s="34" t="inlineStr"/>
-      <c r="BZ56" s="34" t="inlineStr"/>
-      <c r="CA56" s="34" t="inlineStr"/>
-      <c r="CB56" s="34" t="inlineStr"/>
-      <c r="CC56" s="34" t="inlineStr"/>
-      <c r="CD56" s="34" t="inlineStr"/>
-      <c r="CE56" s="34" t="inlineStr"/>
+      <c r="BL56" s="32" t="inlineStr"/>
+      <c r="BM56" s="32" t="inlineStr"/>
+      <c r="BN56" s="32" t="inlineStr"/>
+      <c r="BO56" s="32" t="inlineStr"/>
+      <c r="BP56" s="32" t="inlineStr"/>
+      <c r="BQ56" s="32" t="inlineStr"/>
+      <c r="BR56" s="32" t="inlineStr"/>
+      <c r="BS56" s="32" t="inlineStr"/>
+      <c r="BT56" s="32" t="inlineStr"/>
+      <c r="BU56" s="32" t="inlineStr"/>
+      <c r="BV56" s="32" t="inlineStr"/>
+      <c r="BW56" s="32" t="inlineStr"/>
+      <c r="BX56" s="32" t="inlineStr"/>
+      <c r="BY56" s="25" t="inlineStr"/>
+      <c r="BZ56" s="33" t="inlineStr"/>
+      <c r="CA56" s="33" t="inlineStr"/>
+      <c r="CB56" s="33" t="inlineStr"/>
+      <c r="CC56" s="33" t="inlineStr"/>
+      <c r="CD56" s="26" t="inlineStr"/>
+      <c r="CE56" s="27" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="16" t="inlineStr"/>
@@ -6419,31 +6418,31 @@
       <c r="BD57" s="21" t="inlineStr"/>
       <c r="BE57" s="21" t="inlineStr"/>
       <c r="BF57" s="23" t="inlineStr"/>
-      <c r="BG57" s="25" t="inlineStr"/>
+      <c r="BG57" s="32" t="inlineStr"/>
       <c r="BH57" s="32" t="inlineStr"/>
       <c r="BI57" s="32" t="inlineStr"/>
       <c r="BJ57" s="32" t="inlineStr"/>
       <c r="BK57" s="32" t="inlineStr"/>
-      <c r="BL57" s="26" t="inlineStr"/>
-      <c r="BM57" s="27" t="inlineStr"/>
-      <c r="BN57" s="33" t="inlineStr"/>
-      <c r="BO57" s="34" t="inlineStr"/>
-      <c r="BP57" s="34" t="inlineStr"/>
-      <c r="BQ57" s="34" t="inlineStr"/>
-      <c r="BR57" s="34" t="inlineStr"/>
-      <c r="BS57" s="34" t="inlineStr"/>
-      <c r="BT57" s="34" t="inlineStr"/>
-      <c r="BU57" s="34" t="inlineStr"/>
-      <c r="BV57" s="34" t="inlineStr"/>
-      <c r="BW57" s="34" t="inlineStr"/>
-      <c r="BX57" s="34" t="inlineStr"/>
-      <c r="BY57" s="34" t="inlineStr"/>
-      <c r="BZ57" s="34" t="inlineStr"/>
-      <c r="CA57" s="34" t="inlineStr"/>
-      <c r="CB57" s="34" t="inlineStr"/>
-      <c r="CC57" s="34" t="inlineStr"/>
-      <c r="CD57" s="34" t="inlineStr"/>
-      <c r="CE57" s="34" t="inlineStr"/>
+      <c r="BL57" s="32" t="inlineStr"/>
+      <c r="BM57" s="32" t="inlineStr"/>
+      <c r="BN57" s="32" t="inlineStr"/>
+      <c r="BO57" s="32" t="inlineStr"/>
+      <c r="BP57" s="32" t="inlineStr"/>
+      <c r="BQ57" s="32" t="inlineStr"/>
+      <c r="BR57" s="32" t="inlineStr"/>
+      <c r="BS57" s="32" t="inlineStr"/>
+      <c r="BT57" s="32" t="inlineStr"/>
+      <c r="BU57" s="32" t="inlineStr"/>
+      <c r="BV57" s="32" t="inlineStr"/>
+      <c r="BW57" s="32" t="inlineStr"/>
+      <c r="BX57" s="32" t="inlineStr"/>
+      <c r="BY57" s="25" t="inlineStr"/>
+      <c r="BZ57" s="33" t="inlineStr"/>
+      <c r="CA57" s="33" t="inlineStr"/>
+      <c r="CB57" s="33" t="inlineStr"/>
+      <c r="CC57" s="33" t="inlineStr"/>
+      <c r="CD57" s="26" t="inlineStr"/>
+      <c r="CE57" s="27" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="16" t="inlineStr"/>
@@ -6504,31 +6503,31 @@
       <c r="BD58" s="21" t="inlineStr"/>
       <c r="BE58" s="21" t="inlineStr"/>
       <c r="BF58" s="23" t="inlineStr"/>
-      <c r="BG58" s="25" t="inlineStr"/>
+      <c r="BG58" s="32" t="inlineStr"/>
       <c r="BH58" s="32" t="inlineStr"/>
       <c r="BI58" s="32" t="inlineStr"/>
       <c r="BJ58" s="32" t="inlineStr"/>
       <c r="BK58" s="32" t="inlineStr"/>
-      <c r="BL58" s="26" t="inlineStr"/>
-      <c r="BM58" s="27" t="inlineStr"/>
-      <c r="BN58" s="33" t="inlineStr"/>
-      <c r="BO58" s="34" t="inlineStr"/>
-      <c r="BP58" s="34" t="inlineStr"/>
-      <c r="BQ58" s="34" t="inlineStr"/>
-      <c r="BR58" s="34" t="inlineStr"/>
-      <c r="BS58" s="34" t="inlineStr"/>
-      <c r="BT58" s="34" t="inlineStr"/>
-      <c r="BU58" s="34" t="inlineStr"/>
-      <c r="BV58" s="34" t="inlineStr"/>
-      <c r="BW58" s="34" t="inlineStr"/>
-      <c r="BX58" s="34" t="inlineStr"/>
-      <c r="BY58" s="34" t="inlineStr"/>
-      <c r="BZ58" s="34" t="inlineStr"/>
-      <c r="CA58" s="34" t="inlineStr"/>
-      <c r="CB58" s="34" t="inlineStr"/>
-      <c r="CC58" s="34" t="inlineStr"/>
-      <c r="CD58" s="34" t="inlineStr"/>
-      <c r="CE58" s="34" t="inlineStr"/>
+      <c r="BL58" s="32" t="inlineStr"/>
+      <c r="BM58" s="32" t="inlineStr"/>
+      <c r="BN58" s="32" t="inlineStr"/>
+      <c r="BO58" s="32" t="inlineStr"/>
+      <c r="BP58" s="32" t="inlineStr"/>
+      <c r="BQ58" s="32" t="inlineStr"/>
+      <c r="BR58" s="32" t="inlineStr"/>
+      <c r="BS58" s="32" t="inlineStr"/>
+      <c r="BT58" s="32" t="inlineStr"/>
+      <c r="BU58" s="32" t="inlineStr"/>
+      <c r="BV58" s="32" t="inlineStr"/>
+      <c r="BW58" s="32" t="inlineStr"/>
+      <c r="BX58" s="32" t="inlineStr"/>
+      <c r="BY58" s="25" t="inlineStr"/>
+      <c r="BZ58" s="33" t="inlineStr"/>
+      <c r="CA58" s="33" t="inlineStr"/>
+      <c r="CB58" s="33" t="inlineStr"/>
+      <c r="CC58" s="33" t="inlineStr"/>
+      <c r="CD58" s="26" t="inlineStr"/>
+      <c r="CE58" s="27" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="16" t="inlineStr"/>
@@ -6589,31 +6588,31 @@
       <c r="BD59" s="21" t="inlineStr"/>
       <c r="BE59" s="21" t="inlineStr"/>
       <c r="BF59" s="23" t="inlineStr"/>
-      <c r="BG59" s="25" t="inlineStr"/>
+      <c r="BG59" s="32" t="inlineStr"/>
       <c r="BH59" s="32" t="inlineStr"/>
       <c r="BI59" s="32" t="inlineStr"/>
       <c r="BJ59" s="32" t="inlineStr"/>
       <c r="BK59" s="32" t="inlineStr"/>
-      <c r="BL59" s="26" t="inlineStr"/>
-      <c r="BM59" s="27" t="inlineStr"/>
-      <c r="BN59" s="33" t="inlineStr"/>
-      <c r="BO59" s="34" t="inlineStr"/>
-      <c r="BP59" s="34" t="inlineStr"/>
-      <c r="BQ59" s="34" t="inlineStr"/>
-      <c r="BR59" s="34" t="inlineStr"/>
-      <c r="BS59" s="34" t="inlineStr"/>
-      <c r="BT59" s="34" t="inlineStr"/>
-      <c r="BU59" s="34" t="inlineStr"/>
-      <c r="BV59" s="34" t="inlineStr"/>
-      <c r="BW59" s="34" t="inlineStr"/>
-      <c r="BX59" s="34" t="inlineStr"/>
-      <c r="BY59" s="34" t="inlineStr"/>
-      <c r="BZ59" s="34" t="inlineStr"/>
-      <c r="CA59" s="34" t="inlineStr"/>
-      <c r="CB59" s="34" t="inlineStr"/>
-      <c r="CC59" s="34" t="inlineStr"/>
-      <c r="CD59" s="34" t="inlineStr"/>
-      <c r="CE59" s="34" t="inlineStr"/>
+      <c r="BL59" s="32" t="inlineStr"/>
+      <c r="BM59" s="32" t="inlineStr"/>
+      <c r="BN59" s="32" t="inlineStr"/>
+      <c r="BO59" s="32" t="inlineStr"/>
+      <c r="BP59" s="32" t="inlineStr"/>
+      <c r="BQ59" s="32" t="inlineStr"/>
+      <c r="BR59" s="32" t="inlineStr"/>
+      <c r="BS59" s="32" t="inlineStr"/>
+      <c r="BT59" s="32" t="inlineStr"/>
+      <c r="BU59" s="32" t="inlineStr"/>
+      <c r="BV59" s="32" t="inlineStr"/>
+      <c r="BW59" s="32" t="inlineStr"/>
+      <c r="BX59" s="32" t="inlineStr"/>
+      <c r="BY59" s="25" t="inlineStr"/>
+      <c r="BZ59" s="33" t="inlineStr"/>
+      <c r="CA59" s="33" t="inlineStr"/>
+      <c r="CB59" s="33" t="inlineStr"/>
+      <c r="CC59" s="33" t="inlineStr"/>
+      <c r="CD59" s="26" t="inlineStr"/>
+      <c r="CE59" s="27" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="16" t="inlineStr"/>
@@ -6674,31 +6673,31 @@
       <c r="BD60" s="21" t="inlineStr"/>
       <c r="BE60" s="21" t="inlineStr"/>
       <c r="BF60" s="23" t="inlineStr"/>
-      <c r="BG60" s="25" t="inlineStr"/>
+      <c r="BG60" s="32" t="inlineStr"/>
       <c r="BH60" s="32" t="inlineStr"/>
       <c r="BI60" s="32" t="inlineStr"/>
       <c r="BJ60" s="32" t="inlineStr"/>
       <c r="BK60" s="32" t="inlineStr"/>
-      <c r="BL60" s="26" t="inlineStr"/>
-      <c r="BM60" s="27" t="inlineStr"/>
-      <c r="BN60" s="33" t="inlineStr"/>
-      <c r="BO60" s="34" t="inlineStr"/>
-      <c r="BP60" s="34" t="inlineStr"/>
-      <c r="BQ60" s="34" t="inlineStr"/>
-      <c r="BR60" s="34" t="inlineStr"/>
-      <c r="BS60" s="34" t="inlineStr"/>
-      <c r="BT60" s="34" t="inlineStr"/>
-      <c r="BU60" s="34" t="inlineStr"/>
-      <c r="BV60" s="34" t="inlineStr"/>
-      <c r="BW60" s="34" t="inlineStr"/>
-      <c r="BX60" s="34" t="inlineStr"/>
-      <c r="BY60" s="34" t="inlineStr"/>
-      <c r="BZ60" s="34" t="inlineStr"/>
-      <c r="CA60" s="34" t="inlineStr"/>
-      <c r="CB60" s="34" t="inlineStr"/>
-      <c r="CC60" s="34" t="inlineStr"/>
-      <c r="CD60" s="34" t="inlineStr"/>
-      <c r="CE60" s="34" t="inlineStr"/>
+      <c r="BL60" s="32" t="inlineStr"/>
+      <c r="BM60" s="32" t="inlineStr"/>
+      <c r="BN60" s="32" t="inlineStr"/>
+      <c r="BO60" s="32" t="inlineStr"/>
+      <c r="BP60" s="32" t="inlineStr"/>
+      <c r="BQ60" s="32" t="inlineStr"/>
+      <c r="BR60" s="32" t="inlineStr"/>
+      <c r="BS60" s="32" t="inlineStr"/>
+      <c r="BT60" s="32" t="inlineStr"/>
+      <c r="BU60" s="32" t="inlineStr"/>
+      <c r="BV60" s="32" t="inlineStr"/>
+      <c r="BW60" s="32" t="inlineStr"/>
+      <c r="BX60" s="32" t="inlineStr"/>
+      <c r="BY60" s="25" t="inlineStr"/>
+      <c r="BZ60" s="33" t="inlineStr"/>
+      <c r="CA60" s="33" t="inlineStr"/>
+      <c r="CB60" s="33" t="inlineStr"/>
+      <c r="CC60" s="33" t="inlineStr"/>
+      <c r="CD60" s="26" t="inlineStr"/>
+      <c r="CE60" s="27" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="16" t="inlineStr"/>
@@ -6759,31 +6758,31 @@
       <c r="BD61" s="21" t="inlineStr"/>
       <c r="BE61" s="21" t="inlineStr"/>
       <c r="BF61" s="23" t="inlineStr"/>
-      <c r="BG61" s="25" t="inlineStr"/>
+      <c r="BG61" s="32" t="inlineStr"/>
       <c r="BH61" s="32" t="inlineStr"/>
       <c r="BI61" s="32" t="inlineStr"/>
       <c r="BJ61" s="32" t="inlineStr"/>
       <c r="BK61" s="32" t="inlineStr"/>
-      <c r="BL61" s="26" t="inlineStr"/>
-      <c r="BM61" s="27" t="inlineStr"/>
-      <c r="BN61" s="33" t="inlineStr"/>
-      <c r="BO61" s="34" t="inlineStr"/>
-      <c r="BP61" s="34" t="inlineStr"/>
-      <c r="BQ61" s="34" t="inlineStr"/>
-      <c r="BR61" s="34" t="inlineStr"/>
-      <c r="BS61" s="34" t="inlineStr"/>
-      <c r="BT61" s="34" t="inlineStr"/>
-      <c r="BU61" s="34" t="inlineStr"/>
-      <c r="BV61" s="34" t="inlineStr"/>
-      <c r="BW61" s="34" t="inlineStr"/>
-      <c r="BX61" s="34" t="inlineStr"/>
-      <c r="BY61" s="34" t="inlineStr"/>
-      <c r="BZ61" s="34" t="inlineStr"/>
-      <c r="CA61" s="34" t="inlineStr"/>
-      <c r="CB61" s="34" t="inlineStr"/>
-      <c r="CC61" s="34" t="inlineStr"/>
-      <c r="CD61" s="34" t="inlineStr"/>
-      <c r="CE61" s="34" t="inlineStr"/>
+      <c r="BL61" s="32" t="inlineStr"/>
+      <c r="BM61" s="32" t="inlineStr"/>
+      <c r="BN61" s="32" t="inlineStr"/>
+      <c r="BO61" s="32" t="inlineStr"/>
+      <c r="BP61" s="32" t="inlineStr"/>
+      <c r="BQ61" s="32" t="inlineStr"/>
+      <c r="BR61" s="32" t="inlineStr"/>
+      <c r="BS61" s="32" t="inlineStr"/>
+      <c r="BT61" s="32" t="inlineStr"/>
+      <c r="BU61" s="32" t="inlineStr"/>
+      <c r="BV61" s="32" t="inlineStr"/>
+      <c r="BW61" s="32" t="inlineStr"/>
+      <c r="BX61" s="32" t="inlineStr"/>
+      <c r="BY61" s="25" t="inlineStr"/>
+      <c r="BZ61" s="33" t="inlineStr"/>
+      <c r="CA61" s="33" t="inlineStr"/>
+      <c r="CB61" s="33" t="inlineStr"/>
+      <c r="CC61" s="33" t="inlineStr"/>
+      <c r="CD61" s="26" t="inlineStr"/>
+      <c r="CE61" s="27" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="16" t="inlineStr"/>
@@ -6844,31 +6843,31 @@
       <c r="BD62" s="21" t="inlineStr"/>
       <c r="BE62" s="21" t="inlineStr"/>
       <c r="BF62" s="23" t="inlineStr"/>
-      <c r="BG62" s="25" t="inlineStr"/>
+      <c r="BG62" s="32" t="inlineStr"/>
       <c r="BH62" s="32" t="inlineStr"/>
       <c r="BI62" s="32" t="inlineStr"/>
       <c r="BJ62" s="32" t="inlineStr"/>
       <c r="BK62" s="32" t="inlineStr"/>
-      <c r="BL62" s="26" t="inlineStr"/>
-      <c r="BM62" s="27" t="inlineStr"/>
-      <c r="BN62" s="33" t="inlineStr"/>
-      <c r="BO62" s="34" t="inlineStr"/>
-      <c r="BP62" s="34" t="inlineStr"/>
-      <c r="BQ62" s="34" t="inlineStr"/>
-      <c r="BR62" s="34" t="inlineStr"/>
-      <c r="BS62" s="34" t="inlineStr"/>
-      <c r="BT62" s="34" t="inlineStr"/>
-      <c r="BU62" s="34" t="inlineStr"/>
-      <c r="BV62" s="34" t="inlineStr"/>
-      <c r="BW62" s="34" t="inlineStr"/>
-      <c r="BX62" s="34" t="inlineStr"/>
-      <c r="BY62" s="34" t="inlineStr"/>
-      <c r="BZ62" s="34" t="inlineStr"/>
-      <c r="CA62" s="34" t="inlineStr"/>
-      <c r="CB62" s="34" t="inlineStr"/>
-      <c r="CC62" s="34" t="inlineStr"/>
-      <c r="CD62" s="34" t="inlineStr"/>
-      <c r="CE62" s="34" t="inlineStr"/>
+      <c r="BL62" s="32" t="inlineStr"/>
+      <c r="BM62" s="32" t="inlineStr"/>
+      <c r="BN62" s="32" t="inlineStr"/>
+      <c r="BO62" s="32" t="inlineStr"/>
+      <c r="BP62" s="32" t="inlineStr"/>
+      <c r="BQ62" s="32" t="inlineStr"/>
+      <c r="BR62" s="32" t="inlineStr"/>
+      <c r="BS62" s="32" t="inlineStr"/>
+      <c r="BT62" s="32" t="inlineStr"/>
+      <c r="BU62" s="32" t="inlineStr"/>
+      <c r="BV62" s="32" t="inlineStr"/>
+      <c r="BW62" s="32" t="inlineStr"/>
+      <c r="BX62" s="32" t="inlineStr"/>
+      <c r="BY62" s="25" t="inlineStr"/>
+      <c r="BZ62" s="33" t="inlineStr"/>
+      <c r="CA62" s="33" t="inlineStr"/>
+      <c r="CB62" s="33" t="inlineStr"/>
+      <c r="CC62" s="33" t="inlineStr"/>
+      <c r="CD62" s="26" t="inlineStr"/>
+      <c r="CE62" s="27" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="16" t="inlineStr"/>
@@ -6929,31 +6928,31 @@
       <c r="BD63" s="21" t="inlineStr"/>
       <c r="BE63" s="21" t="inlineStr"/>
       <c r="BF63" s="23" t="inlineStr"/>
-      <c r="BG63" s="25" t="inlineStr"/>
+      <c r="BG63" s="32" t="inlineStr"/>
       <c r="BH63" s="32" t="inlineStr"/>
       <c r="BI63" s="32" t="inlineStr"/>
       <c r="BJ63" s="32" t="inlineStr"/>
       <c r="BK63" s="32" t="inlineStr"/>
-      <c r="BL63" s="26" t="inlineStr"/>
-      <c r="BM63" s="27" t="inlineStr"/>
-      <c r="BN63" s="33" t="inlineStr"/>
-      <c r="BO63" s="34" t="inlineStr"/>
-      <c r="BP63" s="34" t="inlineStr"/>
-      <c r="BQ63" s="34" t="inlineStr"/>
-      <c r="BR63" s="34" t="inlineStr"/>
-      <c r="BS63" s="34" t="inlineStr"/>
-      <c r="BT63" s="34" t="inlineStr"/>
-      <c r="BU63" s="34" t="inlineStr"/>
-      <c r="BV63" s="34" t="inlineStr"/>
-      <c r="BW63" s="34" t="inlineStr"/>
-      <c r="BX63" s="34" t="inlineStr"/>
-      <c r="BY63" s="34" t="inlineStr"/>
-      <c r="BZ63" s="34" t="inlineStr"/>
-      <c r="CA63" s="34" t="inlineStr"/>
-      <c r="CB63" s="34" t="inlineStr"/>
-      <c r="CC63" s="34" t="inlineStr"/>
-      <c r="CD63" s="34" t="inlineStr"/>
-      <c r="CE63" s="34" t="inlineStr"/>
+      <c r="BL63" s="32" t="inlineStr"/>
+      <c r="BM63" s="32" t="inlineStr"/>
+      <c r="BN63" s="32" t="inlineStr"/>
+      <c r="BO63" s="32" t="inlineStr"/>
+      <c r="BP63" s="32" t="inlineStr"/>
+      <c r="BQ63" s="32" t="inlineStr"/>
+      <c r="BR63" s="32" t="inlineStr"/>
+      <c r="BS63" s="32" t="inlineStr"/>
+      <c r="BT63" s="32" t="inlineStr"/>
+      <c r="BU63" s="32" t="inlineStr"/>
+      <c r="BV63" s="32" t="inlineStr"/>
+      <c r="BW63" s="32" t="inlineStr"/>
+      <c r="BX63" s="32" t="inlineStr"/>
+      <c r="BY63" s="25" t="inlineStr"/>
+      <c r="BZ63" s="33" t="inlineStr"/>
+      <c r="CA63" s="33" t="inlineStr"/>
+      <c r="CB63" s="33" t="inlineStr"/>
+      <c r="CC63" s="33" t="inlineStr"/>
+      <c r="CD63" s="26" t="inlineStr"/>
+      <c r="CE63" s="27" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="16" t="inlineStr"/>
@@ -7014,31 +7013,31 @@
       <c r="BD64" s="21" t="inlineStr"/>
       <c r="BE64" s="21" t="inlineStr"/>
       <c r="BF64" s="23" t="inlineStr"/>
-      <c r="BG64" s="25" t="inlineStr"/>
+      <c r="BG64" s="32" t="inlineStr"/>
       <c r="BH64" s="32" t="inlineStr"/>
       <c r="BI64" s="32" t="inlineStr"/>
       <c r="BJ64" s="32" t="inlineStr"/>
       <c r="BK64" s="32" t="inlineStr"/>
-      <c r="BL64" s="26" t="inlineStr"/>
-      <c r="BM64" s="27" t="inlineStr"/>
-      <c r="BN64" s="33" t="inlineStr"/>
-      <c r="BO64" s="34" t="inlineStr"/>
-      <c r="BP64" s="34" t="inlineStr"/>
-      <c r="BQ64" s="34" t="inlineStr"/>
-      <c r="BR64" s="34" t="inlineStr"/>
-      <c r="BS64" s="34" t="inlineStr"/>
-      <c r="BT64" s="34" t="inlineStr"/>
-      <c r="BU64" s="34" t="inlineStr"/>
-      <c r="BV64" s="34" t="inlineStr"/>
-      <c r="BW64" s="34" t="inlineStr"/>
-      <c r="BX64" s="34" t="inlineStr"/>
-      <c r="BY64" s="34" t="inlineStr"/>
-      <c r="BZ64" s="34" t="inlineStr"/>
-      <c r="CA64" s="34" t="inlineStr"/>
-      <c r="CB64" s="34" t="inlineStr"/>
-      <c r="CC64" s="34" t="inlineStr"/>
-      <c r="CD64" s="34" t="inlineStr"/>
-      <c r="CE64" s="34" t="inlineStr"/>
+      <c r="BL64" s="32" t="inlineStr"/>
+      <c r="BM64" s="32" t="inlineStr"/>
+      <c r="BN64" s="32" t="inlineStr"/>
+      <c r="BO64" s="32" t="inlineStr"/>
+      <c r="BP64" s="32" t="inlineStr"/>
+      <c r="BQ64" s="32" t="inlineStr"/>
+      <c r="BR64" s="32" t="inlineStr"/>
+      <c r="BS64" s="32" t="inlineStr"/>
+      <c r="BT64" s="32" t="inlineStr"/>
+      <c r="BU64" s="32" t="inlineStr"/>
+      <c r="BV64" s="32" t="inlineStr"/>
+      <c r="BW64" s="32" t="inlineStr"/>
+      <c r="BX64" s="32" t="inlineStr"/>
+      <c r="BY64" s="25" t="inlineStr"/>
+      <c r="BZ64" s="33" t="inlineStr"/>
+      <c r="CA64" s="33" t="inlineStr"/>
+      <c r="CB64" s="33" t="inlineStr"/>
+      <c r="CC64" s="33" t="inlineStr"/>
+      <c r="CD64" s="26" t="inlineStr"/>
+      <c r="CE64" s="27" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="16" t="inlineStr"/>
@@ -7099,31 +7098,31 @@
       <c r="BD65" s="21" t="inlineStr"/>
       <c r="BE65" s="21" t="inlineStr"/>
       <c r="BF65" s="23" t="inlineStr"/>
-      <c r="BG65" s="25" t="inlineStr"/>
+      <c r="BG65" s="32" t="inlineStr"/>
       <c r="BH65" s="32" t="inlineStr"/>
       <c r="BI65" s="32" t="inlineStr"/>
       <c r="BJ65" s="32" t="inlineStr"/>
       <c r="BK65" s="32" t="inlineStr"/>
-      <c r="BL65" s="26" t="inlineStr"/>
-      <c r="BM65" s="27" t="inlineStr"/>
-      <c r="BN65" s="33" t="inlineStr"/>
-      <c r="BO65" s="34" t="inlineStr"/>
-      <c r="BP65" s="34" t="inlineStr"/>
-      <c r="BQ65" s="34" t="inlineStr"/>
-      <c r="BR65" s="34" t="inlineStr"/>
-      <c r="BS65" s="34" t="inlineStr"/>
-      <c r="BT65" s="34" t="inlineStr"/>
-      <c r="BU65" s="34" t="inlineStr"/>
-      <c r="BV65" s="34" t="inlineStr"/>
-      <c r="BW65" s="34" t="inlineStr"/>
-      <c r="BX65" s="34" t="inlineStr"/>
-      <c r="BY65" s="34" t="inlineStr"/>
-      <c r="BZ65" s="34" t="inlineStr"/>
-      <c r="CA65" s="34" t="inlineStr"/>
-      <c r="CB65" s="34" t="inlineStr"/>
-      <c r="CC65" s="34" t="inlineStr"/>
-      <c r="CD65" s="34" t="inlineStr"/>
-      <c r="CE65" s="34" t="inlineStr"/>
+      <c r="BL65" s="32" t="inlineStr"/>
+      <c r="BM65" s="32" t="inlineStr"/>
+      <c r="BN65" s="32" t="inlineStr"/>
+      <c r="BO65" s="32" t="inlineStr"/>
+      <c r="BP65" s="32" t="inlineStr"/>
+      <c r="BQ65" s="32" t="inlineStr"/>
+      <c r="BR65" s="32" t="inlineStr"/>
+      <c r="BS65" s="32" t="inlineStr"/>
+      <c r="BT65" s="32" t="inlineStr"/>
+      <c r="BU65" s="32" t="inlineStr"/>
+      <c r="BV65" s="32" t="inlineStr"/>
+      <c r="BW65" s="32" t="inlineStr"/>
+      <c r="BX65" s="32" t="inlineStr"/>
+      <c r="BY65" s="25" t="inlineStr"/>
+      <c r="BZ65" s="33" t="inlineStr"/>
+      <c r="CA65" s="33" t="inlineStr"/>
+      <c r="CB65" s="33" t="inlineStr"/>
+      <c r="CC65" s="33" t="inlineStr"/>
+      <c r="CD65" s="26" t="inlineStr"/>
+      <c r="CE65" s="27" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="inlineStr"/>
@@ -7184,31 +7183,31 @@
       <c r="BD66" s="21" t="inlineStr"/>
       <c r="BE66" s="21" t="inlineStr"/>
       <c r="BF66" s="23" t="inlineStr"/>
-      <c r="BG66" s="25" t="inlineStr"/>
+      <c r="BG66" s="32" t="inlineStr"/>
       <c r="BH66" s="32" t="inlineStr"/>
       <c r="BI66" s="32" t="inlineStr"/>
       <c r="BJ66" s="32" t="inlineStr"/>
       <c r="BK66" s="32" t="inlineStr"/>
-      <c r="BL66" s="26" t="inlineStr"/>
-      <c r="BM66" s="27" t="inlineStr"/>
-      <c r="BN66" s="33" t="inlineStr"/>
-      <c r="BO66" s="34" t="inlineStr"/>
-      <c r="BP66" s="34" t="inlineStr"/>
-      <c r="BQ66" s="34" t="inlineStr"/>
-      <c r="BR66" s="34" t="inlineStr"/>
-      <c r="BS66" s="34" t="inlineStr"/>
-      <c r="BT66" s="34" t="inlineStr"/>
-      <c r="BU66" s="34" t="inlineStr"/>
-      <c r="BV66" s="34" t="inlineStr"/>
-      <c r="BW66" s="34" t="inlineStr"/>
-      <c r="BX66" s="34" t="inlineStr"/>
-      <c r="BY66" s="34" t="inlineStr"/>
-      <c r="BZ66" s="34" t="inlineStr"/>
-      <c r="CA66" s="34" t="inlineStr"/>
-      <c r="CB66" s="34" t="inlineStr"/>
-      <c r="CC66" s="34" t="inlineStr"/>
-      <c r="CD66" s="34" t="inlineStr"/>
-      <c r="CE66" s="34" t="inlineStr"/>
+      <c r="BL66" s="32" t="inlineStr"/>
+      <c r="BM66" s="32" t="inlineStr"/>
+      <c r="BN66" s="32" t="inlineStr"/>
+      <c r="BO66" s="32" t="inlineStr"/>
+      <c r="BP66" s="32" t="inlineStr"/>
+      <c r="BQ66" s="32" t="inlineStr"/>
+      <c r="BR66" s="32" t="inlineStr"/>
+      <c r="BS66" s="32" t="inlineStr"/>
+      <c r="BT66" s="32" t="inlineStr"/>
+      <c r="BU66" s="32" t="inlineStr"/>
+      <c r="BV66" s="32" t="inlineStr"/>
+      <c r="BW66" s="32" t="inlineStr"/>
+      <c r="BX66" s="32" t="inlineStr"/>
+      <c r="BY66" s="25" t="inlineStr"/>
+      <c r="BZ66" s="33" t="inlineStr"/>
+      <c r="CA66" s="33" t="inlineStr"/>
+      <c r="CB66" s="33" t="inlineStr"/>
+      <c r="CC66" s="33" t="inlineStr"/>
+      <c r="CD66" s="26" t="inlineStr"/>
+      <c r="CE66" s="27" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="16" t="inlineStr"/>
@@ -7269,31 +7268,31 @@
       <c r="BD67" s="21" t="inlineStr"/>
       <c r="BE67" s="21" t="inlineStr"/>
       <c r="BF67" s="23" t="inlineStr"/>
-      <c r="BG67" s="25" t="inlineStr"/>
+      <c r="BG67" s="32" t="inlineStr"/>
       <c r="BH67" s="32" t="inlineStr"/>
       <c r="BI67" s="32" t="inlineStr"/>
       <c r="BJ67" s="32" t="inlineStr"/>
       <c r="BK67" s="32" t="inlineStr"/>
-      <c r="BL67" s="26" t="inlineStr"/>
-      <c r="BM67" s="27" t="inlineStr"/>
-      <c r="BN67" s="33" t="inlineStr"/>
-      <c r="BO67" s="34" t="inlineStr"/>
-      <c r="BP67" s="34" t="inlineStr"/>
-      <c r="BQ67" s="34" t="inlineStr"/>
-      <c r="BR67" s="34" t="inlineStr"/>
-      <c r="BS67" s="34" t="inlineStr"/>
-      <c r="BT67" s="34" t="inlineStr"/>
-      <c r="BU67" s="34" t="inlineStr"/>
-      <c r="BV67" s="34" t="inlineStr"/>
-      <c r="BW67" s="34" t="inlineStr"/>
-      <c r="BX67" s="34" t="inlineStr"/>
-      <c r="BY67" s="34" t="inlineStr"/>
-      <c r="BZ67" s="34" t="inlineStr"/>
-      <c r="CA67" s="34" t="inlineStr"/>
-      <c r="CB67" s="34" t="inlineStr"/>
-      <c r="CC67" s="34" t="inlineStr"/>
-      <c r="CD67" s="34" t="inlineStr"/>
-      <c r="CE67" s="34" t="inlineStr"/>
+      <c r="BL67" s="32" t="inlineStr"/>
+      <c r="BM67" s="32" t="inlineStr"/>
+      <c r="BN67" s="32" t="inlineStr"/>
+      <c r="BO67" s="32" t="inlineStr"/>
+      <c r="BP67" s="32" t="inlineStr"/>
+      <c r="BQ67" s="32" t="inlineStr"/>
+      <c r="BR67" s="32" t="inlineStr"/>
+      <c r="BS67" s="32" t="inlineStr"/>
+      <c r="BT67" s="32" t="inlineStr"/>
+      <c r="BU67" s="32" t="inlineStr"/>
+      <c r="BV67" s="32" t="inlineStr"/>
+      <c r="BW67" s="32" t="inlineStr"/>
+      <c r="BX67" s="32" t="inlineStr"/>
+      <c r="BY67" s="25" t="inlineStr"/>
+      <c r="BZ67" s="33" t="inlineStr"/>
+      <c r="CA67" s="33" t="inlineStr"/>
+      <c r="CB67" s="33" t="inlineStr"/>
+      <c r="CC67" s="33" t="inlineStr"/>
+      <c r="CD67" s="26" t="inlineStr"/>
+      <c r="CE67" s="27" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="16" t="inlineStr"/>
@@ -7354,31 +7353,31 @@
       <c r="BD68" s="21" t="inlineStr"/>
       <c r="BE68" s="21" t="inlineStr"/>
       <c r="BF68" s="23" t="inlineStr"/>
-      <c r="BG68" s="25" t="inlineStr"/>
+      <c r="BG68" s="32" t="inlineStr"/>
       <c r="BH68" s="32" t="inlineStr"/>
       <c r="BI68" s="32" t="inlineStr"/>
       <c r="BJ68" s="32" t="inlineStr"/>
       <c r="BK68" s="32" t="inlineStr"/>
-      <c r="BL68" s="26" t="inlineStr"/>
-      <c r="BM68" s="27" t="inlineStr"/>
-      <c r="BN68" s="33" t="inlineStr"/>
-      <c r="BO68" s="34" t="inlineStr"/>
-      <c r="BP68" s="34" t="inlineStr"/>
-      <c r="BQ68" s="34" t="inlineStr"/>
-      <c r="BR68" s="34" t="inlineStr"/>
-      <c r="BS68" s="34" t="inlineStr"/>
-      <c r="BT68" s="34" t="inlineStr"/>
-      <c r="BU68" s="34" t="inlineStr"/>
-      <c r="BV68" s="34" t="inlineStr"/>
-      <c r="BW68" s="34" t="inlineStr"/>
-      <c r="BX68" s="34" t="inlineStr"/>
-      <c r="BY68" s="34" t="inlineStr"/>
-      <c r="BZ68" s="34" t="inlineStr"/>
-      <c r="CA68" s="34" t="inlineStr"/>
-      <c r="CB68" s="34" t="inlineStr"/>
-      <c r="CC68" s="34" t="inlineStr"/>
-      <c r="CD68" s="34" t="inlineStr"/>
-      <c r="CE68" s="34" t="inlineStr"/>
+      <c r="BL68" s="32" t="inlineStr"/>
+      <c r="BM68" s="32" t="inlineStr"/>
+      <c r="BN68" s="32" t="inlineStr"/>
+      <c r="BO68" s="32" t="inlineStr"/>
+      <c r="BP68" s="32" t="inlineStr"/>
+      <c r="BQ68" s="32" t="inlineStr"/>
+      <c r="BR68" s="32" t="inlineStr"/>
+      <c r="BS68" s="32" t="inlineStr"/>
+      <c r="BT68" s="32" t="inlineStr"/>
+      <c r="BU68" s="32" t="inlineStr"/>
+      <c r="BV68" s="32" t="inlineStr"/>
+      <c r="BW68" s="32" t="inlineStr"/>
+      <c r="BX68" s="32" t="inlineStr"/>
+      <c r="BY68" s="25" t="inlineStr"/>
+      <c r="BZ68" s="33" t="inlineStr"/>
+      <c r="CA68" s="33" t="inlineStr"/>
+      <c r="CB68" s="33" t="inlineStr"/>
+      <c r="CC68" s="33" t="inlineStr"/>
+      <c r="CD68" s="26" t="inlineStr"/>
+      <c r="CE68" s="27" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="16" t="inlineStr"/>
@@ -7439,31 +7438,31 @@
       <c r="BD69" s="21" t="inlineStr"/>
       <c r="BE69" s="21" t="inlineStr"/>
       <c r="BF69" s="23" t="inlineStr"/>
-      <c r="BG69" s="25" t="inlineStr"/>
+      <c r="BG69" s="32" t="inlineStr"/>
       <c r="BH69" s="32" t="inlineStr"/>
       <c r="BI69" s="32" t="inlineStr"/>
       <c r="BJ69" s="32" t="inlineStr"/>
       <c r="BK69" s="32" t="inlineStr"/>
-      <c r="BL69" s="26" t="inlineStr"/>
-      <c r="BM69" s="27" t="inlineStr"/>
-      <c r="BN69" s="33" t="inlineStr"/>
-      <c r="BO69" s="34" t="inlineStr"/>
-      <c r="BP69" s="34" t="inlineStr"/>
-      <c r="BQ69" s="34" t="inlineStr"/>
-      <c r="BR69" s="34" t="inlineStr"/>
-      <c r="BS69" s="34" t="inlineStr"/>
-      <c r="BT69" s="34" t="inlineStr"/>
-      <c r="BU69" s="34" t="inlineStr"/>
-      <c r="BV69" s="34" t="inlineStr"/>
-      <c r="BW69" s="34" t="inlineStr"/>
-      <c r="BX69" s="34" t="inlineStr"/>
-      <c r="BY69" s="34" t="inlineStr"/>
-      <c r="BZ69" s="34" t="inlineStr"/>
-      <c r="CA69" s="34" t="inlineStr"/>
-      <c r="CB69" s="34" t="inlineStr"/>
-      <c r="CC69" s="34" t="inlineStr"/>
-      <c r="CD69" s="34" t="inlineStr"/>
-      <c r="CE69" s="34" t="inlineStr"/>
+      <c r="BL69" s="32" t="inlineStr"/>
+      <c r="BM69" s="32" t="inlineStr"/>
+      <c r="BN69" s="32" t="inlineStr"/>
+      <c r="BO69" s="32" t="inlineStr"/>
+      <c r="BP69" s="32" t="inlineStr"/>
+      <c r="BQ69" s="32" t="inlineStr"/>
+      <c r="BR69" s="32" t="inlineStr"/>
+      <c r="BS69" s="32" t="inlineStr"/>
+      <c r="BT69" s="32" t="inlineStr"/>
+      <c r="BU69" s="32" t="inlineStr"/>
+      <c r="BV69" s="32" t="inlineStr"/>
+      <c r="BW69" s="32" t="inlineStr"/>
+      <c r="BX69" s="32" t="inlineStr"/>
+      <c r="BY69" s="25" t="inlineStr"/>
+      <c r="BZ69" s="33" t="inlineStr"/>
+      <c r="CA69" s="33" t="inlineStr"/>
+      <c r="CB69" s="33" t="inlineStr"/>
+      <c r="CC69" s="33" t="inlineStr"/>
+      <c r="CD69" s="26" t="inlineStr"/>
+      <c r="CE69" s="27" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="16" t="inlineStr"/>
@@ -7524,31 +7523,31 @@
       <c r="BD70" s="21" t="inlineStr"/>
       <c r="BE70" s="21" t="inlineStr"/>
       <c r="BF70" s="23" t="inlineStr"/>
-      <c r="BG70" s="25" t="inlineStr"/>
+      <c r="BG70" s="32" t="inlineStr"/>
       <c r="BH70" s="32" t="inlineStr"/>
       <c r="BI70" s="32" t="inlineStr"/>
       <c r="BJ70" s="32" t="inlineStr"/>
       <c r="BK70" s="32" t="inlineStr"/>
-      <c r="BL70" s="26" t="inlineStr"/>
-      <c r="BM70" s="27" t="inlineStr"/>
-      <c r="BN70" s="33" t="inlineStr"/>
-      <c r="BO70" s="34" t="inlineStr"/>
-      <c r="BP70" s="34" t="inlineStr"/>
-      <c r="BQ70" s="34" t="inlineStr"/>
-      <c r="BR70" s="34" t="inlineStr"/>
-      <c r="BS70" s="34" t="inlineStr"/>
-      <c r="BT70" s="34" t="inlineStr"/>
-      <c r="BU70" s="34" t="inlineStr"/>
-      <c r="BV70" s="34" t="inlineStr"/>
-      <c r="BW70" s="34" t="inlineStr"/>
-      <c r="BX70" s="34" t="inlineStr"/>
-      <c r="BY70" s="34" t="inlineStr"/>
-      <c r="BZ70" s="34" t="inlineStr"/>
-      <c r="CA70" s="34" t="inlineStr"/>
-      <c r="CB70" s="34" t="inlineStr"/>
-      <c r="CC70" s="34" t="inlineStr"/>
-      <c r="CD70" s="34" t="inlineStr"/>
-      <c r="CE70" s="34" t="inlineStr"/>
+      <c r="BL70" s="32" t="inlineStr"/>
+      <c r="BM70" s="32" t="inlineStr"/>
+      <c r="BN70" s="32" t="inlineStr"/>
+      <c r="BO70" s="32" t="inlineStr"/>
+      <c r="BP70" s="32" t="inlineStr"/>
+      <c r="BQ70" s="32" t="inlineStr"/>
+      <c r="BR70" s="32" t="inlineStr"/>
+      <c r="BS70" s="32" t="inlineStr"/>
+      <c r="BT70" s="32" t="inlineStr"/>
+      <c r="BU70" s="32" t="inlineStr"/>
+      <c r="BV70" s="32" t="inlineStr"/>
+      <c r="BW70" s="32" t="inlineStr"/>
+      <c r="BX70" s="32" t="inlineStr"/>
+      <c r="BY70" s="25" t="inlineStr"/>
+      <c r="BZ70" s="33" t="inlineStr"/>
+      <c r="CA70" s="33" t="inlineStr"/>
+      <c r="CB70" s="33" t="inlineStr"/>
+      <c r="CC70" s="33" t="inlineStr"/>
+      <c r="CD70" s="26" t="inlineStr"/>
+      <c r="CE70" s="27" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="16" t="inlineStr"/>
@@ -7609,31 +7608,31 @@
       <c r="BD71" s="21" t="inlineStr"/>
       <c r="BE71" s="21" t="inlineStr"/>
       <c r="BF71" s="23" t="inlineStr"/>
-      <c r="BG71" s="25" t="inlineStr"/>
+      <c r="BG71" s="32" t="inlineStr"/>
       <c r="BH71" s="32" t="inlineStr"/>
       <c r="BI71" s="32" t="inlineStr"/>
       <c r="BJ71" s="32" t="inlineStr"/>
       <c r="BK71" s="32" t="inlineStr"/>
-      <c r="BL71" s="26" t="inlineStr"/>
-      <c r="BM71" s="27" t="inlineStr"/>
-      <c r="BN71" s="33" t="inlineStr"/>
-      <c r="BO71" s="34" t="inlineStr"/>
-      <c r="BP71" s="34" t="inlineStr"/>
-      <c r="BQ71" s="34" t="inlineStr"/>
-      <c r="BR71" s="34" t="inlineStr"/>
-      <c r="BS71" s="34" t="inlineStr"/>
-      <c r="BT71" s="34" t="inlineStr"/>
-      <c r="BU71" s="34" t="inlineStr"/>
-      <c r="BV71" s="34" t="inlineStr"/>
-      <c r="BW71" s="34" t="inlineStr"/>
-      <c r="BX71" s="34" t="inlineStr"/>
-      <c r="BY71" s="34" t="inlineStr"/>
-      <c r="BZ71" s="34" t="inlineStr"/>
-      <c r="CA71" s="34" t="inlineStr"/>
-      <c r="CB71" s="34" t="inlineStr"/>
-      <c r="CC71" s="34" t="inlineStr"/>
-      <c r="CD71" s="34" t="inlineStr"/>
-      <c r="CE71" s="34" t="inlineStr"/>
+      <c r="BL71" s="32" t="inlineStr"/>
+      <c r="BM71" s="32" t="inlineStr"/>
+      <c r="BN71" s="32" t="inlineStr"/>
+      <c r="BO71" s="32" t="inlineStr"/>
+      <c r="BP71" s="32" t="inlineStr"/>
+      <c r="BQ71" s="32" t="inlineStr"/>
+      <c r="BR71" s="32" t="inlineStr"/>
+      <c r="BS71" s="32" t="inlineStr"/>
+      <c r="BT71" s="32" t="inlineStr"/>
+      <c r="BU71" s="32" t="inlineStr"/>
+      <c r="BV71" s="32" t="inlineStr"/>
+      <c r="BW71" s="32" t="inlineStr"/>
+      <c r="BX71" s="32" t="inlineStr"/>
+      <c r="BY71" s="25" t="inlineStr"/>
+      <c r="BZ71" s="33" t="inlineStr"/>
+      <c r="CA71" s="33" t="inlineStr"/>
+      <c r="CB71" s="33" t="inlineStr"/>
+      <c r="CC71" s="33" t="inlineStr"/>
+      <c r="CD71" s="26" t="inlineStr"/>
+      <c r="CE71" s="27" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="16" t="inlineStr"/>
@@ -7694,31 +7693,31 @@
       <c r="BD72" s="21" t="inlineStr"/>
       <c r="BE72" s="21" t="inlineStr"/>
       <c r="BF72" s="23" t="inlineStr"/>
-      <c r="BG72" s="25" t="inlineStr"/>
+      <c r="BG72" s="32" t="inlineStr"/>
       <c r="BH72" s="32" t="inlineStr"/>
       <c r="BI72" s="32" t="inlineStr"/>
       <c r="BJ72" s="32" t="inlineStr"/>
       <c r="BK72" s="32" t="inlineStr"/>
-      <c r="BL72" s="26" t="inlineStr"/>
-      <c r="BM72" s="27" t="inlineStr"/>
-      <c r="BN72" s="33" t="inlineStr"/>
-      <c r="BO72" s="34" t="inlineStr"/>
-      <c r="BP72" s="34" t="inlineStr"/>
-      <c r="BQ72" s="34" t="inlineStr"/>
-      <c r="BR72" s="34" t="inlineStr"/>
-      <c r="BS72" s="34" t="inlineStr"/>
-      <c r="BT72" s="34" t="inlineStr"/>
-      <c r="BU72" s="34" t="inlineStr"/>
-      <c r="BV72" s="34" t="inlineStr"/>
-      <c r="BW72" s="34" t="inlineStr"/>
-      <c r="BX72" s="34" t="inlineStr"/>
-      <c r="BY72" s="34" t="inlineStr"/>
-      <c r="BZ72" s="34" t="inlineStr"/>
-      <c r="CA72" s="34" t="inlineStr"/>
-      <c r="CB72" s="34" t="inlineStr"/>
-      <c r="CC72" s="34" t="inlineStr"/>
-      <c r="CD72" s="34" t="inlineStr"/>
-      <c r="CE72" s="34" t="inlineStr"/>
+      <c r="BL72" s="32" t="inlineStr"/>
+      <c r="BM72" s="32" t="inlineStr"/>
+      <c r="BN72" s="32" t="inlineStr"/>
+      <c r="BO72" s="32" t="inlineStr"/>
+      <c r="BP72" s="32" t="inlineStr"/>
+      <c r="BQ72" s="32" t="inlineStr"/>
+      <c r="BR72" s="32" t="inlineStr"/>
+      <c r="BS72" s="32" t="inlineStr"/>
+      <c r="BT72" s="32" t="inlineStr"/>
+      <c r="BU72" s="32" t="inlineStr"/>
+      <c r="BV72" s="32" t="inlineStr"/>
+      <c r="BW72" s="32" t="inlineStr"/>
+      <c r="BX72" s="32" t="inlineStr"/>
+      <c r="BY72" s="25" t="inlineStr"/>
+      <c r="BZ72" s="33" t="inlineStr"/>
+      <c r="CA72" s="33" t="inlineStr"/>
+      <c r="CB72" s="33" t="inlineStr"/>
+      <c r="CC72" s="33" t="inlineStr"/>
+      <c r="CD72" s="26" t="inlineStr"/>
+      <c r="CE72" s="27" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="16" t="inlineStr"/>
@@ -7779,31 +7778,31 @@
       <c r="BD73" s="21" t="inlineStr"/>
       <c r="BE73" s="21" t="inlineStr"/>
       <c r="BF73" s="23" t="inlineStr"/>
-      <c r="BG73" s="25" t="inlineStr"/>
+      <c r="BG73" s="32" t="inlineStr"/>
       <c r="BH73" s="32" t="inlineStr"/>
       <c r="BI73" s="32" t="inlineStr"/>
       <c r="BJ73" s="32" t="inlineStr"/>
       <c r="BK73" s="32" t="inlineStr"/>
-      <c r="BL73" s="26" t="inlineStr"/>
-      <c r="BM73" s="27" t="inlineStr"/>
-      <c r="BN73" s="33" t="inlineStr"/>
-      <c r="BO73" s="34" t="inlineStr"/>
-      <c r="BP73" s="34" t="inlineStr"/>
-      <c r="BQ73" s="34" t="inlineStr"/>
-      <c r="BR73" s="34" t="inlineStr"/>
-      <c r="BS73" s="34" t="inlineStr"/>
-      <c r="BT73" s="34" t="inlineStr"/>
-      <c r="BU73" s="34" t="inlineStr"/>
-      <c r="BV73" s="34" t="inlineStr"/>
-      <c r="BW73" s="34" t="inlineStr"/>
-      <c r="BX73" s="34" t="inlineStr"/>
-      <c r="BY73" s="34" t="inlineStr"/>
-      <c r="BZ73" s="34" t="inlineStr"/>
-      <c r="CA73" s="34" t="inlineStr"/>
-      <c r="CB73" s="34" t="inlineStr"/>
-      <c r="CC73" s="34" t="inlineStr"/>
-      <c r="CD73" s="34" t="inlineStr"/>
-      <c r="CE73" s="34" t="inlineStr"/>
+      <c r="BL73" s="32" t="inlineStr"/>
+      <c r="BM73" s="32" t="inlineStr"/>
+      <c r="BN73" s="32" t="inlineStr"/>
+      <c r="BO73" s="32" t="inlineStr"/>
+      <c r="BP73" s="32" t="inlineStr"/>
+      <c r="BQ73" s="32" t="inlineStr"/>
+      <c r="BR73" s="32" t="inlineStr"/>
+      <c r="BS73" s="32" t="inlineStr"/>
+      <c r="BT73" s="32" t="inlineStr"/>
+      <c r="BU73" s="32" t="inlineStr"/>
+      <c r="BV73" s="32" t="inlineStr"/>
+      <c r="BW73" s="32" t="inlineStr"/>
+      <c r="BX73" s="32" t="inlineStr"/>
+      <c r="BY73" s="25" t="inlineStr"/>
+      <c r="BZ73" s="33" t="inlineStr"/>
+      <c r="CA73" s="33" t="inlineStr"/>
+      <c r="CB73" s="33" t="inlineStr"/>
+      <c r="CC73" s="33" t="inlineStr"/>
+      <c r="CD73" s="26" t="inlineStr"/>
+      <c r="CE73" s="27" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="16" t="inlineStr"/>
@@ -7864,31 +7863,31 @@
       <c r="BD74" s="21" t="inlineStr"/>
       <c r="BE74" s="21" t="inlineStr"/>
       <c r="BF74" s="23" t="inlineStr"/>
-      <c r="BG74" s="25" t="inlineStr"/>
+      <c r="BG74" s="32" t="inlineStr"/>
       <c r="BH74" s="32" t="inlineStr"/>
       <c r="BI74" s="32" t="inlineStr"/>
       <c r="BJ74" s="32" t="inlineStr"/>
       <c r="BK74" s="32" t="inlineStr"/>
-      <c r="BL74" s="26" t="inlineStr"/>
-      <c r="BM74" s="27" t="inlineStr"/>
-      <c r="BN74" s="33" t="inlineStr"/>
-      <c r="BO74" s="34" t="inlineStr"/>
-      <c r="BP74" s="34" t="inlineStr"/>
-      <c r="BQ74" s="34" t="inlineStr"/>
-      <c r="BR74" s="34" t="inlineStr"/>
-      <c r="BS74" s="34" t="inlineStr"/>
-      <c r="BT74" s="34" t="inlineStr"/>
-      <c r="BU74" s="34" t="inlineStr"/>
-      <c r="BV74" s="34" t="inlineStr"/>
-      <c r="BW74" s="34" t="inlineStr"/>
-      <c r="BX74" s="34" t="inlineStr"/>
-      <c r="BY74" s="34" t="inlineStr"/>
-      <c r="BZ74" s="34" t="inlineStr"/>
-      <c r="CA74" s="34" t="inlineStr"/>
-      <c r="CB74" s="34" t="inlineStr"/>
-      <c r="CC74" s="34" t="inlineStr"/>
-      <c r="CD74" s="34" t="inlineStr"/>
-      <c r="CE74" s="34" t="inlineStr"/>
+      <c r="BL74" s="32" t="inlineStr"/>
+      <c r="BM74" s="32" t="inlineStr"/>
+      <c r="BN74" s="32" t="inlineStr"/>
+      <c r="BO74" s="32" t="inlineStr"/>
+      <c r="BP74" s="32" t="inlineStr"/>
+      <c r="BQ74" s="32" t="inlineStr"/>
+      <c r="BR74" s="32" t="inlineStr"/>
+      <c r="BS74" s="32" t="inlineStr"/>
+      <c r="BT74" s="32" t="inlineStr"/>
+      <c r="BU74" s="32" t="inlineStr"/>
+      <c r="BV74" s="32" t="inlineStr"/>
+      <c r="BW74" s="32" t="inlineStr"/>
+      <c r="BX74" s="32" t="inlineStr"/>
+      <c r="BY74" s="25" t="inlineStr"/>
+      <c r="BZ74" s="33" t="inlineStr"/>
+      <c r="CA74" s="33" t="inlineStr"/>
+      <c r="CB74" s="33" t="inlineStr"/>
+      <c r="CC74" s="33" t="inlineStr"/>
+      <c r="CD74" s="26" t="inlineStr"/>
+      <c r="CE74" s="27" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="16" t="inlineStr"/>
@@ -7949,31 +7948,31 @@
       <c r="BD75" s="21" t="inlineStr"/>
       <c r="BE75" s="21" t="inlineStr"/>
       <c r="BF75" s="23" t="inlineStr"/>
-      <c r="BG75" s="25" t="inlineStr"/>
+      <c r="BG75" s="32" t="inlineStr"/>
       <c r="BH75" s="32" t="inlineStr"/>
       <c r="BI75" s="32" t="inlineStr"/>
       <c r="BJ75" s="32" t="inlineStr"/>
       <c r="BK75" s="32" t="inlineStr"/>
-      <c r="BL75" s="26" t="inlineStr"/>
-      <c r="BM75" s="27" t="inlineStr"/>
-      <c r="BN75" s="33" t="inlineStr"/>
-      <c r="BO75" s="34" t="inlineStr"/>
-      <c r="BP75" s="34" t="inlineStr"/>
-      <c r="BQ75" s="34" t="inlineStr"/>
-      <c r="BR75" s="34" t="inlineStr"/>
-      <c r="BS75" s="34" t="inlineStr"/>
-      <c r="BT75" s="34" t="inlineStr"/>
-      <c r="BU75" s="34" t="inlineStr"/>
-      <c r="BV75" s="34" t="inlineStr"/>
-      <c r="BW75" s="34" t="inlineStr"/>
-      <c r="BX75" s="34" t="inlineStr"/>
-      <c r="BY75" s="34" t="inlineStr"/>
-      <c r="BZ75" s="34" t="inlineStr"/>
-      <c r="CA75" s="34" t="inlineStr"/>
-      <c r="CB75" s="34" t="inlineStr"/>
-      <c r="CC75" s="34" t="inlineStr"/>
-      <c r="CD75" s="34" t="inlineStr"/>
-      <c r="CE75" s="34" t="inlineStr"/>
+      <c r="BL75" s="32" t="inlineStr"/>
+      <c r="BM75" s="32" t="inlineStr"/>
+      <c r="BN75" s="32" t="inlineStr"/>
+      <c r="BO75" s="32" t="inlineStr"/>
+      <c r="BP75" s="32" t="inlineStr"/>
+      <c r="BQ75" s="32" t="inlineStr"/>
+      <c r="BR75" s="32" t="inlineStr"/>
+      <c r="BS75" s="32" t="inlineStr"/>
+      <c r="BT75" s="32" t="inlineStr"/>
+      <c r="BU75" s="32" t="inlineStr"/>
+      <c r="BV75" s="32" t="inlineStr"/>
+      <c r="BW75" s="32" t="inlineStr"/>
+      <c r="BX75" s="32" t="inlineStr"/>
+      <c r="BY75" s="25" t="inlineStr"/>
+      <c r="BZ75" s="33" t="inlineStr"/>
+      <c r="CA75" s="33" t="inlineStr"/>
+      <c r="CB75" s="33" t="inlineStr"/>
+      <c r="CC75" s="33" t="inlineStr"/>
+      <c r="CD75" s="26" t="inlineStr"/>
+      <c r="CE75" s="27" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="16" t="inlineStr"/>
@@ -8034,31 +8033,31 @@
       <c r="BD76" s="21" t="inlineStr"/>
       <c r="BE76" s="21" t="inlineStr"/>
       <c r="BF76" s="23" t="inlineStr"/>
-      <c r="BG76" s="25" t="inlineStr"/>
+      <c r="BG76" s="32" t="inlineStr"/>
       <c r="BH76" s="32" t="inlineStr"/>
       <c r="BI76" s="32" t="inlineStr"/>
       <c r="BJ76" s="32" t="inlineStr"/>
       <c r="BK76" s="32" t="inlineStr"/>
-      <c r="BL76" s="26" t="inlineStr"/>
-      <c r="BM76" s="27" t="inlineStr"/>
-      <c r="BN76" s="33" t="inlineStr"/>
-      <c r="BO76" s="34" t="inlineStr"/>
-      <c r="BP76" s="34" t="inlineStr"/>
-      <c r="BQ76" s="34" t="inlineStr"/>
-      <c r="BR76" s="34" t="inlineStr"/>
-      <c r="BS76" s="34" t="inlineStr"/>
-      <c r="BT76" s="34" t="inlineStr"/>
-      <c r="BU76" s="34" t="inlineStr"/>
-      <c r="BV76" s="34" t="inlineStr"/>
-      <c r="BW76" s="34" t="inlineStr"/>
-      <c r="BX76" s="34" t="inlineStr"/>
-      <c r="BY76" s="34" t="inlineStr"/>
-      <c r="BZ76" s="34" t="inlineStr"/>
-      <c r="CA76" s="34" t="inlineStr"/>
-      <c r="CB76" s="34" t="inlineStr"/>
-      <c r="CC76" s="34" t="inlineStr"/>
-      <c r="CD76" s="34" t="inlineStr"/>
-      <c r="CE76" s="34" t="inlineStr"/>
+      <c r="BL76" s="32" t="inlineStr"/>
+      <c r="BM76" s="32" t="inlineStr"/>
+      <c r="BN76" s="32" t="inlineStr"/>
+      <c r="BO76" s="32" t="inlineStr"/>
+      <c r="BP76" s="32" t="inlineStr"/>
+      <c r="BQ76" s="32" t="inlineStr"/>
+      <c r="BR76" s="32" t="inlineStr"/>
+      <c r="BS76" s="32" t="inlineStr"/>
+      <c r="BT76" s="32" t="inlineStr"/>
+      <c r="BU76" s="32" t="inlineStr"/>
+      <c r="BV76" s="32" t="inlineStr"/>
+      <c r="BW76" s="32" t="inlineStr"/>
+      <c r="BX76" s="32" t="inlineStr"/>
+      <c r="BY76" s="25" t="inlineStr"/>
+      <c r="BZ76" s="33" t="inlineStr"/>
+      <c r="CA76" s="33" t="inlineStr"/>
+      <c r="CB76" s="33" t="inlineStr"/>
+      <c r="CC76" s="33" t="inlineStr"/>
+      <c r="CD76" s="26" t="inlineStr"/>
+      <c r="CE76" s="27" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="16" t="inlineStr"/>
@@ -8119,31 +8118,31 @@
       <c r="BD77" s="21" t="inlineStr"/>
       <c r="BE77" s="21" t="inlineStr"/>
       <c r="BF77" s="23" t="inlineStr"/>
-      <c r="BG77" s="25" t="inlineStr"/>
+      <c r="BG77" s="32" t="inlineStr"/>
       <c r="BH77" s="32" t="inlineStr"/>
       <c r="BI77" s="32" t="inlineStr"/>
       <c r="BJ77" s="32" t="inlineStr"/>
       <c r="BK77" s="32" t="inlineStr"/>
-      <c r="BL77" s="26" t="inlineStr"/>
-      <c r="BM77" s="27" t="inlineStr"/>
-      <c r="BN77" s="33" t="inlineStr"/>
-      <c r="BO77" s="34" t="inlineStr"/>
-      <c r="BP77" s="34" t="inlineStr"/>
-      <c r="BQ77" s="34" t="inlineStr"/>
-      <c r="BR77" s="34" t="inlineStr"/>
-      <c r="BS77" s="34" t="inlineStr"/>
-      <c r="BT77" s="34" t="inlineStr"/>
-      <c r="BU77" s="34" t="inlineStr"/>
-      <c r="BV77" s="34" t="inlineStr"/>
-      <c r="BW77" s="34" t="inlineStr"/>
-      <c r="BX77" s="34" t="inlineStr"/>
-      <c r="BY77" s="34" t="inlineStr"/>
-      <c r="BZ77" s="34" t="inlineStr"/>
-      <c r="CA77" s="34" t="inlineStr"/>
-      <c r="CB77" s="34" t="inlineStr"/>
-      <c r="CC77" s="34" t="inlineStr"/>
-      <c r="CD77" s="34" t="inlineStr"/>
-      <c r="CE77" s="34" t="inlineStr"/>
+      <c r="BL77" s="32" t="inlineStr"/>
+      <c r="BM77" s="32" t="inlineStr"/>
+      <c r="BN77" s="32" t="inlineStr"/>
+      <c r="BO77" s="32" t="inlineStr"/>
+      <c r="BP77" s="32" t="inlineStr"/>
+      <c r="BQ77" s="32" t="inlineStr"/>
+      <c r="BR77" s="32" t="inlineStr"/>
+      <c r="BS77" s="32" t="inlineStr"/>
+      <c r="BT77" s="32" t="inlineStr"/>
+      <c r="BU77" s="32" t="inlineStr"/>
+      <c r="BV77" s="32" t="inlineStr"/>
+      <c r="BW77" s="32" t="inlineStr"/>
+      <c r="BX77" s="32" t="inlineStr"/>
+      <c r="BY77" s="25" t="inlineStr"/>
+      <c r="BZ77" s="33" t="inlineStr"/>
+      <c r="CA77" s="33" t="inlineStr"/>
+      <c r="CB77" s="33" t="inlineStr"/>
+      <c r="CC77" s="33" t="inlineStr"/>
+      <c r="CD77" s="26" t="inlineStr"/>
+      <c r="CE77" s="27" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="16" t="inlineStr"/>
@@ -8204,31 +8203,31 @@
       <c r="BD78" s="21" t="inlineStr"/>
       <c r="BE78" s="21" t="inlineStr"/>
       <c r="BF78" s="23" t="inlineStr"/>
-      <c r="BG78" s="25" t="inlineStr"/>
+      <c r="BG78" s="32" t="inlineStr"/>
       <c r="BH78" s="32" t="inlineStr"/>
       <c r="BI78" s="32" t="inlineStr"/>
       <c r="BJ78" s="32" t="inlineStr"/>
       <c r="BK78" s="32" t="inlineStr"/>
-      <c r="BL78" s="26" t="inlineStr"/>
-      <c r="BM78" s="27" t="inlineStr"/>
-      <c r="BN78" s="33" t="inlineStr"/>
-      <c r="BO78" s="34" t="inlineStr"/>
-      <c r="BP78" s="34" t="inlineStr"/>
-      <c r="BQ78" s="34" t="inlineStr"/>
-      <c r="BR78" s="34" t="inlineStr"/>
-      <c r="BS78" s="34" t="inlineStr"/>
-      <c r="BT78" s="34" t="inlineStr"/>
-      <c r="BU78" s="34" t="inlineStr"/>
-      <c r="BV78" s="34" t="inlineStr"/>
-      <c r="BW78" s="34" t="inlineStr"/>
-      <c r="BX78" s="34" t="inlineStr"/>
-      <c r="BY78" s="34" t="inlineStr"/>
-      <c r="BZ78" s="34" t="inlineStr"/>
-      <c r="CA78" s="34" t="inlineStr"/>
-      <c r="CB78" s="34" t="inlineStr"/>
-      <c r="CC78" s="34" t="inlineStr"/>
-      <c r="CD78" s="34" t="inlineStr"/>
-      <c r="CE78" s="34" t="inlineStr"/>
+      <c r="BL78" s="32" t="inlineStr"/>
+      <c r="BM78" s="32" t="inlineStr"/>
+      <c r="BN78" s="32" t="inlineStr"/>
+      <c r="BO78" s="32" t="inlineStr"/>
+      <c r="BP78" s="32" t="inlineStr"/>
+      <c r="BQ78" s="32" t="inlineStr"/>
+      <c r="BR78" s="32" t="inlineStr"/>
+      <c r="BS78" s="32" t="inlineStr"/>
+      <c r="BT78" s="32" t="inlineStr"/>
+      <c r="BU78" s="32" t="inlineStr"/>
+      <c r="BV78" s="32" t="inlineStr"/>
+      <c r="BW78" s="32" t="inlineStr"/>
+      <c r="BX78" s="32" t="inlineStr"/>
+      <c r="BY78" s="25" t="inlineStr"/>
+      <c r="BZ78" s="33" t="inlineStr"/>
+      <c r="CA78" s="33" t="inlineStr"/>
+      <c r="CB78" s="33" t="inlineStr"/>
+      <c r="CC78" s="33" t="inlineStr"/>
+      <c r="CD78" s="26" t="inlineStr"/>
+      <c r="CE78" s="27" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="16" t="inlineStr"/>
@@ -8289,31 +8288,31 @@
       <c r="BD79" s="21" t="inlineStr"/>
       <c r="BE79" s="21" t="inlineStr"/>
       <c r="BF79" s="23" t="inlineStr"/>
-      <c r="BG79" s="25" t="inlineStr"/>
+      <c r="BG79" s="32" t="inlineStr"/>
       <c r="BH79" s="32" t="inlineStr"/>
       <c r="BI79" s="32" t="inlineStr"/>
       <c r="BJ79" s="32" t="inlineStr"/>
       <c r="BK79" s="32" t="inlineStr"/>
-      <c r="BL79" s="26" t="inlineStr"/>
-      <c r="BM79" s="27" t="inlineStr"/>
-      <c r="BN79" s="33" t="inlineStr"/>
-      <c r="BO79" s="34" t="inlineStr"/>
-      <c r="BP79" s="34" t="inlineStr"/>
-      <c r="BQ79" s="34" t="inlineStr"/>
-      <c r="BR79" s="34" t="inlineStr"/>
-      <c r="BS79" s="34" t="inlineStr"/>
-      <c r="BT79" s="34" t="inlineStr"/>
-      <c r="BU79" s="34" t="inlineStr"/>
-      <c r="BV79" s="34" t="inlineStr"/>
-      <c r="BW79" s="34" t="inlineStr"/>
-      <c r="BX79" s="34" t="inlineStr"/>
-      <c r="BY79" s="34" t="inlineStr"/>
-      <c r="BZ79" s="34" t="inlineStr"/>
-      <c r="CA79" s="34" t="inlineStr"/>
-      <c r="CB79" s="34" t="inlineStr"/>
-      <c r="CC79" s="34" t="inlineStr"/>
-      <c r="CD79" s="34" t="inlineStr"/>
-      <c r="CE79" s="34" t="inlineStr"/>
+      <c r="BL79" s="32" t="inlineStr"/>
+      <c r="BM79" s="32" t="inlineStr"/>
+      <c r="BN79" s="32" t="inlineStr"/>
+      <c r="BO79" s="32" t="inlineStr"/>
+      <c r="BP79" s="32" t="inlineStr"/>
+      <c r="BQ79" s="32" t="inlineStr"/>
+      <c r="BR79" s="32" t="inlineStr"/>
+      <c r="BS79" s="32" t="inlineStr"/>
+      <c r="BT79" s="32" t="inlineStr"/>
+      <c r="BU79" s="32" t="inlineStr"/>
+      <c r="BV79" s="32" t="inlineStr"/>
+      <c r="BW79" s="32" t="inlineStr"/>
+      <c r="BX79" s="32" t="inlineStr"/>
+      <c r="BY79" s="25" t="inlineStr"/>
+      <c r="BZ79" s="33" t="inlineStr"/>
+      <c r="CA79" s="33" t="inlineStr"/>
+      <c r="CB79" s="33" t="inlineStr"/>
+      <c r="CC79" s="33" t="inlineStr"/>
+      <c r="CD79" s="26" t="inlineStr"/>
+      <c r="CE79" s="27" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="16" t="inlineStr"/>
@@ -8374,31 +8373,31 @@
       <c r="BD80" s="21" t="inlineStr"/>
       <c r="BE80" s="21" t="inlineStr"/>
       <c r="BF80" s="23" t="inlineStr"/>
-      <c r="BG80" s="25" t="inlineStr"/>
+      <c r="BG80" s="32" t="inlineStr"/>
       <c r="BH80" s="32" t="inlineStr"/>
       <c r="BI80" s="32" t="inlineStr"/>
       <c r="BJ80" s="32" t="inlineStr"/>
       <c r="BK80" s="32" t="inlineStr"/>
-      <c r="BL80" s="26" t="inlineStr"/>
-      <c r="BM80" s="27" t="inlineStr"/>
-      <c r="BN80" s="33" t="inlineStr"/>
-      <c r="BO80" s="34" t="inlineStr"/>
-      <c r="BP80" s="34" t="inlineStr"/>
-      <c r="BQ80" s="34" t="inlineStr"/>
-      <c r="BR80" s="34" t="inlineStr"/>
-      <c r="BS80" s="34" t="inlineStr"/>
-      <c r="BT80" s="34" t="inlineStr"/>
-      <c r="BU80" s="34" t="inlineStr"/>
-      <c r="BV80" s="34" t="inlineStr"/>
-      <c r="BW80" s="34" t="inlineStr"/>
-      <c r="BX80" s="34" t="inlineStr"/>
-      <c r="BY80" s="34" t="inlineStr"/>
-      <c r="BZ80" s="34" t="inlineStr"/>
-      <c r="CA80" s="34" t="inlineStr"/>
-      <c r="CB80" s="34" t="inlineStr"/>
-      <c r="CC80" s="34" t="inlineStr"/>
-      <c r="CD80" s="34" t="inlineStr"/>
-      <c r="CE80" s="34" t="inlineStr"/>
+      <c r="BL80" s="32" t="inlineStr"/>
+      <c r="BM80" s="32" t="inlineStr"/>
+      <c r="BN80" s="32" t="inlineStr"/>
+      <c r="BO80" s="32" t="inlineStr"/>
+      <c r="BP80" s="32" t="inlineStr"/>
+      <c r="BQ80" s="32" t="inlineStr"/>
+      <c r="BR80" s="32" t="inlineStr"/>
+      <c r="BS80" s="32" t="inlineStr"/>
+      <c r="BT80" s="32" t="inlineStr"/>
+      <c r="BU80" s="32" t="inlineStr"/>
+      <c r="BV80" s="32" t="inlineStr"/>
+      <c r="BW80" s="32" t="inlineStr"/>
+      <c r="BX80" s="32" t="inlineStr"/>
+      <c r="BY80" s="25" t="inlineStr"/>
+      <c r="BZ80" s="33" t="inlineStr"/>
+      <c r="CA80" s="33" t="inlineStr"/>
+      <c r="CB80" s="33" t="inlineStr"/>
+      <c r="CC80" s="33" t="inlineStr"/>
+      <c r="CD80" s="26" t="inlineStr"/>
+      <c r="CE80" s="27" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="16" t="inlineStr"/>
@@ -8459,31 +8458,31 @@
       <c r="BD81" s="21" t="inlineStr"/>
       <c r="BE81" s="21" t="inlineStr"/>
       <c r="BF81" s="23" t="inlineStr"/>
-      <c r="BG81" s="25" t="inlineStr"/>
+      <c r="BG81" s="32" t="inlineStr"/>
       <c r="BH81" s="32" t="inlineStr"/>
       <c r="BI81" s="32" t="inlineStr"/>
       <c r="BJ81" s="32" t="inlineStr"/>
       <c r="BK81" s="32" t="inlineStr"/>
-      <c r="BL81" s="26" t="inlineStr"/>
-      <c r="BM81" s="27" t="inlineStr"/>
-      <c r="BN81" s="33" t="inlineStr"/>
-      <c r="BO81" s="34" t="inlineStr"/>
-      <c r="BP81" s="34" t="inlineStr"/>
-      <c r="BQ81" s="34" t="inlineStr"/>
-      <c r="BR81" s="34" t="inlineStr"/>
-      <c r="BS81" s="34" t="inlineStr"/>
-      <c r="BT81" s="34" t="inlineStr"/>
-      <c r="BU81" s="34" t="inlineStr"/>
-      <c r="BV81" s="34" t="inlineStr"/>
-      <c r="BW81" s="34" t="inlineStr"/>
-      <c r="BX81" s="34" t="inlineStr"/>
-      <c r="BY81" s="34" t="inlineStr"/>
-      <c r="BZ81" s="34" t="inlineStr"/>
-      <c r="CA81" s="34" t="inlineStr"/>
-      <c r="CB81" s="34" t="inlineStr"/>
-      <c r="CC81" s="34" t="inlineStr"/>
-      <c r="CD81" s="34" t="inlineStr"/>
-      <c r="CE81" s="34" t="inlineStr"/>
+      <c r="BL81" s="32" t="inlineStr"/>
+      <c r="BM81" s="32" t="inlineStr"/>
+      <c r="BN81" s="32" t="inlineStr"/>
+      <c r="BO81" s="32" t="inlineStr"/>
+      <c r="BP81" s="32" t="inlineStr"/>
+      <c r="BQ81" s="32" t="inlineStr"/>
+      <c r="BR81" s="32" t="inlineStr"/>
+      <c r="BS81" s="32" t="inlineStr"/>
+      <c r="BT81" s="32" t="inlineStr"/>
+      <c r="BU81" s="32" t="inlineStr"/>
+      <c r="BV81" s="32" t="inlineStr"/>
+      <c r="BW81" s="32" t="inlineStr"/>
+      <c r="BX81" s="32" t="inlineStr"/>
+      <c r="BY81" s="25" t="inlineStr"/>
+      <c r="BZ81" s="33" t="inlineStr"/>
+      <c r="CA81" s="33" t="inlineStr"/>
+      <c r="CB81" s="33" t="inlineStr"/>
+      <c r="CC81" s="33" t="inlineStr"/>
+      <c r="CD81" s="26" t="inlineStr"/>
+      <c r="CE81" s="27" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="16" t="inlineStr"/>
@@ -8544,31 +8543,31 @@
       <c r="BD82" s="21" t="inlineStr"/>
       <c r="BE82" s="21" t="inlineStr"/>
       <c r="BF82" s="23" t="inlineStr"/>
-      <c r="BG82" s="25" t="inlineStr"/>
+      <c r="BG82" s="32" t="inlineStr"/>
       <c r="BH82" s="32" t="inlineStr"/>
       <c r="BI82" s="32" t="inlineStr"/>
       <c r="BJ82" s="32" t="inlineStr"/>
       <c r="BK82" s="32" t="inlineStr"/>
-      <c r="BL82" s="26" t="inlineStr"/>
-      <c r="BM82" s="27" t="inlineStr"/>
-      <c r="BN82" s="33" t="inlineStr"/>
-      <c r="BO82" s="34" t="inlineStr"/>
-      <c r="BP82" s="34" t="inlineStr"/>
-      <c r="BQ82" s="34" t="inlineStr"/>
-      <c r="BR82" s="34" t="inlineStr"/>
-      <c r="BS82" s="34" t="inlineStr"/>
-      <c r="BT82" s="34" t="inlineStr"/>
-      <c r="BU82" s="34" t="inlineStr"/>
-      <c r="BV82" s="34" t="inlineStr"/>
-      <c r="BW82" s="34" t="inlineStr"/>
-      <c r="BX82" s="34" t="inlineStr"/>
-      <c r="BY82" s="34" t="inlineStr"/>
-      <c r="BZ82" s="34" t="inlineStr"/>
-      <c r="CA82" s="34" t="inlineStr"/>
-      <c r="CB82" s="34" t="inlineStr"/>
-      <c r="CC82" s="34" t="inlineStr"/>
-      <c r="CD82" s="34" t="inlineStr"/>
-      <c r="CE82" s="34" t="inlineStr"/>
+      <c r="BL82" s="32" t="inlineStr"/>
+      <c r="BM82" s="32" t="inlineStr"/>
+      <c r="BN82" s="32" t="inlineStr"/>
+      <c r="BO82" s="32" t="inlineStr"/>
+      <c r="BP82" s="32" t="inlineStr"/>
+      <c r="BQ82" s="32" t="inlineStr"/>
+      <c r="BR82" s="32" t="inlineStr"/>
+      <c r="BS82" s="32" t="inlineStr"/>
+      <c r="BT82" s="32" t="inlineStr"/>
+      <c r="BU82" s="32" t="inlineStr"/>
+      <c r="BV82" s="32" t="inlineStr"/>
+      <c r="BW82" s="32" t="inlineStr"/>
+      <c r="BX82" s="32" t="inlineStr"/>
+      <c r="BY82" s="25" t="inlineStr"/>
+      <c r="BZ82" s="33" t="inlineStr"/>
+      <c r="CA82" s="33" t="inlineStr"/>
+      <c r="CB82" s="33" t="inlineStr"/>
+      <c r="CC82" s="33" t="inlineStr"/>
+      <c r="CD82" s="26" t="inlineStr"/>
+      <c r="CE82" s="27" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="16" t="inlineStr"/>
@@ -8629,31 +8628,31 @@
       <c r="BD83" s="21" t="inlineStr"/>
       <c r="BE83" s="21" t="inlineStr"/>
       <c r="BF83" s="23" t="inlineStr"/>
-      <c r="BG83" s="25" t="inlineStr"/>
+      <c r="BG83" s="32" t="inlineStr"/>
       <c r="BH83" s="32" t="inlineStr"/>
       <c r="BI83" s="32" t="inlineStr"/>
       <c r="BJ83" s="32" t="inlineStr"/>
       <c r="BK83" s="32" t="inlineStr"/>
-      <c r="BL83" s="26" t="inlineStr"/>
-      <c r="BM83" s="27" t="inlineStr"/>
-      <c r="BN83" s="33" t="inlineStr"/>
-      <c r="BO83" s="34" t="inlineStr"/>
-      <c r="BP83" s="34" t="inlineStr"/>
-      <c r="BQ83" s="34" t="inlineStr"/>
-      <c r="BR83" s="34" t="inlineStr"/>
-      <c r="BS83" s="34" t="inlineStr"/>
-      <c r="BT83" s="34" t="inlineStr"/>
-      <c r="BU83" s="34" t="inlineStr"/>
-      <c r="BV83" s="34" t="inlineStr"/>
-      <c r="BW83" s="34" t="inlineStr"/>
-      <c r="BX83" s="34" t="inlineStr"/>
-      <c r="BY83" s="34" t="inlineStr"/>
-      <c r="BZ83" s="34" t="inlineStr"/>
-      <c r="CA83" s="34" t="inlineStr"/>
-      <c r="CB83" s="34" t="inlineStr"/>
-      <c r="CC83" s="34" t="inlineStr"/>
-      <c r="CD83" s="34" t="inlineStr"/>
-      <c r="CE83" s="34" t="inlineStr"/>
+      <c r="BL83" s="32" t="inlineStr"/>
+      <c r="BM83" s="32" t="inlineStr"/>
+      <c r="BN83" s="32" t="inlineStr"/>
+      <c r="BO83" s="32" t="inlineStr"/>
+      <c r="BP83" s="32" t="inlineStr"/>
+      <c r="BQ83" s="32" t="inlineStr"/>
+      <c r="BR83" s="32" t="inlineStr"/>
+      <c r="BS83" s="32" t="inlineStr"/>
+      <c r="BT83" s="32" t="inlineStr"/>
+      <c r="BU83" s="32" t="inlineStr"/>
+      <c r="BV83" s="32" t="inlineStr"/>
+      <c r="BW83" s="32" t="inlineStr"/>
+      <c r="BX83" s="32" t="inlineStr"/>
+      <c r="BY83" s="25" t="inlineStr"/>
+      <c r="BZ83" s="33" t="inlineStr"/>
+      <c r="CA83" s="33" t="inlineStr"/>
+      <c r="CB83" s="33" t="inlineStr"/>
+      <c r="CC83" s="33" t="inlineStr"/>
+      <c r="CD83" s="26" t="inlineStr"/>
+      <c r="CE83" s="27" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="16" t="inlineStr"/>
@@ -8714,31 +8713,31 @@
       <c r="BD84" s="21" t="inlineStr"/>
       <c r="BE84" s="21" t="inlineStr"/>
       <c r="BF84" s="23" t="inlineStr"/>
-      <c r="BG84" s="25" t="inlineStr"/>
+      <c r="BG84" s="32" t="inlineStr"/>
       <c r="BH84" s="32" t="inlineStr"/>
       <c r="BI84" s="32" t="inlineStr"/>
       <c r="BJ84" s="32" t="inlineStr"/>
       <c r="BK84" s="32" t="inlineStr"/>
-      <c r="BL84" s="26" t="inlineStr"/>
-      <c r="BM84" s="27" t="inlineStr"/>
-      <c r="BN84" s="33" t="inlineStr"/>
-      <c r="BO84" s="34" t="inlineStr"/>
-      <c r="BP84" s="34" t="inlineStr"/>
-      <c r="BQ84" s="34" t="inlineStr"/>
-      <c r="BR84" s="34" t="inlineStr"/>
-      <c r="BS84" s="34" t="inlineStr"/>
-      <c r="BT84" s="34" t="inlineStr"/>
-      <c r="BU84" s="34" t="inlineStr"/>
-      <c r="BV84" s="34" t="inlineStr"/>
-      <c r="BW84" s="34" t="inlineStr"/>
-      <c r="BX84" s="34" t="inlineStr"/>
-      <c r="BY84" s="34" t="inlineStr"/>
-      <c r="BZ84" s="34" t="inlineStr"/>
-      <c r="CA84" s="34" t="inlineStr"/>
-      <c r="CB84" s="34" t="inlineStr"/>
-      <c r="CC84" s="34" t="inlineStr"/>
-      <c r="CD84" s="34" t="inlineStr"/>
-      <c r="CE84" s="34" t="inlineStr"/>
+      <c r="BL84" s="32" t="inlineStr"/>
+      <c r="BM84" s="32" t="inlineStr"/>
+      <c r="BN84" s="32" t="inlineStr"/>
+      <c r="BO84" s="32" t="inlineStr"/>
+      <c r="BP84" s="32" t="inlineStr"/>
+      <c r="BQ84" s="32" t="inlineStr"/>
+      <c r="BR84" s="32" t="inlineStr"/>
+      <c r="BS84" s="32" t="inlineStr"/>
+      <c r="BT84" s="32" t="inlineStr"/>
+      <c r="BU84" s="32" t="inlineStr"/>
+      <c r="BV84" s="32" t="inlineStr"/>
+      <c r="BW84" s="32" t="inlineStr"/>
+      <c r="BX84" s="32" t="inlineStr"/>
+      <c r="BY84" s="25" t="inlineStr"/>
+      <c r="BZ84" s="33" t="inlineStr"/>
+      <c r="CA84" s="33" t="inlineStr"/>
+      <c r="CB84" s="33" t="inlineStr"/>
+      <c r="CC84" s="33" t="inlineStr"/>
+      <c r="CD84" s="26" t="inlineStr"/>
+      <c r="CE84" s="27" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="16" t="inlineStr"/>
@@ -8799,31 +8798,31 @@
       <c r="BD85" s="21" t="inlineStr"/>
       <c r="BE85" s="21" t="inlineStr"/>
       <c r="BF85" s="23" t="inlineStr"/>
-      <c r="BG85" s="25" t="inlineStr"/>
+      <c r="BG85" s="32" t="inlineStr"/>
       <c r="BH85" s="32" t="inlineStr"/>
       <c r="BI85" s="32" t="inlineStr"/>
       <c r="BJ85" s="32" t="inlineStr"/>
       <c r="BK85" s="32" t="inlineStr"/>
-      <c r="BL85" s="26" t="inlineStr"/>
-      <c r="BM85" s="27" t="inlineStr"/>
-      <c r="BN85" s="33" t="inlineStr"/>
-      <c r="BO85" s="34" t="inlineStr"/>
-      <c r="BP85" s="34" t="inlineStr"/>
-      <c r="BQ85" s="34" t="inlineStr"/>
-      <c r="BR85" s="34" t="inlineStr"/>
-      <c r="BS85" s="34" t="inlineStr"/>
-      <c r="BT85" s="34" t="inlineStr"/>
-      <c r="BU85" s="34" t="inlineStr"/>
-      <c r="BV85" s="34" t="inlineStr"/>
-      <c r="BW85" s="34" t="inlineStr"/>
-      <c r="BX85" s="34" t="inlineStr"/>
-      <c r="BY85" s="34" t="inlineStr"/>
-      <c r="BZ85" s="34" t="inlineStr"/>
-      <c r="CA85" s="34" t="inlineStr"/>
-      <c r="CB85" s="34" t="inlineStr"/>
-      <c r="CC85" s="34" t="inlineStr"/>
-      <c r="CD85" s="34" t="inlineStr"/>
-      <c r="CE85" s="34" t="inlineStr"/>
+      <c r="BL85" s="32" t="inlineStr"/>
+      <c r="BM85" s="32" t="inlineStr"/>
+      <c r="BN85" s="32" t="inlineStr"/>
+      <c r="BO85" s="32" t="inlineStr"/>
+      <c r="BP85" s="32" t="inlineStr"/>
+      <c r="BQ85" s="32" t="inlineStr"/>
+      <c r="BR85" s="32" t="inlineStr"/>
+      <c r="BS85" s="32" t="inlineStr"/>
+      <c r="BT85" s="32" t="inlineStr"/>
+      <c r="BU85" s="32" t="inlineStr"/>
+      <c r="BV85" s="32" t="inlineStr"/>
+      <c r="BW85" s="32" t="inlineStr"/>
+      <c r="BX85" s="32" t="inlineStr"/>
+      <c r="BY85" s="25" t="inlineStr"/>
+      <c r="BZ85" s="33" t="inlineStr"/>
+      <c r="CA85" s="33" t="inlineStr"/>
+      <c r="CB85" s="33" t="inlineStr"/>
+      <c r="CC85" s="33" t="inlineStr"/>
+      <c r="CD85" s="26" t="inlineStr"/>
+      <c r="CE85" s="27" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="16" t="inlineStr"/>
@@ -8884,31 +8883,31 @@
       <c r="BD86" s="21" t="inlineStr"/>
       <c r="BE86" s="21" t="inlineStr"/>
       <c r="BF86" s="23" t="inlineStr"/>
-      <c r="BG86" s="25" t="inlineStr"/>
+      <c r="BG86" s="32" t="inlineStr"/>
       <c r="BH86" s="32" t="inlineStr"/>
       <c r="BI86" s="32" t="inlineStr"/>
       <c r="BJ86" s="32" t="inlineStr"/>
       <c r="BK86" s="32" t="inlineStr"/>
-      <c r="BL86" s="26" t="inlineStr"/>
-      <c r="BM86" s="27" t="inlineStr"/>
-      <c r="BN86" s="33" t="inlineStr"/>
-      <c r="BO86" s="34" t="inlineStr"/>
-      <c r="BP86" s="34" t="inlineStr"/>
-      <c r="BQ86" s="34" t="inlineStr"/>
-      <c r="BR86" s="34" t="inlineStr"/>
-      <c r="BS86" s="34" t="inlineStr"/>
-      <c r="BT86" s="34" t="inlineStr"/>
-      <c r="BU86" s="34" t="inlineStr"/>
-      <c r="BV86" s="34" t="inlineStr"/>
-      <c r="BW86" s="34" t="inlineStr"/>
-      <c r="BX86" s="34" t="inlineStr"/>
-      <c r="BY86" s="34" t="inlineStr"/>
-      <c r="BZ86" s="34" t="inlineStr"/>
-      <c r="CA86" s="34" t="inlineStr"/>
-      <c r="CB86" s="34" t="inlineStr"/>
-      <c r="CC86" s="34" t="inlineStr"/>
-      <c r="CD86" s="34" t="inlineStr"/>
-      <c r="CE86" s="34" t="inlineStr"/>
+      <c r="BL86" s="32" t="inlineStr"/>
+      <c r="BM86" s="32" t="inlineStr"/>
+      <c r="BN86" s="32" t="inlineStr"/>
+      <c r="BO86" s="32" t="inlineStr"/>
+      <c r="BP86" s="32" t="inlineStr"/>
+      <c r="BQ86" s="32" t="inlineStr"/>
+      <c r="BR86" s="32" t="inlineStr"/>
+      <c r="BS86" s="32" t="inlineStr"/>
+      <c r="BT86" s="32" t="inlineStr"/>
+      <c r="BU86" s="32" t="inlineStr"/>
+      <c r="BV86" s="32" t="inlineStr"/>
+      <c r="BW86" s="32" t="inlineStr"/>
+      <c r="BX86" s="32" t="inlineStr"/>
+      <c r="BY86" s="25" t="inlineStr"/>
+      <c r="BZ86" s="33" t="inlineStr"/>
+      <c r="CA86" s="33" t="inlineStr"/>
+      <c r="CB86" s="33" t="inlineStr"/>
+      <c r="CC86" s="33" t="inlineStr"/>
+      <c r="CD86" s="26" t="inlineStr"/>
+      <c r="CE86" s="27" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="16" t="inlineStr"/>
@@ -8969,31 +8968,31 @@
       <c r="BD87" s="21" t="inlineStr"/>
       <c r="BE87" s="21" t="inlineStr"/>
       <c r="BF87" s="23" t="inlineStr"/>
-      <c r="BG87" s="25" t="inlineStr"/>
+      <c r="BG87" s="32" t="inlineStr"/>
       <c r="BH87" s="32" t="inlineStr"/>
       <c r="BI87" s="32" t="inlineStr"/>
       <c r="BJ87" s="32" t="inlineStr"/>
       <c r="BK87" s="32" t="inlineStr"/>
-      <c r="BL87" s="26" t="inlineStr"/>
-      <c r="BM87" s="27" t="inlineStr"/>
-      <c r="BN87" s="33" t="inlineStr"/>
-      <c r="BO87" s="34" t="inlineStr"/>
-      <c r="BP87" s="34" t="inlineStr"/>
-      <c r="BQ87" s="34" t="inlineStr"/>
-      <c r="BR87" s="34" t="inlineStr"/>
-      <c r="BS87" s="34" t="inlineStr"/>
-      <c r="BT87" s="34" t="inlineStr"/>
-      <c r="BU87" s="34" t="inlineStr"/>
-      <c r="BV87" s="34" t="inlineStr"/>
-      <c r="BW87" s="34" t="inlineStr"/>
-      <c r="BX87" s="34" t="inlineStr"/>
-      <c r="BY87" s="34" t="inlineStr"/>
-      <c r="BZ87" s="34" t="inlineStr"/>
-      <c r="CA87" s="34" t="inlineStr"/>
-      <c r="CB87" s="34" t="inlineStr"/>
-      <c r="CC87" s="34" t="inlineStr"/>
-      <c r="CD87" s="34" t="inlineStr"/>
-      <c r="CE87" s="34" t="inlineStr"/>
+      <c r="BL87" s="32" t="inlineStr"/>
+      <c r="BM87" s="32" t="inlineStr"/>
+      <c r="BN87" s="32" t="inlineStr"/>
+      <c r="BO87" s="32" t="inlineStr"/>
+      <c r="BP87" s="32" t="inlineStr"/>
+      <c r="BQ87" s="32" t="inlineStr"/>
+      <c r="BR87" s="32" t="inlineStr"/>
+      <c r="BS87" s="32" t="inlineStr"/>
+      <c r="BT87" s="32" t="inlineStr"/>
+      <c r="BU87" s="32" t="inlineStr"/>
+      <c r="BV87" s="32" t="inlineStr"/>
+      <c r="BW87" s="32" t="inlineStr"/>
+      <c r="BX87" s="32" t="inlineStr"/>
+      <c r="BY87" s="25" t="inlineStr"/>
+      <c r="BZ87" s="33" t="inlineStr"/>
+      <c r="CA87" s="33" t="inlineStr"/>
+      <c r="CB87" s="33" t="inlineStr"/>
+      <c r="CC87" s="33" t="inlineStr"/>
+      <c r="CD87" s="26" t="inlineStr"/>
+      <c r="CE87" s="27" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="16" t="inlineStr"/>
@@ -9054,31 +9053,31 @@
       <c r="BD88" s="21" t="inlineStr"/>
       <c r="BE88" s="21" t="inlineStr"/>
       <c r="BF88" s="23" t="inlineStr"/>
-      <c r="BG88" s="25" t="inlineStr"/>
+      <c r="BG88" s="32" t="inlineStr"/>
       <c r="BH88" s="32" t="inlineStr"/>
       <c r="BI88" s="32" t="inlineStr"/>
       <c r="BJ88" s="32" t="inlineStr"/>
       <c r="BK88" s="32" t="inlineStr"/>
-      <c r="BL88" s="26" t="inlineStr"/>
-      <c r="BM88" s="27" t="inlineStr"/>
-      <c r="BN88" s="33" t="inlineStr"/>
-      <c r="BO88" s="34" t="inlineStr"/>
-      <c r="BP88" s="34" t="inlineStr"/>
-      <c r="BQ88" s="34" t="inlineStr"/>
-      <c r="BR88" s="34" t="inlineStr"/>
-      <c r="BS88" s="34" t="inlineStr"/>
-      <c r="BT88" s="34" t="inlineStr"/>
-      <c r="BU88" s="34" t="inlineStr"/>
-      <c r="BV88" s="34" t="inlineStr"/>
-      <c r="BW88" s="34" t="inlineStr"/>
-      <c r="BX88" s="34" t="inlineStr"/>
-      <c r="BY88" s="34" t="inlineStr"/>
-      <c r="BZ88" s="34" t="inlineStr"/>
-      <c r="CA88" s="34" t="inlineStr"/>
-      <c r="CB88" s="34" t="inlineStr"/>
-      <c r="CC88" s="34" t="inlineStr"/>
-      <c r="CD88" s="34" t="inlineStr"/>
-      <c r="CE88" s="34" t="inlineStr"/>
+      <c r="BL88" s="32" t="inlineStr"/>
+      <c r="BM88" s="32" t="inlineStr"/>
+      <c r="BN88" s="32" t="inlineStr"/>
+      <c r="BO88" s="32" t="inlineStr"/>
+      <c r="BP88" s="32" t="inlineStr"/>
+      <c r="BQ88" s="32" t="inlineStr"/>
+      <c r="BR88" s="32" t="inlineStr"/>
+      <c r="BS88" s="32" t="inlineStr"/>
+      <c r="BT88" s="32" t="inlineStr"/>
+      <c r="BU88" s="32" t="inlineStr"/>
+      <c r="BV88" s="32" t="inlineStr"/>
+      <c r="BW88" s="32" t="inlineStr"/>
+      <c r="BX88" s="32" t="inlineStr"/>
+      <c r="BY88" s="25" t="inlineStr"/>
+      <c r="BZ88" s="33" t="inlineStr"/>
+      <c r="CA88" s="33" t="inlineStr"/>
+      <c r="CB88" s="33" t="inlineStr"/>
+      <c r="CC88" s="33" t="inlineStr"/>
+      <c r="CD88" s="26" t="inlineStr"/>
+      <c r="CE88" s="27" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="16" t="inlineStr"/>
@@ -9139,31 +9138,31 @@
       <c r="BD89" s="21" t="inlineStr"/>
       <c r="BE89" s="21" t="inlineStr"/>
       <c r="BF89" s="23" t="inlineStr"/>
-      <c r="BG89" s="25" t="inlineStr"/>
+      <c r="BG89" s="32" t="inlineStr"/>
       <c r="BH89" s="32" t="inlineStr"/>
       <c r="BI89" s="32" t="inlineStr"/>
       <c r="BJ89" s="32" t="inlineStr"/>
       <c r="BK89" s="32" t="inlineStr"/>
-      <c r="BL89" s="26" t="inlineStr"/>
-      <c r="BM89" s="27" t="inlineStr"/>
-      <c r="BN89" s="33" t="inlineStr"/>
-      <c r="BO89" s="34" t="inlineStr"/>
-      <c r="BP89" s="34" t="inlineStr"/>
-      <c r="BQ89" s="34" t="inlineStr"/>
-      <c r="BR89" s="34" t="inlineStr"/>
-      <c r="BS89" s="34" t="inlineStr"/>
-      <c r="BT89" s="34" t="inlineStr"/>
-      <c r="BU89" s="34" t="inlineStr"/>
-      <c r="BV89" s="34" t="inlineStr"/>
-      <c r="BW89" s="34" t="inlineStr"/>
-      <c r="BX89" s="34" t="inlineStr"/>
-      <c r="BY89" s="34" t="inlineStr"/>
-      <c r="BZ89" s="34" t="inlineStr"/>
-      <c r="CA89" s="34" t="inlineStr"/>
-      <c r="CB89" s="34" t="inlineStr"/>
-      <c r="CC89" s="34" t="inlineStr"/>
-      <c r="CD89" s="34" t="inlineStr"/>
-      <c r="CE89" s="34" t="inlineStr"/>
+      <c r="BL89" s="32" t="inlineStr"/>
+      <c r="BM89" s="32" t="inlineStr"/>
+      <c r="BN89" s="32" t="inlineStr"/>
+      <c r="BO89" s="32" t="inlineStr"/>
+      <c r="BP89" s="32" t="inlineStr"/>
+      <c r="BQ89" s="32" t="inlineStr"/>
+      <c r="BR89" s="32" t="inlineStr"/>
+      <c r="BS89" s="32" t="inlineStr"/>
+      <c r="BT89" s="32" t="inlineStr"/>
+      <c r="BU89" s="32" t="inlineStr"/>
+      <c r="BV89" s="32" t="inlineStr"/>
+      <c r="BW89" s="32" t="inlineStr"/>
+      <c r="BX89" s="32" t="inlineStr"/>
+      <c r="BY89" s="25" t="inlineStr"/>
+      <c r="BZ89" s="33" t="inlineStr"/>
+      <c r="CA89" s="33" t="inlineStr"/>
+      <c r="CB89" s="33" t="inlineStr"/>
+      <c r="CC89" s="33" t="inlineStr"/>
+      <c r="CD89" s="26" t="inlineStr"/>
+      <c r="CE89" s="27" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="16" t="inlineStr"/>
@@ -9224,31 +9223,31 @@
       <c r="BD90" s="21" t="inlineStr"/>
       <c r="BE90" s="21" t="inlineStr"/>
       <c r="BF90" s="23" t="inlineStr"/>
-      <c r="BG90" s="25" t="inlineStr"/>
+      <c r="BG90" s="32" t="inlineStr"/>
       <c r="BH90" s="32" t="inlineStr"/>
       <c r="BI90" s="32" t="inlineStr"/>
       <c r="BJ90" s="32" t="inlineStr"/>
       <c r="BK90" s="32" t="inlineStr"/>
-      <c r="BL90" s="26" t="inlineStr"/>
-      <c r="BM90" s="27" t="inlineStr"/>
-      <c r="BN90" s="33" t="inlineStr"/>
-      <c r="BO90" s="34" t="inlineStr"/>
-      <c r="BP90" s="34" t="inlineStr"/>
-      <c r="BQ90" s="34" t="inlineStr"/>
-      <c r="BR90" s="34" t="inlineStr"/>
-      <c r="BS90" s="34" t="inlineStr"/>
-      <c r="BT90" s="34" t="inlineStr"/>
-      <c r="BU90" s="34" t="inlineStr"/>
-      <c r="BV90" s="34" t="inlineStr"/>
-      <c r="BW90" s="34" t="inlineStr"/>
-      <c r="BX90" s="34" t="inlineStr"/>
-      <c r="BY90" s="34" t="inlineStr"/>
-      <c r="BZ90" s="34" t="inlineStr"/>
-      <c r="CA90" s="34" t="inlineStr"/>
-      <c r="CB90" s="34" t="inlineStr"/>
-      <c r="CC90" s="34" t="inlineStr"/>
-      <c r="CD90" s="34" t="inlineStr"/>
-      <c r="CE90" s="34" t="inlineStr"/>
+      <c r="BL90" s="32" t="inlineStr"/>
+      <c r="BM90" s="32" t="inlineStr"/>
+      <c r="BN90" s="32" t="inlineStr"/>
+      <c r="BO90" s="32" t="inlineStr"/>
+      <c r="BP90" s="32" t="inlineStr"/>
+      <c r="BQ90" s="32" t="inlineStr"/>
+      <c r="BR90" s="32" t="inlineStr"/>
+      <c r="BS90" s="32" t="inlineStr"/>
+      <c r="BT90" s="32" t="inlineStr"/>
+      <c r="BU90" s="32" t="inlineStr"/>
+      <c r="BV90" s="32" t="inlineStr"/>
+      <c r="BW90" s="32" t="inlineStr"/>
+      <c r="BX90" s="32" t="inlineStr"/>
+      <c r="BY90" s="25" t="inlineStr"/>
+      <c r="BZ90" s="33" t="inlineStr"/>
+      <c r="CA90" s="33" t="inlineStr"/>
+      <c r="CB90" s="33" t="inlineStr"/>
+      <c r="CC90" s="33" t="inlineStr"/>
+      <c r="CD90" s="26" t="inlineStr"/>
+      <c r="CE90" s="27" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="16" t="inlineStr"/>
@@ -9309,31 +9308,31 @@
       <c r="BD91" s="21" t="inlineStr"/>
       <c r="BE91" s="21" t="inlineStr"/>
       <c r="BF91" s="23" t="inlineStr"/>
-      <c r="BG91" s="25" t="inlineStr"/>
+      <c r="BG91" s="32" t="inlineStr"/>
       <c r="BH91" s="32" t="inlineStr"/>
       <c r="BI91" s="32" t="inlineStr"/>
       <c r="BJ91" s="32" t="inlineStr"/>
       <c r="BK91" s="32" t="inlineStr"/>
-      <c r="BL91" s="26" t="inlineStr"/>
-      <c r="BM91" s="27" t="inlineStr"/>
-      <c r="BN91" s="33" t="inlineStr"/>
-      <c r="BO91" s="34" t="inlineStr"/>
-      <c r="BP91" s="34" t="inlineStr"/>
-      <c r="BQ91" s="34" t="inlineStr"/>
-      <c r="BR91" s="34" t="inlineStr"/>
-      <c r="BS91" s="34" t="inlineStr"/>
-      <c r="BT91" s="34" t="inlineStr"/>
-      <c r="BU91" s="34" t="inlineStr"/>
-      <c r="BV91" s="34" t="inlineStr"/>
-      <c r="BW91" s="34" t="inlineStr"/>
-      <c r="BX91" s="34" t="inlineStr"/>
-      <c r="BY91" s="34" t="inlineStr"/>
-      <c r="BZ91" s="34" t="inlineStr"/>
-      <c r="CA91" s="34" t="inlineStr"/>
-      <c r="CB91" s="34" t="inlineStr"/>
-      <c r="CC91" s="34" t="inlineStr"/>
-      <c r="CD91" s="34" t="inlineStr"/>
-      <c r="CE91" s="34" t="inlineStr"/>
+      <c r="BL91" s="32" t="inlineStr"/>
+      <c r="BM91" s="32" t="inlineStr"/>
+      <c r="BN91" s="32" t="inlineStr"/>
+      <c r="BO91" s="32" t="inlineStr"/>
+      <c r="BP91" s="32" t="inlineStr"/>
+      <c r="BQ91" s="32" t="inlineStr"/>
+      <c r="BR91" s="32" t="inlineStr"/>
+      <c r="BS91" s="32" t="inlineStr"/>
+      <c r="BT91" s="32" t="inlineStr"/>
+      <c r="BU91" s="32" t="inlineStr"/>
+      <c r="BV91" s="32" t="inlineStr"/>
+      <c r="BW91" s="32" t="inlineStr"/>
+      <c r="BX91" s="32" t="inlineStr"/>
+      <c r="BY91" s="25" t="inlineStr"/>
+      <c r="BZ91" s="33" t="inlineStr"/>
+      <c r="CA91" s="33" t="inlineStr"/>
+      <c r="CB91" s="33" t="inlineStr"/>
+      <c r="CC91" s="33" t="inlineStr"/>
+      <c r="CD91" s="26" t="inlineStr"/>
+      <c r="CE91" s="27" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="16" t="inlineStr"/>
@@ -9394,31 +9393,31 @@
       <c r="BD92" s="21" t="inlineStr"/>
       <c r="BE92" s="21" t="inlineStr"/>
       <c r="BF92" s="23" t="inlineStr"/>
-      <c r="BG92" s="25" t="inlineStr"/>
+      <c r="BG92" s="32" t="inlineStr"/>
       <c r="BH92" s="32" t="inlineStr"/>
       <c r="BI92" s="32" t="inlineStr"/>
       <c r="BJ92" s="32" t="inlineStr"/>
       <c r="BK92" s="32" t="inlineStr"/>
-      <c r="BL92" s="26" t="inlineStr"/>
-      <c r="BM92" s="27" t="inlineStr"/>
-      <c r="BN92" s="33" t="inlineStr"/>
-      <c r="BO92" s="34" t="inlineStr"/>
-      <c r="BP92" s="34" t="inlineStr"/>
-      <c r="BQ92" s="34" t="inlineStr"/>
-      <c r="BR92" s="34" t="inlineStr"/>
-      <c r="BS92" s="34" t="inlineStr"/>
-      <c r="BT92" s="34" t="inlineStr"/>
-      <c r="BU92" s="34" t="inlineStr"/>
-      <c r="BV92" s="34" t="inlineStr"/>
-      <c r="BW92" s="34" t="inlineStr"/>
-      <c r="BX92" s="34" t="inlineStr"/>
-      <c r="BY92" s="34" t="inlineStr"/>
-      <c r="BZ92" s="34" t="inlineStr"/>
-      <c r="CA92" s="34" t="inlineStr"/>
-      <c r="CB92" s="34" t="inlineStr"/>
-      <c r="CC92" s="34" t="inlineStr"/>
-      <c r="CD92" s="34" t="inlineStr"/>
-      <c r="CE92" s="34" t="inlineStr"/>
+      <c r="BL92" s="32" t="inlineStr"/>
+      <c r="BM92" s="32" t="inlineStr"/>
+      <c r="BN92" s="32" t="inlineStr"/>
+      <c r="BO92" s="32" t="inlineStr"/>
+      <c r="BP92" s="32" t="inlineStr"/>
+      <c r="BQ92" s="32" t="inlineStr"/>
+      <c r="BR92" s="32" t="inlineStr"/>
+      <c r="BS92" s="32" t="inlineStr"/>
+      <c r="BT92" s="32" t="inlineStr"/>
+      <c r="BU92" s="32" t="inlineStr"/>
+      <c r="BV92" s="32" t="inlineStr"/>
+      <c r="BW92" s="32" t="inlineStr"/>
+      <c r="BX92" s="32" t="inlineStr"/>
+      <c r="BY92" s="25" t="inlineStr"/>
+      <c r="BZ92" s="33" t="inlineStr"/>
+      <c r="CA92" s="33" t="inlineStr"/>
+      <c r="CB92" s="33" t="inlineStr"/>
+      <c r="CC92" s="33" t="inlineStr"/>
+      <c r="CD92" s="26" t="inlineStr"/>
+      <c r="CE92" s="27" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="16" t="inlineStr"/>
@@ -9479,31 +9478,31 @@
       <c r="BD93" s="21" t="inlineStr"/>
       <c r="BE93" s="21" t="inlineStr"/>
       <c r="BF93" s="23" t="inlineStr"/>
-      <c r="BG93" s="25" t="inlineStr"/>
+      <c r="BG93" s="32" t="inlineStr"/>
       <c r="BH93" s="32" t="inlineStr"/>
       <c r="BI93" s="32" t="inlineStr"/>
       <c r="BJ93" s="32" t="inlineStr"/>
       <c r="BK93" s="32" t="inlineStr"/>
-      <c r="BL93" s="26" t="inlineStr"/>
-      <c r="BM93" s="27" t="inlineStr"/>
-      <c r="BN93" s="33" t="inlineStr"/>
-      <c r="BO93" s="34" t="inlineStr"/>
-      <c r="BP93" s="34" t="inlineStr"/>
-      <c r="BQ93" s="34" t="inlineStr"/>
-      <c r="BR93" s="34" t="inlineStr"/>
-      <c r="BS93" s="34" t="inlineStr"/>
-      <c r="BT93" s="34" t="inlineStr"/>
-      <c r="BU93" s="34" t="inlineStr"/>
-      <c r="BV93" s="34" t="inlineStr"/>
-      <c r="BW93" s="34" t="inlineStr"/>
-      <c r="BX93" s="34" t="inlineStr"/>
-      <c r="BY93" s="34" t="inlineStr"/>
-      <c r="BZ93" s="34" t="inlineStr"/>
-      <c r="CA93" s="34" t="inlineStr"/>
-      <c r="CB93" s="34" t="inlineStr"/>
-      <c r="CC93" s="34" t="inlineStr"/>
-      <c r="CD93" s="34" t="inlineStr"/>
-      <c r="CE93" s="34" t="inlineStr"/>
+      <c r="BL93" s="32" t="inlineStr"/>
+      <c r="BM93" s="32" t="inlineStr"/>
+      <c r="BN93" s="32" t="inlineStr"/>
+      <c r="BO93" s="32" t="inlineStr"/>
+      <c r="BP93" s="32" t="inlineStr"/>
+      <c r="BQ93" s="32" t="inlineStr"/>
+      <c r="BR93" s="32" t="inlineStr"/>
+      <c r="BS93" s="32" t="inlineStr"/>
+      <c r="BT93" s="32" t="inlineStr"/>
+      <c r="BU93" s="32" t="inlineStr"/>
+      <c r="BV93" s="32" t="inlineStr"/>
+      <c r="BW93" s="32" t="inlineStr"/>
+      <c r="BX93" s="32" t="inlineStr"/>
+      <c r="BY93" s="25" t="inlineStr"/>
+      <c r="BZ93" s="33" t="inlineStr"/>
+      <c r="CA93" s="33" t="inlineStr"/>
+      <c r="CB93" s="33" t="inlineStr"/>
+      <c r="CC93" s="33" t="inlineStr"/>
+      <c r="CD93" s="26" t="inlineStr"/>
+      <c r="CE93" s="27" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="16" t="inlineStr"/>
@@ -9564,31 +9563,31 @@
       <c r="BD94" s="21" t="inlineStr"/>
       <c r="BE94" s="21" t="inlineStr"/>
       <c r="BF94" s="23" t="inlineStr"/>
-      <c r="BG94" s="25" t="inlineStr"/>
+      <c r="BG94" s="32" t="inlineStr"/>
       <c r="BH94" s="32" t="inlineStr"/>
       <c r="BI94" s="32" t="inlineStr"/>
       <c r="BJ94" s="32" t="inlineStr"/>
       <c r="BK94" s="32" t="inlineStr"/>
-      <c r="BL94" s="26" t="inlineStr"/>
-      <c r="BM94" s="27" t="inlineStr"/>
-      <c r="BN94" s="33" t="inlineStr"/>
-      <c r="BO94" s="34" t="inlineStr"/>
-      <c r="BP94" s="34" t="inlineStr"/>
-      <c r="BQ94" s="34" t="inlineStr"/>
-      <c r="BR94" s="34" t="inlineStr"/>
-      <c r="BS94" s="34" t="inlineStr"/>
-      <c r="BT94" s="34" t="inlineStr"/>
-      <c r="BU94" s="34" t="inlineStr"/>
-      <c r="BV94" s="34" t="inlineStr"/>
-      <c r="BW94" s="34" t="inlineStr"/>
-      <c r="BX94" s="34" t="inlineStr"/>
-      <c r="BY94" s="34" t="inlineStr"/>
-      <c r="BZ94" s="34" t="inlineStr"/>
-      <c r="CA94" s="34" t="inlineStr"/>
-      <c r="CB94" s="34" t="inlineStr"/>
-      <c r="CC94" s="34" t="inlineStr"/>
-      <c r="CD94" s="34" t="inlineStr"/>
-      <c r="CE94" s="34" t="inlineStr"/>
+      <c r="BL94" s="32" t="inlineStr"/>
+      <c r="BM94" s="32" t="inlineStr"/>
+      <c r="BN94" s="32" t="inlineStr"/>
+      <c r="BO94" s="32" t="inlineStr"/>
+      <c r="BP94" s="32" t="inlineStr"/>
+      <c r="BQ94" s="32" t="inlineStr"/>
+      <c r="BR94" s="32" t="inlineStr"/>
+      <c r="BS94" s="32" t="inlineStr"/>
+      <c r="BT94" s="32" t="inlineStr"/>
+      <c r="BU94" s="32" t="inlineStr"/>
+      <c r="BV94" s="32" t="inlineStr"/>
+      <c r="BW94" s="32" t="inlineStr"/>
+      <c r="BX94" s="32" t="inlineStr"/>
+      <c r="BY94" s="25" t="inlineStr"/>
+      <c r="BZ94" s="33" t="inlineStr"/>
+      <c r="CA94" s="33" t="inlineStr"/>
+      <c r="CB94" s="33" t="inlineStr"/>
+      <c r="CC94" s="33" t="inlineStr"/>
+      <c r="CD94" s="26" t="inlineStr"/>
+      <c r="CE94" s="27" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="16" t="inlineStr"/>
@@ -9649,31 +9648,31 @@
       <c r="BD95" s="21" t="inlineStr"/>
       <c r="BE95" s="21" t="inlineStr"/>
       <c r="BF95" s="23" t="inlineStr"/>
-      <c r="BG95" s="25" t="inlineStr"/>
+      <c r="BG95" s="32" t="inlineStr"/>
       <c r="BH95" s="32" t="inlineStr"/>
       <c r="BI95" s="32" t="inlineStr"/>
       <c r="BJ95" s="32" t="inlineStr"/>
       <c r="BK95" s="32" t="inlineStr"/>
-      <c r="BL95" s="26" t="inlineStr"/>
-      <c r="BM95" s="27" t="inlineStr"/>
-      <c r="BN95" s="33" t="inlineStr"/>
-      <c r="BO95" s="34" t="inlineStr"/>
-      <c r="BP95" s="34" t="inlineStr"/>
-      <c r="BQ95" s="34" t="inlineStr"/>
-      <c r="BR95" s="34" t="inlineStr"/>
-      <c r="BS95" s="34" t="inlineStr"/>
-      <c r="BT95" s="34" t="inlineStr"/>
-      <c r="BU95" s="34" t="inlineStr"/>
-      <c r="BV95" s="34" t="inlineStr"/>
-      <c r="BW95" s="34" t="inlineStr"/>
-      <c r="BX95" s="34" t="inlineStr"/>
-      <c r="BY95" s="34" t="inlineStr"/>
-      <c r="BZ95" s="34" t="inlineStr"/>
-      <c r="CA95" s="34" t="inlineStr"/>
-      <c r="CB95" s="34" t="inlineStr"/>
-      <c r="CC95" s="34" t="inlineStr"/>
-      <c r="CD95" s="34" t="inlineStr"/>
-      <c r="CE95" s="34" t="inlineStr"/>
+      <c r="BL95" s="32" t="inlineStr"/>
+      <c r="BM95" s="32" t="inlineStr"/>
+      <c r="BN95" s="32" t="inlineStr"/>
+      <c r="BO95" s="32" t="inlineStr"/>
+      <c r="BP95" s="32" t="inlineStr"/>
+      <c r="BQ95" s="32" t="inlineStr"/>
+      <c r="BR95" s="32" t="inlineStr"/>
+      <c r="BS95" s="32" t="inlineStr"/>
+      <c r="BT95" s="32" t="inlineStr"/>
+      <c r="BU95" s="32" t="inlineStr"/>
+      <c r="BV95" s="32" t="inlineStr"/>
+      <c r="BW95" s="32" t="inlineStr"/>
+      <c r="BX95" s="32" t="inlineStr"/>
+      <c r="BY95" s="25" t="inlineStr"/>
+      <c r="BZ95" s="33" t="inlineStr"/>
+      <c r="CA95" s="33" t="inlineStr"/>
+      <c r="CB95" s="33" t="inlineStr"/>
+      <c r="CC95" s="33" t="inlineStr"/>
+      <c r="CD95" s="26" t="inlineStr"/>
+      <c r="CE95" s="27" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="16" t="inlineStr"/>
@@ -9734,31 +9733,31 @@
       <c r="BD96" s="21" t="inlineStr"/>
       <c r="BE96" s="21" t="inlineStr"/>
       <c r="BF96" s="23" t="inlineStr"/>
-      <c r="BG96" s="25" t="inlineStr"/>
+      <c r="BG96" s="32" t="inlineStr"/>
       <c r="BH96" s="32" t="inlineStr"/>
       <c r="BI96" s="32" t="inlineStr"/>
       <c r="BJ96" s="32" t="inlineStr"/>
       <c r="BK96" s="32" t="inlineStr"/>
-      <c r="BL96" s="26" t="inlineStr"/>
-      <c r="BM96" s="27" t="inlineStr"/>
-      <c r="BN96" s="33" t="inlineStr"/>
-      <c r="BO96" s="34" t="inlineStr"/>
-      <c r="BP96" s="34" t="inlineStr"/>
-      <c r="BQ96" s="34" t="inlineStr"/>
-      <c r="BR96" s="34" t="inlineStr"/>
-      <c r="BS96" s="34" t="inlineStr"/>
-      <c r="BT96" s="34" t="inlineStr"/>
-      <c r="BU96" s="34" t="inlineStr"/>
-      <c r="BV96" s="34" t="inlineStr"/>
-      <c r="BW96" s="34" t="inlineStr"/>
-      <c r="BX96" s="34" t="inlineStr"/>
-      <c r="BY96" s="34" t="inlineStr"/>
-      <c r="BZ96" s="34" t="inlineStr"/>
-      <c r="CA96" s="34" t="inlineStr"/>
-      <c r="CB96" s="34" t="inlineStr"/>
-      <c r="CC96" s="34" t="inlineStr"/>
-      <c r="CD96" s="34" t="inlineStr"/>
-      <c r="CE96" s="34" t="inlineStr"/>
+      <c r="BL96" s="32" t="inlineStr"/>
+      <c r="BM96" s="32" t="inlineStr"/>
+      <c r="BN96" s="32" t="inlineStr"/>
+      <c r="BO96" s="32" t="inlineStr"/>
+      <c r="BP96" s="32" t="inlineStr"/>
+      <c r="BQ96" s="32" t="inlineStr"/>
+      <c r="BR96" s="32" t="inlineStr"/>
+      <c r="BS96" s="32" t="inlineStr"/>
+      <c r="BT96" s="32" t="inlineStr"/>
+      <c r="BU96" s="32" t="inlineStr"/>
+      <c r="BV96" s="32" t="inlineStr"/>
+      <c r="BW96" s="32" t="inlineStr"/>
+      <c r="BX96" s="32" t="inlineStr"/>
+      <c r="BY96" s="25" t="inlineStr"/>
+      <c r="BZ96" s="33" t="inlineStr"/>
+      <c r="CA96" s="33" t="inlineStr"/>
+      <c r="CB96" s="33" t="inlineStr"/>
+      <c r="CC96" s="33" t="inlineStr"/>
+      <c r="CD96" s="26" t="inlineStr"/>
+      <c r="CE96" s="27" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="16" t="inlineStr"/>
@@ -9819,31 +9818,31 @@
       <c r="BD97" s="21" t="inlineStr"/>
       <c r="BE97" s="21" t="inlineStr"/>
       <c r="BF97" s="23" t="inlineStr"/>
-      <c r="BG97" s="25" t="inlineStr"/>
+      <c r="BG97" s="32" t="inlineStr"/>
       <c r="BH97" s="32" t="inlineStr"/>
       <c r="BI97" s="32" t="inlineStr"/>
       <c r="BJ97" s="32" t="inlineStr"/>
       <c r="BK97" s="32" t="inlineStr"/>
-      <c r="BL97" s="26" t="inlineStr"/>
-      <c r="BM97" s="27" t="inlineStr"/>
-      <c r="BN97" s="33" t="inlineStr"/>
-      <c r="BO97" s="34" t="inlineStr"/>
-      <c r="BP97" s="34" t="inlineStr"/>
-      <c r="BQ97" s="34" t="inlineStr"/>
-      <c r="BR97" s="34" t="inlineStr"/>
-      <c r="BS97" s="34" t="inlineStr"/>
-      <c r="BT97" s="34" t="inlineStr"/>
-      <c r="BU97" s="34" t="inlineStr"/>
-      <c r="BV97" s="34" t="inlineStr"/>
-      <c r="BW97" s="34" t="inlineStr"/>
-      <c r="BX97" s="34" t="inlineStr"/>
-      <c r="BY97" s="34" t="inlineStr"/>
-      <c r="BZ97" s="34" t="inlineStr"/>
-      <c r="CA97" s="34" t="inlineStr"/>
-      <c r="CB97" s="34" t="inlineStr"/>
-      <c r="CC97" s="34" t="inlineStr"/>
-      <c r="CD97" s="34" t="inlineStr"/>
-      <c r="CE97" s="34" t="inlineStr"/>
+      <c r="BL97" s="32" t="inlineStr"/>
+      <c r="BM97" s="32" t="inlineStr"/>
+      <c r="BN97" s="32" t="inlineStr"/>
+      <c r="BO97" s="32" t="inlineStr"/>
+      <c r="BP97" s="32" t="inlineStr"/>
+      <c r="BQ97" s="32" t="inlineStr"/>
+      <c r="BR97" s="32" t="inlineStr"/>
+      <c r="BS97" s="32" t="inlineStr"/>
+      <c r="BT97" s="32" t="inlineStr"/>
+      <c r="BU97" s="32" t="inlineStr"/>
+      <c r="BV97" s="32" t="inlineStr"/>
+      <c r="BW97" s="32" t="inlineStr"/>
+      <c r="BX97" s="32" t="inlineStr"/>
+      <c r="BY97" s="25" t="inlineStr"/>
+      <c r="BZ97" s="33" t="inlineStr"/>
+      <c r="CA97" s="33" t="inlineStr"/>
+      <c r="CB97" s="33" t="inlineStr"/>
+      <c r="CC97" s="33" t="inlineStr"/>
+      <c r="CD97" s="26" t="inlineStr"/>
+      <c r="CE97" s="27" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="16" t="inlineStr"/>
@@ -9904,31 +9903,31 @@
       <c r="BD98" s="21" t="inlineStr"/>
       <c r="BE98" s="21" t="inlineStr"/>
       <c r="BF98" s="23" t="inlineStr"/>
-      <c r="BG98" s="25" t="inlineStr"/>
+      <c r="BG98" s="32" t="inlineStr"/>
       <c r="BH98" s="32" t="inlineStr"/>
       <c r="BI98" s="32" t="inlineStr"/>
       <c r="BJ98" s="32" t="inlineStr"/>
       <c r="BK98" s="32" t="inlineStr"/>
-      <c r="BL98" s="26" t="inlineStr"/>
-      <c r="BM98" s="27" t="inlineStr"/>
-      <c r="BN98" s="33" t="inlineStr"/>
-      <c r="BO98" s="34" t="inlineStr"/>
-      <c r="BP98" s="34" t="inlineStr"/>
-      <c r="BQ98" s="34" t="inlineStr"/>
-      <c r="BR98" s="34" t="inlineStr"/>
-      <c r="BS98" s="34" t="inlineStr"/>
-      <c r="BT98" s="34" t="inlineStr"/>
-      <c r="BU98" s="34" t="inlineStr"/>
-      <c r="BV98" s="34" t="inlineStr"/>
-      <c r="BW98" s="34" t="inlineStr"/>
-      <c r="BX98" s="34" t="inlineStr"/>
-      <c r="BY98" s="34" t="inlineStr"/>
-      <c r="BZ98" s="34" t="inlineStr"/>
-      <c r="CA98" s="34" t="inlineStr"/>
-      <c r="CB98" s="34" t="inlineStr"/>
-      <c r="CC98" s="34" t="inlineStr"/>
-      <c r="CD98" s="34" t="inlineStr"/>
-      <c r="CE98" s="34" t="inlineStr"/>
+      <c r="BL98" s="32" t="inlineStr"/>
+      <c r="BM98" s="32" t="inlineStr"/>
+      <c r="BN98" s="32" t="inlineStr"/>
+      <c r="BO98" s="32" t="inlineStr"/>
+      <c r="BP98" s="32" t="inlineStr"/>
+      <c r="BQ98" s="32" t="inlineStr"/>
+      <c r="BR98" s="32" t="inlineStr"/>
+      <c r="BS98" s="32" t="inlineStr"/>
+      <c r="BT98" s="32" t="inlineStr"/>
+      <c r="BU98" s="32" t="inlineStr"/>
+      <c r="BV98" s="32" t="inlineStr"/>
+      <c r="BW98" s="32" t="inlineStr"/>
+      <c r="BX98" s="32" t="inlineStr"/>
+      <c r="BY98" s="25" t="inlineStr"/>
+      <c r="BZ98" s="33" t="inlineStr"/>
+      <c r="CA98" s="33" t="inlineStr"/>
+      <c r="CB98" s="33" t="inlineStr"/>
+      <c r="CC98" s="33" t="inlineStr"/>
+      <c r="CD98" s="26" t="inlineStr"/>
+      <c r="CE98" s="27" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="16" t="inlineStr"/>
@@ -9989,38 +9988,38 @@
       <c r="BD99" s="21" t="inlineStr"/>
       <c r="BE99" s="21" t="inlineStr"/>
       <c r="BF99" s="23" t="inlineStr"/>
-      <c r="BG99" s="25" t="inlineStr"/>
+      <c r="BG99" s="32" t="inlineStr"/>
       <c r="BH99" s="32" t="inlineStr"/>
       <c r="BI99" s="32" t="inlineStr"/>
       <c r="BJ99" s="32" t="inlineStr"/>
       <c r="BK99" s="32" t="inlineStr"/>
-      <c r="BL99" s="26" t="inlineStr"/>
-      <c r="BM99" s="27" t="inlineStr"/>
-      <c r="BN99" s="33" t="inlineStr"/>
-      <c r="BO99" s="34" t="inlineStr"/>
-      <c r="BP99" s="34" t="inlineStr"/>
-      <c r="BQ99" s="34" t="inlineStr"/>
-      <c r="BR99" s="34" t="inlineStr"/>
-      <c r="BS99" s="34" t="inlineStr"/>
-      <c r="BT99" s="34" t="inlineStr"/>
-      <c r="BU99" s="34" t="inlineStr"/>
-      <c r="BV99" s="34" t="inlineStr"/>
-      <c r="BW99" s="34" t="inlineStr"/>
-      <c r="BX99" s="34" t="inlineStr"/>
-      <c r="BY99" s="34" t="inlineStr"/>
-      <c r="BZ99" s="34" t="inlineStr"/>
-      <c r="CA99" s="34" t="inlineStr"/>
-      <c r="CB99" s="34" t="inlineStr"/>
-      <c r="CC99" s="34" t="inlineStr"/>
-      <c r="CD99" s="34" t="inlineStr"/>
-      <c r="CE99" s="34" t="inlineStr"/>
+      <c r="BL99" s="32" t="inlineStr"/>
+      <c r="BM99" s="32" t="inlineStr"/>
+      <c r="BN99" s="32" t="inlineStr"/>
+      <c r="BO99" s="32" t="inlineStr"/>
+      <c r="BP99" s="32" t="inlineStr"/>
+      <c r="BQ99" s="32" t="inlineStr"/>
+      <c r="BR99" s="32" t="inlineStr"/>
+      <c r="BS99" s="32" t="inlineStr"/>
+      <c r="BT99" s="32" t="inlineStr"/>
+      <c r="BU99" s="32" t="inlineStr"/>
+      <c r="BV99" s="32" t="inlineStr"/>
+      <c r="BW99" s="32" t="inlineStr"/>
+      <c r="BX99" s="32" t="inlineStr"/>
+      <c r="BY99" s="25" t="inlineStr"/>
+      <c r="BZ99" s="33" t="inlineStr"/>
+      <c r="CA99" s="33" t="inlineStr"/>
+      <c r="CB99" s="33" t="inlineStr"/>
+      <c r="CC99" s="33" t="inlineStr"/>
+      <c r="CD99" s="26" t="inlineStr"/>
+      <c r="CE99" s="27" t="inlineStr"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BX2:BX100 BY2:BY100 BZ2:BZ100 CA2:CA100 CB2:CB100 CC2:CC100 CD2:CD100 CE2:CE100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BG2:BG100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BX2:BX100 BZ2:BZ100 CA2:CA100 CB2:CB100 CC2:CC100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2:H100 AV2:AV100 BL2:BL100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
+    <dataValidation sqref="H2:H100 AV2:AV100 CD2:CD100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
     <dataValidation sqref="F2:F100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;restricted public&quot; " type="list">
       <formula1>"public,non-public,restricted public"</formula1>
     </dataValidation>

--- a/docs/samples/DIP_Excel_Template.xlsx
+++ b/docs/samples/DIP_Excel_Template.xlsx
@@ -819,12 +819,19 @@
     </comment>
     <comment ref="CD1" authorId="0" shapeId="0">
       <text>
+        <t>encryptionAlgorithm:
+Specifies encryption algorithm used to protect data at rest. Can have multiple comma separated values.
+&lt;usg:encryptionAlgorithm&gt;</t>
+      </text>
+    </comment>
+    <comment ref="CE1" authorId="0" shapeId="0">
+      <text>
         <t>recordTransmission:
 When the metadata record was transmitted. Must be a date.
 &lt;dhs:recordTransmission&gt;</t>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0">
+    <comment ref="CF1" authorId="0" shapeId="0">
       <text>
         <t>validityTime:
 When the metadata record is valid. Must be in the form of a xsd Duration like P1Y or P3M
@@ -1174,7 +1181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE99"/>
+  <dimension ref="A1:CF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,6 +1272,7 @@
     <col width="15" customWidth="1" min="81" max="81"/>
     <col width="15" customWidth="1" min="82" max="82"/>
     <col width="15" customWidth="1" min="83" max="83"/>
+    <col width="15" customWidth="1" min="84" max="84"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1675,10 +1683,15 @@
       </c>
       <c r="CD1" s="11" t="inlineStr">
         <is>
+          <t>encryptionAlgorithm</t>
+        </is>
+      </c>
+      <c r="CE1" s="12" t="inlineStr">
+        <is>
           <t>recordTransmission</t>
         </is>
       </c>
-      <c r="CE1" s="12" t="inlineStr">
+      <c r="CF1" s="12" t="inlineStr">
         <is>
           <t>validityTime</t>
         </is>
@@ -1768,6 +1781,7 @@
       <c r="CC2" s="33" t="inlineStr"/>
       <c r="CD2" s="26" t="inlineStr"/>
       <c r="CE2" s="27" t="inlineStr"/>
+      <c r="CF2" s="27" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="inlineStr"/>
@@ -1853,6 +1867,7 @@
       <c r="CC3" s="33" t="inlineStr"/>
       <c r="CD3" s="26" t="inlineStr"/>
       <c r="CE3" s="27" t="inlineStr"/>
+      <c r="CF3" s="27" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="inlineStr"/>
@@ -1938,6 +1953,7 @@
       <c r="CC4" s="33" t="inlineStr"/>
       <c r="CD4" s="26" t="inlineStr"/>
       <c r="CE4" s="27" t="inlineStr"/>
+      <c r="CF4" s="27" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="inlineStr"/>
@@ -2023,6 +2039,7 @@
       <c r="CC5" s="33" t="inlineStr"/>
       <c r="CD5" s="26" t="inlineStr"/>
       <c r="CE5" s="27" t="inlineStr"/>
+      <c r="CF5" s="27" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr"/>
@@ -2108,6 +2125,7 @@
       <c r="CC6" s="33" t="inlineStr"/>
       <c r="CD6" s="26" t="inlineStr"/>
       <c r="CE6" s="27" t="inlineStr"/>
+      <c r="CF6" s="27" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="inlineStr"/>
@@ -2193,6 +2211,7 @@
       <c r="CC7" s="33" t="inlineStr"/>
       <c r="CD7" s="26" t="inlineStr"/>
       <c r="CE7" s="27" t="inlineStr"/>
+      <c r="CF7" s="27" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr"/>
@@ -2278,6 +2297,7 @@
       <c r="CC8" s="33" t="inlineStr"/>
       <c r="CD8" s="26" t="inlineStr"/>
       <c r="CE8" s="27" t="inlineStr"/>
+      <c r="CF8" s="27" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="16" t="inlineStr"/>
@@ -2363,6 +2383,7 @@
       <c r="CC9" s="33" t="inlineStr"/>
       <c r="CD9" s="26" t="inlineStr"/>
       <c r="CE9" s="27" t="inlineStr"/>
+      <c r="CF9" s="27" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr"/>
@@ -2448,6 +2469,7 @@
       <c r="CC10" s="33" t="inlineStr"/>
       <c r="CD10" s="26" t="inlineStr"/>
       <c r="CE10" s="27" t="inlineStr"/>
+      <c r="CF10" s="27" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="inlineStr"/>
@@ -2533,6 +2555,7 @@
       <c r="CC11" s="33" t="inlineStr"/>
       <c r="CD11" s="26" t="inlineStr"/>
       <c r="CE11" s="27" t="inlineStr"/>
+      <c r="CF11" s="27" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="inlineStr"/>
@@ -2618,6 +2641,7 @@
       <c r="CC12" s="33" t="inlineStr"/>
       <c r="CD12" s="26" t="inlineStr"/>
       <c r="CE12" s="27" t="inlineStr"/>
+      <c r="CF12" s="27" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr"/>
@@ -2703,6 +2727,7 @@
       <c r="CC13" s="33" t="inlineStr"/>
       <c r="CD13" s="26" t="inlineStr"/>
       <c r="CE13" s="27" t="inlineStr"/>
+      <c r="CF13" s="27" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr"/>
@@ -2788,6 +2813,7 @@
       <c r="CC14" s="33" t="inlineStr"/>
       <c r="CD14" s="26" t="inlineStr"/>
       <c r="CE14" s="27" t="inlineStr"/>
+      <c r="CF14" s="27" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr"/>
@@ -2873,6 +2899,7 @@
       <c r="CC15" s="33" t="inlineStr"/>
       <c r="CD15" s="26" t="inlineStr"/>
       <c r="CE15" s="27" t="inlineStr"/>
+      <c r="CF15" s="27" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="inlineStr"/>
@@ -2958,6 +2985,7 @@
       <c r="CC16" s="33" t="inlineStr"/>
       <c r="CD16" s="26" t="inlineStr"/>
       <c r="CE16" s="27" t="inlineStr"/>
+      <c r="CF16" s="27" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="16" t="inlineStr"/>
@@ -3043,6 +3071,7 @@
       <c r="CC17" s="33" t="inlineStr"/>
       <c r="CD17" s="26" t="inlineStr"/>
       <c r="CE17" s="27" t="inlineStr"/>
+      <c r="CF17" s="27" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="16" t="inlineStr"/>
@@ -3128,6 +3157,7 @@
       <c r="CC18" s="33" t="inlineStr"/>
       <c r="CD18" s="26" t="inlineStr"/>
       <c r="CE18" s="27" t="inlineStr"/>
+      <c r="CF18" s="27" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr"/>
@@ -3213,6 +3243,7 @@
       <c r="CC19" s="33" t="inlineStr"/>
       <c r="CD19" s="26" t="inlineStr"/>
       <c r="CE19" s="27" t="inlineStr"/>
+      <c r="CF19" s="27" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr"/>
@@ -3298,6 +3329,7 @@
       <c r="CC20" s="33" t="inlineStr"/>
       <c r="CD20" s="26" t="inlineStr"/>
       <c r="CE20" s="27" t="inlineStr"/>
+      <c r="CF20" s="27" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr"/>
@@ -3383,6 +3415,7 @@
       <c r="CC21" s="33" t="inlineStr"/>
       <c r="CD21" s="26" t="inlineStr"/>
       <c r="CE21" s="27" t="inlineStr"/>
+      <c r="CF21" s="27" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="16" t="inlineStr"/>
@@ -3468,6 +3501,7 @@
       <c r="CC22" s="33" t="inlineStr"/>
       <c r="CD22" s="26" t="inlineStr"/>
       <c r="CE22" s="27" t="inlineStr"/>
+      <c r="CF22" s="27" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="16" t="inlineStr"/>
@@ -3553,6 +3587,7 @@
       <c r="CC23" s="33" t="inlineStr"/>
       <c r="CD23" s="26" t="inlineStr"/>
       <c r="CE23" s="27" t="inlineStr"/>
+      <c r="CF23" s="27" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="16" t="inlineStr"/>
@@ -3638,6 +3673,7 @@
       <c r="CC24" s="33" t="inlineStr"/>
       <c r="CD24" s="26" t="inlineStr"/>
       <c r="CE24" s="27" t="inlineStr"/>
+      <c r="CF24" s="27" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="16" t="inlineStr"/>
@@ -3723,6 +3759,7 @@
       <c r="CC25" s="33" t="inlineStr"/>
       <c r="CD25" s="26" t="inlineStr"/>
       <c r="CE25" s="27" t="inlineStr"/>
+      <c r="CF25" s="27" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="16" t="inlineStr"/>
@@ -3808,6 +3845,7 @@
       <c r="CC26" s="33" t="inlineStr"/>
       <c r="CD26" s="26" t="inlineStr"/>
       <c r="CE26" s="27" t="inlineStr"/>
+      <c r="CF26" s="27" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="16" t="inlineStr"/>
@@ -3893,6 +3931,7 @@
       <c r="CC27" s="33" t="inlineStr"/>
       <c r="CD27" s="26" t="inlineStr"/>
       <c r="CE27" s="27" t="inlineStr"/>
+      <c r="CF27" s="27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="16" t="inlineStr"/>
@@ -3978,6 +4017,7 @@
       <c r="CC28" s="33" t="inlineStr"/>
       <c r="CD28" s="26" t="inlineStr"/>
       <c r="CE28" s="27" t="inlineStr"/>
+      <c r="CF28" s="27" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="16" t="inlineStr"/>
@@ -4063,6 +4103,7 @@
       <c r="CC29" s="33" t="inlineStr"/>
       <c r="CD29" s="26" t="inlineStr"/>
       <c r="CE29" s="27" t="inlineStr"/>
+      <c r="CF29" s="27" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="16" t="inlineStr"/>
@@ -4148,6 +4189,7 @@
       <c r="CC30" s="33" t="inlineStr"/>
       <c r="CD30" s="26" t="inlineStr"/>
       <c r="CE30" s="27" t="inlineStr"/>
+      <c r="CF30" s="27" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="inlineStr"/>
@@ -4233,6 +4275,7 @@
       <c r="CC31" s="33" t="inlineStr"/>
       <c r="CD31" s="26" t="inlineStr"/>
       <c r="CE31" s="27" t="inlineStr"/>
+      <c r="CF31" s="27" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="16" t="inlineStr"/>
@@ -4318,6 +4361,7 @@
       <c r="CC32" s="33" t="inlineStr"/>
       <c r="CD32" s="26" t="inlineStr"/>
       <c r="CE32" s="27" t="inlineStr"/>
+      <c r="CF32" s="27" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="16" t="inlineStr"/>
@@ -4403,6 +4447,7 @@
       <c r="CC33" s="33" t="inlineStr"/>
       <c r="CD33" s="26" t="inlineStr"/>
       <c r="CE33" s="27" t="inlineStr"/>
+      <c r="CF33" s="27" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="16" t="inlineStr"/>
@@ -4488,6 +4533,7 @@
       <c r="CC34" s="33" t="inlineStr"/>
       <c r="CD34" s="26" t="inlineStr"/>
       <c r="CE34" s="27" t="inlineStr"/>
+      <c r="CF34" s="27" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="16" t="inlineStr"/>
@@ -4573,6 +4619,7 @@
       <c r="CC35" s="33" t="inlineStr"/>
       <c r="CD35" s="26" t="inlineStr"/>
       <c r="CE35" s="27" t="inlineStr"/>
+      <c r="CF35" s="27" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="16" t="inlineStr"/>
@@ -4658,6 +4705,7 @@
       <c r="CC36" s="33" t="inlineStr"/>
       <c r="CD36" s="26" t="inlineStr"/>
       <c r="CE36" s="27" t="inlineStr"/>
+      <c r="CF36" s="27" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="16" t="inlineStr"/>
@@ -4743,6 +4791,7 @@
       <c r="CC37" s="33" t="inlineStr"/>
       <c r="CD37" s="26" t="inlineStr"/>
       <c r="CE37" s="27" t="inlineStr"/>
+      <c r="CF37" s="27" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="16" t="inlineStr"/>
@@ -4828,6 +4877,7 @@
       <c r="CC38" s="33" t="inlineStr"/>
       <c r="CD38" s="26" t="inlineStr"/>
       <c r="CE38" s="27" t="inlineStr"/>
+      <c r="CF38" s="27" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="16" t="inlineStr"/>
@@ -4913,6 +4963,7 @@
       <c r="CC39" s="33" t="inlineStr"/>
       <c r="CD39" s="26" t="inlineStr"/>
       <c r="CE39" s="27" t="inlineStr"/>
+      <c r="CF39" s="27" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="16" t="inlineStr"/>
@@ -4998,6 +5049,7 @@
       <c r="CC40" s="33" t="inlineStr"/>
       <c r="CD40" s="26" t="inlineStr"/>
       <c r="CE40" s="27" t="inlineStr"/>
+      <c r="CF40" s="27" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="16" t="inlineStr"/>
@@ -5083,6 +5135,7 @@
       <c r="CC41" s="33" t="inlineStr"/>
       <c r="CD41" s="26" t="inlineStr"/>
       <c r="CE41" s="27" t="inlineStr"/>
+      <c r="CF41" s="27" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="16" t="inlineStr"/>
@@ -5168,6 +5221,7 @@
       <c r="CC42" s="33" t="inlineStr"/>
       <c r="CD42" s="26" t="inlineStr"/>
       <c r="CE42" s="27" t="inlineStr"/>
+      <c r="CF42" s="27" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="16" t="inlineStr"/>
@@ -5253,6 +5307,7 @@
       <c r="CC43" s="33" t="inlineStr"/>
       <c r="CD43" s="26" t="inlineStr"/>
       <c r="CE43" s="27" t="inlineStr"/>
+      <c r="CF43" s="27" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="16" t="inlineStr"/>
@@ -5338,6 +5393,7 @@
       <c r="CC44" s="33" t="inlineStr"/>
       <c r="CD44" s="26" t="inlineStr"/>
       <c r="CE44" s="27" t="inlineStr"/>
+      <c r="CF44" s="27" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="16" t="inlineStr"/>
@@ -5423,6 +5479,7 @@
       <c r="CC45" s="33" t="inlineStr"/>
       <c r="CD45" s="26" t="inlineStr"/>
       <c r="CE45" s="27" t="inlineStr"/>
+      <c r="CF45" s="27" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="16" t="inlineStr"/>
@@ -5508,6 +5565,7 @@
       <c r="CC46" s="33" t="inlineStr"/>
       <c r="CD46" s="26" t="inlineStr"/>
       <c r="CE46" s="27" t="inlineStr"/>
+      <c r="CF46" s="27" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="16" t="inlineStr"/>
@@ -5593,6 +5651,7 @@
       <c r="CC47" s="33" t="inlineStr"/>
       <c r="CD47" s="26" t="inlineStr"/>
       <c r="CE47" s="27" t="inlineStr"/>
+      <c r="CF47" s="27" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="16" t="inlineStr"/>
@@ -5678,6 +5737,7 @@
       <c r="CC48" s="33" t="inlineStr"/>
       <c r="CD48" s="26" t="inlineStr"/>
       <c r="CE48" s="27" t="inlineStr"/>
+      <c r="CF48" s="27" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="16" t="inlineStr"/>
@@ -5763,6 +5823,7 @@
       <c r="CC49" s="33" t="inlineStr"/>
       <c r="CD49" s="26" t="inlineStr"/>
       <c r="CE49" s="27" t="inlineStr"/>
+      <c r="CF49" s="27" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="16" t="inlineStr"/>
@@ -5848,6 +5909,7 @@
       <c r="CC50" s="33" t="inlineStr"/>
       <c r="CD50" s="26" t="inlineStr"/>
       <c r="CE50" s="27" t="inlineStr"/>
+      <c r="CF50" s="27" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="16" t="inlineStr"/>
@@ -5933,6 +5995,7 @@
       <c r="CC51" s="33" t="inlineStr"/>
       <c r="CD51" s="26" t="inlineStr"/>
       <c r="CE51" s="27" t="inlineStr"/>
+      <c r="CF51" s="27" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="16" t="inlineStr"/>
@@ -6018,6 +6081,7 @@
       <c r="CC52" s="33" t="inlineStr"/>
       <c r="CD52" s="26" t="inlineStr"/>
       <c r="CE52" s="27" t="inlineStr"/>
+      <c r="CF52" s="27" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="16" t="inlineStr"/>
@@ -6103,6 +6167,7 @@
       <c r="CC53" s="33" t="inlineStr"/>
       <c r="CD53" s="26" t="inlineStr"/>
       <c r="CE53" s="27" t="inlineStr"/>
+      <c r="CF53" s="27" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="16" t="inlineStr"/>
@@ -6188,6 +6253,7 @@
       <c r="CC54" s="33" t="inlineStr"/>
       <c r="CD54" s="26" t="inlineStr"/>
       <c r="CE54" s="27" t="inlineStr"/>
+      <c r="CF54" s="27" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="16" t="inlineStr"/>
@@ -6273,6 +6339,7 @@
       <c r="CC55" s="33" t="inlineStr"/>
       <c r="CD55" s="26" t="inlineStr"/>
       <c r="CE55" s="27" t="inlineStr"/>
+      <c r="CF55" s="27" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="16" t="inlineStr"/>
@@ -6358,6 +6425,7 @@
       <c r="CC56" s="33" t="inlineStr"/>
       <c r="CD56" s="26" t="inlineStr"/>
       <c r="CE56" s="27" t="inlineStr"/>
+      <c r="CF56" s="27" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="16" t="inlineStr"/>
@@ -6443,6 +6511,7 @@
       <c r="CC57" s="33" t="inlineStr"/>
       <c r="CD57" s="26" t="inlineStr"/>
       <c r="CE57" s="27" t="inlineStr"/>
+      <c r="CF57" s="27" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="16" t="inlineStr"/>
@@ -6528,6 +6597,7 @@
       <c r="CC58" s="33" t="inlineStr"/>
       <c r="CD58" s="26" t="inlineStr"/>
       <c r="CE58" s="27" t="inlineStr"/>
+      <c r="CF58" s="27" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="16" t="inlineStr"/>
@@ -6613,6 +6683,7 @@
       <c r="CC59" s="33" t="inlineStr"/>
       <c r="CD59" s="26" t="inlineStr"/>
       <c r="CE59" s="27" t="inlineStr"/>
+      <c r="CF59" s="27" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="16" t="inlineStr"/>
@@ -6698,6 +6769,7 @@
       <c r="CC60" s="33" t="inlineStr"/>
       <c r="CD60" s="26" t="inlineStr"/>
       <c r="CE60" s="27" t="inlineStr"/>
+      <c r="CF60" s="27" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="16" t="inlineStr"/>
@@ -6783,6 +6855,7 @@
       <c r="CC61" s="33" t="inlineStr"/>
       <c r="CD61" s="26" t="inlineStr"/>
       <c r="CE61" s="27" t="inlineStr"/>
+      <c r="CF61" s="27" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="16" t="inlineStr"/>
@@ -6868,6 +6941,7 @@
       <c r="CC62" s="33" t="inlineStr"/>
       <c r="CD62" s="26" t="inlineStr"/>
       <c r="CE62" s="27" t="inlineStr"/>
+      <c r="CF62" s="27" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="16" t="inlineStr"/>
@@ -6953,6 +7027,7 @@
       <c r="CC63" s="33" t="inlineStr"/>
       <c r="CD63" s="26" t="inlineStr"/>
       <c r="CE63" s="27" t="inlineStr"/>
+      <c r="CF63" s="27" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="16" t="inlineStr"/>
@@ -7038,6 +7113,7 @@
       <c r="CC64" s="33" t="inlineStr"/>
       <c r="CD64" s="26" t="inlineStr"/>
       <c r="CE64" s="27" t="inlineStr"/>
+      <c r="CF64" s="27" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="16" t="inlineStr"/>
@@ -7123,6 +7199,7 @@
       <c r="CC65" s="33" t="inlineStr"/>
       <c r="CD65" s="26" t="inlineStr"/>
       <c r="CE65" s="27" t="inlineStr"/>
+      <c r="CF65" s="27" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="inlineStr"/>
@@ -7208,6 +7285,7 @@
       <c r="CC66" s="33" t="inlineStr"/>
       <c r="CD66" s="26" t="inlineStr"/>
       <c r="CE66" s="27" t="inlineStr"/>
+      <c r="CF66" s="27" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="16" t="inlineStr"/>
@@ -7293,6 +7371,7 @@
       <c r="CC67" s="33" t="inlineStr"/>
       <c r="CD67" s="26" t="inlineStr"/>
       <c r="CE67" s="27" t="inlineStr"/>
+      <c r="CF67" s="27" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="16" t="inlineStr"/>
@@ -7378,6 +7457,7 @@
       <c r="CC68" s="33" t="inlineStr"/>
       <c r="CD68" s="26" t="inlineStr"/>
       <c r="CE68" s="27" t="inlineStr"/>
+      <c r="CF68" s="27" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="16" t="inlineStr"/>
@@ -7463,6 +7543,7 @@
       <c r="CC69" s="33" t="inlineStr"/>
       <c r="CD69" s="26" t="inlineStr"/>
       <c r="CE69" s="27" t="inlineStr"/>
+      <c r="CF69" s="27" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="16" t="inlineStr"/>
@@ -7548,6 +7629,7 @@
       <c r="CC70" s="33" t="inlineStr"/>
       <c r="CD70" s="26" t="inlineStr"/>
       <c r="CE70" s="27" t="inlineStr"/>
+      <c r="CF70" s="27" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="16" t="inlineStr"/>
@@ -7633,6 +7715,7 @@
       <c r="CC71" s="33" t="inlineStr"/>
       <c r="CD71" s="26" t="inlineStr"/>
       <c r="CE71" s="27" t="inlineStr"/>
+      <c r="CF71" s="27" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="16" t="inlineStr"/>
@@ -7718,6 +7801,7 @@
       <c r="CC72" s="33" t="inlineStr"/>
       <c r="CD72" s="26" t="inlineStr"/>
       <c r="CE72" s="27" t="inlineStr"/>
+      <c r="CF72" s="27" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="16" t="inlineStr"/>
@@ -7803,6 +7887,7 @@
       <c r="CC73" s="33" t="inlineStr"/>
       <c r="CD73" s="26" t="inlineStr"/>
       <c r="CE73" s="27" t="inlineStr"/>
+      <c r="CF73" s="27" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="16" t="inlineStr"/>
@@ -7888,6 +7973,7 @@
       <c r="CC74" s="33" t="inlineStr"/>
       <c r="CD74" s="26" t="inlineStr"/>
       <c r="CE74" s="27" t="inlineStr"/>
+      <c r="CF74" s="27" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="16" t="inlineStr"/>
@@ -7973,6 +8059,7 @@
       <c r="CC75" s="33" t="inlineStr"/>
       <c r="CD75" s="26" t="inlineStr"/>
       <c r="CE75" s="27" t="inlineStr"/>
+      <c r="CF75" s="27" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="16" t="inlineStr"/>
@@ -8058,6 +8145,7 @@
       <c r="CC76" s="33" t="inlineStr"/>
       <c r="CD76" s="26" t="inlineStr"/>
       <c r="CE76" s="27" t="inlineStr"/>
+      <c r="CF76" s="27" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="16" t="inlineStr"/>
@@ -8143,6 +8231,7 @@
       <c r="CC77" s="33" t="inlineStr"/>
       <c r="CD77" s="26" t="inlineStr"/>
       <c r="CE77" s="27" t="inlineStr"/>
+      <c r="CF77" s="27" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="16" t="inlineStr"/>
@@ -8228,6 +8317,7 @@
       <c r="CC78" s="33" t="inlineStr"/>
       <c r="CD78" s="26" t="inlineStr"/>
       <c r="CE78" s="27" t="inlineStr"/>
+      <c r="CF78" s="27" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="16" t="inlineStr"/>
@@ -8313,6 +8403,7 @@
       <c r="CC79" s="33" t="inlineStr"/>
       <c r="CD79" s="26" t="inlineStr"/>
       <c r="CE79" s="27" t="inlineStr"/>
+      <c r="CF79" s="27" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="16" t="inlineStr"/>
@@ -8398,6 +8489,7 @@
       <c r="CC80" s="33" t="inlineStr"/>
       <c r="CD80" s="26" t="inlineStr"/>
       <c r="CE80" s="27" t="inlineStr"/>
+      <c r="CF80" s="27" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="16" t="inlineStr"/>
@@ -8483,6 +8575,7 @@
       <c r="CC81" s="33" t="inlineStr"/>
       <c r="CD81" s="26" t="inlineStr"/>
       <c r="CE81" s="27" t="inlineStr"/>
+      <c r="CF81" s="27" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="16" t="inlineStr"/>
@@ -8568,6 +8661,7 @@
       <c r="CC82" s="33" t="inlineStr"/>
       <c r="CD82" s="26" t="inlineStr"/>
       <c r="CE82" s="27" t="inlineStr"/>
+      <c r="CF82" s="27" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="16" t="inlineStr"/>
@@ -8653,6 +8747,7 @@
       <c r="CC83" s="33" t="inlineStr"/>
       <c r="CD83" s="26" t="inlineStr"/>
       <c r="CE83" s="27" t="inlineStr"/>
+      <c r="CF83" s="27" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="16" t="inlineStr"/>
@@ -8738,6 +8833,7 @@
       <c r="CC84" s="33" t="inlineStr"/>
       <c r="CD84" s="26" t="inlineStr"/>
       <c r="CE84" s="27" t="inlineStr"/>
+      <c r="CF84" s="27" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="16" t="inlineStr"/>
@@ -8823,6 +8919,7 @@
       <c r="CC85" s="33" t="inlineStr"/>
       <c r="CD85" s="26" t="inlineStr"/>
       <c r="CE85" s="27" t="inlineStr"/>
+      <c r="CF85" s="27" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="16" t="inlineStr"/>
@@ -8908,6 +9005,7 @@
       <c r="CC86" s="33" t="inlineStr"/>
       <c r="CD86" s="26" t="inlineStr"/>
       <c r="CE86" s="27" t="inlineStr"/>
+      <c r="CF86" s="27" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="16" t="inlineStr"/>
@@ -8993,6 +9091,7 @@
       <c r="CC87" s="33" t="inlineStr"/>
       <c r="CD87" s="26" t="inlineStr"/>
       <c r="CE87" s="27" t="inlineStr"/>
+      <c r="CF87" s="27" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="16" t="inlineStr"/>
@@ -9078,6 +9177,7 @@
       <c r="CC88" s="33" t="inlineStr"/>
       <c r="CD88" s="26" t="inlineStr"/>
       <c r="CE88" s="27" t="inlineStr"/>
+      <c r="CF88" s="27" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="16" t="inlineStr"/>
@@ -9163,6 +9263,7 @@
       <c r="CC89" s="33" t="inlineStr"/>
       <c r="CD89" s="26" t="inlineStr"/>
       <c r="CE89" s="27" t="inlineStr"/>
+      <c r="CF89" s="27" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="16" t="inlineStr"/>
@@ -9248,6 +9349,7 @@
       <c r="CC90" s="33" t="inlineStr"/>
       <c r="CD90" s="26" t="inlineStr"/>
       <c r="CE90" s="27" t="inlineStr"/>
+      <c r="CF90" s="27" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="16" t="inlineStr"/>
@@ -9333,6 +9435,7 @@
       <c r="CC91" s="33" t="inlineStr"/>
       <c r="CD91" s="26" t="inlineStr"/>
       <c r="CE91" s="27" t="inlineStr"/>
+      <c r="CF91" s="27" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="16" t="inlineStr"/>
@@ -9418,6 +9521,7 @@
       <c r="CC92" s="33" t="inlineStr"/>
       <c r="CD92" s="26" t="inlineStr"/>
       <c r="CE92" s="27" t="inlineStr"/>
+      <c r="CF92" s="27" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="16" t="inlineStr"/>
@@ -9503,6 +9607,7 @@
       <c r="CC93" s="33" t="inlineStr"/>
       <c r="CD93" s="26" t="inlineStr"/>
       <c r="CE93" s="27" t="inlineStr"/>
+      <c r="CF93" s="27" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="16" t="inlineStr"/>
@@ -9588,6 +9693,7 @@
       <c r="CC94" s="33" t="inlineStr"/>
       <c r="CD94" s="26" t="inlineStr"/>
       <c r="CE94" s="27" t="inlineStr"/>
+      <c r="CF94" s="27" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="16" t="inlineStr"/>
@@ -9673,6 +9779,7 @@
       <c r="CC95" s="33" t="inlineStr"/>
       <c r="CD95" s="26" t="inlineStr"/>
       <c r="CE95" s="27" t="inlineStr"/>
+      <c r="CF95" s="27" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="16" t="inlineStr"/>
@@ -9758,6 +9865,7 @@
       <c r="CC96" s="33" t="inlineStr"/>
       <c r="CD96" s="26" t="inlineStr"/>
       <c r="CE96" s="27" t="inlineStr"/>
+      <c r="CF96" s="27" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="16" t="inlineStr"/>
@@ -9843,6 +9951,7 @@
       <c r="CC97" s="33" t="inlineStr"/>
       <c r="CD97" s="26" t="inlineStr"/>
       <c r="CE97" s="27" t="inlineStr"/>
+      <c r="CF97" s="27" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="16" t="inlineStr"/>
@@ -9928,6 +10037,7 @@
       <c r="CC98" s="33" t="inlineStr"/>
       <c r="CD98" s="26" t="inlineStr"/>
       <c r="CE98" s="27" t="inlineStr"/>
+      <c r="CF98" s="27" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="16" t="inlineStr"/>
@@ -10013,15 +10123,19 @@
       <c r="CC99" s="33" t="inlineStr"/>
       <c r="CD99" s="26" t="inlineStr"/>
       <c r="CE99" s="27" t="inlineStr"/>
+      <c r="CF99" s="27" t="inlineStr"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BG2:BG100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BX2:BX100 BZ2:BZ100 CA2:CA100 CB2:CB100 CC2:CC100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2:H100 AV2:AV100 CD2:CD100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
+    <dataValidation sqref="H2:H100 AV2:AV100 CE2:CE100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
     <dataValidation sqref="F2:F100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;restricted public&quot; " type="list">
       <formula1>"public,non-public,restricted public"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot; or &quot;non-public&quot; " type="list">
+      <formula1>"public,non-public"</formula1>
     </dataValidation>
     <dataValidation sqref="AA2:AA100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
       <formula1>101</formula1>

--- a/docs/samples/DIP_Excel_Template.xlsx
+++ b/docs/samples/DIP_Excel_Template.xlsx
@@ -10126,7 +10126,7 @@
       <c r="CF99" s="27" t="inlineStr"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BG2:BG100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BX2:BX100 BZ2:BZ100 CA2:CA100 CB2:CB100 CC2:CC100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -10140,6 +10140,9 @@
     <dataValidation sqref="AA2:AA100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
       <formula1>101</formula1>
     </dataValidation>
+    <dataValidation sqref="A2:A100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be string with no spaces and a max of 128 chars" type="custom">
+      <formula1>AND(LEN(A2)&lt;129,NOT(ISNUMBER(SEARCH(" ",A2))))</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>

--- a/docs/samples/DIP_Excel_Template.xlsx
+++ b/docs/samples/DIP_Excel_Template.xlsx
@@ -254,651 +254,873 @@
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <t>unique identifier:
-&lt;p&gt;Similar to a serial number associated with your laptop, the identifier is a unique and specific combination of characters that identify the resource. The combination must start with the DHS component code, is limited to 128 characters, and be in the following format: code-xxx-x&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;mgmt-test-2&lt;/li&gt;&lt;li&gt;fema-1234-D&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+Similar to a serial number associated with your laptop, the identifier is a unique and specific combination of characters that identify the resource. The combination must start with the DHS component code, is limited to 128 characters, and be in the following format: code-xxx-x
+Example:
+mgmt-test-2
+fema-1234-D
 &lt;dcterms:identifier&gt;</t>
       </text>
     </comment>
     <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <t>title:
-&lt;p&gt;The official name (title) given to the resource, limited to 255 characters. Acronyms should be used sparingly and only when explained in the description.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;DHS Data Inventory Introduction&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The official name (title) given to the resource, limited to 255 characters. Acronyms should be used sparingly and only when explained in the description.
+Example:
+DHS Data Inventory Introduction
 &lt;dcterms:title&gt;</t>
       </text>
     </comment>
     <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <t>description:
-&lt;p&gt;A summary of the resource, limited to 4,000 characters.&lt;/p&gt;&lt;p&gt;Example:&lt;/p&gt;&lt;p&gt;A mission and overview of the Data Inventory Program (DIP) containing instructions, references, terminology, and explanations designed  for users to understand and be able to use the features it contains.&lt;/p&gt;
+A summary of the resource, limited to 4,000 characters.
+Example:
+A mission and overview of the Data Inventory Program (DIP) containing instructions, references, terminology, and explanations designed  for users to understand and be able to use the features it contains.
 &lt;dcterms:description&gt;</t>
       </text>
     </comment>
     <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <t>keyword:
-&lt;p&gt;A keyword or multiple (comma delimited) keywords describing the resource.&lt;/p&gt;&lt;p&gt;Example:&lt;/p&gt;&lt;p&gt;City of New York, Universities, Immigration&lt;/p&gt;
+A keyword or multiple (comma delimited) keywords describing the resource.
+Example:
+City of New York, Universities, Immigration
 &lt;dcat:keyword&gt;</t>
       </text>
     </comment>
     <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <t>publisher:
-&lt;p&gt;The entity responsible for making the resource available.&lt;/p&gt;&lt;p&gt;Entity may include federal agency, sub- agency, state or local agencies, an organization, a network, a service, or a POC.&lt;/P&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;DHS/MGMT/OCHCO&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The entity responsible for making the resource available.
+Entity may include federal agency, sub- agency, state or local agencies, an organization, a network, a service, or a POC.
+Example:
+DHS/MGMT/OCHCO
 &lt;dcterms:publisher&gt;</t>
       </text>
     </comment>
     <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <t>accessLevel:
-&lt;p&gt;The three levels that determine how publicly-available the resource is:&lt;/p&gt;&lt;p&gt;Public: is/could be publicly-available without restrictions.&lt;/p&gt;&lt;p&gt;Restricted Public: is available under certain restrictions.&lt;/p&gt;&lt;p&gt;Non-Public: is not available to the public.&lt;/p&gt;
+The three levels that determine how publicly-available the resource is:
+Public: is/could be publicly-available without restrictions.
+Restricted Public: is available under certain restrictions.
+Non-Public: is not available to the public.
 &lt;usg:accessLevel&gt;</t>
       </text>
     </comment>
     <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <t>dataCatalogRecordAccessLevel:
-&lt;p&gt;The classification of this Data Inventory Record as either Public or Non-Public.&lt;/p&gt;&lt;p&gt;Can this record be published in data.gov?&lt;ul class='no-bullets'&gt;&lt;li&gt;Yes = Public&lt;/li&gt;&lt;li&gt;No = Non-Public&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The classification of this Data Inventory Record as either Public or Non-Public.
+Can this record be published in data.gov?
+Yes = Public
+No = Non-Public
 &lt;dhs:dataCatalogRecordAccessLevel&gt;</t>
       </text>
     </comment>
     <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <t>issued:
-&lt;p&gt;The issued date of the dataset (if not published this may be the date the data was first made available internally).&lt;/p&gt;&lt;p&gt;Records submitted via JSON must be in ISO 8601 format (YYYY-MM-DD). Records submitted via Excel must be in standard format (MM/DD/YYYY).&lt;/p&gt;
+The issued date of the dataset (if not published this may be the date the data was first made available internally).
+Records submitted via JSON must be in ISO 8601 format (YYYY-MM-DD). Records submitted via Excel must be in standard format (MM/DD/YYYY).
 &lt;dcterms:issued&gt;</t>
       </text>
     </comment>
     <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <t>component:
-&lt;p&gt;The DHS Component (sub-agency) the data pertains too.&lt;/p&gt;&lt;p&gt;&lt;ul class='no-bullets'&gt;&lt;li&gt;MGMT&lt;/li&gt;&lt;li&gt;CISA&lt;/li&gt;&lt;li&gt;CBP&lt;/li&gt;&lt;li&gt;&lt;/li&gt;&lt;li&gt;FEMA&lt;/li&gt;&lt;li&gt;S&amp;T&lt;/li&gt;&lt;li&gt;TSA&lt;/li&gt;&lt;li&gt;ICE&lt;/li&gt;&lt;li&gt;USCIS&lt;/li&gt;&lt;li&gt;FPS&lt;/li&gt;&lt;li&gt;FLETC&lt;/li&gt;&lt;li&gt;USSS&lt;/li&gt;&lt;li&gt;USCG&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The DHS Component (sub-agency) the data pertains too.
+MGMT
+CISA
+CBP
+FEMA
+S&amp;T
+TSA
+ICE
+USCIS
+FPS
+FLETC
+USSS
+USCG
 &lt;dhs:component&gt;</t>
       </text>
     </comment>
     <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <t>restrictionReason:
-&lt;p&gt;A reason for which the dataset is not published to data.gov (I.e. not marked as 'public' for accessLevel and not marked as 'public' for dataCatalogRecordAccessLevel). Must be provided as a comma separated list including one or more of the following:&lt;/p&gt;&lt;p&gt;&lt;ul class='no-bullets'&gt;&lt;li&gt;PII Sensitive&lt;/li&gt;&lt;li&gt;Security Risk&lt;/li&gt;&lt;li&gt;Legal liability&lt;/li&gt;&lt;li&gt;Intellectual Property Rights&lt;/li&gt;&lt;li&gt;Confidential Business Information&lt;/li&gt;&lt;li&gt;Restricted by Contract&lt;/li&gt;&lt;li&gt;FOIA Exeption&lt;/li&gt;&lt;li&gt;OMB Director Discretion&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+A reason for which the dataset is not published to data.gov (I.e. not marked as 'public' for accessLevel and not marked as 'public' for dataCatalogRecordAccessLevel). Must be provided as a comma separated list including one or more of the following:
+PII Sensitive
+Security Risk
+Legal Liability
+Intellectual Property Rights
+Confidential Business Information
+Restricted by Contract
+FOIA Exemption
+OMB Director Discretion
 &lt;dhs:restrictionReason&gt;</t>
       </text>
     </comment>
     <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <t>creator:
-&lt;p&gt;Either a name or email (individual or group) of the individual responsible for creating the resource. Include the point of contact information with either a name or email (individual or group) when submitting via Excel or a full Vcard when submitting via JSON.&lt;/p&gt;
+Either a name or email (individual or group) of the individual responsible for creating the resource. Include the point of contact information with either a name or email (individual or group) when submitting via Excel or a full Vcard when submitting via JSON.
 &lt;dcterms:creator&gt;</t>
       </text>
     </comment>
     <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <t>governance:
-&lt;p&gt;Either a name or email (individual or group) of the individual responsible for overseeing the information contained in the resource. Include the point of contact information with  either a name or email (individual or group) when submitting via Excel or a full Vcard when submitting via JSON.&lt;/p&gt;
+Either a name or email (individual or group) of the individual responsible for overseeing the information contained in the resource. Include the point of contact information with  either a name or email (individual or group) when submitting via Excel or a full Vcard when submitting via JSON.
 &lt;dhs:governance&gt;</t>
       </text>
     </comment>
     <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <t>owner:
-&lt;p&gt;Either a name or email (individual or group) of the individual responsible for the accuracy of the information contained in the resource when submitting via Excel or a full Vcard when submitting via JSON.&lt;/p&gt;
+Either a name or email (individual or group) of the individual responsible for the accuracy of the information contained in the resource when submitting via Excel or a full Vcard when submitting via JSON.
 &lt;dhs:owner&gt;</t>
       </text>
     </comment>
     <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <t>steward:
-&lt;p&gt;Either a name or email (individual or group) of the administrator of the dataset who ensures the information is properly stored, maintained, accessible, and protected. If submitting via JSON, a full Vcard.&lt;/p&gt;
+Either a name or email (individual or group) of the administrator of the dataset who ensures the information is properly stored, maintained, accessible, and protected. If submitting via JSON, a full Vcard.
 &lt;dhs:steward&gt;</t>
       </text>
     </comment>
     <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <t>custodian:
-&lt;p&gt;Either a name or email (individual or group) of the individual who has physical possession of the information. If submitting via JSON, a full Vcard.&lt;/p&gt;
+Either a name or email (individual or group) of the individual who has physical possession of the information. If submitting via JSON, a full Vcard.
 &lt;dhs:custodian&gt;</t>
       </text>
     </comment>
     <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <t>primaryITInvestmentUII:
-&lt;p&gt;Used for linking a dataset with an IT UII. A Unique Investment Identifier (UII) is an established and unique identifier of an investment, assigned at the Component level.&lt;/p&gt;&lt;p&gt;Example: 010-999992220&lt;/p&gt;&lt;p&gt;Non-Tech Example: The number/ identifier on the 'Property of...' sticker on your laptop.&lt;/p&gt;
+Used for linking a dataset with an IT UII. A Unique Investment Identifier (UII) is an established and unique identifier of an investment, assigned at the Component level.
+Example: 010-999992220
+Non-Tech Example: The number/ identifier on the 'Property of...' sticker on your laptop.
 &lt;usg:primaryITInvestmentUII&gt;</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <t>fismaID:
-&lt;p&gt;The FISMA ID is a unique identifier that describes various key characteristics of a specific system.&lt;/p&gt;&lt;p&gt;If the dataset is part of a system that has a FISMA ID then the FISMA ID should be provided.&lt;/p&gt;&lt;p&gt;Example:&lt;/p&gt;&lt;ul class='no-bullets'&gt;&lt;li&gt;FSA-00100-MAJ-00100&lt;/li&gt;&lt;li&gt;- OR -&lt;/li&gt;&lt;li&gt;TSA-02379-SUB-00465&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The FISMA ID is a unique identifier that describes various key characteristics of a specific system.
+If the dataset is part of a system that has a FISMA ID then the FISMA ID should be provided.
+Example:
+FSA-00100-MAJ-00100
+- OR -
+TSA-02379-SUB-00465
 &lt;dhs:fismaID&gt;</t>
       </text>
     </comment>
     <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <t>references:
-&lt;p&gt;A related piece of information from another source (typically linked via URL) that provides additional related information about the resource.&lt;/p&gt;
+A related piece of information from another source (typically linked via URL) that provides additional related information about the resource.
 &lt;dcterms:references&gt;</t>
       </text>
     </comment>
     <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <t>sharingAgreements:
-&lt;p&gt;A contract that states what and how  information can be shared or utilized.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;https://www.dhs.gov/sites/default/files/publications/privacy_crcl_guidance_ise_2009-01_0.pdf&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;&lt;p&gt;DHS&lt;/p&gt;&lt;p&gt;&lt;ul class='no-bullets'&gt;&lt;li&gt;https://catalog.data.gov/dataset/fingerprint&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+A contract that states what and how  information can be shared or utilized.
+Example:
+https://www.dhs.gov/sites/default/files/publications/privacy_crcl_guidance_ise_2009-01_0.pdf
+DHS
+https://catalog.data.gov/dataset/fingerprint
 &lt;dhs:sharingAgreements&gt;</t>
       </text>
     </comment>
     <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <t>contactPoint:
-&lt;p&gt;The contact information  (name and email preferred) of the main individual to contact with questions about the dataset.&lt;/p&gt;
+The contact information  (name and email preferred) of the main individual to contact with questions about the dataset.
 &lt;dcat:contactPoint&gt;</t>
       </text>
     </comment>
     <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <t>collectionAuthority:
-&lt;p&gt;The legislation or executive order under which the data was collected.&lt;/p&gt;&lt;p&gt;The specific document or policy that grants you permission to collect specific data.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;https://www.ecfr.gov/current/title-28/chapter-I/part-28/subpart-B/section-28.12&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The legislation or executive order under which the data was collected.
+The specific document or policy that grants you permission to collect specific data.
+Example:
+https://www.ecfr.gov/current/title-28/chapter-I/part-28/subpart-B/section-28.12
 &lt;dhs:collectionAuthority&gt;</t>
       </text>
     </comment>
     <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <t>releaseAuthority:
-&lt;p&gt;The document, legislation or executive order under which he data can be released.&lt;/p&gt;&lt;p&gt;Examples:&lt;ul class='no-bullets'&gt;&lt;li&gt;https://www.ecfr.gov/current/title-6/chapter-I/part-7/subpart-B/section-7.23&lt;/li&gt;&lt;li&gt;https://irp.fas.org/dni/icd/icd-403.pdf&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;
+The document, legislation or executive order under which he data can be released.
+Examples:
+https://www.ecfr.gov/current/title-6/chapter-I/part-7/subpart-B/section-7.23
+https://irp.fas.org/dni/icd/icd-403.pdf
 &lt;dhs:releaseAuthority&gt;</t>
       </text>
     </comment>
     <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <t>recordsSchedule:
-&lt;p&gt;The policy indicating the time period in which the records are retained.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;DAA-0563-2013-0005 (link below)&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The policy indicating the time period in which the records are retained.
+Example:
+DAA-0563-2013-0005 (link below)
 &lt;dhs:recordsSchedule&gt;</t>
       </text>
     </comment>
     <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <t>systemOfRecords:
-&lt;p&gt;If the system is designated as a system of records under the Privacy Act of 1974, provide the URL to the System of Records Notice that relates to the dataset. The URL should be from FederalRegister.gov  or point to an entry from the Federal Register.&lt;/p&gt;
+If the system is designated as a system of records under the Privacy Act of 1974, provide the URL to the System of Records Notice that relates to the dataset. The URL should be from FederalRegister.gov  or point to an entry from the Federal Register.
 &lt;usg:systemOfRecords&gt;</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <t>ptaAdjudicatedDate:
-&lt;p&gt;The date on which the Privacy Threshold Assessment (PTA) was adjudicated&lt;/p&gt;
+The date on which the Privacy Threshold Assessment (PTA) was adjudicated
 &lt;dhs:ptaAdjudicatedDate&gt;</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <t>conformsTo:
-&lt;p&gt;A technical standard that the dataset conforms to.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;WGS84 is standard for GPS. The Global Positioning System uses the World Geodetic System (WGS84) as its reference coordinate system.&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+A technical standard that the dataset conforms to.
+Example:
+WGS84 is standard for GPS. The Global Positioning System uses the World Geodetic System (WGS84) as its reference coordinate system.
 &lt;dcterms:conformsTo&gt;</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <t>conformsFIPS:
-&lt;p&gt;The Federal Inventory Processing Standard that the dataset conforms to, if any.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;FIPS201-3&lt;/li&gt;&lt;li&gt;https://csrc.nist.gov/publications/detail/fips/201/3/final&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The Federal Inventory Processing Standard that the dataset conforms to, if any.
+Example:
+FIPS201-3
+https://csrc.nist.gov/publications/detail/fips/201/3/final
 &lt;dhs:conformsFIPS&gt;</t>
       </text>
     </comment>
     <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <t>conformsNIEMPercent:
-&lt;p&gt;The numerical percentage (0-100) of the dataset that is NIEM compliant.&lt;/p&gt;
+The numerical percentage (0-100) of the dataset that is NIEM compliant.
 &lt;dhs:conformsNIEMPercent&gt;</t>
       </text>
     </comment>
     <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <t>conformsUnicode:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;Is the information in the resource written in Unicode (does the code given to each character start with the letter 'u')?&lt;/p&gt;&lt;p&gt;Information containing foreign languages/characters are typically written in Unicode format (U+XXX).&lt;/p&gt;
+True or False
+Is the information in the resource written in Unicode (does the code given to each character start with the letter 'u')?
+Information containing foreign languages/characters are typically written in Unicode format (U+XXX).
 &lt;dhs:conformsUnicode&gt;</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <t>identitiesNativeScript:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;Are the names of individuals and other entities stored in a way (e.g. Roman characters) that can be shared across systems?&lt;/p&gt;
+True or False
+Are the names of individuals and other entities stored in a way (e.g. Roman characters) that can be shared across systems?
 &lt;dhs:identitiesNativeScript&gt;</t>
       </text>
     </comment>
     <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <t>transliterationStandard:
-&lt;p&gt;The standard of converting  text  from one language to Roman characters.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;https://www.iso.org/ics/01.140.10/x/&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The standard of converting  text  from one language to Roman characters.
+Example:
+https://www.iso.org/ics/01.140.10/x/
 &lt;dhs:transliterationStandard&gt;</t>
       </text>
     </comment>
     <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <t>sourceDatasets:
-&lt;p&gt;An identifier for the originating dataset (the DHS Unique Identifier if possible or DOI or URL for externally developed datasets).&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;Mobius - creates TRM Data which TRM team uses for various projects.&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+An identifier for the originating dataset (the DHS Unique Identifier if possible or DOI or URL for externally developed datasets).
+Example:
+Mobius - creates TRM Data which TRM team uses for various projects.
 &lt;dhs:sourceDatasets&gt;</t>
       </text>
     </comment>
     <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <t>destinationDatasets:
-&lt;p&gt;The unique identifier of downstream datasets fed by this dataset.&lt;/p&gt;&lt;P&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;In this instance, Mobius would include the unique identifier for downstream datasets.&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The unique identifier of downstream datasets fed by this dataset.
+&lt;P&gt;Example:
+In this instance, Mobius would include the unique identifier for downstream datasets.
 &lt;dhs:destinationDatasets&gt;</t>
       </text>
     </comment>
     <comment ref="AH1" authorId="0" shapeId="0">
       <text>
         <t>describedBy:
-&lt;p&gt;A URL link to the  dictionary that defines the fields or column heading of the information.&lt;/p&gt;
+A URL link to the  dictionary that defines the fields or column heading of the information.
 &lt;usg:describedBy&gt;</t>
       </text>
     </comment>
     <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <t>describedByType:
-&lt;p&gt;The file format of the describedBy URL link. Should be a standard mime (IANA media)type.&lt;/p&gt;&lt;p&gt;Examples:&lt;ul class='no-bullets'&gt;&lt;li&gt;application/xml&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The file format of the describedBy URL link. Should be a standard mime (IANA media)type.
+Examples:
+application/xml
 &lt;usg:describedByType&gt;</t>
       </text>
     </comment>
     <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <t>isPartOf:
-&lt;p&gt;The source in which a grouping of related resources are included in. This is typically the name of the system in which the dataset resides.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;TRM isPartOf Mobius.&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The source in which a grouping of related resources are included in. This is typically the name of the system in which the dataset resides.
+Example:
+TRM isPartOf Mobius.
 &lt;dcterms:isPartOf&gt;</t>
       </text>
     </comment>
     <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <t>isOpenSource:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The data in the dataset is composed of publicly available data and maybe compiled from multiple sources.&lt;/p&gt;
+True or False
+The data in the dataset is composed of publicly available data and maybe compiled from multiple sources.
 &lt;dhs:isOpenSource&gt;</t>
       </text>
     </comment>
     <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <t>isCommercial:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The dataset is aquired from a private sector provider (may be purchased or acquired via agreement).&lt;/p&gt;
+True or False
+The dataset is aquired from a private sector provider (may be purchased or acquired via agreement).
 &lt;dhs:isCommercial&gt;</t>
       </text>
     </comment>
     <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <t>hasDataDictionary:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The dataset has a data dictionary (should be pointed to in the referencedBy attribute).&lt;/p&gt;
+True or False
+The dataset has a data dictionary (should be pointed to in the referencedBy attribute).
 &lt;dhs:hasDataDictionary&gt;</t>
       </text>
     </comment>
     <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <t>accrualPeriodicity:
-&lt;p&gt;The frequency with which resources or sets of information are added to the dataset. Recommend timeframes (or frequency) can be found in the Collection Description Accrual Policy Vocabulary. &lt;/p&gt;
+The frequency with which resources or sets of information are added to the dataset. Recommend timeframes (or frequency) can be found in the Collection Description Accrual Policy Vocabulary. 
 &lt;dcterms:accrualPeriodicity&gt;</t>
       </text>
     </comment>
     <comment ref="AO1" authorId="0" shapeId="0">
       <text>
         <t>spatial:
-&lt;p&gt;A named local or geographic area.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;St. Elizabeth Campus, Downtown DC, Arlington County, United States&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+A named local or geographic area.
+Example:
+St. Elizabeth Campus, Downtown DC, Arlington County, United States
 &lt;dcterms:spatial&gt;</t>
       </text>
     </comment>
     <comment ref="AP1" authorId="0" shapeId="0">
       <text>
         <t>spatialResolutionInMeters:
-&lt;p&gt;How small of an area, in meters, you can make (or zoom into) an image that will still provide a quality resolution in order to identify the content in the image.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;5x5 meters&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+How small of an area, in meters, you can make (or zoom into) an image that will still provide a quality resolution in order to identify the content in the image.
+Example:
+5x5 meters
 &lt;dcat:spatialResolutionInMeters&gt;</t>
       </text>
     </comment>
     <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <t>temporal:
-&lt;p&gt;The period of time that the dataset covers.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;December 2021&lt;/li&gt;&lt;li&gt;2012-2018&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The period of time that the dataset covers.
+Example:
+December 2021
+2012-2018
 &lt;dcterms:temporal&gt;</t>
       </text>
     </comment>
     <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <t>temporalResolution:
-&lt;p&gt;The smallest amount of time between records in dataset.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;P1Y&lt;/li&gt;&lt;li&gt;P1M&lt;/li&gt;&lt;li&gt;P7D&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The smallest amount of time between records in dataset.
+Example:
+P1Y
+P1M
+P7D
 &lt;dcat:temporalResolution&gt;</t>
       </text>
     </comment>
     <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <t>dataQualityKnown:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;Is the quality of the information in the resource known?&lt;/p&gt;
+True or False
+Is the quality of the information in the resource known?
 &lt;dhs:dataQualityKnown&gt;</t>
       </text>
     </comment>
     <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <t>dataQualityPercent:
-&lt;p&gt;A simple measure of the data quality, on a scale of 0-100.&lt;/p&gt;
+A simple measure of the data quality, on a scale of 0-100.
 &lt;dhs:dataQualityPercent&gt;</t>
       </text>
     </comment>
     <comment ref="AU1" authorId="0" shapeId="0">
       <text>
         <t>dataQualityAssessment:
-&lt;p&gt;A written account evaluating the quality of the information contained within the resource.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;This dataset has some gaps in critical areas. Efforts are underway to remediate.&lt;/li&gt;&lt;li&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;This dataset is based on information obtained in 2017. Efforts underway to obtain current data.&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+A written account evaluating the quality of the information contained within the resource.
+Example:
+This dataset has some gaps in critical areas. Efforts are underway to remediate.
+&amp;nbsp;
+This dataset is based on information obtained in 2017. Efforts underway to obtain current data.
 &lt;dhs:dataQualityAssessment&gt;</t>
       </text>
     </comment>
     <comment ref="AV1" authorId="0" shapeId="0">
       <text>
         <t>dataQuality:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;Does the information contained in the resource meet the agency's Information Quality Guidelines?&lt;/p&gt;
+True or False
+Does the information contained in the resource meet the agency's Information Quality Guidelines?
 &lt;usg:dataQuality&gt;</t>
       </text>
     </comment>
     <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <t>format:
-&lt;p&gt;The file format, physical medium, or dimension of the resource.&lt;/p&gt;&lt;p&gt;Examples:&lt;ul class='no-bullets'&gt;&lt;li&gt;File Format - CSV, HTML, JSON, MySQL&lt;/li&gt;&lt;li&gt;Physical Medium - USB drives, CD&lt;li&gt;&lt;li&gt;Dimension - Size, Duration&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The file format, physical medium, or dimension of the resource.
+Examples:
+File Format - CSV, HTML, JSON, MySQL
+Physical Medium - USB drives, CD
+Dimension - Size, Duration
 &lt;dcterms:format&gt;</t>
       </text>
     </comment>
     <comment ref="AX1" authorId="0" shapeId="0">
       <text>
         <t>accessURL:
-&lt;p&gt;The landing page (URL) that gives access to the resource.&lt;/p&gt;&lt;p&gt;Must be a URL.&lt;/p&gt;&lt;p&gt;https://ea.dhs.gov/mobius&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;The Netflix login page your required to complete in order to gain access to their content.&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The landing page (URL) that gives access to the resource.
+Must be a URL.
+https://ea.dhs.gov/mobius
+Example:
+The Netflix login page your required to complete in order to gain access to their content.
 &lt;dcat:accessURL&gt;</t>
       </text>
     </comment>
     <comment ref="AY1" authorId="0" shapeId="0">
       <text>
         <t>accessURLNIEM:
-&lt;p&gt;The landing page (URL) that provides you access to the NIEM interface.&lt;/p&gt;&lt;p&gt;Must be a URL.&lt;/p&gt;
+The landing page (URL) that provides you access to the NIEM interface.
+Must be a URL.
 &lt;dhs:accessURLNIEM&gt;</t>
       </text>
     </comment>
     <comment ref="AZ1" authorId="0" shapeId="0">
       <text>
         <t>modified:
-&lt;p&gt;The most recent date on  which the information contained in the resource was changed, updated, or modified.&lt;p&gt;
+The most recent date on  which the information contained in the resource was changed, updated, or modified.
 &lt;usg:modified&gt;</t>
       </text>
     </comment>
     <comment ref="BA1" authorId="0" shapeId="0">
       <text>
         <t>vendor:
-The vendor, supplier, or set of suppliers who supplied the information contained in the resource.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;ECS&lt;/li&gt;&lt;li&gt;ECS, GeoMgmt Inc.&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The vendor, supplier, or set of suppliers who supplied the information contained in the resource.
+Example:
+ECS
+ECS, GeoMgmt Inc.
 &lt;dhs:vendor&gt;</t>
       </text>
     </comment>
     <comment ref="BB1" authorId="0" shapeId="0">
       <text>
         <t>license:
-&lt;p&gt;The legal structure that gives official permission to utilize or  distribute information contained in the resource.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;MIT&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The legal structure that gives official permission to utilize or  distribute information contained in the resource.
+Example:
+MIT
 &lt;dcterms:license&gt;</t>
       </text>
     </comment>
     <comment ref="BC1" authorId="0" shapeId="0">
       <text>
         <t>accessRights:
-&lt;p&gt;Provides information regarding access or restrictions to data based on privacy, security, or other policies&lt;/p&gt;&lt;p&gt;Example:&lt;/p&gt;&lt;p&gt;User must have PIV card and be granted permission by System Owner&lt;/p&gt;
+Provides information regarding access or restrictions to data based on privacy, security, or other policies
+Example:
+User must have PIV card and be granted permission by System Owner
 &lt;dcterms:accessRights&gt;</t>
       </text>
     </comment>
     <comment ref="BD1" authorId="0" shapeId="0">
       <text>
         <t>theme:
-&lt;p&gt;The main category of the information contained in the resource. A resource can have multiple themes.&lt;/p&gt;&lt;p&gt;Theme is similar to a Keyword but at a much higher level.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;Policy&lt;/li&gt;&lt;li&gt;Data Mgmt.&lt;/li&gt;&lt;li&gt;Data Inventory&lt;/li&gt;&lt;li&gt;Data Governance&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The main category of the information contained in the resource. A resource can have multiple themes.
+Theme is similar to a Keyword but at a much higher level.
+Example:
+Policy
+Data Mgmt.
+Data Inventory
+Data Governance
 &lt;dcat:theme&gt;</t>
       </text>
     </comment>
     <comment ref="BE1" authorId="0" shapeId="0">
       <text>
         <t>functionalDataDomain:
-&lt;p&gt;The functional subject area of the resource.&lt;/p&gt;&lt;p&gt;List:&lt;ul class='no-bullets'&gt;&lt;li&gt;Biometrics&lt;/li&gt;&lt;li&gt;CBRN&lt;/li&gt;&lt;li&gt;Cybersecurity&lt;/li&gt;&lt;li&gt;Emergency Mgmt. Geospatial&lt;/li&gt;&lt;li&gt;Immigration&lt;/li&gt;&lt;li&gt;Infra. Protection&lt;/li&gt;&lt;li&gt;Intelligence&lt;/li&gt;&lt;li&gt;International Trade&lt;/li&gt;&lt;li&gt;Law Enforcement&lt;/li&gt;&lt;li&gt;Maritime&lt;/li&gt;&lt;li&gt;Mission Support &amp; Mgmt.&lt;/li&gt;&lt;li&gt;Screening&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The functional subject area of the resource.
+List:
+Biometrics
+CBRN
+Cybersecurity
+Emergency Mgmt. Geospatial
+Immigration
+Infra. Protection
+Intelligence
+International Trade
+Law Enforcement
+Maritime
+Mission Support &amp; Mgmt.
+Screening
 &lt;dhs:functionalDataDomain&gt;</t>
       </text>
     </comment>
     <comment ref="BF1" authorId="0" shapeId="0">
       <text>
         <t>mediaType:
-&lt;p&gt;The media type of the distribution as defined by IANA.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;application/node&lt;/li&gt;&lt;li&gt;audio/mp4&lt;/li&gt;&lt;li&gt;font/otf&lt;/li&gt;&lt;li&gt;image/png&lt;/li&gt;&lt;li&gt;message/http&lt;/li&gt;&lt;li&gt;model/obj&lt;/li&gt;&lt;li&gt;text/csv&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The media type of the distribution as defined by IANA.
+Example:
+application/node
+audio/mp4
+font/otf
+image/png
+message/http
+model/obj
+text/csv
 &lt;dcat:mediaType&gt;</t>
       </text>
     </comment>
     <comment ref="BG1" authorId="0" shapeId="0">
       <text>
         <t>isStream:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;Data Set or Data Source is streaming. The data is constantly updated.&lt;/p&gt;
+True or False
+Data Set or Data Source is streaming. The data is constantly updated.
 &lt;dhs:isStream&gt;</t>
       </text>
     </comment>
     <comment ref="BH1" authorId="0" shapeId="0">
       <text>
         <t>accessInstructions:
-&lt;p&gt;The steps or actions an individual must take to gain access to the dataset. Can work in conjunction with accessRights (max length 5,000 characters).&lt;/p&gt;&lt;p&gt;Example: 'Visit the (accessURL) link and then click on 'Your ArcGIS organization's URL and enter &lt;MGMT&gt; and click Continue'&lt;/p&gt;
+The steps or actions an individual must take to gain access to the dataset. Can work in conjunction with accessRights (max length 5,000 characters).
+Example: 'Visit the (accessURL) link and then click on 'Your ArcGIS organization's URL and enter &lt;MGMT&gt; and click Continue'
 &lt;dhs:accessInstructions&gt;</t>
       </text>
     </comment>
     <comment ref="BI1" authorId="0" shapeId="0">
       <text>
         <t>tableCount:
-&lt;p&gt;The number of 2-dimensional tables in the data.&lt;/p&gt;
+The number of 2-dimensional tables in the data.
 &lt;dhs:tableCount&gt;</t>
       </text>
     </comment>
     <comment ref="BJ1" authorId="0" shapeId="0">
       <text>
         <t>recordCount:
-&lt;p&gt;The total number of records in the data.&lt;/p&gt;
+The total number of records in the data.
 &lt;dhs:recordCount&gt;</t>
       </text>
     </comment>
     <comment ref="BK1" authorId="0" shapeId="0">
       <text>
         <t>byteSize:
-&lt;p&gt;The size of the distribution in bytes.&lt;/p&gt;&lt;p&gt;The size in bytes can be approximated (as a integer) when the precise size is not known.&lt;/p&gt;
+The size of the distribution in bytes.
+The size in bytes can be approximated (as a integer) when the precise size is not known.
 &lt;dcat:byteSize&gt;</t>
       </text>
     </comment>
     <comment ref="BL1" authorId="0" shapeId="0">
       <text>
         <t>datasetClassification:
-&lt;p&gt;The security classification of the data.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;CUI&lt;/li&gt;&lt;li&gt;Confidential&lt;/li&gt;&lt;li&gt;Secret&lt;/li&gt;&lt;li&gt;Top Secret&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The security classification of the data.
+Example:
+CUI
+Confidential
+Secret
+Top Secret
 &lt;dhs:datasetClassification&gt;</t>
       </text>
     </comment>
     <comment ref="BM1" authorId="0" shapeId="0">
       <text>
         <t>ch-person-level:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains enough personal records or enough personal information in order to identify an individual.&lt;/p&gt;
+True or False
+The information in the resource contains enough personal records or enough personal information in order to identify an individual.
 &lt;dhs:ch-person-level&gt;</t>
       </text>
     </comment>
     <comment ref="BN1" authorId="0" shapeId="0">
       <text>
         <t>ch-financial:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains financial information.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;Bank Statements&lt;/li&gt;&lt;li&gt;Credit Reports&lt;/li&gt;&lt;li&gt;W2&lt;/li&gt;&lt;li&gt;Net Worth&lt;/li&gt;&lt;li&gt;Bank Secrecy&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+True or False
+The information in the resource contains financial information.
+Example:
+Bank Statements
+Credit Reports
+W2
+Net Worth
+Bank Secrecy
 &lt;dhs:ch-financial&gt;</t>
       </text>
     </comment>
     <comment ref="BO1" authorId="0" shapeId="0">
       <text>
         <t>ch-event-records:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains information about events which are tagged with a specific place and time.&lt;/p&gt;
+True or False
+The information in the resource contains information about events which are tagged with a specific place and time.
 &lt;dhs:ch-event-records&gt;</t>
       </text>
     </comment>
     <comment ref="BP1" authorId="0" shapeId="0">
       <text>
         <t>ch-faces:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains facial recognition data or images of human faces.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;https://catalog.data.gov/dataset/global-entry-master-dataset&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+True or False
+The information in the resource contains facial recognition data or images of human faces.
+Example:
+https://catalog.data.gov/dataset/global-entry-master-dataset
 &lt;dhs:ch-faces&gt;</t>
       </text>
     </comment>
     <comment ref="BQ1" authorId="0" shapeId="0">
       <text>
         <t>ch-fingerprints:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains fingerprint data or images of fingerprints.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;https://catalog.data.gov/dataset/global-entry-master-dataset&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+True or False
+The information in the resource contains fingerprint data or images of fingerprints.
+Example:
+https://catalog.data.gov/dataset/global-entry-master-dataset
 &lt;dhs:ch-fingerprints&gt;</t>
       </text>
     </comment>
     <comment ref="BR1" authorId="0" shapeId="0">
       <text>
         <t>ch-cui:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains Controlled Unclassified Information (CUI).&lt;/p&gt;
+True or False
+The information in the resource contains Controlled Unclassified Information (CUI).
 &lt;dhs:ch-cui&gt;</t>
       </text>
     </comment>
     <comment ref="BS1" authorId="0" shapeId="0">
       <text>
         <t>ch-phi:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains Protected Health Information (PHI).&lt;/p&gt;&lt;p&gt;Examples:&lt;ul class='no-bullets'&gt;&lt;li&gt;Medical Records&lt;/li&gt;&lt;li&gt;Diagnoses&lt;/li&gt;&lt;li&gt;Medicul Results&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+True or False
+The information in the resource contains Protected Health Information (PHI).
+Examples:
+Medical Records
+Diagnoses
+Medicul Results
 &lt;dhs:ch-phi&gt;</t>
       </text>
     </comment>
     <comment ref="BT1" authorId="0" shapeId="0">
       <text>
         <t>ch-pii:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains Personally Identifiable Information (PII).&lt;/p&gt;&lt;p&gt;Reference: &lt;a href='https://www.dhs.gov/sites/default/files/publications/dhs%20policy%20directive%20047-01-007%20handbook%20for%20safeguarding%20sensitive%20PII%2012-4-2017.pdf'&gt;https://www.dhs.gov/sites/default/files/publications/dhs%20policy%20directive%20047-01-007%20handbook%20for%20safeguarding%20sensitive%20PII%2012-4-2017.pdf&lt;/a&gt;&lt;/p&gt;
+True or False
+The information in the resource contains Personally Identifiable Information (PII).
+Reference: &lt;a href='https://www.dhs.gov/sites/default/files/publications/dhs%20policy%20directive%20047-01-007%20handbook%20for%20safeguarding%20sensitive%20PII%2012-4-2017.pdf'&gt;https://www.dhs.gov/sites/default/files/publications/dhs%20policy%20directive%20047-01-007%20handbook%20for%20safeguarding%20sensitive%20PII%2012-4-2017.pdf&lt;/a&gt;
 &lt;dhs:ch-pii&gt;</t>
       </text>
     </comment>
     <comment ref="BU1" authorId="0" shapeId="0">
       <text>
         <t>ch-geospatial:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains geospatial information.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;https://catalog.data.gov/dataset/fema-historical-disaster-declarations-shp&lt;/li&gt;&lt;li&gt;https://catalog.data.gov/dataset/formerly-used-defense-sites-fuds-public-properties&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+True or False
+The information in the resource contains geospatial information.
+Example:
+https://catalog.data.gov/dataset/fema-historical-disaster-declarations-shp
+https://catalog.data.gov/dataset/formerly-used-defense-sites-fuds-public-properties
 &lt;dhs:ch-geospatial&gt;</t>
       </text>
     </comment>
     <comment ref="BV1" authorId="0" shapeId="0">
       <text>
         <t>ch-environmental:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains environmental information.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;https://catalog.data.gov/dataset/environmental-planning-historic-preservation-2dedc&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+True or False
+The information in the resource contains environmental information.
+Example:
+https://catalog.data.gov/dataset/environmental-planning-historic-preservation-2dedc
 &lt;dhs:ch-environmental&gt;</t>
       </text>
     </comment>
     <comment ref="BW1" authorId="0" shapeId="0">
       <text>
         <t>ch-fisa:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains information pertaining to the Foreign Intelligence Surveillance Act (FISA).&lt;/p&gt;
+True or False
+The information in the resource contains information pertaining to the Foreign Intelligence Surveillance Act (FISA).
 &lt;dhs:ch-fisa&gt;</t>
       </text>
     </comment>
     <comment ref="BX1" authorId="0" shapeId="0">
       <text>
         <t>ch-8usc1367:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains  8 USC 1367.&lt;/p&gt;&lt;p&gt;Reference: https://www.dhs.gov/sites/default/files/publications/dhs_foia_instruction_section_1367_information.pdf&lt;/p&gt;
+True or False
+The information in the resource contains  8 USC 1367.
+Reference: https://www.dhs.gov/sites/default/files/publications/dhs_foia_instruction_section_1367_information.pdf
 &lt;dhs:ch-8usc1367&gt;</t>
       </text>
     </comment>
     <comment ref="BY1" authorId="0" shapeId="0">
       <text>
         <t>ch-propin:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains propriety commercial information.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;https://catalog.data.gov/dataset/automated-commercial-environment-international-trade-data-system-master-dataset&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+True or False
+The information in the resource contains propriety commercial information.
+Example:
+https://catalog.data.gov/dataset/automated-commercial-environment-international-trade-data-system-master-dataset
 &lt;dhs:ch-propin&gt;</t>
       </text>
     </comment>
     <comment ref="BZ1" authorId="0" shapeId="0">
       <text>
         <t>ch-immigration:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains information pertaining to immigration.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;Asylee&lt;/li&gt;&lt;li&gt;Resident Status&lt;/li&gt;&lt;li&gt;Visas&lt;/li&gt;&lt;li&gt;Victims of Human Trafficking&lt;/li&gt;&lt;li&gt; https://catalog.data.gov/dataset/immigration-statistics-ef958&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+True or False
+The information in the resource contains information pertaining to immigration.
+Example:
+Asylee
+Resident Status
+Visas
+Victims of Human Trafficking
+ https://catalog.data.gov/dataset/immigration-statistics-ef958
 &lt;dhs:ch-immigration&gt;</t>
       </text>
     </comment>
     <comment ref="CA1" authorId="0" shapeId="0">
       <text>
         <t>ch-criticalInfrastructure:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains critical infrastructure information.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;https://catalog.data.gov/dataset/emergency-medical-service-ems-stations&lt;/li&gt;&lt;li&gt;https://catalog.data.gov/dataset/ilss-data&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+True or False
+The information in the resource contains critical infrastructure information.
+Example:
+https://catalog.data.gov/dataset/emergency-medical-service-ems-stations
+https://catalog.data.gov/dataset/ilss-data
 &lt;dhs:ch-criticalInfrastructure&gt;</t>
       </text>
     </comment>
     <comment ref="CB1" authorId="0" shapeId="0">
       <text>
         <t>ch-pcii:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains protected critical infrastructure information.&lt;/p&gt;
+True or False
+The information in the resource contains protected critical infrastructure information.
 &lt;dhs:ch-pcii&gt;</t>
       </text>
     </comment>
     <comment ref="CC1" authorId="0" shapeId="0">
       <text>
         <t>ch-biometrics:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains biometric information.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;https://catalog.data.gov/dataset/global-entry-master-dataset&lt;/li&gt;&lt;li&gt;https://catalog.data.gov/dataset/arrival-departure-information-system-b3b75&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+True or False
+The information in the resource contains biometric information.
+Example:
+https://catalog.data.gov/dataset/global-entry-master-dataset
+https://catalog.data.gov/dataset/arrival-departure-information-system-b3b75
 &lt;dhs:ch-biometrics&gt;</t>
       </text>
     </comment>
     <comment ref="CD1" authorId="0" shapeId="0">
       <text>
         <t>ch-disseminationRestrictions:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information  has dissemination restrictions.&lt;/p&gt;
+True or False
+The information  has dissemination restrictions.
 &lt;dhs:ch-disseminationRestrictions&gt;</t>
       </text>
     </comment>
     <comment ref="CE1" authorId="0" shapeId="0">
       <text>
         <t>ch-les:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information in the resource contains information that is deemed Law Enforcement Sensative.&lt;/p&gt;
+True or False
+The information in the resource contains information that is deemed Law Enforcement Sensative.
 &lt;dhs:ch-les&gt;</t>
       </text>
     </comment>
     <comment ref="CF1" authorId="0" shapeId="0">
       <text>
         <t>ch-synthetic:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The data is created manually or artificially apart from the data generated by real-world events. This may include data that is generated for the purposes of modeling and may be generated by a computer simulation. The data approximates real data, but does not necessarily reflect the real world. This includes synthetically derived data (e.g. data that is created programmatically from a set of source data, typically with some algorithm applied)&lt;/p&gt;
+True or False
+The data is created manually or artificially apart from the data generated by real-world events. This may include data that is generated for the purposes of modeling and may be generated by a computer simulation. The data approximates real data, but does not necessarily reflect the real world. This includes synthetically derived data (e.g. data that is created programmatically from a set of source data, typically with some algorithm applied)
 &lt;dhs:ch-synthetic&gt;</t>
       </text>
     </comment>
     <comment ref="CG1" authorId="0" shapeId="0">
       <text>
         <t>ch-anonymized:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The identifying information in the resource has been removed or changed so that the individual cannot be identified.&lt;/p&gt;
+True or False
+The identifying information in the resource has been removed or changed so that the individual cannot be identified.
 &lt;dhs:ch-anonymized&gt;</t>
       </text>
     </comment>
     <comment ref="CH1" authorId="0" shapeId="0">
       <text>
         <t>hostingLocation:
-&lt;p&gt;Where the data is located?&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;CIRRUS&lt;/li&gt;&lt;li&gt;AWS GovCloud&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+Where the data is located?
+Example:
+CIRRUS
+AWS GovCloud
 &lt;dhs:hostingLocation&gt;</t>
       </text>
     </comment>
     <comment ref="CI1" authorId="0" shapeId="0">
       <text>
         <t>hostedInCloud:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;Is the dataset stored in the cloud?&lt;/p&gt;
+True or False
+Is the dataset stored in the cloud?
 &lt;dhs:hostedInCloud&gt;</t>
       </text>
     </comment>
     <comment ref="CJ1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByCreatingComponent:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information can be easily accessed by individuals within the DHS component that created it?&lt;/p&gt;
+True or False
+The information can be easily accessed by individuals within the DHS component that created it?
 &lt;dhs:easilyAccessibleByCreatingComponent&gt;</t>
       </text>
     </comment>
     <comment ref="CK1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByAllComponents:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information can be easily accessed by individuals within all of DHS?&lt;/p&gt;
+True or False
+The information can be easily accessed by individuals within all of DHS?
 &lt;dhs:easilyAccessibleByAllComponents&gt;</t>
       </text>
     </comment>
     <comment ref="CL1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByGeneralPublic:
-&lt;p&gt;True or False&lt;/p&gt;&lt;p&gt;The information can be easily accessed by the general public?&lt;/p&gt;
+True or False
+The information can be easily accessed by the general public?
 &lt;dhs:easilyAccessibleByGeneralPublic&gt;</t>
       </text>
     </comment>
     <comment ref="CM1" authorId="0" shapeId="0">
       <text>
         <t>encryptionAlgorithm:
-&lt;p&gt;The specific encryption algorithm used to protect data at rest.&lt;/p&gt;&lt;p&gt;Can have multiple comma separated values.&lt;/p&gt;&lt;p&gt;Example:&lt;li&gt;3DES&lt;/li&gt;&lt;li&gt;AES&lt;/li&gt;&lt;li&gt;RSA&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The specific encryption algorithm used to protect data at rest.
+Can have multiple comma separated values.
+Example:
+3DES
+AES
+RSA
 &lt;usg:encryptionAlgorithm&gt;</t>
       </text>
     </comment>
     <comment ref="CN1" authorId="0" shapeId="0">
       <text>
         <t>recordTransmission:
-&lt;p&gt;The date of when the information was submitted into the system.&lt;/p&gt;
+The date of when the information was submitted into the system.
 &lt;dhs:recordTransmission&gt;</t>
       </text>
     </comment>
     <comment ref="CO1" authorId="0" shapeId="0">
       <text>
         <t>validityTime:
-&lt;p&gt;The period of time the metadata record is valid for.&lt;/p&gt;&lt;p&gt;Must be in xsd duration form.&lt;/p&gt;&lt;p&gt;Example:&lt;ul class='no-bullets'&gt;&lt;li&gt;P1Y=Period 1 Year&lt;/li&gt;&lt;li&gt;P2M=Period 2 Months&lt;/li&gt;&lt;li&gt;P3W=Period 3 Weeks&lt;/li&gt;&lt;li&gt;P4D=Period 4 Days&lt;/li&gt;&lt;li&gt;P1Y2M=Period 1 Year &amp; 2 Months&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;
+The period of time the metadata record is valid for.
+Must be in xsd duration form.
+Example:
+P1Y=Period 1 Year
+P2M=Period 2 Months
+P3W=Period 3 Weeks
+P4D=Period 4 Days
+P1Y2M=Period 1 Year &amp; 2 Months
 &lt;dhs:validityTime&gt;</t>
       </text>
     </comment>
